--- a/src/assets/directorioCriadores.xlsx
+++ b/src/assets/directorioCriadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desarrollador.sena\Desktop\criadoresDirectorio\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402B408A-F786-4715-BE01-81ED341C4160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725096B4-694D-4AC8-8E71-F2D58CC92355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31020" yWindow="4605" windowWidth="21600" windowHeight="11505" xr2:uid="{3B29B677-D6F4-4426-A511-B8471B1BDDDE}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15990" xr2:uid="{3B29B677-D6F4-4426-A511-B8471B1BDDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="directorioCriadores" sheetId="2" r:id="rId1"/>
@@ -12645,8 +12645,8 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5252D83D-BD3C-4626-8BC2-F4B0611462FA}" name="CriadoresDirectorio" displayName="CriadoresDirectorio" ref="A1:AE117" tableType="queryTable" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD117">
-    <sortCondition ref="E5:E117"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE117">
+    <sortCondition ref="B3:B117"/>
   </sortState>
   <tableColumns count="31">
     <tableColumn id="15" xr3:uid="{F96F9974-CDB4-44A4-B80E-AE2A858BD1AE}" uniqueName="15" name="codigoAsociado" queryTableFieldId="15" dataDxfId="32"/>
@@ -12987,7 +12987,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13115,133 +13115,84 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>104</v>
+    <row r="2" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1964</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3877</v>
+        <v>421</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3861</v>
+        <v>604</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>423</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>3862</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>3863</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>3864</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>3865</v>
+        <v>3491</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>423</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>12</v>
+        <v>424</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>3866</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>3867</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>3868</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>3869</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>3870</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>3871</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>3872</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>3873</v>
+        <v>15</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>3880</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>3880</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>3878</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>3874</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>3885</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>3875</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>3883</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>3882</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
     </row>
     <row r="3" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>304</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>650</v>
+        <v>3191</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>423</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>678</v>
+        <v>3492</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>423</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>12</v>
+        <v>424</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>305</v>
+        <v>19</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AC3" s="2" t="s">
@@ -13251,44 +13202,47 @@
       <c r="AE3" s="2"/>
     </row>
     <row r="4" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1964</v>
+      <c r="A4" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>421</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>422</v>
+        <v>13</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>3491</v>
+        <v>3493</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>423</v>
+        <v>23</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>424</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>13</v>
+        <v>3860</v>
       </c>
       <c r="AC4" s="2" t="s">
         <v>13</v>
@@ -13297,89 +13251,86 @@
       <c r="AE4" s="2"/>
     </row>
     <row r="5" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
+      <c r="A5" s="2">
+        <v>2939</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>701</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3191</v>
+        <v>796</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>708</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>767</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>3492</v>
+        <v>3602</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>423</v>
+        <v>706</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>424</v>
+        <v>767</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>19</v>
+        <v>722</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>733</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>20</v>
+        <v>734</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>13</v>
+        <v>3855</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
     </row>
     <row r="6" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>13</v>
+        <v>664</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>23</v>
+        <v>423</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>424</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>24</v>
+        <v>428</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>13</v>
+        <v>3888</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>3889</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>3860</v>
-      </c>
-      <c r="AC6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD6" s="2"/>
@@ -13387,25 +13338,25 @@
     </row>
     <row r="7" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>425</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>664</v>
+        <v>435</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>3494</v>
+        <v>33</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>423</v>
@@ -13414,65 +13365,65 @@
         <v>424</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>3888</v>
+        <v>34</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2326915</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>3889</v>
+        <v>35</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>13</v>
+        <v>429</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
     </row>
     <row r="8" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>735</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>700</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>607</v>
+        <v>786</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>425</v>
+        <v>708</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>767</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>435</v>
+        <v>13</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>33</v>
+        <v>3531</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>423</v>
+        <v>706</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>424</v>
+        <v>767</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>2326915</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>35</v>
+        <v>709</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>430</v>
+        <v>723</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>3854</v>
       </c>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -13521,124 +13472,130 @@
       <c r="AE9" s="2"/>
     </row>
     <row r="10" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
+      <c r="A10" s="2">
+        <v>1920</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>564</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>3192</v>
+        <v>662</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>568</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>568</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>43</v>
+        <v>474</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>676</v>
+        <v>595</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>170</v>
+        <v>568</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>12</v>
+        <v>568</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>44</v>
+        <v>574</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>46</v>
+        <v>583</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>13</v>
+        <v>586</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
     <row r="11" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>738</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>768</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>609</v>
+        <v>787</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>432</v>
+        <v>769</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>767</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>50</v>
+        <v>702</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>13</v>
+        <v>3532</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>13</v>
+        <v>767</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>51</v>
+        <v>711</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>13</v>
+        <v>737</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
     </row>
     <row r="12" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>437</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>610</v>
+        <v>3192</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>433</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="L12" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="M12" s="2" t="s">
-        <v>54</v>
+        <v>676</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>436</v>
+        <v>12</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AC12" s="2" t="s">
         <v>13</v>
@@ -13648,42 +13605,39 @@
     </row>
     <row r="13" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>438</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>432</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>445</v>
+        <v>50</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>439</v>
+        <v>13</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="X13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD13" s="2"/>
@@ -13691,43 +13645,37 @@
     </row>
     <row r="14" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>437</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>433</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="M14" s="2" t="s">
-        <v>677</v>
+        <v>54</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>423</v>
+        <v>55</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>12</v>
+        <v>436</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="AC14" s="2" t="s">
         <v>13</v>
@@ -13737,42 +13685,42 @@
     </row>
     <row r="15" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>438</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>440</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>3496</v>
+        <v>61</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD15" s="2"/>
@@ -13780,25 +13728,25 @@
     </row>
     <row r="16" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>3193</v>
+        <v>612</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>442</v>
+        <v>68</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>3497</v>
+        <v>677</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>423</v>
@@ -13807,13 +13755,13 @@
         <v>12</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>13</v>
@@ -13826,36 +13774,42 @@
     </row>
     <row r="17" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>443</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>3194</v>
+        <v>613</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>440</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="L17" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="M17" s="2" t="s">
-        <v>806</v>
+        <v>3496</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>83</v>
+        <v>423</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="X17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD17" s="2"/>
@@ -13863,43 +13817,43 @@
     </row>
     <row r="18" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>614</v>
+        <v>3193</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>444</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>805</v>
+        <v>3497</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>60</v>
+        <v>423</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>91</v>
+        <v>13</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AC18" s="2" t="s">
         <v>13</v>
@@ -13909,271 +13863,253 @@
     </row>
     <row r="19" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>443</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>615</v>
+        <v>3194</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="M19" s="2" t="s">
-        <v>3482</v>
+        <v>806</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>447</v>
+        <v>83</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
     </row>
     <row r="20" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>102</v>
+      <c r="A20" s="2">
+        <v>2895</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>449</v>
+        <v>699</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>616</v>
+        <v>3366</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>770</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>666</v>
+        <v>767</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>3498</v>
+        <v>798</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>1065</v>
+        <v>769</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>99</v>
+        <v>767</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>100</v>
+        <v>739</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>740</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>13</v>
+        <v>741</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
     </row>
     <row r="21" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>104</v>
+        <v>742</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>698</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>3195</v>
+        <v>788</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>451</v>
+        <v>771</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>12</v>
+        <v>767</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>13</v>
+        <v>3533</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>13</v>
+        <v>706</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>13</v>
+        <v>767</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>13</v>
+        <v>712</v>
       </c>
       <c r="Q21" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="T21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>13</v>
+        <v>725</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
     </row>
     <row r="22" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>3196</v>
+        <v>614</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>106</v>
+        <v>444</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>107</v>
+        <v>446</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>3499</v>
+        <v>805</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>423</v>
+        <v>60</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="X22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
     </row>
     <row r="23" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>114</v>
+      <c r="A23" s="2">
+        <v>1767</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>452</v>
+        <v>596</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>3197</v>
+        <v>3220</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>454</v>
+        <v>568</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>12</v>
+        <v>568</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>43</v>
+        <v>572</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>3500</v>
+        <v>3528</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>170</v>
+        <v>597</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>12</v>
+        <v>568</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>112</v>
+        <v>575</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>3859</v>
+        <v>587</v>
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
     </row>
     <row r="24" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>119</v>
+      <c r="A24" s="2">
+        <v>2840</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>115</v>
+        <v>3901</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>617</v>
+        <v>3221</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>13</v>
+        <v>569</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>12</v>
+        <v>568</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>666</v>
+        <v>573</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>686</v>
+        <v>3529</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>423</v>
+        <v>569</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>12</v>
+        <v>568</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>117</v>
+        <v>576</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>13</v>
+        <v>588</v>
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
     </row>
     <row r="25" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>94</v>
@@ -14181,355 +14117,379 @@
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="L25" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="M25" s="2" t="s">
-        <v>3501</v>
+        <v>3482</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>12</v>
+        <v>448</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>124</v>
+    <row r="26" spans="1:31" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2678</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>619</v>
+        <v>697</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>3377</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>509</v>
+        <v>772</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>475</v>
+        <v>767</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>434</v>
+        <v>707</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>2986</v>
+        <v>797</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>423</v>
+        <v>773</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P26" s="2">
-        <v>3158400</v>
+        <v>433</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>743</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>462</v>
+        <v>13</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>463</v>
+        <v>13</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>465</v>
+        <v>13</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="AC26" s="13" t="s">
-        <v>123</v>
+        <v>744</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
     </row>
     <row r="27" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>667</v>
+        <v>83</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>13</v>
+        <v>666</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>3625</v>
+        <v>3498</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="X27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="W27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>469</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>622</v>
+        <v>3195</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>11</v>
+        <v>451</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>668</v>
-      </c>
       <c r="M28" s="2" t="s">
-        <v>3502</v>
+        <v>13</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC28" s="13" t="s">
-        <v>3836</v>
+        <v>13</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
     </row>
     <row r="29" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>134</v>
+      <c r="A29" s="2">
+        <v>1791</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>470</v>
+        <v>774</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>3198</v>
+        <v>789</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>471</v>
+        <v>775</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>12</v>
+        <v>767</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>3503</v>
+        <v>3534</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>423</v>
+        <v>706</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>12</v>
+        <v>767</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>132</v>
+        <v>714</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>746</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>13</v>
+        <v>747</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
     <row r="30" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>455</v>
+        <v>105</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>623</v>
+        <v>3196</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>13</v>
+        <v>3499</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>13</v>
+        <v>423</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>135</v>
+        <v>108</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>136</v>
+        <v>110</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
     </row>
     <row r="31" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>610</v>
+        <v>3197</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>474</v>
+        <v>43</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>54</v>
+        <v>3500</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>436</v>
+        <v>12</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>13</v>
+        <v>3859</v>
       </c>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
     </row>
     <row r="32" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>144</v>
+        <v>748</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>478</v>
+        <v>3902</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>3375</v>
+        <v>790</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>479</v>
+        <v>708</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>12</v>
+        <v>767</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>43</v>
+        <v>776</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>3597</v>
+        <v>3535</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>1065</v>
+        <v>706</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>99</v>
+        <v>767</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>142</v>
+        <v>715</v>
       </c>
       <c r="Q32" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="T32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>13</v>
+        <v>727</v>
       </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
     </row>
-    <row r="33" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>457</v>
+        <v>3877</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>625</v>
+        <v>3861</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>145</v>
+        <v>423</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F33" s="2" t="s">
+        <v>3862</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>3863</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>3864</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L33" s="2" t="s">
-        <v>670</v>
+        <v>435</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>3595</v>
+        <v>3865</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>423</v>
@@ -14538,41 +14498,75 @@
         <v>12</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>480</v>
+        <v>3866</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
+        <v>3867</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>3868</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>3869</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>3870</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>3871</v>
+      </c>
+      <c r="V33" s="13" t="s">
+        <v>3872</v>
+      </c>
+      <c r="W33" s="13" t="s">
+        <v>3873</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>3880</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>3880</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>3878</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>3874</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>3885</v>
+      </c>
+      <c r="AC33" s="13" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>3883</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>3882</v>
+      </c>
     </row>
     <row r="34" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>458</v>
+        <v>115</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>474</v>
+        <v>666</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>148</v>
+        <v>686</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>423</v>
@@ -14581,154 +14575,151 @@
         <v>12</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC34" s="2" t="s">
-        <v>154</v>
+        <v>118</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
     </row>
     <row r="35" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>459</v>
+        <v>120</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="M35" s="2" t="s">
-        <v>13</v>
+        <v>3501</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="W35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AC35" s="2" t="s">
+      <c r="X35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
     </row>
-    <row r="36" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>425</v>
+        <v>509</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>3504</v>
+        <v>2986</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>159</v>
+        <v>423</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>485</v>
+        <v>12</v>
+      </c>
+      <c r="P36" s="2">
+        <v>3158400</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>486</v>
+        <v>461</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>13</v>
+        <v>467</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AC36" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
     </row>
     <row r="37" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>162</v>
+        <v>460</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>3199</v>
+        <v>621</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>163</v>
+        <v>667</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>487</v>
+        <v>13</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>3629</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>12</v>
+        <v>3625</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>164</v>
+        <v>125</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="X37" s="2" t="s">
         <v>13</v>
@@ -14736,150 +14727,138 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
     </row>
-    <row r="38" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>1906</v>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>167</v>
+        <v>469</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>489</v>
+        <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>474</v>
+        <v>668</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>83</v>
+        <v>423</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>492</v>
+        <v>129</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>13</v>
+        <v>130</v>
+      </c>
+      <c r="AC38" s="13" t="s">
+        <v>3836</v>
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
     </row>
     <row r="39" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>169</v>
+        <v>470</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>471</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>74</v>
+        <v>472</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>3483</v>
+        <v>3503</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>170</v>
+        <v>423</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="X39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
     </row>
     <row r="40" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>178</v>
+      <c r="A40" s="2">
+        <v>2621</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>175</v>
+        <v>598</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>631</v>
+        <v>3222</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>423</v>
+        <v>570</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>12</v>
+        <v>568</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>675</v>
+        <v>43</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>13</v>
+        <v>684</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>13</v>
+        <v>568</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>176</v>
+        <v>577</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>13</v>
+        <v>589</v>
       </c>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
     </row>
     <row r="41" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>179</v>
+        <v>455</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>94</v>
@@ -14888,110 +14867,101 @@
         <v>12</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>494</v>
+        <v>13</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>3506</v>
+        <v>13</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
     </row>
     <row r="42" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>186</v>
+      <c r="A42" s="2">
+        <v>2952</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>184</v>
+        <v>599</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>633</v>
+        <v>3223</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>495</v>
+        <v>570</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>12</v>
+        <v>568</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>474</v>
+        <v>13</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>423</v>
+        <v>570</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>12</v>
+        <v>568</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>13</v>
+        <v>590</v>
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
     </row>
     <row r="43" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>187</v>
+        <v>456</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>188</v>
+        <v>433</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>189</v>
+        <v>474</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="X43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD43" s="2"/>
@@ -14999,125 +14969,122 @@
     </row>
     <row r="44" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>198</v>
+        <v>750</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>496</v>
+        <v>777</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>3201</v>
+        <v>791</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>12</v>
+        <v>767</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>3507</v>
+        <v>804</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>12</v>
+        <v>767</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>195</v>
+        <v>728</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>197</v>
+        <v>749</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
     </row>
     <row r="45" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>201</v>
+      <c r="A45" s="2">
+        <v>1705</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>3202</v>
+        <v>567</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>498</v>
+        <v>570</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>12</v>
+        <v>568</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>3508</v>
+        <v>600</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>423</v>
+        <v>601</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>12</v>
+        <v>514</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>199</v>
+        <v>579</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>13</v>
+        <v>584</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC45" s="2" t="s">
-        <v>13</v>
+        <v>591</v>
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
     </row>
     <row r="46" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>3203</v>
+        <v>624</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="O46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L46" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>803</v>
-      </c>
       <c r="P46" s="2" t="s">
-        <v>204</v>
+        <v>476</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>477</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="X46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD46" s="2"/>
@@ -15125,85 +15092,88 @@
     </row>
     <row r="47" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>207</v>
+        <v>478</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>635</v>
+        <v>3375</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>60</v>
+        <v>479</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>500</v>
+        <v>43</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>208</v>
+        <v>3597</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>170</v>
+        <v>1065</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>211</v>
+        <v>143</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
     </row>
     <row r="48" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>214</v>
+        <v>457</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>3204</v>
+        <v>625</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="L48" s="2" t="s">
+        <v>670</v>
+      </c>
       <c r="M48" s="2" t="s">
-        <v>3509</v>
+        <v>3595</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>215</v>
+        <v>423</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>216</v>
+        <v>480</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>217</v>
+        <v>481</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X48" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD48" s="2"/>
@@ -15211,34 +15181,25 @@
     </row>
     <row r="49" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>220</v>
+        <v>458</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>510</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>512</v>
-      </c>
       <c r="L49" s="2" t="s">
         <v>474</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>423</v>
@@ -15247,59 +15208,62 @@
         <v>12</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>223</v>
+        <v>150</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>13</v>
+        <v>153</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
     </row>
     <row r="50" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>226</v>
+        <v>459</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>666</v>
+        <v>482</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>3630</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>227</v>
+        <v>13</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>230</v>
+        <v>157</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AC50" s="2" t="s">
         <v>13</v>
@@ -15309,13 +15273,13 @@
     </row>
     <row r="51" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>3358</v>
+        <v>628</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>425</v>
@@ -15323,28 +15287,37 @@
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F51" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>519</v>
+      </c>
       <c r="L51" s="2" t="s">
-        <v>232</v>
+        <v>474</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>3598</v>
+        <v>3504</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>423</v>
+        <v>159</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>12</v>
+        <v>484</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>233</v>
+        <v>485</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>234</v>
+        <v>486</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD51" s="2"/>
@@ -15352,83 +15325,92 @@
     </row>
     <row r="52" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>639</v>
+        <v>3199</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>425</v>
+        <v>163</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>674</v>
+        <v>3629</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>423</v>
+        <v>488</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>517</v>
+        <v>165</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
     </row>
     <row r="53" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>2947</v>
+        <v>1906</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>42</v>
+        <v>489</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="L53" s="2" t="s">
+        <v>474</v>
+      </c>
       <c r="M53" s="2" t="s">
-        <v>3510</v>
+        <v>3505</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>242</v>
+        <v>490</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>243</v>
+        <v>493</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>3858</v>
+        <v>13</v>
       </c>
       <c r="AC53" s="2" t="s">
         <v>13</v>
@@ -15438,37 +15420,40 @@
     </row>
     <row r="54" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>641</v>
+        <v>3200</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>520</v>
+        <v>42</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>3511</v>
+        <v>3483</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>423</v>
+        <v>170</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>245</v>
+        <v>171</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="X54" s="2" t="s">
         <v>13</v>
@@ -15478,65 +15463,62 @@
     </row>
     <row r="55" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>521</v>
+        <v>175</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>495</v>
+        <v>423</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>474</v>
+        <v>675</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>251</v>
+        <v>177</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
     </row>
     <row r="56" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>522</v>
+        <v>179</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>423</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>253</v>
+        <v>3506</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>423</v>
@@ -15545,29 +15527,32 @@
         <v>12</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>256</v>
+        <v>182</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
     </row>
     <row r="57" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>263</v>
+        <v>186</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>60</v>
+        <v>495</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
@@ -15576,7 +15561,7 @@
         <v>474</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>3512</v>
+        <v>673</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>423</v>
@@ -15584,51 +15569,51 @@
       <c r="O57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P57" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="Q57" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>261</v>
+        <v>13</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>262</v>
+        <v>185</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
     </row>
     <row r="58" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>266</v>
+        <v>192</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>523</v>
+        <v>187</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>3205</v>
+        <v>634</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="L58" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="M58" s="2" t="s">
-        <v>3513</v>
+        <v>13</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>264</v>
+        <v>190</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="W58" s="2" t="s">
         <v>13</v>
@@ -15641,25 +15626,25 @@
     </row>
     <row r="59" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>3206</v>
+        <v>3201</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>525</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>690</v>
+        <v>3507</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>423</v>
@@ -15668,58 +15653,58 @@
         <v>12</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>267</v>
+        <v>193</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="W59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC59" s="2" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
     </row>
     <row r="60" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>272</v>
+        <v>201</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>3207</v>
+        <v>3202</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L60" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="M60" s="2" t="s">
-        <v>13</v>
+        <v>3508</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>271</v>
+        <v>13</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="X60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AC60" s="2" t="s">
@@ -15730,39 +15715,36 @@
     </row>
     <row r="61" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>3359</v>
+        <v>3203</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>274</v>
+        <v>499</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>3575</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>12</v>
+        <v>803</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>275</v>
+        <v>204</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="X61" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD61" s="2"/>
@@ -15770,108 +15752,120 @@
     </row>
     <row r="62" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>3887</v>
+        <v>207</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>278</v>
+        <v>60</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>232</v>
+        <v>500</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>3514</v>
+        <v>208</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>278</v>
+        <v>170</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>281</v>
+        <v>211</v>
+      </c>
+      <c r="AC62" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
     </row>
     <row r="63" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>527</v>
+        <v>214</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>646</v>
+        <v>3204</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>425</v>
+        <v>215</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L63" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="M63" s="2" t="s">
-        <v>3515</v>
+        <v>3509</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>423</v>
+        <v>215</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="R63" s="2" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>286</v>
+        <v>218</v>
+      </c>
+      <c r="W63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X63" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
     </row>
     <row r="64" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>528</v>
+        <v>220</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F64" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="L64" s="2" t="s">
         <v>474</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>3516</v>
+        <v>221</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>423</v>
@@ -15880,56 +15874,59 @@
         <v>12</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="R64" s="2" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>291</v>
+        <v>224</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
     </row>
     <row r="65" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>529</v>
+        <v>226</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>530</v>
+        <v>666</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>3517</v>
+        <v>3630</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>13</v>
+        <v>423</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>13</v>
+        <v>228</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="W65" s="2" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="AC65" s="2" t="s">
         <v>13</v>
@@ -15939,25 +15936,25 @@
     </row>
     <row r="66" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>648</v>
+        <v>3358</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>495</v>
+        <v>425</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>3518</v>
+        <v>3598</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>423</v>
@@ -15966,12 +15963,15 @@
         <v>12</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>295</v>
+        <v>233</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="X66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD66" s="2"/>
@@ -15979,59 +15979,59 @@
     </row>
     <row r="67" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>303</v>
+        <v>753</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>298</v>
+        <v>696</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>649</v>
+        <v>3378</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>532</v>
+        <v>778</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>12</v>
+        <v>767</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>474</v>
+        <v>50</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>3519</v>
+        <v>801</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>423</v>
+        <v>706</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>12</v>
+        <v>767</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>299</v>
+        <v>729</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>301</v>
+        <v>751</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>302</v>
+        <v>752</v>
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
     </row>
     <row r="68" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>802</v>
+        <v>236</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>83</v>
+        <v>425</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>12</v>
@@ -16040,65 +16040,65 @@
         <v>474</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>307</v>
+        <v>674</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>83</v>
+        <v>423</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>311</v>
+        <v>516</v>
+      </c>
+      <c r="W68" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
     </row>
     <row r="69" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>316</v>
+      <c r="A69" s="2">
+        <v>2947</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>533</v>
+        <v>240</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>423</v>
+        <v>42</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L69" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="M69" s="2" t="s">
-        <v>3599</v>
+        <v>3510</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>468</v>
+        <v>23</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>315</v>
+        <v>243</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>3858</v>
       </c>
       <c r="AC69" s="2" t="s">
         <v>13</v>
@@ -16108,157 +16108,136 @@
     </row>
     <row r="70" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>320</v>
+        <v>247</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>317</v>
+        <v>244</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>3208</v>
+        <v>641</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="L70" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="M70" s="2" t="s">
-        <v>13</v>
+        <v>3511</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="W70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC70" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="X70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
     </row>
     <row r="71" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>1528</v>
+      <c r="A71" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>536</v>
+        <v>495</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="L71" s="2" t="s">
         <v>474</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>321</v>
+        <v>248</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
     </row>
     <row r="72" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>328</v>
+        <v>257</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>3209</v>
+        <v>643</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>215</v>
+        <v>423</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="L72" s="2" t="s">
+        <v>474</v>
+      </c>
       <c r="M72" s="2" t="s">
-        <v>3520</v>
+        <v>253</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>215</v>
+        <v>423</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>326</v>
+        <v>254</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="W72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X72" s="2" t="s">
-        <v>3857</v>
+        <v>256</v>
       </c>
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
     </row>
     <row r="73" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>540</v>
+        <v>258</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>329</v>
+        <v>644</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>541</v>
+        <v>60</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>12</v>
@@ -16267,7 +16246,7 @@
         <v>474</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>3521</v>
+        <v>3512</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>423</v>
@@ -16276,35 +16255,29 @@
         <v>12</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>330</v>
+        <v>259</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="AC73" s="2" t="s">
-        <v>334</v>
+        <v>262</v>
       </c>
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
     </row>
     <row r="74" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>338</v>
+        <v>266</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>3210</v>
+        <v>3205</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>83</v>
@@ -16313,7 +16286,7 @@
         <v>12</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>679</v>
+        <v>3513</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>83</v>
@@ -16322,41 +16295,41 @@
         <v>12</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>336</v>
+        <v>264</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="X74" s="2" t="s">
-        <v>3856</v>
+        <v>265</v>
+      </c>
+      <c r="W74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC74" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
     </row>
     <row r="75" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>656</v>
+        <v>3206</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>339</v>
+        <v>525</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>546</v>
+        <v>74</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>3522</v>
+        <v>690</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>423</v>
@@ -16365,16 +16338,13 @@
         <v>12</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>342</v>
+        <v>267</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>343</v>
+        <v>268</v>
+      </c>
+      <c r="W75" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AC75" s="2" t="s">
         <v>13</v>
@@ -16384,39 +16354,45 @@
     </row>
     <row r="76" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>3211</v>
+        <v>3207</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>345</v>
+        <v>479</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>548</v>
+        <v>50</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>346</v>
+        <v>270</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>347</v>
+        <v>271</v>
       </c>
       <c r="W76" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD76" s="2"/>
@@ -16424,42 +16400,39 @@
     </row>
     <row r="77" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>353</v>
+        <v>277</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>349</v>
+        <v>273</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>3212</v>
+        <v>3359</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>50</v>
+        <v>274</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>3523</v>
+        <v>3575</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>423</v>
+        <v>170</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q77" s="2" t="s">
-        <v>352</v>
+        <v>275</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="AC77" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="X77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD77" s="2"/>
@@ -16467,65 +16440,65 @@
     </row>
     <row r="78" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>359</v>
+        <v>282</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>355</v>
+        <v>3887</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>3376</v>
+        <v>645</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="L78" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="M78" s="2" t="s">
-        <v>3600</v>
+        <v>3514</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>423</v>
+        <v>278</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>356</v>
+        <v>279</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="R78" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="AC78" s="2" t="s">
-        <v>13</v>
+        <v>280</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
     </row>
     <row r="79" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>364</v>
+        <v>287</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>3213</v>
+        <v>646</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>74</v>
+        <v>474</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>691</v>
+        <v>3515</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>423</v>
@@ -16534,32 +16507,32 @@
         <v>12</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>361</v>
+        <v>283</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>362</v>
+        <v>284</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC79" s="2" t="s">
-        <v>13</v>
+        <v>286</v>
       </c>
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
     </row>
     <row r="80" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>368</v>
+        <v>186</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>551</v>
+        <v>495</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>12</v>
@@ -16568,107 +16541,110 @@
         <v>474</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>3524</v>
+        <v>3516</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>365</v>
+        <v>288</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>366</v>
+        <v>289</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="V80" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="W80" s="2" t="s">
-        <v>13</v>
+        <v>291</v>
       </c>
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
     </row>
-    <row r="81" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>373</v>
+        <v>755</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>3214</v>
+        <v>779</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>3379</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>552</v>
+        <v>708</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>12</v>
+        <v>767</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>553</v>
+        <v>780</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>3525</v>
+        <v>799</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>423</v>
+        <v>708</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>12</v>
+        <v>767</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>370</v>
+        <v>717</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>371</v>
+        <v>13</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>372</v>
+        <v>754</v>
       </c>
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
     </row>
     <row r="82" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>377</v>
+        <v>294</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>3585</v>
+        <v>647</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>555</v>
+        <v>13</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>50</v>
+        <v>530</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>3526</v>
+        <v>3517</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>374</v>
+        <v>292</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>375</v>
+        <v>13</v>
       </c>
       <c r="V82" s="2" t="s">
-        <v>376</v>
+        <v>293</v>
       </c>
       <c r="W82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD82" s="2"/>
@@ -16676,37 +16652,37 @@
     </row>
     <row r="83" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>381</v>
+        <v>297</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>378</v>
+        <v>531</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>3215</v>
+        <v>648</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>379</v>
+        <v>495</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>556</v>
+        <v>43</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>680</v>
+        <v>3518</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>170</v>
+        <v>423</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="V83" s="2" t="s">
-        <v>453</v>
+        <v>296</v>
       </c>
       <c r="X83" s="2" t="s">
         <v>13</v>
@@ -16715,66 +16691,72 @@
       <c r="AE83" s="2"/>
     </row>
     <row r="84" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>387</v>
+      <c r="A84" s="2">
+        <v>1513</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>557</v>
+        <v>781</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>658</v>
+        <v>792</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>382</v>
+        <v>708</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>12</v>
+        <v>767</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>558</v>
+        <v>703</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>3527</v>
+        <v>3536</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>559</v>
+        <v>706</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>12</v>
+        <v>767</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>383</v>
+        <v>718</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>384</v>
+        <v>730</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>385</v>
+        <v>756</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>757</v>
       </c>
       <c r="V84" s="2" t="s">
-        <v>386</v>
+        <v>758</v>
       </c>
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
     </row>
     <row r="85" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>560</v>
+        <v>298</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>423</v>
+        <v>532</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="L85" s="2" t="s">
+        <v>474</v>
+      </c>
       <c r="M85" s="2" t="s">
-        <v>681</v>
+        <v>3519</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>423</v>
@@ -16783,56 +16765,53 @@
         <v>12</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>388</v>
+        <v>299</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>389</v>
+        <v>300</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="X85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC85" s="2" t="s">
-        <v>13</v>
+        <v>302</v>
       </c>
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
     </row>
     <row r="86" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>393</v>
+        <v>306</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>561</v>
+        <v>304</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>42</v>
+        <v>423</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L86" s="2" t="s">
-        <v>671</v>
-      </c>
       <c r="M86" s="2" t="s">
-        <v>688</v>
+        <v>678</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q86" s="2" t="s">
-        <v>3890</v>
+        <v>305</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>392</v>
+        <v>13</v>
+      </c>
+      <c r="W86" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AC86" s="2" t="s">
         <v>13</v>
@@ -16842,128 +16821,119 @@
     </row>
     <row r="87" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>398</v>
+        <v>312</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>394</v>
+        <v>802</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>3216</v>
+        <v>651</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>558</v>
+        <v>474</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>3484</v>
+        <v>307</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>395</v>
+        <v>308</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>396</v>
+        <v>309</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="V87" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="AC87" s="2" t="s">
-        <v>13</v>
+        <v>311</v>
       </c>
       <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
     </row>
     <row r="88" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>406</v>
+        <v>316</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>399</v>
+        <v>533</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>3217</v>
+        <v>652</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>562</v>
+        <v>43</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>682</v>
+        <v>3599</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>401</v>
+        <v>313</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="R88" s="2" t="s">
-        <v>403</v>
+        <v>314</v>
       </c>
       <c r="V88" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="W88" s="2" t="s">
-        <v>405</v>
+        <v>315</v>
+      </c>
+      <c r="AC88" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD88" s="2"/>
       <c r="AE88" s="2"/>
     </row>
     <row r="89" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>410</v>
+        <v>320</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>407</v>
+        <v>317</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>3218</v>
+        <v>3208</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L89" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="M89" s="2" t="s">
-        <v>3601</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>408</v>
+        <v>318</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>409</v>
+        <v>13</v>
       </c>
       <c r="V89" s="2" t="s">
-        <v>411</v>
+        <v>319</v>
       </c>
       <c r="W89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AC89" s="2" t="s">
@@ -16973,993 +16943,1038 @@
       <c r="AE89" s="2"/>
     </row>
     <row r="90" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>416</v>
+      <c r="A90" s="2">
+        <v>1528</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>412</v>
+        <v>535</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F90" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L90" s="2" t="s">
-        <v>546</v>
+        <v>474</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>413</v>
+        <v>321</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>116</v>
+        <v>439</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>414</v>
+        <v>322</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>3891</v>
+        <v>323</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="V90" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="AC90" s="2" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
     </row>
     <row r="91" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>420</v>
+        <v>328</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>3219</v>
+        <v>539</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>3209</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>418</v>
+        <v>215</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>683</v>
+        <v>3520</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>1065</v>
+        <v>215</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P91" s="2">
-        <v>3225299931</v>
-      </c>
-      <c r="Q91" s="2">
-        <v>3184790583</v>
+        <v>12</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="V91" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="AC91" s="2" t="s">
-        <v>13</v>
+        <v>327</v>
+      </c>
+      <c r="W91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X91" s="2" t="s">
+        <v>3857</v>
       </c>
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
     </row>
     <row r="92" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>1920</v>
+      <c r="A92" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>662</v>
+        <v>329</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>568</v>
+        <v>12</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>474</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>595</v>
+        <v>3521</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>568</v>
+        <v>423</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>568</v>
+        <v>12</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>574</v>
+        <v>330</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>583</v>
+        <v>331</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="V92" s="2" t="s">
-        <v>586</v>
+        <v>542</v>
+      </c>
+      <c r="W92" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC92" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
     </row>
     <row r="93" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>1767</v>
+      <c r="A93" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>596</v>
+        <v>544</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>3220</v>
+        <v>3210</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>568</v>
+        <v>83</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>572</v>
+        <v>12</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>3528</v>
+        <v>679</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>597</v>
+        <v>83</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>568</v>
+        <v>12</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>575</v>
+        <v>335</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>13</v>
+        <v>336</v>
       </c>
       <c r="V93" s="2" t="s">
-        <v>587</v>
+        <v>337</v>
+      </c>
+      <c r="X93" s="2" t="s">
+        <v>3856</v>
       </c>
       <c r="AD93" s="2"/>
       <c r="AE93" s="2"/>
     </row>
     <row r="94" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>2840</v>
+      <c r="A94" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>3901</v>
+        <v>545</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>3221</v>
+        <v>656</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>569</v>
+        <v>339</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>568</v>
+        <v>12</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>3529</v>
+        <v>3522</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>569</v>
+        <v>423</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>568</v>
+        <v>12</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>576</v>
+        <v>340</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>13</v>
+        <v>341</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="V94" s="2" t="s">
-        <v>588</v>
+        <v>343</v>
+      </c>
+      <c r="AC94" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD94" s="2"/>
       <c r="AE94" s="2"/>
     </row>
     <row r="95" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>2621</v>
+      <c r="A95" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>598</v>
+        <v>547</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>3222</v>
+        <v>3211</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>570</v>
+        <v>345</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>568</v>
+        <v>12</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>43</v>
+        <v>548</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>684</v>
+        <v>807</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>570</v>
+        <v>423</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>568</v>
+        <v>12</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q95" s="2" t="s">
-        <v>13</v>
+        <v>346</v>
       </c>
       <c r="V95" s="2" t="s">
-        <v>589</v>
+        <v>347</v>
+      </c>
+      <c r="W95" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD95" s="2"/>
       <c r="AE95" s="2"/>
     </row>
     <row r="96" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>2952</v>
+      <c r="A96" s="2" t="s">
+        <v>760</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>599</v>
+        <v>695</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>3223</v>
+        <v>3367</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>570</v>
+        <v>775</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>13</v>
+        <v>767</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>685</v>
+        <v>3537</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>570</v>
+        <v>706</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="P96" s="2" t="s">
-        <v>578</v>
+        <v>767</v>
       </c>
       <c r="Q96" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="S96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="V96" s="2" t="s">
-        <v>590</v>
+        <v>13</v>
       </c>
       <c r="AD96" s="2"/>
       <c r="AE96" s="2"/>
     </row>
     <row r="97" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>1705</v>
+      <c r="A97" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>565</v>
+        <v>349</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>567</v>
+        <v>3212</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>570</v>
+        <v>350</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>568</v>
+        <v>12</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>474</v>
+        <v>50</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>600</v>
+        <v>3523</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>601</v>
+        <v>423</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>514</v>
+        <v>12</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>579</v>
+        <v>351</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>584</v>
+        <v>352</v>
       </c>
       <c r="V97" s="2" t="s">
-        <v>591</v>
+        <v>354</v>
+      </c>
+      <c r="AC97" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD97" s="2"/>
       <c r="AE97" s="2"/>
     </row>
     <row r="98" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>2364</v>
+      <c r="A98" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>602</v>
+        <v>355</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>663</v>
+        <v>3376</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>569</v>
+        <v>156</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>672</v>
+        <v>12</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>689</v>
+        <v>3600</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>569</v>
+        <v>423</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>568</v>
+        <v>12</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>580</v>
+        <v>356</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>585</v>
+        <v>357</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="V98" s="2" t="s">
-        <v>592</v>
+        <v>358</v>
+      </c>
+      <c r="AC98" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD98" s="2"/>
       <c r="AE98" s="2"/>
     </row>
     <row r="99" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>2946</v>
+      <c r="A99" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>692</v>
+        <v>549</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>3224</v>
+        <v>3213</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>568</v>
+        <v>360</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>568</v>
+        <v>12</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>13</v>
+        <v>691</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>581</v>
+        <v>361</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>13</v>
+        <v>362</v>
       </c>
       <c r="V99" s="2" t="s">
-        <v>593</v>
+        <v>363</v>
+      </c>
+      <c r="AC99" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD99" s="2"/>
       <c r="AE99" s="2"/>
     </row>
     <row r="100" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>2577</v>
+      <c r="A100" s="2" t="s">
+        <v>761</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>566</v>
+        <v>782</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>3225</v>
+        <v>793</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>571</v>
+        <v>708</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>568</v>
+        <v>767</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>13</v>
+        <v>704</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>3530</v>
+        <v>800</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>569</v>
+        <v>708</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="P100" s="2" t="s">
-        <v>582</v>
+        <v>767</v>
       </c>
       <c r="Q100" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="R100" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="T100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="V100" s="2" t="s">
-        <v>594</v>
+        <v>731</v>
       </c>
       <c r="AD100" s="2"/>
       <c r="AE100" s="2"/>
     </row>
     <row r="101" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>2939</v>
+      <c r="A101" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>701</v>
+        <v>550</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>796</v>
+        <v>657</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>708</v>
+        <v>551</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>3602</v>
+        <v>3524</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>706</v>
+        <v>425</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>722</v>
+        <v>365</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>733</v>
+        <v>366</v>
       </c>
       <c r="V101" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="X101" s="2" t="s">
-        <v>3855</v>
+        <v>367</v>
+      </c>
+      <c r="W101" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD101" s="2"/>
       <c r="AE101" s="2"/>
     </row>
     <row r="102" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>708</v>
+        <v>771</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>767</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>13</v>
+        <v>783</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>3531</v>
-      </c>
-      <c r="N102" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="P102" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="Q102" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="T102" s="2" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="P102" s="2">
+        <v>3053453900</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>3008056626</v>
       </c>
       <c r="V102" s="2" t="s">
-        <v>723</v>
+        <v>763</v>
       </c>
       <c r="X102" s="2" t="s">
-        <v>3854</v>
+        <v>3853</v>
+      </c>
+      <c r="Z102" s="2">
+        <v>3053453900</v>
+      </c>
+      <c r="AA102" s="2" t="s">
+        <v>3879</v>
       </c>
       <c r="AD102" s="2"/>
       <c r="AE102" s="2"/>
     </row>
     <row r="103" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>738</v>
+        <v>373</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>768</v>
+        <v>369</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>787</v>
+        <v>3214</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>769</v>
+        <v>552</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>702</v>
+        <v>553</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>3532</v>
+        <v>3525</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>706</v>
+        <v>423</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>711</v>
+        <v>370</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="R103" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="T103" s="2" t="s">
-        <v>13</v>
+        <v>371</v>
       </c>
       <c r="V103" s="2" t="s">
-        <v>737</v>
+        <v>372</v>
       </c>
       <c r="AD103" s="2"/>
       <c r="AE103" s="2"/>
     </row>
     <row r="104" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>2895</v>
+      <c r="A104" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>699</v>
+        <v>554</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>3366</v>
+        <v>3585</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>770</v>
+        <v>555</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>798</v>
+        <v>3526</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>769</v>
+        <v>423</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>739</v>
+        <v>374</v>
       </c>
       <c r="Q104" s="2" t="s">
-        <v>740</v>
+        <v>375</v>
       </c>
       <c r="V104" s="2" t="s">
-        <v>741</v>
+        <v>376</v>
+      </c>
+      <c r="W104" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD104" s="2"/>
       <c r="AE104" s="2"/>
     </row>
     <row r="105" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>742</v>
+        <v>381</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>698</v>
+        <v>378</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>788</v>
+        <v>3215</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>771</v>
+        <v>379</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>3533</v>
+        <v>680</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>706</v>
+        <v>170</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="Q105" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="T105" s="2" t="s">
-        <v>13</v>
+        <v>380</v>
       </c>
       <c r="V105" s="2" t="s">
-        <v>725</v>
+        <v>453</v>
+      </c>
+      <c r="X105" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD105" s="2"/>
       <c r="AE105" s="2"/>
     </row>
-    <row r="106" spans="1:31" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>2678</v>
+        <v>2364</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>3377</v>
+        <v>602</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>663</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>772</v>
+        <v>569</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>767</v>
+        <v>568</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>707</v>
+        <v>672</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>797</v>
+        <v>689</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>773</v>
+        <v>569</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>433</v>
+        <v>568</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>743</v>
+        <v>580</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T106" s="2" t="s">
-        <v>13</v>
+        <v>585</v>
+      </c>
+      <c r="R106" s="2" t="s">
+        <v>603</v>
       </c>
       <c r="V106" s="2" t="s">
-        <v>744</v>
+        <v>592</v>
       </c>
       <c r="AD106" s="2"/>
       <c r="AE106" s="2"/>
     </row>
     <row r="107" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>1791</v>
+      <c r="A107" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>774</v>
+        <v>557</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>789</v>
+        <v>658</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>775</v>
+        <v>382</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>474</v>
+        <v>558</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>3534</v>
+        <v>3527</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>706</v>
+        <v>559</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>714</v>
+        <v>383</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>726</v>
+        <v>384</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="S107" s="2" t="s">
-        <v>746</v>
+        <v>385</v>
       </c>
       <c r="V107" s="2" t="s">
-        <v>747</v>
+        <v>386</v>
       </c>
       <c r="AD107" s="2"/>
       <c r="AE107" s="2"/>
     </row>
     <row r="108" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>748</v>
+        <v>391</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>3902</v>
+        <v>560</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>790</v>
+        <v>659</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>708</v>
+        <v>423</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>776</v>
+        <v>12</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>3535</v>
+        <v>681</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>706</v>
+        <v>423</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>715</v>
+        <v>388</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="T108" s="2" t="s">
-        <v>13</v>
+        <v>389</v>
       </c>
       <c r="V108" s="2" t="s">
-        <v>727</v>
+        <v>390</v>
+      </c>
+      <c r="X108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC108" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD108" s="2"/>
       <c r="AE108" s="2"/>
     </row>
     <row r="109" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>750</v>
+        <v>393</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>777</v>
+        <v>561</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>791</v>
+        <v>660</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>74</v>
+        <v>671</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>439</v>
+        <v>688</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>767</v>
+        <v>13</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="S109" s="2" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>3890</v>
       </c>
       <c r="V109" s="2" t="s">
-        <v>749</v>
+        <v>392</v>
+      </c>
+      <c r="AC109" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD109" s="2"/>
       <c r="AE109" s="2"/>
     </row>
     <row r="110" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>753</v>
+        <v>398</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>696</v>
+        <v>394</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>3378</v>
+        <v>3216</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>778</v>
+        <v>11</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>50</v>
+        <v>558</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="N110" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="O110" s="2" t="s">
-        <v>767</v>
+        <v>3484</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>729</v>
+        <v>395</v>
       </c>
       <c r="Q110" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="T110" s="2" t="s">
-        <v>13</v>
+        <v>396</v>
       </c>
       <c r="V110" s="2" t="s">
-        <v>752</v>
+        <v>397</v>
+      </c>
+      <c r="AC110" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD110" s="2"/>
       <c r="AE110" s="2"/>
     </row>
-    <row r="111" spans="1:31" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>755</v>
+        <v>406</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>3379</v>
+        <v>399</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>3217</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>708</v>
+        <v>400</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>780</v>
+        <v>562</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>799</v>
+        <v>682</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>708</v>
+        <v>423</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>717</v>
+        <v>401</v>
       </c>
       <c r="Q111" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S111" s="2" t="s">
-        <v>13</v>
+        <v>402</v>
+      </c>
+      <c r="R111" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="V111" s="2" t="s">
-        <v>754</v>
+        <v>404</v>
+      </c>
+      <c r="W111" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="AD111" s="2"/>
       <c r="AE111" s="2"/>
     </row>
     <row r="112" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>1513</v>
+      <c r="A112" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>781</v>
+        <v>407</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>792</v>
+        <v>3218</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>708</v>
+        <v>541</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>703</v>
+        <v>43</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>3536</v>
+        <v>3601</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>706</v>
+        <v>423</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>718</v>
+        <v>408</v>
       </c>
       <c r="Q112" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="R112" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="S112" s="2" t="s">
-        <v>757</v>
+        <v>409</v>
       </c>
       <c r="V112" s="2" t="s">
-        <v>758</v>
+        <v>411</v>
+      </c>
+      <c r="W112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC112" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD112" s="2"/>
       <c r="AE112" s="2"/>
     </row>
     <row r="113" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>760</v>
+        <v>416</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>695</v>
+        <v>412</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>3367</v>
+        <v>661</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>775</v>
+        <v>563</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>546</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>3537</v>
+        <v>413</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>706</v>
+        <v>116</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>767</v>
+        <v>12</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="S113" s="2" t="s">
-        <v>13</v>
+        <v>3891</v>
       </c>
       <c r="V113" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AD113" s="2"/>
@@ -17967,175 +17982,160 @@
     </row>
     <row r="114" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>761</v>
+        <v>420</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>793</v>
+        <v>417</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>3219</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>708</v>
+        <v>418</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>704</v>
+        <v>12</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>800</v>
+        <v>683</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>708</v>
+        <v>1065</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="Q114" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="R114" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="T114" s="2" t="s">
-        <v>13</v>
+        <v>99</v>
+      </c>
+      <c r="P114" s="2">
+        <v>3225299931</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>3184790583</v>
       </c>
       <c r="V114" s="2" t="s">
-        <v>731</v>
+        <v>419</v>
+      </c>
+      <c r="AC114" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AD114" s="2"/>
       <c r="AE114" s="2"/>
     </row>
     <row r="115" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>767</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>783</v>
+        <v>474</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P115" s="2">
-        <v>3053453900</v>
-      </c>
-      <c r="Q115" s="2">
-        <v>3008056626</v>
+        <v>705</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="R115" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="T115" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="V115" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="X115" s="2" t="s">
-        <v>3853</v>
-      </c>
-      <c r="Z115" s="2">
-        <v>3053453900</v>
-      </c>
-      <c r="AA115" s="2" t="s">
-        <v>3879</v>
+        <v>765</v>
       </c>
       <c r="AD115" s="2"/>
       <c r="AE115" s="2"/>
     </row>
     <row r="116" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>766</v>
+      <c r="A116" s="2">
+        <v>2946</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>795</v>
+        <v>3224</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>772</v>
+        <v>568</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>767</v>
+        <v>568</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>474</v>
+        <v>13</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="N116" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="O116" s="2" t="s">
-        <v>767</v>
+        <v>13</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>721</v>
+        <v>581</v>
       </c>
       <c r="Q116" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="R116" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="T116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="V116" s="2" t="s">
-        <v>765</v>
+        <v>593</v>
       </c>
       <c r="AD116" s="2"/>
       <c r="AE116" s="2"/>
     </row>
     <row r="117" spans="1:31" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>141</v>
+      <c r="A117" s="2">
+        <v>2577</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>138</v>
+        <v>566</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>624</v>
+        <v>3225</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>139</v>
+        <v>571</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>475</v>
+        <v>568</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>669</v>
+        <v>13</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>687</v>
+        <v>3530</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>423</v>
+        <v>569</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>12</v>
+        <v>568</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>476</v>
+        <v>582</v>
       </c>
       <c r="Q117" s="2" t="s">
-        <v>477</v>
+        <v>13</v>
       </c>
       <c r="V117" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X117" s="2" t="s">
-        <v>13</v>
+        <v>594</v>
       </c>
       <c r="AD117" s="2"/>
       <c r="AE117" s="2"/>
@@ -47716,12 +47716,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="V8" r:id="rId1" xr:uid="{E8E65922-D607-4870-B0D7-2D1C5C00A9D4}"/>
-    <hyperlink ref="W26" r:id="rId2" xr:uid="{30104029-B87B-45DC-AACA-66E33FAAD530}"/>
-    <hyperlink ref="V38" r:id="rId3" xr:uid="{588184AD-C8C9-47CE-BCB3-800FE222880D}"/>
-    <hyperlink ref="V52" r:id="rId4" xr:uid="{CFBDAE4B-0D18-4320-9AA5-A2E54DE7309C}"/>
-    <hyperlink ref="V73" r:id="rId5" xr:uid="{1AA84A29-7EDE-4C2E-869F-EDEDAFF3F463}"/>
-    <hyperlink ref="V115" r:id="rId6" xr:uid="{C0551BAE-DB62-49F6-912E-C30B4971C038}"/>
+    <hyperlink ref="V7" r:id="rId1" xr:uid="{E8E65922-D607-4870-B0D7-2D1C5C00A9D4}"/>
+    <hyperlink ref="W36" r:id="rId2" xr:uid="{30104029-B87B-45DC-AACA-66E33FAAD530}"/>
+    <hyperlink ref="V53" r:id="rId3" xr:uid="{588184AD-C8C9-47CE-BCB3-800FE222880D}"/>
+    <hyperlink ref="V68" r:id="rId4" xr:uid="{CFBDAE4B-0D18-4320-9AA5-A2E54DE7309C}"/>
+    <hyperlink ref="V92" r:id="rId5" xr:uid="{1AA84A29-7EDE-4C2E-869F-EDEDAFF3F463}"/>
+    <hyperlink ref="V102" r:id="rId6" xr:uid="{C0551BAE-DB62-49F6-912E-C30B4971C038}"/>
     <hyperlink ref="V122" r:id="rId7" xr:uid="{6231B515-4ED1-4D18-9728-0CEA917E3618}"/>
     <hyperlink ref="V128" r:id="rId8" xr:uid="{09453119-EE49-4E64-ADD2-690236B46E5D}"/>
     <hyperlink ref="AC160" r:id="rId9" xr:uid="{82433904-A6BF-4D55-A70B-08DE3252D90D}"/>
@@ -47754,12 +47754,12 @@
     <hyperlink ref="V640" r:id="rId36" xr:uid="{BE20A3A3-33B9-4EF9-BA21-4363D2593D0D}"/>
     <hyperlink ref="V651" r:id="rId37" display="mailto:lamaravilladarien@gmail.com" xr:uid="{7D556185-7299-47C9-AA83-8D79CA7B235C}"/>
     <hyperlink ref="V653" r:id="rId38" xr:uid="{D7CF759B-C459-4C2A-A7C2-D28E104D642B}"/>
-    <hyperlink ref="AC26" r:id="rId39" xr:uid="{EF1256FC-B5AE-4180-9D1F-FCCE99735D22}"/>
-    <hyperlink ref="AC28" r:id="rId40" xr:uid="{E93C23F5-0213-41BF-98D3-5CE5F4A1B8C1}"/>
+    <hyperlink ref="AC36" r:id="rId39" xr:uid="{EF1256FC-B5AE-4180-9D1F-FCCE99735D22}"/>
+    <hyperlink ref="AC38" r:id="rId40" xr:uid="{E93C23F5-0213-41BF-98D3-5CE5F4A1B8C1}"/>
     <hyperlink ref="AC144" r:id="rId41" xr:uid="{30B108D5-078A-4C85-BBF7-1989B5A551A6}"/>
-    <hyperlink ref="V2" r:id="rId42" xr:uid="{983BAA77-A41E-481B-BEB6-1902BCDEF4A9}"/>
-    <hyperlink ref="W2" r:id="rId43" xr:uid="{38D063F9-B253-4855-B0C2-0A9908EFD402}"/>
-    <hyperlink ref="AC2" r:id="rId44" xr:uid="{FF1CC849-CE2E-4D2E-B96E-0B0E41205916}"/>
+    <hyperlink ref="V33" r:id="rId42" xr:uid="{983BAA77-A41E-481B-BEB6-1902BCDEF4A9}"/>
+    <hyperlink ref="W33" r:id="rId43" xr:uid="{38D063F9-B253-4855-B0C2-0A9908EFD402}"/>
+    <hyperlink ref="AC33" r:id="rId44" xr:uid="{FF1CC849-CE2E-4D2E-B96E-0B0E41205916}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId45"/>
@@ -48228,45 +48228,45 @@
       <c r="A16" s="23">
         <v>1964</v>
       </c>
-      <c r="B16" s="23" t="str">
+      <c r="B16" s="23" t="e">
         <f>+VLOOKUP(A16,directorioCriadores!A4:B657,2,FALSE)</f>
-        <v>AGRO CAÑADULCE S.A.S.</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="23" t="str">
+      <c r="B17" s="23" t="e">
         <f>+VLOOKUP(A17,directorioCriadores!A5:B658,2,FALSE)</f>
-        <v>AGRO GANADERIA PANIEL SAS</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="23" t="str">
+      <c r="B18" s="23" t="e">
         <f>+VLOOKUP(A18,directorioCriadores!A6:B659,2,FALSE)</f>
-        <v>AGRO GANADERIA RANCHO ILUSION SAS</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="23" t="str">
+      <c r="B19" s="23" t="e">
         <f>+VLOOKUP(A19,directorioCriadores!A7:B660,2,FALSE)</f>
-        <v>AGROPECUARIA LA FANTASIA</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="23" t="str">
+      <c r="B20" s="23" t="e">
         <f>+VLOOKUP(A20,directorioCriadores!A8:B661,2,FALSE)</f>
-        <v>AGROPECUARIA LAS TINAJAS S.A.</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">

--- a/src/assets/directorioCriadores.xlsx
+++ b/src/assets/directorioCriadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desarrollador.sena\Desktop\criadoresDirectorio\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E228493-7864-4ADD-8EA9-BC44C233E92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7332C646-AF54-459E-A0E4-7DFC6E5FAEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3B29B677-D6F4-4426-A511-B8471B1BDDDE}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7043" uniqueCount="3579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7070" uniqueCount="3593">
   <si>
     <t>nombre</t>
   </si>
@@ -11366,12 +11366,54 @@
   <si>
     <t>https://asocebu.com/</t>
   </si>
+  <si>
+    <t>0710</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>1226</t>
+  </si>
+  <si>
+    <t>1257</t>
+  </si>
+  <si>
+    <t>1274</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>1326</t>
+  </si>
+  <si>
+    <t>1411</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>1451</t>
+  </si>
+  <si>
+    <t>1472</t>
+  </si>
+  <si>
+    <t>1493</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11408,6 +11450,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -11538,7 +11586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -11594,12 +11642,245 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -12301,42 +12582,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5252D83D-BD3C-4626-8BC2-F4B0611462FA}" name="CriadoresDirectorio" displayName="CriadoresDirectorio" ref="A1:AE1048576" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5252D83D-BD3C-4626-8BC2-F4B0611462FA}" name="CriadoresDirectorio" displayName="CriadoresDirectorio" ref="A1:AE1048576" totalsRowShown="0" dataDxfId="32">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE117">
     <sortCondition ref="E11:E117"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="15" xr3:uid="{F96F9974-CDB4-44A4-B80E-AE2A858BD1AE}" name="codigoAsociado" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{F3EACF8C-83F6-4A9C-8D04-2E442F207A14}" name="nombre" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{ADF3C9A6-146F-4FC1-92AB-44D1F4641E2E}" name="hacienda1" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{0D454202-FF97-4322-BB04-A1A71074369B}" name="municipio1" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{D389E674-1653-4567-8A80-17EAB436B574}" name="departamento1" dataDxfId="36"/>
-    <tableColumn id="25" xr3:uid="{43B833F8-3AB5-450A-811E-2D2C745E2F13}" name="hacienda2" dataDxfId="35"/>
-    <tableColumn id="26" xr3:uid="{9E544313-2352-40F0-876C-393E8EEB48B5}" name="municipio2" dataDxfId="34"/>
-    <tableColumn id="27" xr3:uid="{8F5D3A26-8292-4927-8F8B-75D2CFFA01A0}" name="departamento2" dataDxfId="33"/>
-    <tableColumn id="33" xr3:uid="{8077A439-7E95-4907-9F18-A02F3DB96858}" name="hacienda3" dataDxfId="32"/>
-    <tableColumn id="32" xr3:uid="{95EECC2F-F8D1-40A1-822B-F15B12ABB504}" name="municipio3" dataDxfId="31"/>
-    <tableColumn id="31" xr3:uid="{073E17F4-7984-4E05-AE77-C71D14221253}" name="departamento3" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{8ADC5423-029F-453F-8E16-28D2445ADB96}" name="tipoGanado" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{90180301-62FC-4CDA-9B86-AA7BF9587C4B}" name="direccion" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{EAE403A3-6435-48BA-8F7A-4B358BBD3DA5}" name="ciudadDireccion" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{873D505D-5F4D-4167-BD5D-EC47682E3D3F}" name="departamentoDireccion" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{0C613AA6-2376-48D1-9D4F-1235D644BCD1}" name="telefono1" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{7826D8C1-5EE2-40B6-82DD-1218DD19C1EE}" name="telefono2" dataDxfId="24"/>
-    <tableColumn id="23" xr3:uid="{EFA7E4D3-DB48-485A-98F8-BD0DAB578242}" name="telefono3" dataDxfId="23"/>
-    <tableColumn id="22" xr3:uid="{A021A841-C778-4C90-8455-DAA5D3FDF5C9}" name="telefono4" dataDxfId="22"/>
-    <tableColumn id="24" xr3:uid="{3C1526FC-2F4C-4DB4-9C92-ABB7C122AFE8}" name="telefono5" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{9BE9F84D-7155-4F1E-8FB5-6FE20E08E66E}" name="telefono6" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{3D3BB81B-DF24-495A-95D2-D406C98BF51A}" name="email1" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{C2687D8C-BC6F-4F22-8E19-E46EAA9B1323}" name="email2" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{A45BFB4B-EB7C-4173-8F9A-75BD4540D529}" name="instagram" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{7A237364-E5B9-4376-B585-5B94988E4225}" name="facebook" dataDxfId="16"/>
-    <tableColumn id="35" xr3:uid="{6ED1F4C3-EC61-4BDF-9158-820777160356}" name="whatsapp1" dataDxfId="15"/>
-    <tableColumn id="36" xr3:uid="{245A3F17-A407-4444-AE84-20D31BC05FEB}" name="whatsapp2" dataDxfId="14"/>
-    <tableColumn id="19" xr3:uid="{4BE0A106-284D-4F49-BE6B-0319CF96BA3D}" name="tiktok" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{5E7B1910-DC0C-44B7-BC23-8755FE6F614A}" name="sitioWeb" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{3B2A4737-B88F-4CBE-9B54-3893A37C5BAE}" name="representanteLegal" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{AB03E730-96A6-4E6E-AFB7-ADECC9589146}" name="campoAdicional1" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{F96F9974-CDB4-44A4-B80E-AE2A858BD1AE}" name="codigoAsociado" dataDxfId="31"/>
+    <tableColumn id="21" xr3:uid="{F3EACF8C-83F6-4A9C-8D04-2E442F207A14}" name="nombre" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{ADF3C9A6-146F-4FC1-92AB-44D1F4641E2E}" name="hacienda1" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{0D454202-FF97-4322-BB04-A1A71074369B}" name="municipio1" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{D389E674-1653-4567-8A80-17EAB436B574}" name="departamento1" dataDxfId="59"/>
+    <tableColumn id="25" xr3:uid="{43B833F8-3AB5-450A-811E-2D2C745E2F13}" name="hacienda2" dataDxfId="58"/>
+    <tableColumn id="26" xr3:uid="{9E544313-2352-40F0-876C-393E8EEB48B5}" name="municipio2" dataDxfId="57"/>
+    <tableColumn id="27" xr3:uid="{8F5D3A26-8292-4927-8F8B-75D2CFFA01A0}" name="departamento2" dataDxfId="56"/>
+    <tableColumn id="33" xr3:uid="{8077A439-7E95-4907-9F18-A02F3DB96858}" name="hacienda3" dataDxfId="55"/>
+    <tableColumn id="32" xr3:uid="{95EECC2F-F8D1-40A1-822B-F15B12ABB504}" name="municipio3" dataDxfId="54"/>
+    <tableColumn id="31" xr3:uid="{073E17F4-7984-4E05-AE77-C71D14221253}" name="departamento3" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{8ADC5423-029F-453F-8E16-28D2445ADB96}" name="tipoGanado" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{90180301-62FC-4CDA-9B86-AA7BF9587C4B}" name="direccion" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{EAE403A3-6435-48BA-8F7A-4B358BBD3DA5}" name="ciudadDireccion" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{873D505D-5F4D-4167-BD5D-EC47682E3D3F}" name="departamentoDireccion" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{0C613AA6-2376-48D1-9D4F-1235D644BCD1}" name="telefono1" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{7826D8C1-5EE2-40B6-82DD-1218DD19C1EE}" name="telefono2" dataDxfId="47"/>
+    <tableColumn id="23" xr3:uid="{EFA7E4D3-DB48-485A-98F8-BD0DAB578242}" name="telefono3" dataDxfId="46"/>
+    <tableColumn id="22" xr3:uid="{A021A841-C778-4C90-8455-DAA5D3FDF5C9}" name="telefono4" dataDxfId="45"/>
+    <tableColumn id="24" xr3:uid="{3C1526FC-2F4C-4DB4-9C92-ABB7C122AFE8}" name="telefono5" dataDxfId="44"/>
+    <tableColumn id="16" xr3:uid="{9BE9F84D-7155-4F1E-8FB5-6FE20E08E66E}" name="telefono6" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{3D3BB81B-DF24-495A-95D2-D406C98BF51A}" name="email1" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{C2687D8C-BC6F-4F22-8E19-E46EAA9B1323}" name="email2" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{A45BFB4B-EB7C-4173-8F9A-75BD4540D529}" name="instagram" dataDxfId="40"/>
+    <tableColumn id="18" xr3:uid="{7A237364-E5B9-4376-B585-5B94988E4225}" name="facebook" dataDxfId="39"/>
+    <tableColumn id="35" xr3:uid="{6ED1F4C3-EC61-4BDF-9158-820777160356}" name="whatsapp1" dataDxfId="38"/>
+    <tableColumn id="36" xr3:uid="{245A3F17-A407-4444-AE84-20D31BC05FEB}" name="whatsapp2" dataDxfId="37"/>
+    <tableColumn id="19" xr3:uid="{4BE0A106-284D-4F49-BE6B-0319CF96BA3D}" name="tiktok" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{5E7B1910-DC0C-44B7-BC23-8755FE6F614A}" name="sitioWeb" dataDxfId="35"/>
+    <tableColumn id="17" xr3:uid="{3B2A4737-B88F-4CBE-9B54-3893A37C5BAE}" name="representanteLegal" dataDxfId="34"/>
+    <tableColumn id="20" xr3:uid="{AB03E730-96A6-4E6E-AFB7-ADECC9589146}" name="campoAdicional1" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12639,11 +12920,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C2F353-C0BD-4DEE-8215-C3B43D148F9B}">
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12748,24 +13029,24 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3007</v>
+      <c r="A2" s="21" t="s">
+        <v>1777</v>
       </c>
       <c r="B2" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],2,FALSE),VLOOKUP($A2,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],2,FALSE),VLOOKUP($A2,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>JAIRO LUIS MERCADO ROMERO</v>
+        <v>INVERSIONES EL PENSAMIENTO SAS</v>
       </c>
       <c r="C2" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],3,FALSE),VLOOKUP($A2,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],3,FALSE),VLOOKUP($A2,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda La Florida KM 5 vía La Eneo</v>
+        <v>Hda Iratama</v>
       </c>
       <c r="D2" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],4,FALSE),VLOOKUP($A2,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],4,FALSE),VLOOKUP($A2,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>El Guamo</v>
+        <v>Villavicencio</v>
       </c>
       <c r="E2" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],5,FALSE),VLOOKUP($A2,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],5,FALSE),VLOOKUP($A2,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Bolívar</v>
+        <v>Meta</v>
       </c>
       <c r="F2" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],6,FALSE),VLOOKUP($A2,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],6,FALSE),VLOOKUP($A2,CriadoresDirectorio[],6,FALSE)))</f>
@@ -12793,23 +13074,23 @@
       </c>
       <c r="L2" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],12,FALSE),VLOOKUP($A2,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],12,FALSE),VLOOKUP($A2,CriadoresDirectorio[],12,FALSE)))</f>
-        <v/>
+        <v>Ganado Puro, Brahman</v>
       </c>
       <c r="M2" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],13,FALSE),VLOOKUP($A2,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],13,FALSE),VLOOKUP($A2,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 20 #21 - 87 ED BARI 2102</v>
+        <v/>
       </c>
       <c r="N2" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],14,FALSE),VLOOKUP($A2,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],14,FALSE),VLOOKUP($A2,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Cartagena</v>
+        <v/>
       </c>
       <c r="O2" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],15,FALSE),VLOOKUP($A2,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],15,FALSE),VLOOKUP($A2,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Atlantico</v>
+        <v/>
       </c>
       <c r="P2">
         <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],16,FALSE),VLOOKUP($A2,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],16,FALSE),VLOOKUP($A2,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3135741486</v>
+        <v>3132089677</v>
       </c>
       <c r="Q2" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],17,FALSE),VLOOKUP($A2,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],17,FALSE),VLOOKUP($A2,CriadoresDirectorio[],17,FALSE)))</f>
@@ -12833,7 +13114,7 @@
       </c>
       <c r="V2" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],22,FALSE),VLOOKUP($A2,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],22,FALSE),VLOOKUP($A2,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>jairolmercado@yahoo.com</v>
+        <v>andresarangosalazar@gmail.com</v>
       </c>
       <c r="W2" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],23,FALSE),VLOOKUP($A2,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],23,FALSE),VLOOKUP($A2,CriadoresDirectorio[],23,FALSE)))</f>
@@ -12873,149 +13154,149 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1964</v>
+      <c r="A3" s="21" t="s">
+        <v>2168</v>
       </c>
       <c r="B3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],2,FALSE),VLOOKUP($A3,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],2,FALSE),VLOOKUP($A3,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>AGRO CAÑADULCE S.A.S.</v>
+        <v>JARAMILLO WILLIAMSON Y CÍA S. EN C.</v>
       </c>
       <c r="C3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],3,FALSE),VLOOKUP($A3,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],3,FALSE),VLOOKUP($A3,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Caña Dulce</v>
+        <v>Hda Santa Ángela, KM 9 VÍA TOLUVIEJO</v>
       </c>
       <c r="D3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],4,FALSE),VLOOKUP($A3,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],4,FALSE),VLOOKUP($A3,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Fredonia</v>
+        <v>Toluviejo</v>
       </c>
       <c r="E3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],5,FALSE),VLOOKUP($A3,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],5,FALSE),VLOOKUP($A3,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="F3" t="e">
+        <v>Sucre</v>
+      </c>
+      <c r="F3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],6,FALSE),VLOOKUP($A3,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],6,FALSE),VLOOKUP($A3,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G3" t="e">
+        <v/>
+      </c>
+      <c r="G3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],7,FALSE),VLOOKUP($A3,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],7,FALSE),VLOOKUP($A3,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H3" t="e">
+        <v/>
+      </c>
+      <c r="H3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],8,FALSE),VLOOKUP($A3,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],8,FALSE),VLOOKUP($A3,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I3" t="e">
+        <v/>
+      </c>
+      <c r="I3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],9,FALSE),VLOOKUP($A3,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],9,FALSE),VLOOKUP($A3,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J3" t="e">
+        <v/>
+      </c>
+      <c r="J3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],10,FALSE),VLOOKUP($A3,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],10,FALSE),VLOOKUP($A3,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K3" t="e">
+        <v/>
+      </c>
+      <c r="K3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],11,FALSE),VLOOKUP($A3,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],11,FALSE),VLOOKUP($A3,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="L3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],12,FALSE),VLOOKUP($A3,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],12,FALSE),VLOOKUP($A3,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro Gyr y Girolando</v>
+        <v>Ganado Puro, Brahman - Guzerá</v>
       </c>
       <c r="M3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],13,FALSE),VLOOKUP($A3,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],13,FALSE),VLOOKUP($A3,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 21 CL 4B SUR 02</v>
+        <v>CL 97 22 80 APTO 505</v>
       </c>
       <c r="N3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],14,FALSE),VLOOKUP($A3,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],14,FALSE),VLOOKUP($A3,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Medellín</v>
+        <v>Bogotá D.C</v>
       </c>
       <c r="O3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],15,FALSE),VLOOKUP($A3,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],15,FALSE),VLOOKUP($A3,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antoquia</v>
+        <v>Cundinamarca</v>
       </c>
       <c r="P3">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],16,FALSE),VLOOKUP($A3,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],16,FALSE),VLOOKUP($A3,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3170844</v>
+        <v>6555610</v>
       </c>
       <c r="Q3">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],17,FALSE),VLOOKUP($A3,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],17,FALSE),VLOOKUP($A3,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3122882460</v>
-      </c>
-      <c r="R3" t="e">
+        <v>6555611</v>
+      </c>
+      <c r="R3">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],18,FALSE),VLOOKUP($A3,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],18,FALSE),VLOOKUP($A3,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S3" t="e">
+        <v>3107718289</v>
+      </c>
+      <c r="S3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],19,FALSE),VLOOKUP($A3,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],19,FALSE),VLOOKUP($A3,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T3" t="e">
+        <v/>
+      </c>
+      <c r="T3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],20,FALSE),VLOOKUP($A3,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],20,FALSE),VLOOKUP($A3,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U3" t="e">
+        <v/>
+      </c>
+      <c r="U3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],21,FALSE),VLOOKUP($A3,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],21,FALSE),VLOOKUP($A3,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="V3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],22,FALSE),VLOOKUP($A3,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],22,FALSE),VLOOKUP($A3,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>ganaderiacanadulce@gmail.com</v>
-      </c>
-      <c r="W3" t="e">
+        <v>fabiojaramilloj@gmail.com</v>
+      </c>
+      <c r="W3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],23,FALSE),VLOOKUP($A3,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],23,FALSE),VLOOKUP($A3,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X3" t="e">
+        <v/>
+      </c>
+      <c r="X3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],24,FALSE),VLOOKUP($A3,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],24,FALSE),VLOOKUP($A3,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y3" t="e">
+        <v/>
+      </c>
+      <c r="Y3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],25,FALSE),VLOOKUP($A3,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],25,FALSE),VLOOKUP($A3,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z3" t="e">
+        <v/>
+      </c>
+      <c r="Z3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],26,FALSE),VLOOKUP($A3,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],26,FALSE),VLOOKUP($A3,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA3" t="e">
+        <v/>
+      </c>
+      <c r="AA3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],27,FALSE),VLOOKUP($A3,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],27,FALSE),VLOOKUP($A3,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB3" t="e">
+        <v/>
+      </c>
+      <c r="AB3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],28,FALSE),VLOOKUP($A3,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],28,FALSE),VLOOKUP($A3,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC3" t="e">
+        <v/>
+      </c>
+      <c r="AC3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],29,FALSE),VLOOKUP($A3,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],29,FALSE),VLOOKUP($A3,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD3" t="e">
+        <v/>
+      </c>
+      <c r="AD3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],30,FALSE),VLOOKUP($A3,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],30,FALSE),VLOOKUP($A3,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE3" t="e">
+        <v/>
+      </c>
+      <c r="AE3" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],31,FALSE),VLOOKUP($A3,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],31,FALSE),VLOOKUP($A3,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2588</v>
+      <c r="A4" s="21" t="s">
+        <v>2299</v>
       </c>
       <c r="B4" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],2,FALSE),VLOOKUP($A4,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],2,FALSE),VLOOKUP($A4,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>AGROPECUARIA SUBIENDA S.A.S</v>
+        <v>JAIME ESCOBAR VALLEJO</v>
       </c>
       <c r="C4" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],3,FALSE),VLOOKUP($A4,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],3,FALSE),VLOOKUP($A4,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda San Cipriano, Vereda Cipriano</v>
+        <v>Hda Ucrania</v>
       </c>
       <c r="D4" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],4,FALSE),VLOOKUP($A4,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],4,FALSE),VLOOKUP($A4,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Maceo</v>
+        <v>Obando</v>
       </c>
       <c r="E4" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],5,FALSE),VLOOKUP($A4,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],5,FALSE),VLOOKUP($A4,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Antioquia</v>
+        <v>Valle del Cauca</v>
       </c>
       <c r="F4" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],6,FALSE),VLOOKUP($A4,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],6,FALSE),VLOOKUP($A4,CriadoresDirectorio[],6,FALSE)))</f>
@@ -13043,31 +13324,31 @@
       </c>
       <c r="L4" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],12,FALSE),VLOOKUP($A4,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],12,FALSE),VLOOKUP($A4,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Brahman</v>
+        <v>Ganado Puro, Brahman</v>
       </c>
       <c r="M4" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],13,FALSE),VLOOKUP($A4,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],13,FALSE),VLOOKUP($A4,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 39B SUR # 28 - 85</v>
+        <v>CR 7 43 224 OF 303 ED CODEGAR</v>
       </c>
       <c r="N4" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],14,FALSE),VLOOKUP($A4,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],14,FALSE),VLOOKUP($A4,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Envigado</v>
+        <v>Pereira</v>
       </c>
       <c r="O4" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],15,FALSE),VLOOKUP($A4,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],15,FALSE),VLOOKUP($A4,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P4" t="str">
+        <v>Risaralda</v>
+      </c>
+      <c r="P4">
         <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],16,FALSE),VLOOKUP($A4,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],16,FALSE),VLOOKUP($A4,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3128299346</v>
-      </c>
-      <c r="Q4" t="str">
+        <v>3260591</v>
+      </c>
+      <c r="Q4">
         <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],17,FALSE),VLOOKUP($A4,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],17,FALSE),VLOOKUP($A4,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3137317435</v>
-      </c>
-      <c r="R4" t="str">
+        <v>3260592</v>
+      </c>
+      <c r="R4">
         <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],18,FALSE),VLOOKUP($A4,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],18,FALSE),VLOOKUP($A4,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>5582624</v>
+        <v>3104558407</v>
       </c>
       <c r="S4" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],19,FALSE),VLOOKUP($A4,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],19,FALSE),VLOOKUP($A4,CriadoresDirectorio[],19,FALSE)))</f>
@@ -13083,7 +13364,7 @@
       </c>
       <c r="V4" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],22,FALSE),VLOOKUP($A4,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],22,FALSE),VLOOKUP($A4,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>agpsubienda@hotmail.com</v>
+        <v>ucranialaslomas@gmail.com</v>
       </c>
       <c r="W4" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],23,FALSE),VLOOKUP($A4,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],23,FALSE),VLOOKUP($A4,CriadoresDirectorio[],23,FALSE)))</f>
@@ -13123,80 +13404,80 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2306</v>
+      <c r="A5" s="21" t="s">
+        <v>1116</v>
       </c>
       <c r="B5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],2,FALSE),VLOOKUP($A5,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],2,FALSE),VLOOKUP($A5,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>FUNDACIÓN GRUPO ARGOS</v>
+        <v>GARCES EDER S.A.S</v>
       </c>
       <c r="C5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],3,FALSE),VLOOKUP($A5,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],3,FALSE),VLOOKUP($A5,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Fundadores</v>
+        <v>Hda García Abajo</v>
       </c>
       <c r="D5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],4,FALSE),VLOOKUP($A5,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],4,FALSE),VLOOKUP($A5,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Asociado Puro, Guzerá</v>
+        <v>Corinto</v>
       </c>
       <c r="E5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],5,FALSE),VLOOKUP($A5,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],5,FALSE),VLOOKUP($A5,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Antioquia</v>
+        <v>Cauca</v>
       </c>
       <c r="F5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],6,FALSE),VLOOKUP($A5,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],6,FALSE),VLOOKUP($A5,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
+        <v>La Campiña</v>
       </c>
       <c r="G5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],7,FALSE),VLOOKUP($A5,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],7,FALSE),VLOOKUP($A5,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
+        <v>Santander de Quilichao</v>
       </c>
       <c r="H5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],8,FALSE),VLOOKUP($A5,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],8,FALSE),VLOOKUP($A5,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
+        <v>Cauca</v>
       </c>
       <c r="I5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],9,FALSE),VLOOKUP($A5,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],9,FALSE),VLOOKUP($A5,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
+        <v>Guaguya</v>
       </c>
       <c r="J5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],10,FALSE),VLOOKUP($A5,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],10,FALSE),VLOOKUP($A5,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
+        <v>Palmira</v>
       </c>
       <c r="K5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],11,FALSE),VLOOKUP($A5,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],11,FALSE),VLOOKUP($A5,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
+        <v>Valle</v>
       </c>
       <c r="L5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],12,FALSE),VLOOKUP($A5,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],12,FALSE),VLOOKUP($A5,CriadoresDirectorio[],12,FALSE)))</f>
-        <v/>
+        <v>Brahman</v>
       </c>
       <c r="M5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],13,FALSE),VLOOKUP($A5,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],13,FALSE),VLOOKUP($A5,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 43 A 1 A SUR- TO SUR PI 3 ED SANTILLANA</v>
+        <v>CR 100 # 11 - 90 OF 504</v>
       </c>
       <c r="N5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],14,FALSE),VLOOKUP($A5,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],14,FALSE),VLOOKUP($A5,CriadoresDirectorio[],14,FALSE)))</f>
-        <v/>
+        <v>Cali</v>
       </c>
       <c r="O5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],15,FALSE),VLOOKUP($A5,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],15,FALSE),VLOOKUP($A5,CriadoresDirectorio[],15,FALSE)))</f>
-        <v/>
+        <v>Valle del Cauca</v>
       </c>
       <c r="P5">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],16,FALSE),VLOOKUP($A5,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],16,FALSE),VLOOKUP($A5,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3206665565</v>
-      </c>
-      <c r="Q5" t="str">
+        <v>3320848</v>
+      </c>
+      <c r="Q5">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],17,FALSE),VLOOKUP($A5,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],17,FALSE),VLOOKUP($A5,CriadoresDirectorio[],17,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="R5" t="str">
+        <v>5504316</v>
+      </c>
+      <c r="R5">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],18,FALSE),VLOOKUP($A5,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],18,FALSE),VLOOKUP($A5,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S5" t="str">
+        <v>3321816</v>
+      </c>
+      <c r="S5">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],19,FALSE),VLOOKUP($A5,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],19,FALSE),VLOOKUP($A5,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
+        <v>3155761864</v>
       </c>
       <c r="T5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],20,FALSE),VLOOKUP($A5,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],20,FALSE),VLOOKUP($A5,CriadoresDirectorio[],20,FALSE)))</f>
@@ -13208,7 +13489,7 @@
       </c>
       <c r="V5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],22,FALSE),VLOOKUP($A5,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],22,FALSE),VLOOKUP($A5,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>slondonog@riogrande.co</v>
+        <v>hda.garcia@garceseder.com</v>
       </c>
       <c r="W5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],23,FALSE),VLOOKUP($A5,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],23,FALSE),VLOOKUP($A5,CriadoresDirectorio[],23,FALSE)))</f>
@@ -13236,7 +13517,7 @@
       </c>
       <c r="AC5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],29,FALSE),VLOOKUP($A5,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],29,FALSE),VLOOKUP($A5,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
+        <v>http://www.garciaabajo.com/</v>
       </c>
       <c r="AD5" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],30,FALSE),VLOOKUP($A5,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],30,FALSE),VLOOKUP($A5,CriadoresDirectorio[],30,FALSE)))</f>
@@ -13248,145 +13529,145 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3015</v>
+      <c r="A6" s="21" t="s">
+        <v>2230</v>
       </c>
       <c r="B6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],2,FALSE),VLOOKUP($A6,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],2,FALSE),VLOOKUP($A6,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>EMPRESA 100% REAL CON NOMBRE MUY LARGO CON 45</v>
+        <v>INVERSIONES CAFE GRANADA SAS</v>
       </c>
       <c r="C6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],3,FALSE),VLOOKUP($A6,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],3,FALSE),VLOOKUP($A6,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Realista</v>
+        <v xml:space="preserve">Hda La Ringlera </v>
       </c>
       <c r="D6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],4,FALSE),VLOOKUP($A6,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],4,FALSE),VLOOKUP($A6,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Medellín</v>
+        <v>Ibagué</v>
       </c>
       <c r="E6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],5,FALSE),VLOOKUP($A6,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],5,FALSE),VLOOKUP($A6,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Antioquia</v>
+        <v>Tolima</v>
       </c>
       <c r="F6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],6,FALSE),VLOOKUP($A6,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],6,FALSE),VLOOKUP($A6,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>Hda Realista Número 2</v>
+        <v/>
       </c>
       <c r="G6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],7,FALSE),VLOOKUP($A6,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],7,FALSE),VLOOKUP($A6,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>Envigado</v>
+        <v/>
       </c>
       <c r="H6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],8,FALSE),VLOOKUP($A6,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],8,FALSE),VLOOKUP($A6,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>Antioquia</v>
+        <v/>
       </c>
       <c r="I6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],9,FALSE),VLOOKUP($A6,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],9,FALSE),VLOOKUP($A6,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>Hda Realista Número 3</v>
+        <v/>
       </c>
       <c r="J6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],10,FALSE),VLOOKUP($A6,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],10,FALSE),VLOOKUP($A6,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>El Poblado</v>
+        <v/>
       </c>
       <c r="K6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],11,FALSE),VLOOKUP($A6,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],11,FALSE),VLOOKUP($A6,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>Antioquia</v>
+        <v/>
       </c>
       <c r="L6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],12,FALSE),VLOOKUP($A6,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],12,FALSE),VLOOKUP($A6,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman Puro Blanco y Rojo</v>
+        <v>Ganado Puro, Brahman</v>
       </c>
       <c r="M6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],13,FALSE),VLOOKUP($A6,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],13,FALSE),VLOOKUP($A6,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 123 BIS SUR #99-99 INT 9999</v>
+        <v>CL 12 1 17 PI 2</v>
       </c>
       <c r="N6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],14,FALSE),VLOOKUP($A6,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],14,FALSE),VLOOKUP($A6,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Medellín</v>
+        <v>Ibagué</v>
       </c>
       <c r="O6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],15,FALSE),VLOOKUP($A6,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],15,FALSE),VLOOKUP($A6,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P6" t="str">
+        <v>Tolima</v>
+      </c>
+      <c r="P6">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],16,FALSE),VLOOKUP($A6,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],16,FALSE),VLOOKUP($A6,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>8888888888</v>
+        <v>2615037</v>
       </c>
       <c r="Q6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],17,FALSE),VLOOKUP($A6,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],17,FALSE),VLOOKUP($A6,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>000000000</v>
+        <v/>
       </c>
       <c r="R6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],18,FALSE),VLOOKUP($A6,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],18,FALSE),VLOOKUP($A6,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>4444444444</v>
+        <v/>
       </c>
       <c r="S6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],19,FALSE),VLOOKUP($A6,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],19,FALSE),VLOOKUP($A6,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>5555555555</v>
+        <v/>
       </c>
       <c r="T6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],20,FALSE),VLOOKUP($A6,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],20,FALSE),VLOOKUP($A6,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>3333333333</v>
+        <v/>
       </c>
       <c r="U6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],21,FALSE),VLOOKUP($A6,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],21,FALSE),VLOOKUP($A6,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>2222222222</v>
+        <v/>
       </c>
       <c r="V6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],22,FALSE),VLOOKUP($A6,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],22,FALSE),VLOOKUP($A6,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>emailrealista@real.com</v>
+        <v>elzorro@telecom.com.co</v>
       </c>
       <c r="W6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],23,FALSE),VLOOKUP($A6,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],23,FALSE),VLOOKUP($A6,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>emailrealista2@real.com</v>
+        <v/>
       </c>
       <c r="X6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],24,FALSE),VLOOKUP($A6,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],24,FALSE),VLOOKUP($A6,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>leomessi</v>
+        <v/>
       </c>
       <c r="Y6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],25,FALSE),VLOOKUP($A6,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],25,FALSE),VLOOKUP($A6,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>leomessi</v>
+        <v/>
       </c>
       <c r="Z6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],26,FALSE),VLOOKUP($A6,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],26,FALSE),VLOOKUP($A6,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>573192556630</v>
+        <v/>
       </c>
       <c r="AA6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],27,FALSE),VLOOKUP($A6,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],27,FALSE),VLOOKUP($A6,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>572222222222</v>
+        <v/>
       </c>
       <c r="AB6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],28,FALSE),VLOOKUP($A6,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],28,FALSE),VLOOKUP($A6,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>ryanesling</v>
+        <v/>
       </c>
       <c r="AC6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],29,FALSE),VLOOKUP($A6,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],29,FALSE),VLOOKUP($A6,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>https://asocebu.com/</v>
+        <v/>
       </c>
       <c r="AD6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],30,FALSE),VLOOKUP($A6,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],30,FALSE),VLOOKUP($A6,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>Juan Ernesto Juanes Hernandez</v>
+        <v/>
       </c>
       <c r="AE6" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],31,FALSE),VLOOKUP($A6,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],31,FALSE),VLOOKUP($A6,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>Campo Adicional 1</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>56</v>
+      <c r="A7" s="21" t="s">
+        <v>278</v>
       </c>
       <c r="B7" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],2,FALSE),VLOOKUP($A7,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],2,FALSE),VLOOKUP($A7,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>ÁLVARO MESA CADAVID</v>
+        <v>LUIS SAMUEL MARTÍNEZ E HIJOS</v>
       </c>
       <c r="C7" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],3,FALSE),VLOOKUP($A7,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],3,FALSE),VLOOKUP($A7,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda La Sofia BR</v>
+        <v>Hdas. El Caney</v>
       </c>
       <c r="D7" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],4,FALSE),VLOOKUP($A7,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],4,FALSE),VLOOKUP($A7,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Turbo</v>
+        <v>Santa Fé de Antioquia</v>
       </c>
       <c r="E7" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],5,FALSE),VLOOKUP($A7,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],5,FALSE),VLOOKUP($A7,CriadoresDirectorio[],5,FALSE)))</f>
@@ -13418,31 +13699,31 @@
       </c>
       <c r="L7" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],12,FALSE),VLOOKUP($A7,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],12,FALSE),VLOOKUP($A7,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Guzerá</v>
+        <v>Ganado Puro, Brahman</v>
       </c>
       <c r="M7" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],13,FALSE),VLOOKUP($A7,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],13,FALSE),VLOOKUP($A7,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 94A 104 45 BR NUEVO APARTADO</v>
+        <v xml:space="preserve">CR 43A 9 SUR 91 TO SUR OF 907 </v>
       </c>
       <c r="N7" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],14,FALSE),VLOOKUP($A7,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],14,FALSE),VLOOKUP($A7,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Apartadó</v>
+        <v>Medellín</v>
       </c>
       <c r="O7" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],15,FALSE),VLOOKUP($A7,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],15,FALSE),VLOOKUP($A7,CriadoresDirectorio[],15,FALSE)))</f>
         <v>Antioquia</v>
       </c>
-      <c r="P7" t="str">
+      <c r="P7">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],16,FALSE),VLOOKUP($A7,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],16,FALSE),VLOOKUP($A7,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>8283549Ext.104</v>
+        <v>3136379</v>
       </c>
       <c r="Q7">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],17,FALSE),VLOOKUP($A7,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],17,FALSE),VLOOKUP($A7,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3117249266</v>
-      </c>
-      <c r="R7" t="str">
+        <v>3135825</v>
+      </c>
+      <c r="R7">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],18,FALSE),VLOOKUP($A7,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],18,FALSE),VLOOKUP($A7,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
+        <v>3108364605</v>
       </c>
       <c r="S7" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],19,FALSE),VLOOKUP($A7,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],19,FALSE),VLOOKUP($A7,CriadoresDirectorio[],19,FALSE)))</f>
@@ -13458,11 +13739,11 @@
       </c>
       <c r="V7" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],22,FALSE),VLOOKUP($A7,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],22,FALSE),VLOOKUP($A7,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>hdalasofia@gmail.com</v>
+        <v>ls@luisamuelmartinez.com</v>
       </c>
       <c r="W7" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],23,FALSE),VLOOKUP($A7,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],23,FALSE),VLOOKUP($A7,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
+        <v>ganaderiaelcaney@gmail.com</v>
       </c>
       <c r="X7" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],24,FALSE),VLOOKUP($A7,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],24,FALSE),VLOOKUP($A7,CriadoresDirectorio[],24,FALSE)))</f>
@@ -13486,7 +13767,7 @@
       </c>
       <c r="AC7" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],29,FALSE),VLOOKUP($A7,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],29,FALSE),VLOOKUP($A7,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
+        <v>http://www.luisamuelmartinez.com</v>
       </c>
       <c r="AD7" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],30,FALSE),VLOOKUP($A7,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],30,FALSE),VLOOKUP($A7,CriadoresDirectorio[],30,FALSE)))</f>
@@ -13498,24 +13779,24 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>63</v>
+      <c r="A8" s="21" t="s">
+        <v>2205</v>
       </c>
       <c r="B8" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],2,FALSE),VLOOKUP($A8,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],2,FALSE),VLOOKUP($A8,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>ALVARO PUERTA ARANGO</v>
+        <v>EDUARDO OYUELA ZEA</v>
       </c>
       <c r="C8" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],3,FALSE),VLOOKUP($A8,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],3,FALSE),VLOOKUP($A8,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Popala</v>
+        <v xml:space="preserve">Hda Buenos Aires </v>
       </c>
       <c r="D8" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],4,FALSE),VLOOKUP($A8,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],4,FALSE),VLOOKUP($A8,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Bolombolo</v>
+        <v>Purificación</v>
       </c>
       <c r="E8" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],5,FALSE),VLOOKUP($A8,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],5,FALSE),VLOOKUP($A8,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Antioquia</v>
+        <v>Tolima</v>
       </c>
       <c r="F8" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],6,FALSE),VLOOKUP($A8,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],6,FALSE),VLOOKUP($A8,CriadoresDirectorio[],6,FALSE)))</f>
@@ -13543,35 +13824,35 @@
       </c>
       <c r="L8" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],12,FALSE),VLOOKUP($A8,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],12,FALSE),VLOOKUP($A8,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Brahman Rojo y Nelore</v>
+        <v>Ganado Puro, Brahman</v>
       </c>
       <c r="M8" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],13,FALSE),VLOOKUP($A8,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],13,FALSE),VLOOKUP($A8,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 7 # 39 - 290 - 1208</v>
+        <v>CL 16 68D 79</v>
       </c>
       <c r="N8" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],14,FALSE),VLOOKUP($A8,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],14,FALSE),VLOOKUP($A8,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Medellín</v>
+        <v>Bogotá D.C</v>
       </c>
       <c r="O8" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],15,FALSE),VLOOKUP($A8,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],15,FALSE),VLOOKUP($A8,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P8" t="str">
+        <v>Cundinamarca</v>
+      </c>
+      <c r="P8">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],16,FALSE),VLOOKUP($A8,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],16,FALSE),VLOOKUP($A8,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3128505226</v>
-      </c>
-      <c r="Q8" t="str">
+        <v>2924317</v>
+      </c>
+      <c r="Q8">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],17,FALSE),VLOOKUP($A8,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],17,FALSE),VLOOKUP($A8,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>6042059459</v>
-      </c>
-      <c r="R8" t="str">
+        <v>2922272</v>
+      </c>
+      <c r="R8">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],18,FALSE),VLOOKUP($A8,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],18,FALSE),VLOOKUP($A8,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S8" t="str">
+        <v>2926660</v>
+      </c>
+      <c r="S8">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],19,FALSE),VLOOKUP($A8,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],19,FALSE),VLOOKUP($A8,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
+        <v>3108163543</v>
       </c>
       <c r="T8" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],20,FALSE),VLOOKUP($A8,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],20,FALSE),VLOOKUP($A8,CriadoresDirectorio[],20,FALSE)))</f>
@@ -13583,7 +13864,7 @@
       </c>
       <c r="V8" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],22,FALSE),VLOOKUP($A8,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],22,FALSE),VLOOKUP($A8,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>alvaropuertas5@yahoo.com</v>
+        <v>info@eozbuenosaires.com</v>
       </c>
       <c r="W8" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],23,FALSE),VLOOKUP($A8,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],23,FALSE),VLOOKUP($A8,CriadoresDirectorio[],23,FALSE)))</f>
@@ -13611,7 +13892,7 @@
       </c>
       <c r="AC8" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],29,FALSE),VLOOKUP($A8,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],29,FALSE),VLOOKUP($A8,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
+        <v>http://www.eozbuenosaires.com</v>
       </c>
       <c r="AD8" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],30,FALSE),VLOOKUP($A8,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],30,FALSE),VLOOKUP($A8,CriadoresDirectorio[],30,FALSE)))</f>
@@ -13623,24 +13904,24 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>68</v>
+      <c r="A9" s="21" t="s">
+        <v>3062</v>
       </c>
       <c r="B9" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],2,FALSE),VLOOKUP($A9,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],2,FALSE),VLOOKUP($A9,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>ALVARO YEPEZ ESCOBAR</v>
+        <v>BRAHMAN ABASTECEDORA</v>
       </c>
       <c r="C9" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],3,FALSE),VLOOKUP($A9,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],3,FALSE),VLOOKUP($A9,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Judea, Colorado</v>
+        <v>Hda Abastecedora</v>
       </c>
       <c r="D9" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],4,FALSE),VLOOKUP($A9,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],4,FALSE),VLOOKUP($A9,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Nechí</v>
+        <v>Planeta Rica</v>
       </c>
       <c r="E9" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],5,FALSE),VLOOKUP($A9,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],5,FALSE),VLOOKUP($A9,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Antioquia</v>
+        <v>Córdoba</v>
       </c>
       <c r="F9" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],6,FALSE),VLOOKUP($A9,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],6,FALSE),VLOOKUP($A9,CriadoresDirectorio[],6,FALSE)))</f>
@@ -13668,31 +13949,31 @@
       </c>
       <c r="L9" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],12,FALSE),VLOOKUP($A9,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],12,FALSE),VLOOKUP($A9,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Brahman Rojo, Brahman Gris y Gyr</v>
+        <v>Ganado Puro, Brahman Gris y Rojo</v>
       </c>
       <c r="M9" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],13,FALSE),VLOOKUP($A9,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],13,FALSE),VLOOKUP($A9,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 26 # 10 - 112 INT 503</v>
+        <v/>
       </c>
       <c r="N9" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],14,FALSE),VLOOKUP($A9,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],14,FALSE),VLOOKUP($A9,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Medellín</v>
+        <v/>
       </c>
       <c r="O9" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],15,FALSE),VLOOKUP($A9,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],15,FALSE),VLOOKUP($A9,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P9" t="str">
+        <v/>
+      </c>
+      <c r="P9">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],16,FALSE),VLOOKUP($A9,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],16,FALSE),VLOOKUP($A9,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3137978255</v>
-      </c>
-      <c r="Q9" t="str">
+        <v>3131990</v>
+      </c>
+      <c r="Q9">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],17,FALSE),VLOOKUP($A9,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],17,FALSE),VLOOKUP($A9,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>(4)2686325</v>
-      </c>
-      <c r="R9" t="str">
+        <v>3014581782</v>
+      </c>
+      <c r="R9">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],18,FALSE),VLOOKUP($A9,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],18,FALSE),VLOOKUP($A9,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3163582773</v>
+        <v>3017579333</v>
       </c>
       <c r="S9" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],19,FALSE),VLOOKUP($A9,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],19,FALSE),VLOOKUP($A9,CriadoresDirectorio[],19,FALSE)))</f>
@@ -13708,7 +13989,7 @@
       </c>
       <c r="V9" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],22,FALSE),VLOOKUP($A9,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],22,FALSE),VLOOKUP($A9,CriadoresDirectorio[],22,FALSE)))</f>
-        <v/>
+        <v>abastecedora10@gmail.com</v>
       </c>
       <c r="W9" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],23,FALSE),VLOOKUP($A9,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],23,FALSE),VLOOKUP($A9,CriadoresDirectorio[],23,FALSE)))</f>
@@ -13736,7 +14017,7 @@
       </c>
       <c r="AC9" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],29,FALSE),VLOOKUP($A9,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],29,FALSE),VLOOKUP($A9,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
+        <v>http://www.brahmanabastecedora.com</v>
       </c>
       <c r="AD9" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],30,FALSE),VLOOKUP($A9,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],30,FALSE),VLOOKUP($A9,CriadoresDirectorio[],30,FALSE)))</f>
@@ -13748,20 +14029,20 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>72</v>
+      <c r="A10" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="B10" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],2,FALSE),VLOOKUP($A10,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],2,FALSE),VLOOKUP($A10,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>ANDREA VANESA TORO ANAYA</v>
+        <v>AGROPECUARIA LAS TINAJAS S.A.</v>
       </c>
       <c r="C10" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],3,FALSE),VLOOKUP($A10,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],3,FALSE),VLOOKUP($A10,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda El Retiro Vereda Barbacoas</v>
+        <v>Hda La Constancia</v>
       </c>
       <c r="D10" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],4,FALSE),VLOOKUP($A10,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],4,FALSE),VLOOKUP($A10,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Yondo</v>
+        <v>Puerto Berrío</v>
       </c>
       <c r="E10" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],5,FALSE),VLOOKUP($A10,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],5,FALSE),VLOOKUP($A10,CriadoresDirectorio[],5,FALSE)))</f>
@@ -13793,11 +14074,11 @@
       </c>
       <c r="L10" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],12,FALSE),VLOOKUP($A10,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],12,FALSE),VLOOKUP($A10,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Brahman y Guzerá</v>
+        <v>Ganado Puro, Brahman Puro Blanco y Rojo</v>
       </c>
       <c r="M10" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],13,FALSE),VLOOKUP($A10,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],13,FALSE),VLOOKUP($A10,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 75 # 45F - 18</v>
+        <v>CL 10 35 18</v>
       </c>
       <c r="N10" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],14,FALSE),VLOOKUP($A10,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],14,FALSE),VLOOKUP($A10,CriadoresDirectorio[],14,FALSE)))</f>
@@ -13805,19 +14086,19 @@
       </c>
       <c r="O10" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],15,FALSE),VLOOKUP($A10,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],15,FALSE),VLOOKUP($A10,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
+        <v>Antoquia</v>
       </c>
       <c r="P10" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],16,FALSE),VLOOKUP($A10,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],16,FALSE),VLOOKUP($A10,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3003047827</v>
-      </c>
-      <c r="Q10" t="str">
+        <v>2669172Ext.111</v>
+      </c>
+      <c r="Q10">
         <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],17,FALSE),VLOOKUP($A10,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],17,FALSE),VLOOKUP($A10,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>6044134885</v>
-      </c>
-      <c r="R10" t="str">
+        <v>2326915</v>
+      </c>
+      <c r="R10">
         <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],18,FALSE),VLOOKUP($A10,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],18,FALSE),VLOOKUP($A10,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
+        <v>3104632303</v>
       </c>
       <c r="S10" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],19,FALSE),VLOOKUP($A10,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],19,FALSE),VLOOKUP($A10,CriadoresDirectorio[],19,FALSE)))</f>
@@ -13833,11 +14114,11 @@
       </c>
       <c r="V10" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],22,FALSE),VLOOKUP($A10,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],22,FALSE),VLOOKUP($A10,CriadoresDirectorio[],22,FALSE)))</f>
-        <v/>
+        <v>agrotin@une.net.co</v>
       </c>
       <c r="W10" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],23,FALSE),VLOOKUP($A10,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],23,FALSE),VLOOKUP($A10,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
+        <v>gape@une.net.co</v>
       </c>
       <c r="X10" t="str">
         <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],24,FALSE),VLOOKUP($A10,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],24,FALSE),VLOOKUP($A10,CriadoresDirectorio[],24,FALSE)))</f>
@@ -13873,139 +14154,2954 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="str">
+      <c r="A11" s="21" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B11" t="e">
         <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],2,FALSE),VLOOKUP($A11,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],2,FALSE),VLOOKUP($A11,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>ANDRÉS FELIPE ZAPATA GIL</v>
-      </c>
-      <c r="C11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C11" t="e">
         <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],3,FALSE),VLOOKUP($A11,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],3,FALSE),VLOOKUP($A11,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Ganadería San Nicolás, Vereda La Virgen</v>
-      </c>
-      <c r="D11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" t="e">
         <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],4,FALSE),VLOOKUP($A11,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],4,FALSE),VLOOKUP($A11,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],5,FALSE),VLOOKUP($A11,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],5,FALSE),VLOOKUP($A11,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],6,FALSE),VLOOKUP($A11,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],6,FALSE),VLOOKUP($A11,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],7,FALSE),VLOOKUP($A11,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],7,FALSE),VLOOKUP($A11,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],8,FALSE),VLOOKUP($A11,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],8,FALSE),VLOOKUP($A11,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],9,FALSE),VLOOKUP($A11,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],9,FALSE),VLOOKUP($A11,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],10,FALSE),VLOOKUP($A11,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],10,FALSE),VLOOKUP($A11,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],11,FALSE),VLOOKUP($A11,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],11,FALSE),VLOOKUP($A11,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],12,FALSE),VLOOKUP($A11,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],12,FALSE),VLOOKUP($A11,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],13,FALSE),VLOOKUP($A11,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],13,FALSE),VLOOKUP($A11,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],14,FALSE),VLOOKUP($A11,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],14,FALSE),VLOOKUP($A11,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],15,FALSE),VLOOKUP($A11,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],15,FALSE),VLOOKUP($A11,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],16,FALSE),VLOOKUP($A11,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],16,FALSE),VLOOKUP($A11,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],17,FALSE),VLOOKUP($A11,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],17,FALSE),VLOOKUP($A11,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],18,FALSE),VLOOKUP($A11,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],18,FALSE),VLOOKUP($A11,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],19,FALSE),VLOOKUP($A11,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],19,FALSE),VLOOKUP($A11,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],20,FALSE),VLOOKUP($A11,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],20,FALSE),VLOOKUP($A11,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],21,FALSE),VLOOKUP($A11,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],21,FALSE),VLOOKUP($A11,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],22,FALSE),VLOOKUP($A11,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],22,FALSE),VLOOKUP($A11,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],23,FALSE),VLOOKUP($A11,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],23,FALSE),VLOOKUP($A11,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],24,FALSE),VLOOKUP($A11,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],24,FALSE),VLOOKUP($A11,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],25,FALSE),VLOOKUP($A11,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],25,FALSE),VLOOKUP($A11,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],26,FALSE),VLOOKUP($A11,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],26,FALSE),VLOOKUP($A11,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],27,FALSE),VLOOKUP($A11,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],27,FALSE),VLOOKUP($A11,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],28,FALSE),VLOOKUP($A11,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],28,FALSE),VLOOKUP($A11,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],29,FALSE),VLOOKUP($A11,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],29,FALSE),VLOOKUP($A11,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],30,FALSE),VLOOKUP($A11,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],30,FALSE),VLOOKUP($A11,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE11" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],31,FALSE),VLOOKUP($A11,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],31,FALSE),VLOOKUP($A11,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],2,FALSE),VLOOKUP($A12,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],2,FALSE),VLOOKUP($A12,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>INVERSIONES AGROPECUARIA TRIPLE SIETE</v>
+      </c>
+      <c r="C12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],3,FALSE),VLOOKUP($A12,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],3,FALSE),VLOOKUP($A12,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda El Chorro</v>
+      </c>
+      <c r="D12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],4,FALSE),VLOOKUP($A12,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],4,FALSE),VLOOKUP($A12,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Gamarra</v>
+      </c>
+      <c r="E12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],5,FALSE),VLOOKUP($A12,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],5,FALSE),VLOOKUP($A12,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Cesar</v>
+      </c>
+      <c r="F12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],6,FALSE),VLOOKUP($A12,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],6,FALSE),VLOOKUP($A12,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>Hda Arizona</v>
+      </c>
+      <c r="G12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],7,FALSE),VLOOKUP($A12,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],7,FALSE),VLOOKUP($A12,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>Puerto Boyacá</v>
+      </c>
+      <c r="H12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],8,FALSE),VLOOKUP($A12,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],8,FALSE),VLOOKUP($A12,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>Boyacá</v>
+      </c>
+      <c r="I12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],9,FALSE),VLOOKUP($A12,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],9,FALSE),VLOOKUP($A12,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],10,FALSE),VLOOKUP($A12,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],10,FALSE),VLOOKUP($A12,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],11,FALSE),VLOOKUP($A12,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],11,FALSE),VLOOKUP($A12,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],12,FALSE),VLOOKUP($A12,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],12,FALSE),VLOOKUP($A12,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],13,FALSE),VLOOKUP($A12,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],13,FALSE),VLOOKUP($A12,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 48 62 77</v>
+      </c>
+      <c r="N12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],14,FALSE),VLOOKUP($A12,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],14,FALSE),VLOOKUP($A12,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Río Negro</v>
+      </c>
+      <c r="O12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],15,FALSE),VLOOKUP($A12,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],15,FALSE),VLOOKUP($A12,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P12">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],16,FALSE),VLOOKUP($A12,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],16,FALSE),VLOOKUP($A12,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3666479</v>
+      </c>
+      <c r="Q12">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],17,FALSE),VLOOKUP($A12,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],17,FALSE),VLOOKUP($A12,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3148430520</v>
+      </c>
+      <c r="R12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],18,FALSE),VLOOKUP($A12,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],18,FALSE),VLOOKUP($A12,CriadoresDirectorio[],18,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],19,FALSE),VLOOKUP($A12,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],19,FALSE),VLOOKUP($A12,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],20,FALSE),VLOOKUP($A12,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],20,FALSE),VLOOKUP($A12,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],21,FALSE),VLOOKUP($A12,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],21,FALSE),VLOOKUP($A12,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],22,FALSE),VLOOKUP($A12,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],22,FALSE),VLOOKUP($A12,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>hdaelchorro@gmail.com</v>
+      </c>
+      <c r="W12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],23,FALSE),VLOOKUP($A12,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],23,FALSE),VLOOKUP($A12,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],24,FALSE),VLOOKUP($A12,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],24,FALSE),VLOOKUP($A12,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],25,FALSE),VLOOKUP($A12,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],25,FALSE),VLOOKUP($A12,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],26,FALSE),VLOOKUP($A12,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],26,FALSE),VLOOKUP($A12,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],27,FALSE),VLOOKUP($A12,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],27,FALSE),VLOOKUP($A12,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],28,FALSE),VLOOKUP($A12,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],28,FALSE),VLOOKUP($A12,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],29,FALSE),VLOOKUP($A12,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],29,FALSE),VLOOKUP($A12,CriadoresDirectorio[],29,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],30,FALSE),VLOOKUP($A12,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],30,FALSE),VLOOKUP($A12,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],31,FALSE),VLOOKUP($A12,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],31,FALSE),VLOOKUP($A12,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],2,FALSE),VLOOKUP($A13,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],2,FALSE),VLOOKUP($A13,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>GANADERÍA SAN RAFAEL</v>
+      </c>
+      <c r="C13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],3,FALSE),VLOOKUP($A13,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],3,FALSE),VLOOKUP($A13,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda San Rafael</v>
+      </c>
+      <c r="D13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],4,FALSE),VLOOKUP($A13,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],4,FALSE),VLOOKUP($A13,CriadoresDirectorio[],4,FALSE)))</f>
         <v>Caucasia</v>
       </c>
-      <c r="E11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],5,FALSE),VLOOKUP($A11,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],5,FALSE),VLOOKUP($A11,CriadoresDirectorio[],5,FALSE)))</f>
+      <c r="E13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],5,FALSE),VLOOKUP($A13,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],5,FALSE),VLOOKUP($A13,CriadoresDirectorio[],5,FALSE)))</f>
         <v>Antioquia</v>
       </c>
-      <c r="F11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],6,FALSE),VLOOKUP($A11,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],6,FALSE),VLOOKUP($A11,CriadoresDirectorio[],6,FALSE)))</f>
+      <c r="F13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],6,FALSE),VLOOKUP($A13,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],6,FALSE),VLOOKUP($A13,CriadoresDirectorio[],6,FALSE)))</f>
         <v/>
       </c>
-      <c r="G11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],7,FALSE),VLOOKUP($A11,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],7,FALSE),VLOOKUP($A11,CriadoresDirectorio[],7,FALSE)))</f>
+      <c r="G13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],7,FALSE),VLOOKUP($A13,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],7,FALSE),VLOOKUP($A13,CriadoresDirectorio[],7,FALSE)))</f>
         <v/>
       </c>
-      <c r="H11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],8,FALSE),VLOOKUP($A11,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],8,FALSE),VLOOKUP($A11,CriadoresDirectorio[],8,FALSE)))</f>
+      <c r="H13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],8,FALSE),VLOOKUP($A13,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],8,FALSE),VLOOKUP($A13,CriadoresDirectorio[],8,FALSE)))</f>
         <v/>
       </c>
-      <c r="I11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],9,FALSE),VLOOKUP($A11,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],9,FALSE),VLOOKUP($A11,CriadoresDirectorio[],9,FALSE)))</f>
+      <c r="I13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],9,FALSE),VLOOKUP($A13,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],9,FALSE),VLOOKUP($A13,CriadoresDirectorio[],9,FALSE)))</f>
         <v/>
       </c>
-      <c r="J11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],10,FALSE),VLOOKUP($A11,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],10,FALSE),VLOOKUP($A11,CriadoresDirectorio[],10,FALSE)))</f>
+      <c r="J13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],10,FALSE),VLOOKUP($A13,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],10,FALSE),VLOOKUP($A13,CriadoresDirectorio[],10,FALSE)))</f>
         <v/>
       </c>
-      <c r="K11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],11,FALSE),VLOOKUP($A11,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],11,FALSE),VLOOKUP($A11,CriadoresDirectorio[],11,FALSE)))</f>
+      <c r="K13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],11,FALSE),VLOOKUP($A13,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],11,FALSE),VLOOKUP($A13,CriadoresDirectorio[],11,FALSE)))</f>
         <v/>
       </c>
-      <c r="L11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],12,FALSE),VLOOKUP($A11,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],12,FALSE),VLOOKUP($A11,CriadoresDirectorio[],12,FALSE)))</f>
+      <c r="L13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],12,FALSE),VLOOKUP($A13,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],12,FALSE),VLOOKUP($A13,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],13,FALSE),VLOOKUP($A13,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],13,FALSE),VLOOKUP($A13,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 7 SUR 42 70 OF 705 ED FORUM</v>
+      </c>
+      <c r="N13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],14,FALSE),VLOOKUP($A13,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],14,FALSE),VLOOKUP($A13,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Medellín</v>
+      </c>
+      <c r="O13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],15,FALSE),VLOOKUP($A13,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],15,FALSE),VLOOKUP($A13,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P13">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],16,FALSE),VLOOKUP($A13,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],16,FALSE),VLOOKUP($A13,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3267810</v>
+      </c>
+      <c r="Q13">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],17,FALSE),VLOOKUP($A13,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],17,FALSE),VLOOKUP($A13,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3267800</v>
+      </c>
+      <c r="R13">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],18,FALSE),VLOOKUP($A13,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],18,FALSE),VLOOKUP($A13,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>3142388</v>
+      </c>
+      <c r="S13">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],19,FALSE),VLOOKUP($A13,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],19,FALSE),VLOOKUP($A13,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>3155057570</v>
+      </c>
+      <c r="T13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],20,FALSE),VLOOKUP($A13,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],20,FALSE),VLOOKUP($A13,CriadoresDirectorio[],20,FALSE)))</f>
         <v/>
       </c>
-      <c r="M11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],13,FALSE),VLOOKUP($A11,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],13,FALSE),VLOOKUP($A11,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CT TRONCAL URB EL LAGO CS 47</v>
-      </c>
-      <c r="N11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],14,FALSE),VLOOKUP($A11,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],14,FALSE),VLOOKUP($A11,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Caucasia</v>
-      </c>
-      <c r="O11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],15,FALSE),VLOOKUP($A11,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],15,FALSE),VLOOKUP($A11,CriadoresDirectorio[],15,FALSE)))</f>
+      <c r="U13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],21,FALSE),VLOOKUP($A13,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],21,FALSE),VLOOKUP($A13,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],22,FALSE),VLOOKUP($A13,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],22,FALSE),VLOOKUP($A13,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>hespinosa@ganaderiasanrafael.com</v>
+      </c>
+      <c r="W13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],23,FALSE),VLOOKUP($A13,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],23,FALSE),VLOOKUP($A13,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],24,FALSE),VLOOKUP($A13,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],24,FALSE),VLOOKUP($A13,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],25,FALSE),VLOOKUP($A13,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],25,FALSE),VLOOKUP($A13,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],26,FALSE),VLOOKUP($A13,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],26,FALSE),VLOOKUP($A13,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],27,FALSE),VLOOKUP($A13,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],27,FALSE),VLOOKUP($A13,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],28,FALSE),VLOOKUP($A13,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],28,FALSE),VLOOKUP($A13,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],29,FALSE),VLOOKUP($A13,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],29,FALSE),VLOOKUP($A13,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>http://www.ganaderiasanrafael.com</v>
+      </c>
+      <c r="AD13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],30,FALSE),VLOOKUP($A13,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],30,FALSE),VLOOKUP($A13,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],31,FALSE),VLOOKUP($A13,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],31,FALSE),VLOOKUP($A13,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>987</v>
+      </c>
+      <c r="B14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],2,FALSE),VLOOKUP($A14,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],2,FALSE),VLOOKUP($A14,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>HACIENDA BUENOS AIRES LTDA.</v>
+      </c>
+      <c r="C14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],3,FALSE),VLOOKUP($A14,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],3,FALSE),VLOOKUP($A14,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Buenos Aires, Finca Corinto</v>
+      </c>
+      <c r="D14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],4,FALSE),VLOOKUP($A14,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],4,FALSE),VLOOKUP($A14,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Florencia</v>
+      </c>
+      <c r="E14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],5,FALSE),VLOOKUP($A14,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],5,FALSE),VLOOKUP($A14,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Caquetá</v>
+      </c>
+      <c r="F14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],6,FALSE),VLOOKUP($A14,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],6,FALSE),VLOOKUP($A14,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],7,FALSE),VLOOKUP($A14,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],7,FALSE),VLOOKUP($A14,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],8,FALSE),VLOOKUP($A14,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],8,FALSE),VLOOKUP($A14,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],9,FALSE),VLOOKUP($A14,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],9,FALSE),VLOOKUP($A14,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],10,FALSE),VLOOKUP($A14,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],10,FALSE),VLOOKUP($A14,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],11,FALSE),VLOOKUP($A14,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],11,FALSE),VLOOKUP($A14,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],12,FALSE),VLOOKUP($A14,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],12,FALSE),VLOOKUP($A14,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Brahman</v>
+      </c>
+      <c r="M14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],13,FALSE),VLOOKUP($A14,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],13,FALSE),VLOOKUP($A14,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 10 # 9 - 39 BRR EL PRADO</v>
+      </c>
+      <c r="N14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],14,FALSE),VLOOKUP($A14,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],14,FALSE),VLOOKUP($A14,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Florencia</v>
+      </c>
+      <c r="O14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],15,FALSE),VLOOKUP($A14,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],15,FALSE),VLOOKUP($A14,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Caquetá</v>
+      </c>
+      <c r="P14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],16,FALSE),VLOOKUP($A14,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],16,FALSE),VLOOKUP($A14,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>(091)4362035</v>
+      </c>
+      <c r="Q14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],17,FALSE),VLOOKUP($A14,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],17,FALSE),VLOOKUP($A14,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3143043045</v>
+      </c>
+      <c r="R14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],18,FALSE),VLOOKUP($A14,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],18,FALSE),VLOOKUP($A14,CriadoresDirectorio[],18,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],19,FALSE),VLOOKUP($A14,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],19,FALSE),VLOOKUP($A14,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],20,FALSE),VLOOKUP($A14,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],20,FALSE),VLOOKUP($A14,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],21,FALSE),VLOOKUP($A14,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],21,FALSE),VLOOKUP($A14,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],22,FALSE),VLOOKUP($A14,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],22,FALSE),VLOOKUP($A14,CriadoresDirectorio[],22,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="W14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],23,FALSE),VLOOKUP($A14,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],23,FALSE),VLOOKUP($A14,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],24,FALSE),VLOOKUP($A14,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],24,FALSE),VLOOKUP($A14,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],25,FALSE),VLOOKUP($A14,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],25,FALSE),VLOOKUP($A14,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],26,FALSE),VLOOKUP($A14,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],26,FALSE),VLOOKUP($A14,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],27,FALSE),VLOOKUP($A14,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],27,FALSE),VLOOKUP($A14,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],28,FALSE),VLOOKUP($A14,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],28,FALSE),VLOOKUP($A14,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],29,FALSE),VLOOKUP($A14,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],29,FALSE),VLOOKUP($A14,CriadoresDirectorio[],29,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],30,FALSE),VLOOKUP($A14,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],30,FALSE),VLOOKUP($A14,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],31,FALSE),VLOOKUP($A14,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],31,FALSE),VLOOKUP($A14,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],2,FALSE),VLOOKUP($A15,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],2,FALSE),VLOOKUP($A15,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>PROYEGAN S.A.S. - HACIENDA CADIZ</v>
+      </c>
+      <c r="C15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],3,FALSE),VLOOKUP($A15,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],3,FALSE),VLOOKUP($A15,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Cádiz</v>
+      </c>
+      <c r="D15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],4,FALSE),VLOOKUP($A15,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],4,FALSE),VLOOKUP($A15,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Lorica</v>
+      </c>
+      <c r="E15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],5,FALSE),VLOOKUP($A15,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],5,FALSE),VLOOKUP($A15,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Córdoba</v>
+      </c>
+      <c r="F15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],6,FALSE),VLOOKUP($A15,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],6,FALSE),VLOOKUP($A15,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],7,FALSE),VLOOKUP($A15,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],7,FALSE),VLOOKUP($A15,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],8,FALSE),VLOOKUP($A15,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],8,FALSE),VLOOKUP($A15,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],9,FALSE),VLOOKUP($A15,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],9,FALSE),VLOOKUP($A15,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],10,FALSE),VLOOKUP($A15,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],10,FALSE),VLOOKUP($A15,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],11,FALSE),VLOOKUP($A15,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],11,FALSE),VLOOKUP($A15,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],12,FALSE),VLOOKUP($A15,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],12,FALSE),VLOOKUP($A15,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],13,FALSE),VLOOKUP($A15,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],13,FALSE),VLOOKUP($A15,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 42 54A 155 AUTOP SUR</v>
+      </c>
+      <c r="N15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],14,FALSE),VLOOKUP($A15,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],14,FALSE),VLOOKUP($A15,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Itagüí</v>
+      </c>
+      <c r="O15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],15,FALSE),VLOOKUP($A15,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],15,FALSE),VLOOKUP($A15,CriadoresDirectorio[],15,FALSE)))</f>
         <v>Antioquia</v>
       </c>
-      <c r="P11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],16,FALSE),VLOOKUP($A11,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],16,FALSE),VLOOKUP($A11,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3137773031</v>
-      </c>
-      <c r="Q11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],17,FALSE),VLOOKUP($A11,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],17,FALSE),VLOOKUP($A11,CriadoresDirectorio[],17,FALSE)))</f>
+      <c r="P15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],16,FALSE),VLOOKUP($A15,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],16,FALSE),VLOOKUP($A15,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3734001Ext.101</v>
+      </c>
+      <c r="Q15">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],17,FALSE),VLOOKUP($A15,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],17,FALSE),VLOOKUP($A15,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3778936</v>
+      </c>
+      <c r="R15">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],18,FALSE),VLOOKUP($A15,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],18,FALSE),VLOOKUP($A15,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>3104240789</v>
+      </c>
+      <c r="S15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],19,FALSE),VLOOKUP($A15,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],19,FALSE),VLOOKUP($A15,CriadoresDirectorio[],19,FALSE)))</f>
         <v/>
       </c>
-      <c r="R11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],18,FALSE),VLOOKUP($A11,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],18,FALSE),VLOOKUP($A11,CriadoresDirectorio[],18,FALSE)))</f>
+      <c r="T15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],20,FALSE),VLOOKUP($A15,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],20,FALSE),VLOOKUP($A15,CriadoresDirectorio[],20,FALSE)))</f>
         <v/>
       </c>
-      <c r="S11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],19,FALSE),VLOOKUP($A11,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],19,FALSE),VLOOKUP($A11,CriadoresDirectorio[],19,FALSE)))</f>
+      <c r="U15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],21,FALSE),VLOOKUP($A15,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],21,FALSE),VLOOKUP($A15,CriadoresDirectorio[],21,FALSE)))</f>
         <v/>
       </c>
-      <c r="T11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],20,FALSE),VLOOKUP($A11,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],20,FALSE),VLOOKUP($A11,CriadoresDirectorio[],20,FALSE)))</f>
+      <c r="V15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],22,FALSE),VLOOKUP($A15,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],22,FALSE),VLOOKUP($A15,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>cmvelez@inverjota.com</v>
+      </c>
+      <c r="W15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],23,FALSE),VLOOKUP($A15,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],23,FALSE),VLOOKUP($A15,CriadoresDirectorio[],23,FALSE)))</f>
         <v/>
       </c>
-      <c r="U11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],21,FALSE),VLOOKUP($A11,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],21,FALSE),VLOOKUP($A11,CriadoresDirectorio[],21,FALSE)))</f>
+      <c r="X15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],24,FALSE),VLOOKUP($A15,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],24,FALSE),VLOOKUP($A15,CriadoresDirectorio[],24,FALSE)))</f>
         <v/>
       </c>
-      <c r="V11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],22,FALSE),VLOOKUP($A11,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],22,FALSE),VLOOKUP($A11,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>ganaderiasannicolascaucasia@gmail.com</v>
-      </c>
-      <c r="W11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],23,FALSE),VLOOKUP($A11,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],23,FALSE),VLOOKUP($A11,CriadoresDirectorio[],23,FALSE)))</f>
+      <c r="Y15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],25,FALSE),VLOOKUP($A15,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],25,FALSE),VLOOKUP($A15,CriadoresDirectorio[],25,FALSE)))</f>
         <v/>
       </c>
-      <c r="X11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],24,FALSE),VLOOKUP($A11,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],24,FALSE),VLOOKUP($A11,CriadoresDirectorio[],24,FALSE)))</f>
+      <c r="Z15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],26,FALSE),VLOOKUP($A15,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],26,FALSE),VLOOKUP($A15,CriadoresDirectorio[],26,FALSE)))</f>
         <v/>
       </c>
-      <c r="Y11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],25,FALSE),VLOOKUP($A11,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],25,FALSE),VLOOKUP($A11,CriadoresDirectorio[],25,FALSE)))</f>
+      <c r="AA15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],27,FALSE),VLOOKUP($A15,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],27,FALSE),VLOOKUP($A15,CriadoresDirectorio[],27,FALSE)))</f>
         <v/>
       </c>
-      <c r="Z11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],26,FALSE),VLOOKUP($A11,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],26,FALSE),VLOOKUP($A11,CriadoresDirectorio[],26,FALSE)))</f>
+      <c r="AB15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],28,FALSE),VLOOKUP($A15,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],28,FALSE),VLOOKUP($A15,CriadoresDirectorio[],28,FALSE)))</f>
         <v/>
       </c>
-      <c r="AA11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],27,FALSE),VLOOKUP($A11,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],27,FALSE),VLOOKUP($A11,CriadoresDirectorio[],27,FALSE)))</f>
+      <c r="AC15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],29,FALSE),VLOOKUP($A15,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],29,FALSE),VLOOKUP($A15,CriadoresDirectorio[],29,FALSE)))</f>
         <v/>
       </c>
-      <c r="AB11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],28,FALSE),VLOOKUP($A11,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],28,FALSE),VLOOKUP($A11,CriadoresDirectorio[],28,FALSE)))</f>
+      <c r="AD15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],30,FALSE),VLOOKUP($A15,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],30,FALSE),VLOOKUP($A15,CriadoresDirectorio[],30,FALSE)))</f>
         <v/>
       </c>
-      <c r="AC11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],29,FALSE),VLOOKUP($A11,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],29,FALSE),VLOOKUP($A11,CriadoresDirectorio[],29,FALSE)))</f>
+      <c r="AE15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],31,FALSE),VLOOKUP($A15,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],31,FALSE),VLOOKUP($A15,CriadoresDirectorio[],31,FALSE)))</f>
         <v/>
       </c>
-      <c r="AD11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],30,FALSE),VLOOKUP($A11,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],30,FALSE),VLOOKUP($A11,CriadoresDirectorio[],30,FALSE)))</f>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],2,FALSE),VLOOKUP($A16,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],2,FALSE),VLOOKUP($A16,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>INDUSTRIA GANADERA HATO CEBÚ S.A.</v>
+      </c>
+      <c r="C16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],3,FALSE),VLOOKUP($A16,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],3,FALSE),VLOOKUP($A16,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Villa Erika</v>
+      </c>
+      <c r="D16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],4,FALSE),VLOOKUP($A16,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],4,FALSE),VLOOKUP($A16,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Puerto Boyacá</v>
+      </c>
+      <c r="E16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],5,FALSE),VLOOKUP($A16,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],5,FALSE),VLOOKUP($A16,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Boyacá</v>
+      </c>
+      <c r="F16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],6,FALSE),VLOOKUP($A16,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],6,FALSE),VLOOKUP($A16,CriadoresDirectorio[],6,FALSE)))</f>
         <v/>
       </c>
-      <c r="AE11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],31,FALSE),VLOOKUP($A11,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],31,FALSE),VLOOKUP($A11,CriadoresDirectorio[],31,FALSE)))</f>
+      <c r="G16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],7,FALSE),VLOOKUP($A16,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],7,FALSE),VLOOKUP($A16,CriadoresDirectorio[],7,FALSE)))</f>
         <v/>
+      </c>
+      <c r="H16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],8,FALSE),VLOOKUP($A16,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],8,FALSE),VLOOKUP($A16,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],9,FALSE),VLOOKUP($A16,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],9,FALSE),VLOOKUP($A16,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],10,FALSE),VLOOKUP($A16,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],10,FALSE),VLOOKUP($A16,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],11,FALSE),VLOOKUP($A16,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],11,FALSE),VLOOKUP($A16,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],12,FALSE),VLOOKUP($A16,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],12,FALSE),VLOOKUP($A16,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],13,FALSE),VLOOKUP($A16,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],13,FALSE),VLOOKUP($A16,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 113 7 45 TO B OF 1016 ED TELEPORT</v>
+      </c>
+      <c r="N16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],14,FALSE),VLOOKUP($A16,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],14,FALSE),VLOOKUP($A16,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Bogotá D.C</v>
+      </c>
+      <c r="O16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],15,FALSE),VLOOKUP($A16,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],15,FALSE),VLOOKUP($A16,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Cundinamarca</v>
+      </c>
+      <c r="P16">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],16,FALSE),VLOOKUP($A16,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],16,FALSE),VLOOKUP($A16,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>2755530</v>
+      </c>
+      <c r="Q16">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],17,FALSE),VLOOKUP($A16,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],17,FALSE),VLOOKUP($A16,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>2755531</v>
+      </c>
+      <c r="R16">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],18,FALSE),VLOOKUP($A16,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],18,FALSE),VLOOKUP($A16,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>2755185</v>
+      </c>
+      <c r="S16">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],19,FALSE),VLOOKUP($A16,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],19,FALSE),VLOOKUP($A16,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>3212426603</v>
+      </c>
+      <c r="T16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],20,FALSE),VLOOKUP($A16,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],20,FALSE),VLOOKUP($A16,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],21,FALSE),VLOOKUP($A16,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],21,FALSE),VLOOKUP($A16,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],22,FALSE),VLOOKUP($A16,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],22,FALSE),VLOOKUP($A16,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>informacion@hatocebu.com</v>
+      </c>
+      <c r="W16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],23,FALSE),VLOOKUP($A16,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],23,FALSE),VLOOKUP($A16,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],24,FALSE),VLOOKUP($A16,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],24,FALSE),VLOOKUP($A16,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],25,FALSE),VLOOKUP($A16,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],25,FALSE),VLOOKUP($A16,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],26,FALSE),VLOOKUP($A16,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],26,FALSE),VLOOKUP($A16,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],27,FALSE),VLOOKUP($A16,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],27,FALSE),VLOOKUP($A16,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],28,FALSE),VLOOKUP($A16,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],28,FALSE),VLOOKUP($A16,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],29,FALSE),VLOOKUP($A16,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],29,FALSE),VLOOKUP($A16,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>http://www.hatocebu.com/</v>
+      </c>
+      <c r="AD16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],30,FALSE),VLOOKUP($A16,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],30,FALSE),VLOOKUP($A16,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],31,FALSE),VLOOKUP($A16,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],31,FALSE),VLOOKUP($A16,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>870</v>
+      </c>
+      <c r="B17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],2,FALSE),VLOOKUP($A17,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],2,FALSE),VLOOKUP($A17,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>GANADERÍA SACAPALOS</v>
+      </c>
+      <c r="C17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],3,FALSE),VLOOKUP($A17,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],3,FALSE),VLOOKUP($A17,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hdas. Yucatán</v>
+      </c>
+      <c r="D17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],4,FALSE),VLOOKUP($A17,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],4,FALSE),VLOOKUP($A17,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>La Dorada</v>
+      </c>
+      <c r="E17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],5,FALSE),VLOOKUP($A17,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],5,FALSE),VLOOKUP($A17,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Caldas</v>
+      </c>
+      <c r="F17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],6,FALSE),VLOOKUP($A17,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],6,FALSE),VLOOKUP($A17,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>Candilejas</v>
+      </c>
+      <c r="G17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],7,FALSE),VLOOKUP($A17,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],7,FALSE),VLOOKUP($A17,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>Puerto Salgar</v>
+      </c>
+      <c r="H17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],8,FALSE),VLOOKUP($A17,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],8,FALSE),VLOOKUP($A17,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>Cundinamarca</v>
+      </c>
+      <c r="I17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],9,FALSE),VLOOKUP($A17,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],9,FALSE),VLOOKUP($A17,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],10,FALSE),VLOOKUP($A17,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],10,FALSE),VLOOKUP($A17,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],11,FALSE),VLOOKUP($A17,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],11,FALSE),VLOOKUP($A17,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],12,FALSE),VLOOKUP($A17,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],12,FALSE),VLOOKUP($A17,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],13,FALSE),VLOOKUP($A17,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],13,FALSE),VLOOKUP($A17,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 30 5F 185 APTO 216</v>
+      </c>
+      <c r="N17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],14,FALSE),VLOOKUP($A17,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],14,FALSE),VLOOKUP($A17,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Medellín</v>
+      </c>
+      <c r="O17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],15,FALSE),VLOOKUP($A17,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],15,FALSE),VLOOKUP($A17,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P17">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],16,FALSE),VLOOKUP($A17,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],16,FALSE),VLOOKUP($A17,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>5702350</v>
+      </c>
+      <c r="Q17">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],17,FALSE),VLOOKUP($A17,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],17,FALSE),VLOOKUP($A17,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3147990150</v>
+      </c>
+      <c r="R17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],18,FALSE),VLOOKUP($A17,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],18,FALSE),VLOOKUP($A17,CriadoresDirectorio[],18,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],19,FALSE),VLOOKUP($A17,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],19,FALSE),VLOOKUP($A17,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],20,FALSE),VLOOKUP($A17,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],20,FALSE),VLOOKUP($A17,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],21,FALSE),VLOOKUP($A17,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],21,FALSE),VLOOKUP($A17,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],22,FALSE),VLOOKUP($A17,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],22,FALSE),VLOOKUP($A17,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>jorgelopezsacapalos@hotmail.com</v>
+      </c>
+      <c r="W17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],23,FALSE),VLOOKUP($A17,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],23,FALSE),VLOOKUP($A17,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],24,FALSE),VLOOKUP($A17,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],24,FALSE),VLOOKUP($A17,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],25,FALSE),VLOOKUP($A17,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],25,FALSE),VLOOKUP($A17,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],26,FALSE),VLOOKUP($A17,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],26,FALSE),VLOOKUP($A17,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],27,FALSE),VLOOKUP($A17,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],27,FALSE),VLOOKUP($A17,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],28,FALSE),VLOOKUP($A17,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],28,FALSE),VLOOKUP($A17,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],29,FALSE),VLOOKUP($A17,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],29,FALSE),VLOOKUP($A17,CriadoresDirectorio[],29,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],30,FALSE),VLOOKUP($A17,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],30,FALSE),VLOOKUP($A17,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],31,FALSE),VLOOKUP($A17,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],31,FALSE),VLOOKUP($A17,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],2,FALSE),VLOOKUP($A18,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],2,FALSE),VLOOKUP($A18,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],3,FALSE),VLOOKUP($A18,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],3,FALSE),VLOOKUP($A18,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],4,FALSE),VLOOKUP($A18,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],4,FALSE),VLOOKUP($A18,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],5,FALSE),VLOOKUP($A18,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],5,FALSE),VLOOKUP($A18,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],6,FALSE),VLOOKUP($A18,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],6,FALSE),VLOOKUP($A18,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],7,FALSE),VLOOKUP($A18,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],7,FALSE),VLOOKUP($A18,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],8,FALSE),VLOOKUP($A18,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],8,FALSE),VLOOKUP($A18,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],9,FALSE),VLOOKUP($A18,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],9,FALSE),VLOOKUP($A18,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],10,FALSE),VLOOKUP($A18,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],10,FALSE),VLOOKUP($A18,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],11,FALSE),VLOOKUP($A18,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],11,FALSE),VLOOKUP($A18,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],12,FALSE),VLOOKUP($A18,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],12,FALSE),VLOOKUP($A18,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],13,FALSE),VLOOKUP($A18,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],13,FALSE),VLOOKUP($A18,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],14,FALSE),VLOOKUP($A18,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],14,FALSE),VLOOKUP($A18,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],15,FALSE),VLOOKUP($A18,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],15,FALSE),VLOOKUP($A18,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],16,FALSE),VLOOKUP($A18,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],16,FALSE),VLOOKUP($A18,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],17,FALSE),VLOOKUP($A18,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],17,FALSE),VLOOKUP($A18,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],18,FALSE),VLOOKUP($A18,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],18,FALSE),VLOOKUP($A18,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],19,FALSE),VLOOKUP($A18,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],19,FALSE),VLOOKUP($A18,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],20,FALSE),VLOOKUP($A18,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],20,FALSE),VLOOKUP($A18,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],21,FALSE),VLOOKUP($A18,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],21,FALSE),VLOOKUP($A18,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],22,FALSE),VLOOKUP($A18,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],22,FALSE),VLOOKUP($A18,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],23,FALSE),VLOOKUP($A18,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],23,FALSE),VLOOKUP($A18,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],24,FALSE),VLOOKUP($A18,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],24,FALSE),VLOOKUP($A18,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],25,FALSE),VLOOKUP($A18,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],25,FALSE),VLOOKUP($A18,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],26,FALSE),VLOOKUP($A18,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],26,FALSE),VLOOKUP($A18,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],27,FALSE),VLOOKUP($A18,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],27,FALSE),VLOOKUP($A18,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],28,FALSE),VLOOKUP($A18,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],28,FALSE),VLOOKUP($A18,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],29,FALSE),VLOOKUP($A18,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],29,FALSE),VLOOKUP($A18,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],30,FALSE),VLOOKUP($A18,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],30,FALSE),VLOOKUP($A18,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE18" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],31,FALSE),VLOOKUP($A18,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],31,FALSE),VLOOKUP($A18,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],2,FALSE),VLOOKUP($A19,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],2,FALSE),VLOOKUP($A19,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],3,FALSE),VLOOKUP($A19,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],3,FALSE),VLOOKUP($A19,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],4,FALSE),VLOOKUP($A19,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],4,FALSE),VLOOKUP($A19,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],5,FALSE),VLOOKUP($A19,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],5,FALSE),VLOOKUP($A19,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],6,FALSE),VLOOKUP($A19,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],6,FALSE),VLOOKUP($A19,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],7,FALSE),VLOOKUP($A19,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],7,FALSE),VLOOKUP($A19,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],8,FALSE),VLOOKUP($A19,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],8,FALSE),VLOOKUP($A19,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],9,FALSE),VLOOKUP($A19,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],9,FALSE),VLOOKUP($A19,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],10,FALSE),VLOOKUP($A19,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],10,FALSE),VLOOKUP($A19,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],11,FALSE),VLOOKUP($A19,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],11,FALSE),VLOOKUP($A19,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],12,FALSE),VLOOKUP($A19,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],12,FALSE),VLOOKUP($A19,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],13,FALSE),VLOOKUP($A19,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],13,FALSE),VLOOKUP($A19,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],14,FALSE),VLOOKUP($A19,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],14,FALSE),VLOOKUP($A19,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],15,FALSE),VLOOKUP($A19,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],15,FALSE),VLOOKUP($A19,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],16,FALSE),VLOOKUP($A19,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],16,FALSE),VLOOKUP($A19,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],17,FALSE),VLOOKUP($A19,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],17,FALSE),VLOOKUP($A19,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],18,FALSE),VLOOKUP($A19,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],18,FALSE),VLOOKUP($A19,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],19,FALSE),VLOOKUP($A19,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],19,FALSE),VLOOKUP($A19,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],20,FALSE),VLOOKUP($A19,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],20,FALSE),VLOOKUP($A19,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],21,FALSE),VLOOKUP($A19,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],21,FALSE),VLOOKUP($A19,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],22,FALSE),VLOOKUP($A19,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],22,FALSE),VLOOKUP($A19,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],23,FALSE),VLOOKUP($A19,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],23,FALSE),VLOOKUP($A19,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],24,FALSE),VLOOKUP($A19,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],24,FALSE),VLOOKUP($A19,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],25,FALSE),VLOOKUP($A19,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],25,FALSE),VLOOKUP($A19,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],26,FALSE),VLOOKUP($A19,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],26,FALSE),VLOOKUP($A19,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],27,FALSE),VLOOKUP($A19,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],27,FALSE),VLOOKUP($A19,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],28,FALSE),VLOOKUP($A19,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],28,FALSE),VLOOKUP($A19,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],29,FALSE),VLOOKUP($A19,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],29,FALSE),VLOOKUP($A19,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],30,FALSE),VLOOKUP($A19,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],30,FALSE),VLOOKUP($A19,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],31,FALSE),VLOOKUP($A19,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],31,FALSE),VLOOKUP($A19,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],2,FALSE),VLOOKUP($A20,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],2,FALSE),VLOOKUP($A20,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],3,FALSE),VLOOKUP($A20,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],3,FALSE),VLOOKUP($A20,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],4,FALSE),VLOOKUP($A20,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],4,FALSE),VLOOKUP($A20,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],5,FALSE),VLOOKUP($A20,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],5,FALSE),VLOOKUP($A20,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],6,FALSE),VLOOKUP($A20,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],6,FALSE),VLOOKUP($A20,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],7,FALSE),VLOOKUP($A20,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],7,FALSE),VLOOKUP($A20,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],8,FALSE),VLOOKUP($A20,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],8,FALSE),VLOOKUP($A20,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],9,FALSE),VLOOKUP($A20,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],9,FALSE),VLOOKUP($A20,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],10,FALSE),VLOOKUP($A20,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],10,FALSE),VLOOKUP($A20,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],11,FALSE),VLOOKUP($A20,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],11,FALSE),VLOOKUP($A20,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],12,FALSE),VLOOKUP($A20,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],12,FALSE),VLOOKUP($A20,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],13,FALSE),VLOOKUP($A20,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],13,FALSE),VLOOKUP($A20,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],14,FALSE),VLOOKUP($A20,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],14,FALSE),VLOOKUP($A20,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],15,FALSE),VLOOKUP($A20,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],15,FALSE),VLOOKUP($A20,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],16,FALSE),VLOOKUP($A20,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],16,FALSE),VLOOKUP($A20,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],17,FALSE),VLOOKUP($A20,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],17,FALSE),VLOOKUP($A20,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],18,FALSE),VLOOKUP($A20,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],18,FALSE),VLOOKUP($A20,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],19,FALSE),VLOOKUP($A20,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],19,FALSE),VLOOKUP($A20,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],20,FALSE),VLOOKUP($A20,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],20,FALSE),VLOOKUP($A20,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],21,FALSE),VLOOKUP($A20,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],21,FALSE),VLOOKUP($A20,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],22,FALSE),VLOOKUP($A20,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],22,FALSE),VLOOKUP($A20,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],23,FALSE),VLOOKUP($A20,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],23,FALSE),VLOOKUP($A20,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],24,FALSE),VLOOKUP($A20,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],24,FALSE),VLOOKUP($A20,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],25,FALSE),VLOOKUP($A20,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],25,FALSE),VLOOKUP($A20,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],26,FALSE),VLOOKUP($A20,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],26,FALSE),VLOOKUP($A20,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],27,FALSE),VLOOKUP($A20,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],27,FALSE),VLOOKUP($A20,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],28,FALSE),VLOOKUP($A20,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],28,FALSE),VLOOKUP($A20,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],29,FALSE),VLOOKUP($A20,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],29,FALSE),VLOOKUP($A20,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],30,FALSE),VLOOKUP($A20,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],30,FALSE),VLOOKUP($A20,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],31,FALSE),VLOOKUP($A20,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],31,FALSE),VLOOKUP($A20,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],2,FALSE),VLOOKUP($A21,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],2,FALSE),VLOOKUP($A21,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],3,FALSE),VLOOKUP($A21,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],3,FALSE),VLOOKUP($A21,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],4,FALSE),VLOOKUP($A21,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],4,FALSE),VLOOKUP($A21,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],5,FALSE),VLOOKUP($A21,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],5,FALSE),VLOOKUP($A21,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],6,FALSE),VLOOKUP($A21,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],6,FALSE),VLOOKUP($A21,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],7,FALSE),VLOOKUP($A21,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],7,FALSE),VLOOKUP($A21,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],8,FALSE),VLOOKUP($A21,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],8,FALSE),VLOOKUP($A21,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],9,FALSE),VLOOKUP($A21,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],9,FALSE),VLOOKUP($A21,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],10,FALSE),VLOOKUP($A21,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],10,FALSE),VLOOKUP($A21,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],11,FALSE),VLOOKUP($A21,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],11,FALSE),VLOOKUP($A21,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],12,FALSE),VLOOKUP($A21,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],12,FALSE),VLOOKUP($A21,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],13,FALSE),VLOOKUP($A21,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],13,FALSE),VLOOKUP($A21,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],14,FALSE),VLOOKUP($A21,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],14,FALSE),VLOOKUP($A21,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],15,FALSE),VLOOKUP($A21,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],15,FALSE),VLOOKUP($A21,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],16,FALSE),VLOOKUP($A21,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],16,FALSE),VLOOKUP($A21,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],17,FALSE),VLOOKUP($A21,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],17,FALSE),VLOOKUP($A21,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],18,FALSE),VLOOKUP($A21,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],18,FALSE),VLOOKUP($A21,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],19,FALSE),VLOOKUP($A21,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],19,FALSE),VLOOKUP($A21,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],20,FALSE),VLOOKUP($A21,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],20,FALSE),VLOOKUP($A21,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],21,FALSE),VLOOKUP($A21,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],21,FALSE),VLOOKUP($A21,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],22,FALSE),VLOOKUP($A21,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],22,FALSE),VLOOKUP($A21,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],23,FALSE),VLOOKUP($A21,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],23,FALSE),VLOOKUP($A21,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],24,FALSE),VLOOKUP($A21,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],24,FALSE),VLOOKUP($A21,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],25,FALSE),VLOOKUP($A21,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],25,FALSE),VLOOKUP($A21,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],26,FALSE),VLOOKUP($A21,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],26,FALSE),VLOOKUP($A21,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],27,FALSE),VLOOKUP($A21,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],27,FALSE),VLOOKUP($A21,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],28,FALSE),VLOOKUP($A21,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],28,FALSE),VLOOKUP($A21,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],29,FALSE),VLOOKUP($A21,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],29,FALSE),VLOOKUP($A21,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],30,FALSE),VLOOKUP($A21,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],30,FALSE),VLOOKUP($A21,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],31,FALSE),VLOOKUP($A21,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],31,FALSE),VLOOKUP($A21,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],2,FALSE),VLOOKUP($A22,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],2,FALSE),VLOOKUP($A22,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],3,FALSE),VLOOKUP($A22,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],3,FALSE),VLOOKUP($A22,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],4,FALSE),VLOOKUP($A22,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],4,FALSE),VLOOKUP($A22,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],5,FALSE),VLOOKUP($A22,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],5,FALSE),VLOOKUP($A22,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],6,FALSE),VLOOKUP($A22,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],6,FALSE),VLOOKUP($A22,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],7,FALSE),VLOOKUP($A22,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],7,FALSE),VLOOKUP($A22,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],8,FALSE),VLOOKUP($A22,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],8,FALSE),VLOOKUP($A22,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],9,FALSE),VLOOKUP($A22,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],9,FALSE),VLOOKUP($A22,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],10,FALSE),VLOOKUP($A22,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],10,FALSE),VLOOKUP($A22,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],11,FALSE),VLOOKUP($A22,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],11,FALSE),VLOOKUP($A22,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],12,FALSE),VLOOKUP($A22,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],12,FALSE),VLOOKUP($A22,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],13,FALSE),VLOOKUP($A22,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],13,FALSE),VLOOKUP($A22,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],14,FALSE),VLOOKUP($A22,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],14,FALSE),VLOOKUP($A22,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],15,FALSE),VLOOKUP($A22,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],15,FALSE),VLOOKUP($A22,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],16,FALSE),VLOOKUP($A22,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],16,FALSE),VLOOKUP($A22,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],17,FALSE),VLOOKUP($A22,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],17,FALSE),VLOOKUP($A22,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],18,FALSE),VLOOKUP($A22,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],18,FALSE),VLOOKUP($A22,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],19,FALSE),VLOOKUP($A22,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],19,FALSE),VLOOKUP($A22,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],20,FALSE),VLOOKUP($A22,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],20,FALSE),VLOOKUP($A22,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],21,FALSE),VLOOKUP($A22,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],21,FALSE),VLOOKUP($A22,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],22,FALSE),VLOOKUP($A22,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],22,FALSE),VLOOKUP($A22,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],23,FALSE),VLOOKUP($A22,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],23,FALSE),VLOOKUP($A22,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],24,FALSE),VLOOKUP($A22,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],24,FALSE),VLOOKUP($A22,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],25,FALSE),VLOOKUP($A22,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],25,FALSE),VLOOKUP($A22,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],26,FALSE),VLOOKUP($A22,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],26,FALSE),VLOOKUP($A22,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],27,FALSE),VLOOKUP($A22,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],27,FALSE),VLOOKUP($A22,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],28,FALSE),VLOOKUP($A22,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],28,FALSE),VLOOKUP($A22,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],29,FALSE),VLOOKUP($A22,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],29,FALSE),VLOOKUP($A22,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],30,FALSE),VLOOKUP($A22,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],30,FALSE),VLOOKUP($A22,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],31,FALSE),VLOOKUP($A22,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],31,FALSE),VLOOKUP($A22,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],2,FALSE),VLOOKUP($A23,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],2,FALSE),VLOOKUP($A23,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],3,FALSE),VLOOKUP($A23,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],3,FALSE),VLOOKUP($A23,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],4,FALSE),VLOOKUP($A23,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],4,FALSE),VLOOKUP($A23,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],5,FALSE),VLOOKUP($A23,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],5,FALSE),VLOOKUP($A23,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],6,FALSE),VLOOKUP($A23,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],6,FALSE),VLOOKUP($A23,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],7,FALSE),VLOOKUP($A23,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],7,FALSE),VLOOKUP($A23,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],8,FALSE),VLOOKUP($A23,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],8,FALSE),VLOOKUP($A23,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],9,FALSE),VLOOKUP($A23,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],9,FALSE),VLOOKUP($A23,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],10,FALSE),VLOOKUP($A23,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],10,FALSE),VLOOKUP($A23,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],11,FALSE),VLOOKUP($A23,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],11,FALSE),VLOOKUP($A23,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],12,FALSE),VLOOKUP($A23,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],12,FALSE),VLOOKUP($A23,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],13,FALSE),VLOOKUP($A23,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],13,FALSE),VLOOKUP($A23,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],14,FALSE),VLOOKUP($A23,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],14,FALSE),VLOOKUP($A23,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],15,FALSE),VLOOKUP($A23,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],15,FALSE),VLOOKUP($A23,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],16,FALSE),VLOOKUP($A23,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],16,FALSE),VLOOKUP($A23,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],17,FALSE),VLOOKUP($A23,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],17,FALSE),VLOOKUP($A23,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],18,FALSE),VLOOKUP($A23,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],18,FALSE),VLOOKUP($A23,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],19,FALSE),VLOOKUP($A23,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],19,FALSE),VLOOKUP($A23,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],20,FALSE),VLOOKUP($A23,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],20,FALSE),VLOOKUP($A23,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],21,FALSE),VLOOKUP($A23,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],21,FALSE),VLOOKUP($A23,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],22,FALSE),VLOOKUP($A23,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],22,FALSE),VLOOKUP($A23,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],23,FALSE),VLOOKUP($A23,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],23,FALSE),VLOOKUP($A23,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],24,FALSE),VLOOKUP($A23,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],24,FALSE),VLOOKUP($A23,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],25,FALSE),VLOOKUP($A23,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],25,FALSE),VLOOKUP($A23,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],26,FALSE),VLOOKUP($A23,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],26,FALSE),VLOOKUP($A23,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],27,FALSE),VLOOKUP($A23,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],27,FALSE),VLOOKUP($A23,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],28,FALSE),VLOOKUP($A23,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],28,FALSE),VLOOKUP($A23,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],29,FALSE),VLOOKUP($A23,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],29,FALSE),VLOOKUP($A23,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],30,FALSE),VLOOKUP($A23,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],30,FALSE),VLOOKUP($A23,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE23" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],31,FALSE),VLOOKUP($A23,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],31,FALSE),VLOOKUP($A23,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],2,FALSE),VLOOKUP($A24,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],2,FALSE),VLOOKUP($A24,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>FUNDACIÓN GRUPO ARGOS</v>
+      </c>
+      <c r="C24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],3,FALSE),VLOOKUP($A24,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],3,FALSE),VLOOKUP($A24,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Casanare, La Magdalena</v>
+      </c>
+      <c r="D24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],4,FALSE),VLOOKUP($A24,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],4,FALSE),VLOOKUP($A24,CriadoresDirectorio[],4,FALSE)))</f>
+        <v xml:space="preserve">Puerto Nare </v>
+      </c>
+      <c r="E24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],5,FALSE),VLOOKUP($A24,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],5,FALSE),VLOOKUP($A24,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="F24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],6,FALSE),VLOOKUP($A24,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],6,FALSE),VLOOKUP($A24,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>Hda Centenario</v>
+      </c>
+      <c r="G24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],7,FALSE),VLOOKUP($A24,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],7,FALSE),VLOOKUP($A24,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>Montelíbano</v>
+      </c>
+      <c r="H24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],8,FALSE),VLOOKUP($A24,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],8,FALSE),VLOOKUP($A24,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>Córdoba</v>
+      </c>
+      <c r="I24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],9,FALSE),VLOOKUP($A24,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],9,FALSE),VLOOKUP($A24,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],10,FALSE),VLOOKUP($A24,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],10,FALSE),VLOOKUP($A24,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],11,FALSE),VLOOKUP($A24,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],11,FALSE),VLOOKUP($A24,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],12,FALSE),VLOOKUP($A24,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],12,FALSE),VLOOKUP($A24,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman, Gyr y Guzerá</v>
+      </c>
+      <c r="M24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],13,FALSE),VLOOKUP($A24,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],13,FALSE),VLOOKUP($A24,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 43 A 1 A SUR 143 ED SANTILLANA</v>
+      </c>
+      <c r="N24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],14,FALSE),VLOOKUP($A24,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],14,FALSE),VLOOKUP($A24,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Medellín</v>
+      </c>
+      <c r="O24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],15,FALSE),VLOOKUP($A24,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],15,FALSE),VLOOKUP($A24,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P24">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],16,FALSE),VLOOKUP($A24,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],16,FALSE),VLOOKUP($A24,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3158400</v>
+      </c>
+      <c r="Q24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],17,FALSE),VLOOKUP($A24,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],17,FALSE),VLOOKUP($A24,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3106200Ext.2100</v>
+      </c>
+      <c r="R24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],18,FALSE),VLOOKUP($A24,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],18,FALSE),VLOOKUP($A24,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>3106202Ext.4512</v>
+      </c>
+      <c r="S24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],19,FALSE),VLOOKUP($A24,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],19,FALSE),VLOOKUP($A24,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>3136860539/40</v>
+      </c>
+      <c r="T24">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],20,FALSE),VLOOKUP($A24,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],20,FALSE),VLOOKUP($A24,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>3122481505</v>
+      </c>
+      <c r="U24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],21,FALSE),VLOOKUP($A24,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],21,FALSE),VLOOKUP($A24,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],22,FALSE),VLOOKUP($A24,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],22,FALSE),VLOOKUP($A24,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>andres.valderrama@alianzaganadera.co</v>
+      </c>
+      <c r="W24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],23,FALSE),VLOOKUP($A24,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],23,FALSE),VLOOKUP($A24,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>avalderrama@rgrande.co</v>
+      </c>
+      <c r="X24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],24,FALSE),VLOOKUP($A24,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],24,FALSE),VLOOKUP($A24,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],25,FALSE),VLOOKUP($A24,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],25,FALSE),VLOOKUP($A24,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],26,FALSE),VLOOKUP($A24,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],26,FALSE),VLOOKUP($A24,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],27,FALSE),VLOOKUP($A24,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],27,FALSE),VLOOKUP($A24,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],28,FALSE),VLOOKUP($A24,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],28,FALSE),VLOOKUP($A24,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],29,FALSE),VLOOKUP($A24,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],29,FALSE),VLOOKUP($A24,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>http://www.ganaderiariogrande.com</v>
+      </c>
+      <c r="AD24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],30,FALSE),VLOOKUP($A24,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],30,FALSE),VLOOKUP($A24,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],31,FALSE),VLOOKUP($A24,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],31,FALSE),VLOOKUP($A24,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],2,FALSE),VLOOKUP($A25,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],2,FALSE),VLOOKUP($A25,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],3,FALSE),VLOOKUP($A25,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],3,FALSE),VLOOKUP($A25,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],4,FALSE),VLOOKUP($A25,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],4,FALSE),VLOOKUP($A25,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],5,FALSE),VLOOKUP($A25,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],5,FALSE),VLOOKUP($A25,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],6,FALSE),VLOOKUP($A25,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],6,FALSE),VLOOKUP($A25,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],7,FALSE),VLOOKUP($A25,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],7,FALSE),VLOOKUP($A25,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],8,FALSE),VLOOKUP($A25,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],8,FALSE),VLOOKUP($A25,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],9,FALSE),VLOOKUP($A25,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],9,FALSE),VLOOKUP($A25,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],10,FALSE),VLOOKUP($A25,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],10,FALSE),VLOOKUP($A25,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],11,FALSE),VLOOKUP($A25,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],11,FALSE),VLOOKUP($A25,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],12,FALSE),VLOOKUP($A25,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],12,FALSE),VLOOKUP($A25,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],13,FALSE),VLOOKUP($A25,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],13,FALSE),VLOOKUP($A25,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],14,FALSE),VLOOKUP($A25,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],14,FALSE),VLOOKUP($A25,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],15,FALSE),VLOOKUP($A25,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],15,FALSE),VLOOKUP($A25,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],16,FALSE),VLOOKUP($A25,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],16,FALSE),VLOOKUP($A25,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],17,FALSE),VLOOKUP($A25,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],17,FALSE),VLOOKUP($A25,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],18,FALSE),VLOOKUP($A25,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],18,FALSE),VLOOKUP($A25,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],19,FALSE),VLOOKUP($A25,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],19,FALSE),VLOOKUP($A25,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],20,FALSE),VLOOKUP($A25,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],20,FALSE),VLOOKUP($A25,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],21,FALSE),VLOOKUP($A25,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],21,FALSE),VLOOKUP($A25,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],22,FALSE),VLOOKUP($A25,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],22,FALSE),VLOOKUP($A25,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],23,FALSE),VLOOKUP($A25,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],23,FALSE),VLOOKUP($A25,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],24,FALSE),VLOOKUP($A25,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],24,FALSE),VLOOKUP($A25,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],25,FALSE),VLOOKUP($A25,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],25,FALSE),VLOOKUP($A25,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],26,FALSE),VLOOKUP($A25,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],26,FALSE),VLOOKUP($A25,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],27,FALSE),VLOOKUP($A25,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],27,FALSE),VLOOKUP($A25,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],28,FALSE),VLOOKUP($A25,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],28,FALSE),VLOOKUP($A25,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],29,FALSE),VLOOKUP($A25,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],29,FALSE),VLOOKUP($A25,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],30,FALSE),VLOOKUP($A25,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],30,FALSE),VLOOKUP($A25,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],31,FALSE),VLOOKUP($A25,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],31,FALSE),VLOOKUP($A25,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],2,FALSE),VLOOKUP($A26,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],2,FALSE),VLOOKUP($A26,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],3,FALSE),VLOOKUP($A26,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],3,FALSE),VLOOKUP($A26,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],4,FALSE),VLOOKUP($A26,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],4,FALSE),VLOOKUP($A26,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],5,FALSE),VLOOKUP($A26,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],5,FALSE),VLOOKUP($A26,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],6,FALSE),VLOOKUP($A26,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],6,FALSE),VLOOKUP($A26,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],7,FALSE),VLOOKUP($A26,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],7,FALSE),VLOOKUP($A26,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],8,FALSE),VLOOKUP($A26,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],8,FALSE),VLOOKUP($A26,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],9,FALSE),VLOOKUP($A26,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],9,FALSE),VLOOKUP($A26,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],10,FALSE),VLOOKUP($A26,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],10,FALSE),VLOOKUP($A26,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],11,FALSE),VLOOKUP($A26,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],11,FALSE),VLOOKUP($A26,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],12,FALSE),VLOOKUP($A26,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],12,FALSE),VLOOKUP($A26,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],13,FALSE),VLOOKUP($A26,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],13,FALSE),VLOOKUP($A26,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],14,FALSE),VLOOKUP($A26,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],14,FALSE),VLOOKUP($A26,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],15,FALSE),VLOOKUP($A26,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],15,FALSE),VLOOKUP($A26,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],16,FALSE),VLOOKUP($A26,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],16,FALSE),VLOOKUP($A26,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],17,FALSE),VLOOKUP($A26,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],17,FALSE),VLOOKUP($A26,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],18,FALSE),VLOOKUP($A26,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],18,FALSE),VLOOKUP($A26,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],19,FALSE),VLOOKUP($A26,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],19,FALSE),VLOOKUP($A26,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],20,FALSE),VLOOKUP($A26,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],20,FALSE),VLOOKUP($A26,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],21,FALSE),VLOOKUP($A26,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],21,FALSE),VLOOKUP($A26,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],22,FALSE),VLOOKUP($A26,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],22,FALSE),VLOOKUP($A26,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],23,FALSE),VLOOKUP($A26,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],23,FALSE),VLOOKUP($A26,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],24,FALSE),VLOOKUP($A26,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],24,FALSE),VLOOKUP($A26,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],25,FALSE),VLOOKUP($A26,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],25,FALSE),VLOOKUP($A26,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],26,FALSE),VLOOKUP($A26,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],26,FALSE),VLOOKUP($A26,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],27,FALSE),VLOOKUP($A26,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],27,FALSE),VLOOKUP($A26,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],28,FALSE),VLOOKUP($A26,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],28,FALSE),VLOOKUP($A26,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],29,FALSE),VLOOKUP($A26,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],29,FALSE),VLOOKUP($A26,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],30,FALSE),VLOOKUP($A26,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],30,FALSE),VLOOKUP($A26,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],31,FALSE),VLOOKUP($A26,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],31,FALSE),VLOOKUP($A26,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],2,FALSE),VLOOKUP($A27,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],2,FALSE),VLOOKUP($A27,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>GANADERIA MULTIGANGAS</v>
+      </c>
+      <c r="C27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],3,FALSE),VLOOKUP($A27,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],3,FALSE),VLOOKUP($A27,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda San Miguel</v>
+      </c>
+      <c r="D27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],4,FALSE),VLOOKUP($A27,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],4,FALSE),VLOOKUP($A27,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Planeta Rica</v>
+      </c>
+      <c r="E27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],5,FALSE),VLOOKUP($A27,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],5,FALSE),VLOOKUP($A27,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Córdoba</v>
+      </c>
+      <c r="F27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],6,FALSE),VLOOKUP($A27,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],6,FALSE),VLOOKUP($A27,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],7,FALSE),VLOOKUP($A27,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],7,FALSE),VLOOKUP($A27,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],8,FALSE),VLOOKUP($A27,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],8,FALSE),VLOOKUP($A27,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],9,FALSE),VLOOKUP($A27,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],9,FALSE),VLOOKUP($A27,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],10,FALSE),VLOOKUP($A27,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],10,FALSE),VLOOKUP($A27,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],11,FALSE),VLOOKUP($A27,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],11,FALSE),VLOOKUP($A27,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],12,FALSE),VLOOKUP($A27,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],12,FALSE),VLOOKUP($A27,CriadoresDirectorio[],12,FALSE)))</f>
+        <v xml:space="preserve">Asociado Puro, Brahman </v>
+      </c>
+      <c r="M27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],13,FALSE),VLOOKUP($A27,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],13,FALSE),VLOOKUP($A27,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 50 53 91</v>
+      </c>
+      <c r="N27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],14,FALSE),VLOOKUP($A27,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],14,FALSE),VLOOKUP($A27,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Medellín</v>
+      </c>
+      <c r="O27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],15,FALSE),VLOOKUP($A27,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],15,FALSE),VLOOKUP($A27,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P27">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],16,FALSE),VLOOKUP($A27,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],16,FALSE),VLOOKUP($A27,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>5123333</v>
+      </c>
+      <c r="Q27">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],17,FALSE),VLOOKUP($A27,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],17,FALSE),VLOOKUP($A27,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3146611656</v>
+      </c>
+      <c r="R27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],18,FALSE),VLOOKUP($A27,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],18,FALSE),VLOOKUP($A27,CriadoresDirectorio[],18,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],19,FALSE),VLOOKUP($A27,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],19,FALSE),VLOOKUP($A27,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],20,FALSE),VLOOKUP($A27,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],20,FALSE),VLOOKUP($A27,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],21,FALSE),VLOOKUP($A27,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],21,FALSE),VLOOKUP($A27,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],22,FALSE),VLOOKUP($A27,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],22,FALSE),VLOOKUP($A27,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>ganaderia@multigangasltda.com</v>
+      </c>
+      <c r="W27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],23,FALSE),VLOOKUP($A27,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],23,FALSE),VLOOKUP($A27,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],24,FALSE),VLOOKUP($A27,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],24,FALSE),VLOOKUP($A27,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],25,FALSE),VLOOKUP($A27,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],25,FALSE),VLOOKUP($A27,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],26,FALSE),VLOOKUP($A27,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],26,FALSE),VLOOKUP($A27,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],27,FALSE),VLOOKUP($A27,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],27,FALSE),VLOOKUP($A27,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],28,FALSE),VLOOKUP($A27,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],28,FALSE),VLOOKUP($A27,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],29,FALSE),VLOOKUP($A27,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],29,FALSE),VLOOKUP($A27,CriadoresDirectorio[],29,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],30,FALSE),VLOOKUP($A27,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],30,FALSE),VLOOKUP($A27,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],31,FALSE),VLOOKUP($A27,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],31,FALSE),VLOOKUP($A27,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],2,FALSE),VLOOKUP($A28,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],2,FALSE),VLOOKUP($A28,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],3,FALSE),VLOOKUP($A28,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],3,FALSE),VLOOKUP($A28,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],4,FALSE),VLOOKUP($A28,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],4,FALSE),VLOOKUP($A28,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],5,FALSE),VLOOKUP($A28,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],5,FALSE),VLOOKUP($A28,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],6,FALSE),VLOOKUP($A28,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],6,FALSE),VLOOKUP($A28,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],7,FALSE),VLOOKUP($A28,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],7,FALSE),VLOOKUP($A28,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],8,FALSE),VLOOKUP($A28,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],8,FALSE),VLOOKUP($A28,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],9,FALSE),VLOOKUP($A28,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],9,FALSE),VLOOKUP($A28,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],10,FALSE),VLOOKUP($A28,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],10,FALSE),VLOOKUP($A28,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],11,FALSE),VLOOKUP($A28,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],11,FALSE),VLOOKUP($A28,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],12,FALSE),VLOOKUP($A28,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],12,FALSE),VLOOKUP($A28,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],13,FALSE),VLOOKUP($A28,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],13,FALSE),VLOOKUP($A28,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],14,FALSE),VLOOKUP($A28,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],14,FALSE),VLOOKUP($A28,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],15,FALSE),VLOOKUP($A28,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],15,FALSE),VLOOKUP($A28,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],16,FALSE),VLOOKUP($A28,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],16,FALSE),VLOOKUP($A28,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],17,FALSE),VLOOKUP($A28,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],17,FALSE),VLOOKUP($A28,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],18,FALSE),VLOOKUP($A28,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],18,FALSE),VLOOKUP($A28,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],19,FALSE),VLOOKUP($A28,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],19,FALSE),VLOOKUP($A28,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],20,FALSE),VLOOKUP($A28,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],20,FALSE),VLOOKUP($A28,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],21,FALSE),VLOOKUP($A28,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],21,FALSE),VLOOKUP($A28,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],22,FALSE),VLOOKUP($A28,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],22,FALSE),VLOOKUP($A28,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],23,FALSE),VLOOKUP($A28,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],23,FALSE),VLOOKUP($A28,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],24,FALSE),VLOOKUP($A28,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],24,FALSE),VLOOKUP($A28,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],25,FALSE),VLOOKUP($A28,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],25,FALSE),VLOOKUP($A28,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],26,FALSE),VLOOKUP($A28,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],26,FALSE),VLOOKUP($A28,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],27,FALSE),VLOOKUP($A28,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],27,FALSE),VLOOKUP($A28,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],28,FALSE),VLOOKUP($A28,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],28,FALSE),VLOOKUP($A28,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],29,FALSE),VLOOKUP($A28,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],29,FALSE),VLOOKUP($A28,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],30,FALSE),VLOOKUP($A28,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],30,FALSE),VLOOKUP($A28,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],31,FALSE),VLOOKUP($A28,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],31,FALSE),VLOOKUP($A28,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],2,FALSE),VLOOKUP($A29,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],2,FALSE),VLOOKUP($A29,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],3,FALSE),VLOOKUP($A29,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],3,FALSE),VLOOKUP($A29,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],4,FALSE),VLOOKUP($A29,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],4,FALSE),VLOOKUP($A29,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],5,FALSE),VLOOKUP($A29,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],5,FALSE),VLOOKUP($A29,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],6,FALSE),VLOOKUP($A29,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],6,FALSE),VLOOKUP($A29,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],7,FALSE),VLOOKUP($A29,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],7,FALSE),VLOOKUP($A29,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],8,FALSE),VLOOKUP($A29,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],8,FALSE),VLOOKUP($A29,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],9,FALSE),VLOOKUP($A29,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],9,FALSE),VLOOKUP($A29,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],10,FALSE),VLOOKUP($A29,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],10,FALSE),VLOOKUP($A29,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],11,FALSE),VLOOKUP($A29,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],11,FALSE),VLOOKUP($A29,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],12,FALSE),VLOOKUP($A29,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],12,FALSE),VLOOKUP($A29,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],13,FALSE),VLOOKUP($A29,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],13,FALSE),VLOOKUP($A29,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],14,FALSE),VLOOKUP($A29,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],14,FALSE),VLOOKUP($A29,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],15,FALSE),VLOOKUP($A29,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],15,FALSE),VLOOKUP($A29,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],16,FALSE),VLOOKUP($A29,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],16,FALSE),VLOOKUP($A29,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],17,FALSE),VLOOKUP($A29,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],17,FALSE),VLOOKUP($A29,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],18,FALSE),VLOOKUP($A29,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],18,FALSE),VLOOKUP($A29,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],19,FALSE),VLOOKUP($A29,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],19,FALSE),VLOOKUP($A29,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],20,FALSE),VLOOKUP($A29,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],20,FALSE),VLOOKUP($A29,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],21,FALSE),VLOOKUP($A29,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],21,FALSE),VLOOKUP($A29,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],22,FALSE),VLOOKUP($A29,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],22,FALSE),VLOOKUP($A29,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],23,FALSE),VLOOKUP($A29,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],23,FALSE),VLOOKUP($A29,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],24,FALSE),VLOOKUP($A29,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],24,FALSE),VLOOKUP($A29,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],25,FALSE),VLOOKUP($A29,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],25,FALSE),VLOOKUP($A29,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],26,FALSE),VLOOKUP($A29,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],26,FALSE),VLOOKUP($A29,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],27,FALSE),VLOOKUP($A29,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],27,FALSE),VLOOKUP($A29,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],28,FALSE),VLOOKUP($A29,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],28,FALSE),VLOOKUP($A29,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],29,FALSE),VLOOKUP($A29,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],29,FALSE),VLOOKUP($A29,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],30,FALSE),VLOOKUP($A29,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],30,FALSE),VLOOKUP($A29,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE29" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],31,FALSE),VLOOKUP($A29,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],31,FALSE),VLOOKUP($A29,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],2,FALSE),VLOOKUP($A30,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],2,FALSE),VLOOKUP($A30,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],3,FALSE),VLOOKUP($A30,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],3,FALSE),VLOOKUP($A30,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],4,FALSE),VLOOKUP($A30,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],4,FALSE),VLOOKUP($A30,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],5,FALSE),VLOOKUP($A30,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],5,FALSE),VLOOKUP($A30,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],6,FALSE),VLOOKUP($A30,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],6,FALSE),VLOOKUP($A30,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],7,FALSE),VLOOKUP($A30,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],7,FALSE),VLOOKUP($A30,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],8,FALSE),VLOOKUP($A30,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],8,FALSE),VLOOKUP($A30,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],9,FALSE),VLOOKUP($A30,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],9,FALSE),VLOOKUP($A30,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],10,FALSE),VLOOKUP($A30,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],10,FALSE),VLOOKUP($A30,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],11,FALSE),VLOOKUP($A30,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],11,FALSE),VLOOKUP($A30,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],12,FALSE),VLOOKUP($A30,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],12,FALSE),VLOOKUP($A30,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],13,FALSE),VLOOKUP($A30,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],13,FALSE),VLOOKUP($A30,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],14,FALSE),VLOOKUP($A30,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],14,FALSE),VLOOKUP($A30,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],15,FALSE),VLOOKUP($A30,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],15,FALSE),VLOOKUP($A30,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],16,FALSE),VLOOKUP($A30,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],16,FALSE),VLOOKUP($A30,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],17,FALSE),VLOOKUP($A30,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],17,FALSE),VLOOKUP($A30,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],18,FALSE),VLOOKUP($A30,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],18,FALSE),VLOOKUP($A30,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],19,FALSE),VLOOKUP($A30,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],19,FALSE),VLOOKUP($A30,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],20,FALSE),VLOOKUP($A30,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],20,FALSE),VLOOKUP($A30,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],21,FALSE),VLOOKUP($A30,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],21,FALSE),VLOOKUP($A30,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],22,FALSE),VLOOKUP($A30,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],22,FALSE),VLOOKUP($A30,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],23,FALSE),VLOOKUP($A30,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],23,FALSE),VLOOKUP($A30,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],24,FALSE),VLOOKUP($A30,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],24,FALSE),VLOOKUP($A30,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],25,FALSE),VLOOKUP($A30,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],25,FALSE),VLOOKUP($A30,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],26,FALSE),VLOOKUP($A30,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],26,FALSE),VLOOKUP($A30,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],27,FALSE),VLOOKUP($A30,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],27,FALSE),VLOOKUP($A30,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],28,FALSE),VLOOKUP($A30,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],28,FALSE),VLOOKUP($A30,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],29,FALSE),VLOOKUP($A30,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],29,FALSE),VLOOKUP($A30,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],30,FALSE),VLOOKUP($A30,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],30,FALSE),VLOOKUP($A30,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE30" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],31,FALSE),VLOOKUP($A30,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],31,FALSE),VLOOKUP($A30,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="B31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],2,FALSE),VLOOKUP($A31,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],2,FALSE),VLOOKUP($A31,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>LUIS ALFONSO LONDOÑO BOTERO</v>
+      </c>
+      <c r="C31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],3,FALSE),VLOOKUP($A31,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],3,FALSE),VLOOKUP($A31,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Bajo Prieto</v>
+      </c>
+      <c r="D31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],4,FALSE),VLOOKUP($A31,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],4,FALSE),VLOOKUP($A31,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Cartagena</v>
+      </c>
+      <c r="E31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],5,FALSE),VLOOKUP($A31,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],5,FALSE),VLOOKUP($A31,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Bolívar</v>
+      </c>
+      <c r="F31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],6,FALSE),VLOOKUP($A31,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],6,FALSE),VLOOKUP($A31,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],7,FALSE),VLOOKUP($A31,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],7,FALSE),VLOOKUP($A31,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],8,FALSE),VLOOKUP($A31,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],8,FALSE),VLOOKUP($A31,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],9,FALSE),VLOOKUP($A31,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],9,FALSE),VLOOKUP($A31,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],10,FALSE),VLOOKUP($A31,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],10,FALSE),VLOOKUP($A31,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],11,FALSE),VLOOKUP($A31,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],11,FALSE),VLOOKUP($A31,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],12,FALSE),VLOOKUP($A31,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],12,FALSE),VLOOKUP($A31,CriadoresDirectorio[],12,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="M31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],13,FALSE),VLOOKUP($A31,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],13,FALSE),VLOOKUP($A31,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 8 # 5A - 56 ED POSITANO APTO 1602 CASTILLOGRANDE</v>
+      </c>
+      <c r="N31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],14,FALSE),VLOOKUP($A31,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],14,FALSE),VLOOKUP($A31,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Cartagena</v>
+      </c>
+      <c r="O31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],15,FALSE),VLOOKUP($A31,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],15,FALSE),VLOOKUP($A31,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Bolívar</v>
+      </c>
+      <c r="P31">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],16,FALSE),VLOOKUP($A31,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],16,FALSE),VLOOKUP($A31,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3103689458</v>
+      </c>
+      <c r="Q31">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],17,FALSE),VLOOKUP($A31,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],17,FALSE),VLOOKUP($A31,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3106233486</v>
+      </c>
+      <c r="R31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],18,FALSE),VLOOKUP($A31,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],18,FALSE),VLOOKUP($A31,CriadoresDirectorio[],18,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],19,FALSE),VLOOKUP($A31,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],19,FALSE),VLOOKUP($A31,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],20,FALSE),VLOOKUP($A31,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],20,FALSE),VLOOKUP($A31,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],21,FALSE),VLOOKUP($A31,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],21,FALSE),VLOOKUP($A31,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],22,FALSE),VLOOKUP($A31,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],22,FALSE),VLOOKUP($A31,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>luisalfonsolondono57@hotmail.com</v>
+      </c>
+      <c r="W31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],23,FALSE),VLOOKUP($A31,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],23,FALSE),VLOOKUP($A31,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],24,FALSE),VLOOKUP($A31,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],24,FALSE),VLOOKUP($A31,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],25,FALSE),VLOOKUP($A31,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],25,FALSE),VLOOKUP($A31,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],26,FALSE),VLOOKUP($A31,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],26,FALSE),VLOOKUP($A31,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],27,FALSE),VLOOKUP($A31,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],27,FALSE),VLOOKUP($A31,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],28,FALSE),VLOOKUP($A31,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],28,FALSE),VLOOKUP($A31,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],29,FALSE),VLOOKUP($A31,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],29,FALSE),VLOOKUP($A31,CriadoresDirectorio[],29,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],30,FALSE),VLOOKUP($A31,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],30,FALSE),VLOOKUP($A31,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],31,FALSE),VLOOKUP($A31,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],31,FALSE),VLOOKUP($A31,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],2,FALSE),VLOOKUP($A32,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],2,FALSE),VLOOKUP($A32,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],3,FALSE),VLOOKUP($A32,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],3,FALSE),VLOOKUP($A32,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],4,FALSE),VLOOKUP($A32,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],4,FALSE),VLOOKUP($A32,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],5,FALSE),VLOOKUP($A32,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],5,FALSE),VLOOKUP($A32,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],6,FALSE),VLOOKUP($A32,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],6,FALSE),VLOOKUP($A32,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],7,FALSE),VLOOKUP($A32,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],7,FALSE),VLOOKUP($A32,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],8,FALSE),VLOOKUP($A32,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],8,FALSE),VLOOKUP($A32,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],9,FALSE),VLOOKUP($A32,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],9,FALSE),VLOOKUP($A32,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],10,FALSE),VLOOKUP($A32,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],10,FALSE),VLOOKUP($A32,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],11,FALSE),VLOOKUP($A32,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],11,FALSE),VLOOKUP($A32,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],12,FALSE),VLOOKUP($A32,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],12,FALSE),VLOOKUP($A32,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],13,FALSE),VLOOKUP($A32,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],13,FALSE),VLOOKUP($A32,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],14,FALSE),VLOOKUP($A32,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],14,FALSE),VLOOKUP($A32,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],15,FALSE),VLOOKUP($A32,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],15,FALSE),VLOOKUP($A32,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],16,FALSE),VLOOKUP($A32,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],16,FALSE),VLOOKUP($A32,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],17,FALSE),VLOOKUP($A32,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],17,FALSE),VLOOKUP($A32,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],18,FALSE),VLOOKUP($A32,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],18,FALSE),VLOOKUP($A32,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],19,FALSE),VLOOKUP($A32,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],19,FALSE),VLOOKUP($A32,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],20,FALSE),VLOOKUP($A32,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],20,FALSE),VLOOKUP($A32,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],21,FALSE),VLOOKUP($A32,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],21,FALSE),VLOOKUP($A32,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],22,FALSE),VLOOKUP($A32,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],22,FALSE),VLOOKUP($A32,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],23,FALSE),VLOOKUP($A32,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],23,FALSE),VLOOKUP($A32,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],24,FALSE),VLOOKUP($A32,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],24,FALSE),VLOOKUP($A32,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],25,FALSE),VLOOKUP($A32,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],25,FALSE),VLOOKUP($A32,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],26,FALSE),VLOOKUP($A32,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],26,FALSE),VLOOKUP($A32,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],27,FALSE),VLOOKUP($A32,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],27,FALSE),VLOOKUP($A32,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],28,FALSE),VLOOKUP($A32,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],28,FALSE),VLOOKUP($A32,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],29,FALSE),VLOOKUP($A32,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],29,FALSE),VLOOKUP($A32,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],30,FALSE),VLOOKUP($A32,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],30,FALSE),VLOOKUP($A32,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE32" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],31,FALSE),VLOOKUP($A32,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],31,FALSE),VLOOKUP($A32,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],2,FALSE),VLOOKUP($A33,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],2,FALSE),VLOOKUP($A33,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],3,FALSE),VLOOKUP($A33,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],3,FALSE),VLOOKUP($A33,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],4,FALSE),VLOOKUP($A33,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],4,FALSE),VLOOKUP($A33,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],5,FALSE),VLOOKUP($A33,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],5,FALSE),VLOOKUP($A33,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],6,FALSE),VLOOKUP($A33,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],6,FALSE),VLOOKUP($A33,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],7,FALSE),VLOOKUP($A33,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],7,FALSE),VLOOKUP($A33,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],8,FALSE),VLOOKUP($A33,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],8,FALSE),VLOOKUP($A33,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],9,FALSE),VLOOKUP($A33,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],9,FALSE),VLOOKUP($A33,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],10,FALSE),VLOOKUP($A33,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],10,FALSE),VLOOKUP($A33,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],11,FALSE),VLOOKUP($A33,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],11,FALSE),VLOOKUP($A33,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],12,FALSE),VLOOKUP($A33,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],12,FALSE),VLOOKUP($A33,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],13,FALSE),VLOOKUP($A33,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],13,FALSE),VLOOKUP($A33,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],14,FALSE),VLOOKUP($A33,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],14,FALSE),VLOOKUP($A33,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],15,FALSE),VLOOKUP($A33,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],15,FALSE),VLOOKUP($A33,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],16,FALSE),VLOOKUP($A33,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],16,FALSE),VLOOKUP($A33,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],17,FALSE),VLOOKUP($A33,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],17,FALSE),VLOOKUP($A33,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],18,FALSE),VLOOKUP($A33,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],18,FALSE),VLOOKUP($A33,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],19,FALSE),VLOOKUP($A33,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],19,FALSE),VLOOKUP($A33,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],20,FALSE),VLOOKUP($A33,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],20,FALSE),VLOOKUP($A33,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],21,FALSE),VLOOKUP($A33,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],21,FALSE),VLOOKUP($A33,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],22,FALSE),VLOOKUP($A33,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],22,FALSE),VLOOKUP($A33,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],23,FALSE),VLOOKUP($A33,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],23,FALSE),VLOOKUP($A33,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],24,FALSE),VLOOKUP($A33,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],24,FALSE),VLOOKUP($A33,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],25,FALSE),VLOOKUP($A33,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],25,FALSE),VLOOKUP($A33,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],26,FALSE),VLOOKUP($A33,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],26,FALSE),VLOOKUP($A33,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],27,FALSE),VLOOKUP($A33,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],27,FALSE),VLOOKUP($A33,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],28,FALSE),VLOOKUP($A33,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],28,FALSE),VLOOKUP($A33,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],29,FALSE),VLOOKUP($A33,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],29,FALSE),VLOOKUP($A33,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],30,FALSE),VLOOKUP($A33,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],30,FALSE),VLOOKUP($A33,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],31,FALSE),VLOOKUP($A33,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],31,FALSE),VLOOKUP($A33,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 I1">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="A1 A34:A1048576">
+    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="6" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="4" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="3" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="2" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40808,10 +43904,10 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576 I1:I1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="AC22" r:id="rId1" xr:uid="{672659EE-996E-46A9-8B6D-102762B62881}"/>

--- a/src/assets/directorioCriadores.xlsx
+++ b/src/assets/directorioCriadores.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desarrollador.sena\Desktop\criadoresDirectorio\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7332C646-AF54-459E-A0E4-7DFC6E5FAEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0B27EF-3A3C-4B77-BEB3-BDE0EA6FB9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3B29B677-D6F4-4426-A511-B8471B1BDDDE}"/>
   </bookViews>
   <sheets>
-    <sheet name="directorioActualizable" sheetId="6" r:id="rId1"/>
-    <sheet name="directorioCriadores" sheetId="2" r:id="rId2"/>
+    <sheet name="directorioCriadores" sheetId="2" r:id="rId1"/>
+    <sheet name="directorioActualizable" sheetId="6" r:id="rId2"/>
     <sheet name="Instrucciones" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">directorioCriadores!$A$118:$AD$655</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">directorioCriadores!$A$118:$AD$655</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7070" uniqueCount="3593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7055" uniqueCount="3580">
   <si>
     <t>nombre</t>
   </si>
@@ -11369,51 +11369,12 @@
   <si>
     <t>0710</t>
   </si>
-  <si>
-    <t>1060</t>
-  </si>
-  <si>
-    <t>1124</t>
-  </si>
-  <si>
-    <t>1144</t>
-  </si>
-  <si>
-    <t>1226</t>
-  </si>
-  <si>
-    <t>1257</t>
-  </si>
-  <si>
-    <t>1274</t>
-  </si>
-  <si>
-    <t>1310</t>
-  </si>
-  <si>
-    <t>1326</t>
-  </si>
-  <si>
-    <t>1411</t>
-  </si>
-  <si>
-    <t>1415</t>
-  </si>
-  <si>
-    <t>1451</t>
-  </si>
-  <si>
-    <t>1472</t>
-  </si>
-  <si>
-    <t>1493</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11450,12 +11411,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -11589,26 +11544,14 @@
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11626,7 +11569,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11641,240 +11584,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="43">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -11931,55 +11661,25 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-      </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -12448,6 +12148,57 @@
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -12582,42 +12333,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5252D83D-BD3C-4626-8BC2-F4B0611462FA}" name="CriadoresDirectorio" displayName="CriadoresDirectorio" ref="A1:AE1048576" totalsRowShown="0" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5252D83D-BD3C-4626-8BC2-F4B0611462FA}" name="CriadoresDirectorio" displayName="CriadoresDirectorio" ref="A1:AE1048576" totalsRowShown="0" dataDxfId="42">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE117">
     <sortCondition ref="E11:E117"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="15" xr3:uid="{F96F9974-CDB4-44A4-B80E-AE2A858BD1AE}" name="codigoAsociado" dataDxfId="31"/>
-    <tableColumn id="21" xr3:uid="{F3EACF8C-83F6-4A9C-8D04-2E442F207A14}" name="nombre" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{ADF3C9A6-146F-4FC1-92AB-44D1F4641E2E}" name="hacienda1" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{0D454202-FF97-4322-BB04-A1A71074369B}" name="municipio1" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{D389E674-1653-4567-8A80-17EAB436B574}" name="departamento1" dataDxfId="59"/>
-    <tableColumn id="25" xr3:uid="{43B833F8-3AB5-450A-811E-2D2C745E2F13}" name="hacienda2" dataDxfId="58"/>
-    <tableColumn id="26" xr3:uid="{9E544313-2352-40F0-876C-393E8EEB48B5}" name="municipio2" dataDxfId="57"/>
-    <tableColumn id="27" xr3:uid="{8F5D3A26-8292-4927-8F8B-75D2CFFA01A0}" name="departamento2" dataDxfId="56"/>
-    <tableColumn id="33" xr3:uid="{8077A439-7E95-4907-9F18-A02F3DB96858}" name="hacienda3" dataDxfId="55"/>
-    <tableColumn id="32" xr3:uid="{95EECC2F-F8D1-40A1-822B-F15B12ABB504}" name="municipio3" dataDxfId="54"/>
-    <tableColumn id="31" xr3:uid="{073E17F4-7984-4E05-AE77-C71D14221253}" name="departamento3" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{8ADC5423-029F-453F-8E16-28D2445ADB96}" name="tipoGanado" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{90180301-62FC-4CDA-9B86-AA7BF9587C4B}" name="direccion" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{EAE403A3-6435-48BA-8F7A-4B358BBD3DA5}" name="ciudadDireccion" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{873D505D-5F4D-4167-BD5D-EC47682E3D3F}" name="departamentoDireccion" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{0C613AA6-2376-48D1-9D4F-1235D644BCD1}" name="telefono1" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{7826D8C1-5EE2-40B6-82DD-1218DD19C1EE}" name="telefono2" dataDxfId="47"/>
-    <tableColumn id="23" xr3:uid="{EFA7E4D3-DB48-485A-98F8-BD0DAB578242}" name="telefono3" dataDxfId="46"/>
-    <tableColumn id="22" xr3:uid="{A021A841-C778-4C90-8455-DAA5D3FDF5C9}" name="telefono4" dataDxfId="45"/>
-    <tableColumn id="24" xr3:uid="{3C1526FC-2F4C-4DB4-9C92-ABB7C122AFE8}" name="telefono5" dataDxfId="44"/>
-    <tableColumn id="16" xr3:uid="{9BE9F84D-7155-4F1E-8FB5-6FE20E08E66E}" name="telefono6" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{3D3BB81B-DF24-495A-95D2-D406C98BF51A}" name="email1" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{C2687D8C-BC6F-4F22-8E19-E46EAA9B1323}" name="email2" dataDxfId="41"/>
-    <tableColumn id="13" xr3:uid="{A45BFB4B-EB7C-4173-8F9A-75BD4540D529}" name="instagram" dataDxfId="40"/>
-    <tableColumn id="18" xr3:uid="{7A237364-E5B9-4376-B585-5B94988E4225}" name="facebook" dataDxfId="39"/>
-    <tableColumn id="35" xr3:uid="{6ED1F4C3-EC61-4BDF-9158-820777160356}" name="whatsapp1" dataDxfId="38"/>
-    <tableColumn id="36" xr3:uid="{245A3F17-A407-4444-AE84-20D31BC05FEB}" name="whatsapp2" dataDxfId="37"/>
-    <tableColumn id="19" xr3:uid="{4BE0A106-284D-4F49-BE6B-0319CF96BA3D}" name="tiktok" dataDxfId="36"/>
-    <tableColumn id="14" xr3:uid="{5E7B1910-DC0C-44B7-BC23-8755FE6F614A}" name="sitioWeb" dataDxfId="35"/>
-    <tableColumn id="17" xr3:uid="{3B2A4737-B88F-4CBE-9B54-3893A37C5BAE}" name="representanteLegal" dataDxfId="34"/>
-    <tableColumn id="20" xr3:uid="{AB03E730-96A6-4E6E-AFB7-ADECC9589146}" name="campoAdicional1" dataDxfId="33"/>
+    <tableColumn id="15" xr3:uid="{F96F9974-CDB4-44A4-B80E-AE2A858BD1AE}" name="codigoAsociado" dataDxfId="41"/>
+    <tableColumn id="21" xr3:uid="{F3EACF8C-83F6-4A9C-8D04-2E442F207A14}" name="nombre" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{ADF3C9A6-146F-4FC1-92AB-44D1F4641E2E}" name="hacienda1" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{0D454202-FF97-4322-BB04-A1A71074369B}" name="municipio1" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{D389E674-1653-4567-8A80-17EAB436B574}" name="departamento1" dataDxfId="37"/>
+    <tableColumn id="25" xr3:uid="{43B833F8-3AB5-450A-811E-2D2C745E2F13}" name="hacienda2" dataDxfId="36"/>
+    <tableColumn id="26" xr3:uid="{9E544313-2352-40F0-876C-393E8EEB48B5}" name="municipio2" dataDxfId="35"/>
+    <tableColumn id="27" xr3:uid="{8F5D3A26-8292-4927-8F8B-75D2CFFA01A0}" name="departamento2" dataDxfId="34"/>
+    <tableColumn id="33" xr3:uid="{8077A439-7E95-4907-9F18-A02F3DB96858}" name="hacienda3" dataDxfId="33"/>
+    <tableColumn id="32" xr3:uid="{95EECC2F-F8D1-40A1-822B-F15B12ABB504}" name="municipio3" dataDxfId="32"/>
+    <tableColumn id="31" xr3:uid="{073E17F4-7984-4E05-AE77-C71D14221253}" name="departamento3" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{8ADC5423-029F-453F-8E16-28D2445ADB96}" name="tipoGanado" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{90180301-62FC-4CDA-9B86-AA7BF9587C4B}" name="direccion" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{EAE403A3-6435-48BA-8F7A-4B358BBD3DA5}" name="ciudadDireccion" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{873D505D-5F4D-4167-BD5D-EC47682E3D3F}" name="departamentoDireccion" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{0C613AA6-2376-48D1-9D4F-1235D644BCD1}" name="telefono1" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{7826D8C1-5EE2-40B6-82DD-1218DD19C1EE}" name="telefono2" dataDxfId="25"/>
+    <tableColumn id="23" xr3:uid="{EFA7E4D3-DB48-485A-98F8-BD0DAB578242}" name="telefono3" dataDxfId="24"/>
+    <tableColumn id="22" xr3:uid="{A021A841-C778-4C90-8455-DAA5D3FDF5C9}" name="telefono4" dataDxfId="23"/>
+    <tableColumn id="24" xr3:uid="{3C1526FC-2F4C-4DB4-9C92-ABB7C122AFE8}" name="telefono5" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{9BE9F84D-7155-4F1E-8FB5-6FE20E08E66E}" name="telefono6" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{3D3BB81B-DF24-495A-95D2-D406C98BF51A}" name="email1" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{C2687D8C-BC6F-4F22-8E19-E46EAA9B1323}" name="email2" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{A45BFB4B-EB7C-4173-8F9A-75BD4540D529}" name="instagram" dataDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{7A237364-E5B9-4376-B585-5B94988E4225}" name="facebook" dataDxfId="17"/>
+    <tableColumn id="35" xr3:uid="{6ED1F4C3-EC61-4BDF-9158-820777160356}" name="whatsapp1" dataDxfId="16"/>
+    <tableColumn id="36" xr3:uid="{245A3F17-A407-4444-AE84-20D31BC05FEB}" name="whatsapp2" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{4BE0A106-284D-4F49-BE6B-0319CF96BA3D}" name="tiktok" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{5E7B1910-DC0C-44B7-BC23-8755FE6F614A}" name="sitioWeb" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{3B2A4737-B88F-4CBE-9B54-3893A37C5BAE}" name="representanteLegal" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{AB03E730-96A6-4E6E-AFB7-ADECC9589146}" name="campoAdicional1" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12919,4202 +12670,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C2F353-C0BD-4DEE-8215-C3B43D148F9B}">
-  <dimension ref="A1:AE33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="31" width="11.42578125" customWidth="1"/>
-    <col min="32" max="16384" width="11.42578125" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>3058</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>3055</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],2,FALSE),VLOOKUP($A2,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],2,FALSE),VLOOKUP($A2,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>INVERSIONES EL PENSAMIENTO SAS</v>
-      </c>
-      <c r="C2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],3,FALSE),VLOOKUP($A2,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],3,FALSE),VLOOKUP($A2,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Iratama</v>
-      </c>
-      <c r="D2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],4,FALSE),VLOOKUP($A2,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],4,FALSE),VLOOKUP($A2,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Villavicencio</v>
-      </c>
-      <c r="E2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],5,FALSE),VLOOKUP($A2,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],5,FALSE),VLOOKUP($A2,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Meta</v>
-      </c>
-      <c r="F2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],6,FALSE),VLOOKUP($A2,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],6,FALSE),VLOOKUP($A2,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],7,FALSE),VLOOKUP($A2,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],7,FALSE),VLOOKUP($A2,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],8,FALSE),VLOOKUP($A2,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],8,FALSE),VLOOKUP($A2,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],9,FALSE),VLOOKUP($A2,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],9,FALSE),VLOOKUP($A2,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],10,FALSE),VLOOKUP($A2,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],10,FALSE),VLOOKUP($A2,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],11,FALSE),VLOOKUP($A2,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],11,FALSE),VLOOKUP($A2,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],12,FALSE),VLOOKUP($A2,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],12,FALSE),VLOOKUP($A2,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],13,FALSE),VLOOKUP($A2,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],13,FALSE),VLOOKUP($A2,CriadoresDirectorio[],13,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],14,FALSE),VLOOKUP($A2,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],14,FALSE),VLOOKUP($A2,CriadoresDirectorio[],14,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="O2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],15,FALSE),VLOOKUP($A2,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],15,FALSE),VLOOKUP($A2,CriadoresDirectorio[],15,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="P2">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],16,FALSE),VLOOKUP($A2,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],16,FALSE),VLOOKUP($A2,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3132089677</v>
-      </c>
-      <c r="Q2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],17,FALSE),VLOOKUP($A2,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],17,FALSE),VLOOKUP($A2,CriadoresDirectorio[],17,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="R2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],18,FALSE),VLOOKUP($A2,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],18,FALSE),VLOOKUP($A2,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],19,FALSE),VLOOKUP($A2,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],19,FALSE),VLOOKUP($A2,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],20,FALSE),VLOOKUP($A2,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],20,FALSE),VLOOKUP($A2,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],21,FALSE),VLOOKUP($A2,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],21,FALSE),VLOOKUP($A2,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],22,FALSE),VLOOKUP($A2,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],22,FALSE),VLOOKUP($A2,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>andresarangosalazar@gmail.com</v>
-      </c>
-      <c r="W2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],23,FALSE),VLOOKUP($A2,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],23,FALSE),VLOOKUP($A2,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],24,FALSE),VLOOKUP($A2,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],24,FALSE),VLOOKUP($A2,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],25,FALSE),VLOOKUP($A2,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],25,FALSE),VLOOKUP($A2,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],26,FALSE),VLOOKUP($A2,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],26,FALSE),VLOOKUP($A2,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],27,FALSE),VLOOKUP($A2,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],27,FALSE),VLOOKUP($A2,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],28,FALSE),VLOOKUP($A2,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],28,FALSE),VLOOKUP($A2,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],29,FALSE),VLOOKUP($A2,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],29,FALSE),VLOOKUP($A2,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],30,FALSE),VLOOKUP($A2,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],30,FALSE),VLOOKUP($A2,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],31,FALSE),VLOOKUP($A2,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],31,FALSE),VLOOKUP($A2,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>2168</v>
-      </c>
-      <c r="B3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],2,FALSE),VLOOKUP($A3,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],2,FALSE),VLOOKUP($A3,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>JARAMILLO WILLIAMSON Y CÍA S. EN C.</v>
-      </c>
-      <c r="C3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],3,FALSE),VLOOKUP($A3,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],3,FALSE),VLOOKUP($A3,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Santa Ángela, KM 9 VÍA TOLUVIEJO</v>
-      </c>
-      <c r="D3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],4,FALSE),VLOOKUP($A3,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],4,FALSE),VLOOKUP($A3,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Toluviejo</v>
-      </c>
-      <c r="E3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],5,FALSE),VLOOKUP($A3,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],5,FALSE),VLOOKUP($A3,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Sucre</v>
-      </c>
-      <c r="F3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],6,FALSE),VLOOKUP($A3,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],6,FALSE),VLOOKUP($A3,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],7,FALSE),VLOOKUP($A3,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],7,FALSE),VLOOKUP($A3,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],8,FALSE),VLOOKUP($A3,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],8,FALSE),VLOOKUP($A3,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],9,FALSE),VLOOKUP($A3,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],9,FALSE),VLOOKUP($A3,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],10,FALSE),VLOOKUP($A3,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],10,FALSE),VLOOKUP($A3,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],11,FALSE),VLOOKUP($A3,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],11,FALSE),VLOOKUP($A3,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],12,FALSE),VLOOKUP($A3,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],12,FALSE),VLOOKUP($A3,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman - Guzerá</v>
-      </c>
-      <c r="M3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],13,FALSE),VLOOKUP($A3,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],13,FALSE),VLOOKUP($A3,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 97 22 80 APTO 505</v>
-      </c>
-      <c r="N3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],14,FALSE),VLOOKUP($A3,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],14,FALSE),VLOOKUP($A3,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Bogotá D.C</v>
-      </c>
-      <c r="O3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],15,FALSE),VLOOKUP($A3,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],15,FALSE),VLOOKUP($A3,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Cundinamarca</v>
-      </c>
-      <c r="P3">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],16,FALSE),VLOOKUP($A3,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],16,FALSE),VLOOKUP($A3,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>6555610</v>
-      </c>
-      <c r="Q3">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],17,FALSE),VLOOKUP($A3,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],17,FALSE),VLOOKUP($A3,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>6555611</v>
-      </c>
-      <c r="R3">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],18,FALSE),VLOOKUP($A3,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],18,FALSE),VLOOKUP($A3,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3107718289</v>
-      </c>
-      <c r="S3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],19,FALSE),VLOOKUP($A3,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],19,FALSE),VLOOKUP($A3,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],20,FALSE),VLOOKUP($A3,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],20,FALSE),VLOOKUP($A3,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],21,FALSE),VLOOKUP($A3,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],21,FALSE),VLOOKUP($A3,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],22,FALSE),VLOOKUP($A3,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],22,FALSE),VLOOKUP($A3,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>fabiojaramilloj@gmail.com</v>
-      </c>
-      <c r="W3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],23,FALSE),VLOOKUP($A3,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],23,FALSE),VLOOKUP($A3,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],24,FALSE),VLOOKUP($A3,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],24,FALSE),VLOOKUP($A3,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],25,FALSE),VLOOKUP($A3,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],25,FALSE),VLOOKUP($A3,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],26,FALSE),VLOOKUP($A3,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],26,FALSE),VLOOKUP($A3,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],27,FALSE),VLOOKUP($A3,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],27,FALSE),VLOOKUP($A3,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],28,FALSE),VLOOKUP($A3,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],28,FALSE),VLOOKUP($A3,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],29,FALSE),VLOOKUP($A3,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],29,FALSE),VLOOKUP($A3,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],30,FALSE),VLOOKUP($A3,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],30,FALSE),VLOOKUP($A3,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],31,FALSE),VLOOKUP($A3,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],31,FALSE),VLOOKUP($A3,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>2299</v>
-      </c>
-      <c r="B4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],2,FALSE),VLOOKUP($A4,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],2,FALSE),VLOOKUP($A4,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>JAIME ESCOBAR VALLEJO</v>
-      </c>
-      <c r="C4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],3,FALSE),VLOOKUP($A4,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],3,FALSE),VLOOKUP($A4,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Ucrania</v>
-      </c>
-      <c r="D4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],4,FALSE),VLOOKUP($A4,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],4,FALSE),VLOOKUP($A4,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Obando</v>
-      </c>
-      <c r="E4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],5,FALSE),VLOOKUP($A4,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],5,FALSE),VLOOKUP($A4,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Valle del Cauca</v>
-      </c>
-      <c r="F4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],6,FALSE),VLOOKUP($A4,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],6,FALSE),VLOOKUP($A4,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],7,FALSE),VLOOKUP($A4,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],7,FALSE),VLOOKUP($A4,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],8,FALSE),VLOOKUP($A4,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],8,FALSE),VLOOKUP($A4,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],9,FALSE),VLOOKUP($A4,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],9,FALSE),VLOOKUP($A4,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],10,FALSE),VLOOKUP($A4,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],10,FALSE),VLOOKUP($A4,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],11,FALSE),VLOOKUP($A4,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],11,FALSE),VLOOKUP($A4,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],12,FALSE),VLOOKUP($A4,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],12,FALSE),VLOOKUP($A4,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],13,FALSE),VLOOKUP($A4,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],13,FALSE),VLOOKUP($A4,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 7 43 224 OF 303 ED CODEGAR</v>
-      </c>
-      <c r="N4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],14,FALSE),VLOOKUP($A4,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],14,FALSE),VLOOKUP($A4,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Pereira</v>
-      </c>
-      <c r="O4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],15,FALSE),VLOOKUP($A4,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],15,FALSE),VLOOKUP($A4,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Risaralda</v>
-      </c>
-      <c r="P4">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],16,FALSE),VLOOKUP($A4,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],16,FALSE),VLOOKUP($A4,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3260591</v>
-      </c>
-      <c r="Q4">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],17,FALSE),VLOOKUP($A4,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],17,FALSE),VLOOKUP($A4,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3260592</v>
-      </c>
-      <c r="R4">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],18,FALSE),VLOOKUP($A4,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],18,FALSE),VLOOKUP($A4,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3104558407</v>
-      </c>
-      <c r="S4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],19,FALSE),VLOOKUP($A4,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],19,FALSE),VLOOKUP($A4,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],20,FALSE),VLOOKUP($A4,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],20,FALSE),VLOOKUP($A4,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],21,FALSE),VLOOKUP($A4,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],21,FALSE),VLOOKUP($A4,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],22,FALSE),VLOOKUP($A4,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],22,FALSE),VLOOKUP($A4,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>ucranialaslomas@gmail.com</v>
-      </c>
-      <c r="W4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],23,FALSE),VLOOKUP($A4,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],23,FALSE),VLOOKUP($A4,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],24,FALSE),VLOOKUP($A4,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],24,FALSE),VLOOKUP($A4,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],25,FALSE),VLOOKUP($A4,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],25,FALSE),VLOOKUP($A4,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],26,FALSE),VLOOKUP($A4,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],26,FALSE),VLOOKUP($A4,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],27,FALSE),VLOOKUP($A4,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],27,FALSE),VLOOKUP($A4,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],28,FALSE),VLOOKUP($A4,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],28,FALSE),VLOOKUP($A4,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],29,FALSE),VLOOKUP($A4,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],29,FALSE),VLOOKUP($A4,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],30,FALSE),VLOOKUP($A4,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],30,FALSE),VLOOKUP($A4,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],31,FALSE),VLOOKUP($A4,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],31,FALSE),VLOOKUP($A4,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],2,FALSE),VLOOKUP($A5,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],2,FALSE),VLOOKUP($A5,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>GARCES EDER S.A.S</v>
-      </c>
-      <c r="C5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],3,FALSE),VLOOKUP($A5,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],3,FALSE),VLOOKUP($A5,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda García Abajo</v>
-      </c>
-      <c r="D5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],4,FALSE),VLOOKUP($A5,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],4,FALSE),VLOOKUP($A5,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Corinto</v>
-      </c>
-      <c r="E5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],5,FALSE),VLOOKUP($A5,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],5,FALSE),VLOOKUP($A5,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Cauca</v>
-      </c>
-      <c r="F5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],6,FALSE),VLOOKUP($A5,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],6,FALSE),VLOOKUP($A5,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>La Campiña</v>
-      </c>
-      <c r="G5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],7,FALSE),VLOOKUP($A5,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],7,FALSE),VLOOKUP($A5,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>Santander de Quilichao</v>
-      </c>
-      <c r="H5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],8,FALSE),VLOOKUP($A5,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],8,FALSE),VLOOKUP($A5,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>Cauca</v>
-      </c>
-      <c r="I5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],9,FALSE),VLOOKUP($A5,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],9,FALSE),VLOOKUP($A5,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>Guaguya</v>
-      </c>
-      <c r="J5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],10,FALSE),VLOOKUP($A5,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],10,FALSE),VLOOKUP($A5,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>Palmira</v>
-      </c>
-      <c r="K5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],11,FALSE),VLOOKUP($A5,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],11,FALSE),VLOOKUP($A5,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>Valle</v>
-      </c>
-      <c r="L5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],12,FALSE),VLOOKUP($A5,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],12,FALSE),VLOOKUP($A5,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Brahman</v>
-      </c>
-      <c r="M5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],13,FALSE),VLOOKUP($A5,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],13,FALSE),VLOOKUP($A5,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 100 # 11 - 90 OF 504</v>
-      </c>
-      <c r="N5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],14,FALSE),VLOOKUP($A5,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],14,FALSE),VLOOKUP($A5,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Cali</v>
-      </c>
-      <c r="O5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],15,FALSE),VLOOKUP($A5,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],15,FALSE),VLOOKUP($A5,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Valle del Cauca</v>
-      </c>
-      <c r="P5">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],16,FALSE),VLOOKUP($A5,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],16,FALSE),VLOOKUP($A5,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3320848</v>
-      </c>
-      <c r="Q5">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],17,FALSE),VLOOKUP($A5,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],17,FALSE),VLOOKUP($A5,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>5504316</v>
-      </c>
-      <c r="R5">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],18,FALSE),VLOOKUP($A5,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],18,FALSE),VLOOKUP($A5,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3321816</v>
-      </c>
-      <c r="S5">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],19,FALSE),VLOOKUP($A5,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],19,FALSE),VLOOKUP($A5,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>3155761864</v>
-      </c>
-      <c r="T5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],20,FALSE),VLOOKUP($A5,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],20,FALSE),VLOOKUP($A5,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],21,FALSE),VLOOKUP($A5,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],21,FALSE),VLOOKUP($A5,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],22,FALSE),VLOOKUP($A5,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],22,FALSE),VLOOKUP($A5,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>hda.garcia@garceseder.com</v>
-      </c>
-      <c r="W5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],23,FALSE),VLOOKUP($A5,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],23,FALSE),VLOOKUP($A5,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],24,FALSE),VLOOKUP($A5,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],24,FALSE),VLOOKUP($A5,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],25,FALSE),VLOOKUP($A5,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],25,FALSE),VLOOKUP($A5,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],26,FALSE),VLOOKUP($A5,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],26,FALSE),VLOOKUP($A5,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],27,FALSE),VLOOKUP($A5,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],27,FALSE),VLOOKUP($A5,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],28,FALSE),VLOOKUP($A5,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],28,FALSE),VLOOKUP($A5,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],29,FALSE),VLOOKUP($A5,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],29,FALSE),VLOOKUP($A5,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>http://www.garciaabajo.com/</v>
-      </c>
-      <c r="AD5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],30,FALSE),VLOOKUP($A5,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],30,FALSE),VLOOKUP($A5,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],31,FALSE),VLOOKUP($A5,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],31,FALSE),VLOOKUP($A5,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>2230</v>
-      </c>
-      <c r="B6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],2,FALSE),VLOOKUP($A6,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],2,FALSE),VLOOKUP($A6,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>INVERSIONES CAFE GRANADA SAS</v>
-      </c>
-      <c r="C6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],3,FALSE),VLOOKUP($A6,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],3,FALSE),VLOOKUP($A6,CriadoresDirectorio[],3,FALSE)))</f>
-        <v xml:space="preserve">Hda La Ringlera </v>
-      </c>
-      <c r="D6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],4,FALSE),VLOOKUP($A6,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],4,FALSE),VLOOKUP($A6,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Ibagué</v>
-      </c>
-      <c r="E6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],5,FALSE),VLOOKUP($A6,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],5,FALSE),VLOOKUP($A6,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Tolima</v>
-      </c>
-      <c r="F6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],6,FALSE),VLOOKUP($A6,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],6,FALSE),VLOOKUP($A6,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],7,FALSE),VLOOKUP($A6,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],7,FALSE),VLOOKUP($A6,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],8,FALSE),VLOOKUP($A6,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],8,FALSE),VLOOKUP($A6,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],9,FALSE),VLOOKUP($A6,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],9,FALSE),VLOOKUP($A6,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],10,FALSE),VLOOKUP($A6,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],10,FALSE),VLOOKUP($A6,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],11,FALSE),VLOOKUP($A6,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],11,FALSE),VLOOKUP($A6,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],12,FALSE),VLOOKUP($A6,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],12,FALSE),VLOOKUP($A6,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],13,FALSE),VLOOKUP($A6,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],13,FALSE),VLOOKUP($A6,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 12 1 17 PI 2</v>
-      </c>
-      <c r="N6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],14,FALSE),VLOOKUP($A6,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],14,FALSE),VLOOKUP($A6,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Ibagué</v>
-      </c>
-      <c r="O6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],15,FALSE),VLOOKUP($A6,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],15,FALSE),VLOOKUP($A6,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Tolima</v>
-      </c>
-      <c r="P6">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],16,FALSE),VLOOKUP($A6,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],16,FALSE),VLOOKUP($A6,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>2615037</v>
-      </c>
-      <c r="Q6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],17,FALSE),VLOOKUP($A6,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],17,FALSE),VLOOKUP($A6,CriadoresDirectorio[],17,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="R6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],18,FALSE),VLOOKUP($A6,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],18,FALSE),VLOOKUP($A6,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],19,FALSE),VLOOKUP($A6,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],19,FALSE),VLOOKUP($A6,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],20,FALSE),VLOOKUP($A6,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],20,FALSE),VLOOKUP($A6,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],21,FALSE),VLOOKUP($A6,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],21,FALSE),VLOOKUP($A6,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],22,FALSE),VLOOKUP($A6,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],22,FALSE),VLOOKUP($A6,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>elzorro@telecom.com.co</v>
-      </c>
-      <c r="W6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],23,FALSE),VLOOKUP($A6,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],23,FALSE),VLOOKUP($A6,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],24,FALSE),VLOOKUP($A6,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],24,FALSE),VLOOKUP($A6,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],25,FALSE),VLOOKUP($A6,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],25,FALSE),VLOOKUP($A6,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],26,FALSE),VLOOKUP($A6,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],26,FALSE),VLOOKUP($A6,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],27,FALSE),VLOOKUP($A6,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],27,FALSE),VLOOKUP($A6,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],28,FALSE),VLOOKUP($A6,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],28,FALSE),VLOOKUP($A6,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],29,FALSE),VLOOKUP($A6,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],29,FALSE),VLOOKUP($A6,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],30,FALSE),VLOOKUP($A6,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],30,FALSE),VLOOKUP($A6,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],31,FALSE),VLOOKUP($A6,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],31,FALSE),VLOOKUP($A6,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],2,FALSE),VLOOKUP($A7,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],2,FALSE),VLOOKUP($A7,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>LUIS SAMUEL MARTÍNEZ E HIJOS</v>
-      </c>
-      <c r="C7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],3,FALSE),VLOOKUP($A7,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],3,FALSE),VLOOKUP($A7,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hdas. El Caney</v>
-      </c>
-      <c r="D7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],4,FALSE),VLOOKUP($A7,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],4,FALSE),VLOOKUP($A7,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Santa Fé de Antioquia</v>
-      </c>
-      <c r="E7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],5,FALSE),VLOOKUP($A7,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],5,FALSE),VLOOKUP($A7,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="F7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],6,FALSE),VLOOKUP($A7,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],6,FALSE),VLOOKUP($A7,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],7,FALSE),VLOOKUP($A7,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],7,FALSE),VLOOKUP($A7,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],8,FALSE),VLOOKUP($A7,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],8,FALSE),VLOOKUP($A7,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],9,FALSE),VLOOKUP($A7,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],9,FALSE),VLOOKUP($A7,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],10,FALSE),VLOOKUP($A7,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],10,FALSE),VLOOKUP($A7,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],11,FALSE),VLOOKUP($A7,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],11,FALSE),VLOOKUP($A7,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],12,FALSE),VLOOKUP($A7,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],12,FALSE),VLOOKUP($A7,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],13,FALSE),VLOOKUP($A7,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],13,FALSE),VLOOKUP($A7,CriadoresDirectorio[],13,FALSE)))</f>
-        <v xml:space="preserve">CR 43A 9 SUR 91 TO SUR OF 907 </v>
-      </c>
-      <c r="N7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],14,FALSE),VLOOKUP($A7,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],14,FALSE),VLOOKUP($A7,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Medellín</v>
-      </c>
-      <c r="O7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],15,FALSE),VLOOKUP($A7,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],15,FALSE),VLOOKUP($A7,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P7">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],16,FALSE),VLOOKUP($A7,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],16,FALSE),VLOOKUP($A7,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3136379</v>
-      </c>
-      <c r="Q7">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],17,FALSE),VLOOKUP($A7,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],17,FALSE),VLOOKUP($A7,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3135825</v>
-      </c>
-      <c r="R7">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],18,FALSE),VLOOKUP($A7,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],18,FALSE),VLOOKUP($A7,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3108364605</v>
-      </c>
-      <c r="S7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],19,FALSE),VLOOKUP($A7,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],19,FALSE),VLOOKUP($A7,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],20,FALSE),VLOOKUP($A7,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],20,FALSE),VLOOKUP($A7,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],21,FALSE),VLOOKUP($A7,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],21,FALSE),VLOOKUP($A7,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],22,FALSE),VLOOKUP($A7,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],22,FALSE),VLOOKUP($A7,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>ls@luisamuelmartinez.com</v>
-      </c>
-      <c r="W7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],23,FALSE),VLOOKUP($A7,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],23,FALSE),VLOOKUP($A7,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>ganaderiaelcaney@gmail.com</v>
-      </c>
-      <c r="X7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],24,FALSE),VLOOKUP($A7,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],24,FALSE),VLOOKUP($A7,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],25,FALSE),VLOOKUP($A7,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],25,FALSE),VLOOKUP($A7,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],26,FALSE),VLOOKUP($A7,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],26,FALSE),VLOOKUP($A7,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],27,FALSE),VLOOKUP($A7,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],27,FALSE),VLOOKUP($A7,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],28,FALSE),VLOOKUP($A7,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],28,FALSE),VLOOKUP($A7,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],29,FALSE),VLOOKUP($A7,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],29,FALSE),VLOOKUP($A7,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>http://www.luisamuelmartinez.com</v>
-      </c>
-      <c r="AD7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],30,FALSE),VLOOKUP($A7,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],30,FALSE),VLOOKUP($A7,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],31,FALSE),VLOOKUP($A7,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],31,FALSE),VLOOKUP($A7,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>2205</v>
-      </c>
-      <c r="B8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],2,FALSE),VLOOKUP($A8,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],2,FALSE),VLOOKUP($A8,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>EDUARDO OYUELA ZEA</v>
-      </c>
-      <c r="C8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],3,FALSE),VLOOKUP($A8,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],3,FALSE),VLOOKUP($A8,CriadoresDirectorio[],3,FALSE)))</f>
-        <v xml:space="preserve">Hda Buenos Aires </v>
-      </c>
-      <c r="D8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],4,FALSE),VLOOKUP($A8,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],4,FALSE),VLOOKUP($A8,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Purificación</v>
-      </c>
-      <c r="E8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],5,FALSE),VLOOKUP($A8,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],5,FALSE),VLOOKUP($A8,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Tolima</v>
-      </c>
-      <c r="F8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],6,FALSE),VLOOKUP($A8,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],6,FALSE),VLOOKUP($A8,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],7,FALSE),VLOOKUP($A8,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],7,FALSE),VLOOKUP($A8,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],8,FALSE),VLOOKUP($A8,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],8,FALSE),VLOOKUP($A8,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],9,FALSE),VLOOKUP($A8,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],9,FALSE),VLOOKUP($A8,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],10,FALSE),VLOOKUP($A8,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],10,FALSE),VLOOKUP($A8,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],11,FALSE),VLOOKUP($A8,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],11,FALSE),VLOOKUP($A8,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],12,FALSE),VLOOKUP($A8,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],12,FALSE),VLOOKUP($A8,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],13,FALSE),VLOOKUP($A8,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],13,FALSE),VLOOKUP($A8,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 16 68D 79</v>
-      </c>
-      <c r="N8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],14,FALSE),VLOOKUP($A8,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],14,FALSE),VLOOKUP($A8,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Bogotá D.C</v>
-      </c>
-      <c r="O8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],15,FALSE),VLOOKUP($A8,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],15,FALSE),VLOOKUP($A8,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Cundinamarca</v>
-      </c>
-      <c r="P8">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],16,FALSE),VLOOKUP($A8,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],16,FALSE),VLOOKUP($A8,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>2924317</v>
-      </c>
-      <c r="Q8">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],17,FALSE),VLOOKUP($A8,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],17,FALSE),VLOOKUP($A8,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>2922272</v>
-      </c>
-      <c r="R8">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],18,FALSE),VLOOKUP($A8,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],18,FALSE),VLOOKUP($A8,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>2926660</v>
-      </c>
-      <c r="S8">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],19,FALSE),VLOOKUP($A8,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],19,FALSE),VLOOKUP($A8,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>3108163543</v>
-      </c>
-      <c r="T8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],20,FALSE),VLOOKUP($A8,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],20,FALSE),VLOOKUP($A8,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],21,FALSE),VLOOKUP($A8,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],21,FALSE),VLOOKUP($A8,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],22,FALSE),VLOOKUP($A8,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],22,FALSE),VLOOKUP($A8,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>info@eozbuenosaires.com</v>
-      </c>
-      <c r="W8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],23,FALSE),VLOOKUP($A8,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],23,FALSE),VLOOKUP($A8,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],24,FALSE),VLOOKUP($A8,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],24,FALSE),VLOOKUP($A8,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],25,FALSE),VLOOKUP($A8,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],25,FALSE),VLOOKUP($A8,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],26,FALSE),VLOOKUP($A8,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],26,FALSE),VLOOKUP($A8,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],27,FALSE),VLOOKUP($A8,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],27,FALSE),VLOOKUP($A8,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],28,FALSE),VLOOKUP($A8,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],28,FALSE),VLOOKUP($A8,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],29,FALSE),VLOOKUP($A8,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],29,FALSE),VLOOKUP($A8,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>http://www.eozbuenosaires.com</v>
-      </c>
-      <c r="AD8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],30,FALSE),VLOOKUP($A8,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],30,FALSE),VLOOKUP($A8,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],31,FALSE),VLOOKUP($A8,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],31,FALSE),VLOOKUP($A8,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>3062</v>
-      </c>
-      <c r="B9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],2,FALSE),VLOOKUP($A9,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],2,FALSE),VLOOKUP($A9,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>BRAHMAN ABASTECEDORA</v>
-      </c>
-      <c r="C9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],3,FALSE),VLOOKUP($A9,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],3,FALSE),VLOOKUP($A9,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Abastecedora</v>
-      </c>
-      <c r="D9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],4,FALSE),VLOOKUP($A9,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],4,FALSE),VLOOKUP($A9,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Planeta Rica</v>
-      </c>
-      <c r="E9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],5,FALSE),VLOOKUP($A9,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],5,FALSE),VLOOKUP($A9,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Córdoba</v>
-      </c>
-      <c r="F9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],6,FALSE),VLOOKUP($A9,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],6,FALSE),VLOOKUP($A9,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],7,FALSE),VLOOKUP($A9,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],7,FALSE),VLOOKUP($A9,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],8,FALSE),VLOOKUP($A9,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],8,FALSE),VLOOKUP($A9,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],9,FALSE),VLOOKUP($A9,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],9,FALSE),VLOOKUP($A9,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],10,FALSE),VLOOKUP($A9,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],10,FALSE),VLOOKUP($A9,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],11,FALSE),VLOOKUP($A9,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],11,FALSE),VLOOKUP($A9,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],12,FALSE),VLOOKUP($A9,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],12,FALSE),VLOOKUP($A9,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman Gris y Rojo</v>
-      </c>
-      <c r="M9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],13,FALSE),VLOOKUP($A9,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],13,FALSE),VLOOKUP($A9,CriadoresDirectorio[],13,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],14,FALSE),VLOOKUP($A9,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],14,FALSE),VLOOKUP($A9,CriadoresDirectorio[],14,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="O9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],15,FALSE),VLOOKUP($A9,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],15,FALSE),VLOOKUP($A9,CriadoresDirectorio[],15,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="P9">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],16,FALSE),VLOOKUP($A9,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],16,FALSE),VLOOKUP($A9,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3131990</v>
-      </c>
-      <c r="Q9">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],17,FALSE),VLOOKUP($A9,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],17,FALSE),VLOOKUP($A9,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3014581782</v>
-      </c>
-      <c r="R9">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],18,FALSE),VLOOKUP($A9,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],18,FALSE),VLOOKUP($A9,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3017579333</v>
-      </c>
-      <c r="S9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],19,FALSE),VLOOKUP($A9,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],19,FALSE),VLOOKUP($A9,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],20,FALSE),VLOOKUP($A9,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],20,FALSE),VLOOKUP($A9,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],21,FALSE),VLOOKUP($A9,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],21,FALSE),VLOOKUP($A9,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],22,FALSE),VLOOKUP($A9,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],22,FALSE),VLOOKUP($A9,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>abastecedora10@gmail.com</v>
-      </c>
-      <c r="W9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],23,FALSE),VLOOKUP($A9,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],23,FALSE),VLOOKUP($A9,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],24,FALSE),VLOOKUP($A9,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],24,FALSE),VLOOKUP($A9,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],25,FALSE),VLOOKUP($A9,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],25,FALSE),VLOOKUP($A9,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],26,FALSE),VLOOKUP($A9,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],26,FALSE),VLOOKUP($A9,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],27,FALSE),VLOOKUP($A9,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],27,FALSE),VLOOKUP($A9,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],28,FALSE),VLOOKUP($A9,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],28,FALSE),VLOOKUP($A9,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],29,FALSE),VLOOKUP($A9,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],29,FALSE),VLOOKUP($A9,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>http://www.brahmanabastecedora.com</v>
-      </c>
-      <c r="AD9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],30,FALSE),VLOOKUP($A9,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],30,FALSE),VLOOKUP($A9,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],31,FALSE),VLOOKUP($A9,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],31,FALSE),VLOOKUP($A9,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],2,FALSE),VLOOKUP($A10,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],2,FALSE),VLOOKUP($A10,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>AGROPECUARIA LAS TINAJAS S.A.</v>
-      </c>
-      <c r="C10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],3,FALSE),VLOOKUP($A10,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],3,FALSE),VLOOKUP($A10,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda La Constancia</v>
-      </c>
-      <c r="D10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],4,FALSE),VLOOKUP($A10,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],4,FALSE),VLOOKUP($A10,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Puerto Berrío</v>
-      </c>
-      <c r="E10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],5,FALSE),VLOOKUP($A10,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],5,FALSE),VLOOKUP($A10,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="F10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],6,FALSE),VLOOKUP($A10,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],6,FALSE),VLOOKUP($A10,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],7,FALSE),VLOOKUP($A10,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],7,FALSE),VLOOKUP($A10,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],8,FALSE),VLOOKUP($A10,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],8,FALSE),VLOOKUP($A10,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],9,FALSE),VLOOKUP($A10,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],9,FALSE),VLOOKUP($A10,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],10,FALSE),VLOOKUP($A10,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],10,FALSE),VLOOKUP($A10,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],11,FALSE),VLOOKUP($A10,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],11,FALSE),VLOOKUP($A10,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],12,FALSE),VLOOKUP($A10,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],12,FALSE),VLOOKUP($A10,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman Puro Blanco y Rojo</v>
-      </c>
-      <c r="M10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],13,FALSE),VLOOKUP($A10,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],13,FALSE),VLOOKUP($A10,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 10 35 18</v>
-      </c>
-      <c r="N10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],14,FALSE),VLOOKUP($A10,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],14,FALSE),VLOOKUP($A10,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Medellín</v>
-      </c>
-      <c r="O10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],15,FALSE),VLOOKUP($A10,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],15,FALSE),VLOOKUP($A10,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antoquia</v>
-      </c>
-      <c r="P10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],16,FALSE),VLOOKUP($A10,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],16,FALSE),VLOOKUP($A10,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>2669172Ext.111</v>
-      </c>
-      <c r="Q10">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],17,FALSE),VLOOKUP($A10,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],17,FALSE),VLOOKUP($A10,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>2326915</v>
-      </c>
-      <c r="R10">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],18,FALSE),VLOOKUP($A10,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],18,FALSE),VLOOKUP($A10,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3104632303</v>
-      </c>
-      <c r="S10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],19,FALSE),VLOOKUP($A10,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],19,FALSE),VLOOKUP($A10,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],20,FALSE),VLOOKUP($A10,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],20,FALSE),VLOOKUP($A10,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],21,FALSE),VLOOKUP($A10,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],21,FALSE),VLOOKUP($A10,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],22,FALSE),VLOOKUP($A10,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],22,FALSE),VLOOKUP($A10,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>agrotin@une.net.co</v>
-      </c>
-      <c r="W10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],23,FALSE),VLOOKUP($A10,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],23,FALSE),VLOOKUP($A10,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>gape@une.net.co</v>
-      </c>
-      <c r="X10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],24,FALSE),VLOOKUP($A10,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],24,FALSE),VLOOKUP($A10,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],25,FALSE),VLOOKUP($A10,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],25,FALSE),VLOOKUP($A10,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],26,FALSE),VLOOKUP($A10,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],26,FALSE),VLOOKUP($A10,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],27,FALSE),VLOOKUP($A10,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],27,FALSE),VLOOKUP($A10,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],28,FALSE),VLOOKUP($A10,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],28,FALSE),VLOOKUP($A10,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],29,FALSE),VLOOKUP($A10,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],29,FALSE),VLOOKUP($A10,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],30,FALSE),VLOOKUP($A10,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],30,FALSE),VLOOKUP($A10,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],31,FALSE),VLOOKUP($A10,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],31,FALSE),VLOOKUP($A10,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>3579</v>
-      </c>
-      <c r="B11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],2,FALSE),VLOOKUP($A11,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],2,FALSE),VLOOKUP($A11,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],3,FALSE),VLOOKUP($A11,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],3,FALSE),VLOOKUP($A11,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],4,FALSE),VLOOKUP($A11,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],4,FALSE),VLOOKUP($A11,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],5,FALSE),VLOOKUP($A11,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],5,FALSE),VLOOKUP($A11,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],6,FALSE),VLOOKUP($A11,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],6,FALSE),VLOOKUP($A11,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],7,FALSE),VLOOKUP($A11,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],7,FALSE),VLOOKUP($A11,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],8,FALSE),VLOOKUP($A11,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],8,FALSE),VLOOKUP($A11,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],9,FALSE),VLOOKUP($A11,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],9,FALSE),VLOOKUP($A11,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],10,FALSE),VLOOKUP($A11,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],10,FALSE),VLOOKUP($A11,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],11,FALSE),VLOOKUP($A11,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],11,FALSE),VLOOKUP($A11,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],12,FALSE),VLOOKUP($A11,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],12,FALSE),VLOOKUP($A11,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],13,FALSE),VLOOKUP($A11,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],13,FALSE),VLOOKUP($A11,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],14,FALSE),VLOOKUP($A11,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],14,FALSE),VLOOKUP($A11,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],15,FALSE),VLOOKUP($A11,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],15,FALSE),VLOOKUP($A11,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],16,FALSE),VLOOKUP($A11,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],16,FALSE),VLOOKUP($A11,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],17,FALSE),VLOOKUP($A11,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],17,FALSE),VLOOKUP($A11,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],18,FALSE),VLOOKUP($A11,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],18,FALSE),VLOOKUP($A11,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],19,FALSE),VLOOKUP($A11,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],19,FALSE),VLOOKUP($A11,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],20,FALSE),VLOOKUP($A11,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],20,FALSE),VLOOKUP($A11,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],21,FALSE),VLOOKUP($A11,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],21,FALSE),VLOOKUP($A11,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],22,FALSE),VLOOKUP($A11,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],22,FALSE),VLOOKUP($A11,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],23,FALSE),VLOOKUP($A11,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],23,FALSE),VLOOKUP($A11,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],24,FALSE),VLOOKUP($A11,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],24,FALSE),VLOOKUP($A11,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],25,FALSE),VLOOKUP($A11,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],25,FALSE),VLOOKUP($A11,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],26,FALSE),VLOOKUP($A11,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],26,FALSE),VLOOKUP($A11,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],27,FALSE),VLOOKUP($A11,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],27,FALSE),VLOOKUP($A11,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],28,FALSE),VLOOKUP($A11,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],28,FALSE),VLOOKUP($A11,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],29,FALSE),VLOOKUP($A11,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],29,FALSE),VLOOKUP($A11,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],30,FALSE),VLOOKUP($A11,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],30,FALSE),VLOOKUP($A11,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE11" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],31,FALSE),VLOOKUP($A11,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],31,FALSE),VLOOKUP($A11,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],2,FALSE),VLOOKUP($A12,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],2,FALSE),VLOOKUP($A12,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>INVERSIONES AGROPECUARIA TRIPLE SIETE</v>
-      </c>
-      <c r="C12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],3,FALSE),VLOOKUP($A12,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],3,FALSE),VLOOKUP($A12,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda El Chorro</v>
-      </c>
-      <c r="D12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],4,FALSE),VLOOKUP($A12,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],4,FALSE),VLOOKUP($A12,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Gamarra</v>
-      </c>
-      <c r="E12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],5,FALSE),VLOOKUP($A12,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],5,FALSE),VLOOKUP($A12,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Cesar</v>
-      </c>
-      <c r="F12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],6,FALSE),VLOOKUP($A12,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],6,FALSE),VLOOKUP($A12,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>Hda Arizona</v>
-      </c>
-      <c r="G12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],7,FALSE),VLOOKUP($A12,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],7,FALSE),VLOOKUP($A12,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>Puerto Boyacá</v>
-      </c>
-      <c r="H12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],8,FALSE),VLOOKUP($A12,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],8,FALSE),VLOOKUP($A12,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>Boyacá</v>
-      </c>
-      <c r="I12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],9,FALSE),VLOOKUP($A12,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],9,FALSE),VLOOKUP($A12,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],10,FALSE),VLOOKUP($A12,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],10,FALSE),VLOOKUP($A12,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],11,FALSE),VLOOKUP($A12,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],11,FALSE),VLOOKUP($A12,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],12,FALSE),VLOOKUP($A12,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],12,FALSE),VLOOKUP($A12,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],13,FALSE),VLOOKUP($A12,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],13,FALSE),VLOOKUP($A12,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 48 62 77</v>
-      </c>
-      <c r="N12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],14,FALSE),VLOOKUP($A12,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],14,FALSE),VLOOKUP($A12,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Río Negro</v>
-      </c>
-      <c r="O12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],15,FALSE),VLOOKUP($A12,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],15,FALSE),VLOOKUP($A12,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P12">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],16,FALSE),VLOOKUP($A12,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],16,FALSE),VLOOKUP($A12,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3666479</v>
-      </c>
-      <c r="Q12">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],17,FALSE),VLOOKUP($A12,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],17,FALSE),VLOOKUP($A12,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3148430520</v>
-      </c>
-      <c r="R12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],18,FALSE),VLOOKUP($A12,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],18,FALSE),VLOOKUP($A12,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],19,FALSE),VLOOKUP($A12,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],19,FALSE),VLOOKUP($A12,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],20,FALSE),VLOOKUP($A12,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],20,FALSE),VLOOKUP($A12,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],21,FALSE),VLOOKUP($A12,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],21,FALSE),VLOOKUP($A12,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],22,FALSE),VLOOKUP($A12,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],22,FALSE),VLOOKUP($A12,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>hdaelchorro@gmail.com</v>
-      </c>
-      <c r="W12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],23,FALSE),VLOOKUP($A12,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],23,FALSE),VLOOKUP($A12,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],24,FALSE),VLOOKUP($A12,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],24,FALSE),VLOOKUP($A12,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],25,FALSE),VLOOKUP($A12,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],25,FALSE),VLOOKUP($A12,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],26,FALSE),VLOOKUP($A12,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],26,FALSE),VLOOKUP($A12,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],27,FALSE),VLOOKUP($A12,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],27,FALSE),VLOOKUP($A12,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],28,FALSE),VLOOKUP($A12,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],28,FALSE),VLOOKUP($A12,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],29,FALSE),VLOOKUP($A12,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],29,FALSE),VLOOKUP($A12,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],30,FALSE),VLOOKUP($A12,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],30,FALSE),VLOOKUP($A12,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],31,FALSE),VLOOKUP($A12,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],31,FALSE),VLOOKUP($A12,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],2,FALSE),VLOOKUP($A13,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],2,FALSE),VLOOKUP($A13,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>GANADERÍA SAN RAFAEL</v>
-      </c>
-      <c r="C13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],3,FALSE),VLOOKUP($A13,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],3,FALSE),VLOOKUP($A13,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda San Rafael</v>
-      </c>
-      <c r="D13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],4,FALSE),VLOOKUP($A13,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],4,FALSE),VLOOKUP($A13,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Caucasia</v>
-      </c>
-      <c r="E13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],5,FALSE),VLOOKUP($A13,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],5,FALSE),VLOOKUP($A13,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="F13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],6,FALSE),VLOOKUP($A13,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],6,FALSE),VLOOKUP($A13,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],7,FALSE),VLOOKUP($A13,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],7,FALSE),VLOOKUP($A13,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],8,FALSE),VLOOKUP($A13,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],8,FALSE),VLOOKUP($A13,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],9,FALSE),VLOOKUP($A13,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],9,FALSE),VLOOKUP($A13,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],10,FALSE),VLOOKUP($A13,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],10,FALSE),VLOOKUP($A13,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],11,FALSE),VLOOKUP($A13,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],11,FALSE),VLOOKUP($A13,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],12,FALSE),VLOOKUP($A13,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],12,FALSE),VLOOKUP($A13,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],13,FALSE),VLOOKUP($A13,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],13,FALSE),VLOOKUP($A13,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 7 SUR 42 70 OF 705 ED FORUM</v>
-      </c>
-      <c r="N13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],14,FALSE),VLOOKUP($A13,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],14,FALSE),VLOOKUP($A13,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Medellín</v>
-      </c>
-      <c r="O13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],15,FALSE),VLOOKUP($A13,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],15,FALSE),VLOOKUP($A13,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P13">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],16,FALSE),VLOOKUP($A13,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],16,FALSE),VLOOKUP($A13,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3267810</v>
-      </c>
-      <c r="Q13">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],17,FALSE),VLOOKUP($A13,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],17,FALSE),VLOOKUP($A13,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3267800</v>
-      </c>
-      <c r="R13">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],18,FALSE),VLOOKUP($A13,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],18,FALSE),VLOOKUP($A13,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3142388</v>
-      </c>
-      <c r="S13">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],19,FALSE),VLOOKUP($A13,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],19,FALSE),VLOOKUP($A13,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>3155057570</v>
-      </c>
-      <c r="T13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],20,FALSE),VLOOKUP($A13,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],20,FALSE),VLOOKUP($A13,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],21,FALSE),VLOOKUP($A13,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],21,FALSE),VLOOKUP($A13,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],22,FALSE),VLOOKUP($A13,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],22,FALSE),VLOOKUP($A13,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>hespinosa@ganaderiasanrafael.com</v>
-      </c>
-      <c r="W13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],23,FALSE),VLOOKUP($A13,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],23,FALSE),VLOOKUP($A13,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],24,FALSE),VLOOKUP($A13,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],24,FALSE),VLOOKUP($A13,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],25,FALSE),VLOOKUP($A13,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],25,FALSE),VLOOKUP($A13,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],26,FALSE),VLOOKUP($A13,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],26,FALSE),VLOOKUP($A13,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],27,FALSE),VLOOKUP($A13,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],27,FALSE),VLOOKUP($A13,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],28,FALSE),VLOOKUP($A13,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],28,FALSE),VLOOKUP($A13,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],29,FALSE),VLOOKUP($A13,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],29,FALSE),VLOOKUP($A13,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>http://www.ganaderiasanrafael.com</v>
-      </c>
-      <c r="AD13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],30,FALSE),VLOOKUP($A13,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],30,FALSE),VLOOKUP($A13,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],31,FALSE),VLOOKUP($A13,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],31,FALSE),VLOOKUP($A13,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>987</v>
-      </c>
-      <c r="B14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],2,FALSE),VLOOKUP($A14,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],2,FALSE),VLOOKUP($A14,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>HACIENDA BUENOS AIRES LTDA.</v>
-      </c>
-      <c r="C14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],3,FALSE),VLOOKUP($A14,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],3,FALSE),VLOOKUP($A14,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Buenos Aires, Finca Corinto</v>
-      </c>
-      <c r="D14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],4,FALSE),VLOOKUP($A14,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],4,FALSE),VLOOKUP($A14,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Florencia</v>
-      </c>
-      <c r="E14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],5,FALSE),VLOOKUP($A14,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],5,FALSE),VLOOKUP($A14,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Caquetá</v>
-      </c>
-      <c r="F14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],6,FALSE),VLOOKUP($A14,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],6,FALSE),VLOOKUP($A14,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],7,FALSE),VLOOKUP($A14,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],7,FALSE),VLOOKUP($A14,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],8,FALSE),VLOOKUP($A14,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],8,FALSE),VLOOKUP($A14,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],9,FALSE),VLOOKUP($A14,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],9,FALSE),VLOOKUP($A14,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],10,FALSE),VLOOKUP($A14,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],10,FALSE),VLOOKUP($A14,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],11,FALSE),VLOOKUP($A14,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],11,FALSE),VLOOKUP($A14,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],12,FALSE),VLOOKUP($A14,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],12,FALSE),VLOOKUP($A14,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Brahman</v>
-      </c>
-      <c r="M14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],13,FALSE),VLOOKUP($A14,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],13,FALSE),VLOOKUP($A14,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 10 # 9 - 39 BRR EL PRADO</v>
-      </c>
-      <c r="N14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],14,FALSE),VLOOKUP($A14,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],14,FALSE),VLOOKUP($A14,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Florencia</v>
-      </c>
-      <c r="O14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],15,FALSE),VLOOKUP($A14,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],15,FALSE),VLOOKUP($A14,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Caquetá</v>
-      </c>
-      <c r="P14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],16,FALSE),VLOOKUP($A14,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],16,FALSE),VLOOKUP($A14,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>(091)4362035</v>
-      </c>
-      <c r="Q14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],17,FALSE),VLOOKUP($A14,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],17,FALSE),VLOOKUP($A14,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3143043045</v>
-      </c>
-      <c r="R14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],18,FALSE),VLOOKUP($A14,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],18,FALSE),VLOOKUP($A14,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],19,FALSE),VLOOKUP($A14,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],19,FALSE),VLOOKUP($A14,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],20,FALSE),VLOOKUP($A14,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],20,FALSE),VLOOKUP($A14,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],21,FALSE),VLOOKUP($A14,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],21,FALSE),VLOOKUP($A14,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],22,FALSE),VLOOKUP($A14,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],22,FALSE),VLOOKUP($A14,CriadoresDirectorio[],22,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="W14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],23,FALSE),VLOOKUP($A14,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],23,FALSE),VLOOKUP($A14,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],24,FALSE),VLOOKUP($A14,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],24,FALSE),VLOOKUP($A14,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],25,FALSE),VLOOKUP($A14,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],25,FALSE),VLOOKUP($A14,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],26,FALSE),VLOOKUP($A14,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],26,FALSE),VLOOKUP($A14,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],27,FALSE),VLOOKUP($A14,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],27,FALSE),VLOOKUP($A14,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],28,FALSE),VLOOKUP($A14,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],28,FALSE),VLOOKUP($A14,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],29,FALSE),VLOOKUP($A14,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],29,FALSE),VLOOKUP($A14,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],30,FALSE),VLOOKUP($A14,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],30,FALSE),VLOOKUP($A14,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],31,FALSE),VLOOKUP($A14,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],31,FALSE),VLOOKUP($A14,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],2,FALSE),VLOOKUP($A15,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],2,FALSE),VLOOKUP($A15,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>PROYEGAN S.A.S. - HACIENDA CADIZ</v>
-      </c>
-      <c r="C15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],3,FALSE),VLOOKUP($A15,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],3,FALSE),VLOOKUP($A15,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Cádiz</v>
-      </c>
-      <c r="D15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],4,FALSE),VLOOKUP($A15,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],4,FALSE),VLOOKUP($A15,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Lorica</v>
-      </c>
-      <c r="E15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],5,FALSE),VLOOKUP($A15,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],5,FALSE),VLOOKUP($A15,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Córdoba</v>
-      </c>
-      <c r="F15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],6,FALSE),VLOOKUP($A15,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],6,FALSE),VLOOKUP($A15,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],7,FALSE),VLOOKUP($A15,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],7,FALSE),VLOOKUP($A15,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],8,FALSE),VLOOKUP($A15,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],8,FALSE),VLOOKUP($A15,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],9,FALSE),VLOOKUP($A15,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],9,FALSE),VLOOKUP($A15,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],10,FALSE),VLOOKUP($A15,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],10,FALSE),VLOOKUP($A15,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],11,FALSE),VLOOKUP($A15,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],11,FALSE),VLOOKUP($A15,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],12,FALSE),VLOOKUP($A15,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],12,FALSE),VLOOKUP($A15,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],13,FALSE),VLOOKUP($A15,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],13,FALSE),VLOOKUP($A15,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 42 54A 155 AUTOP SUR</v>
-      </c>
-      <c r="N15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],14,FALSE),VLOOKUP($A15,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],14,FALSE),VLOOKUP($A15,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Itagüí</v>
-      </c>
-      <c r="O15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],15,FALSE),VLOOKUP($A15,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],15,FALSE),VLOOKUP($A15,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],16,FALSE),VLOOKUP($A15,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],16,FALSE),VLOOKUP($A15,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3734001Ext.101</v>
-      </c>
-      <c r="Q15">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],17,FALSE),VLOOKUP($A15,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],17,FALSE),VLOOKUP($A15,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3778936</v>
-      </c>
-      <c r="R15">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],18,FALSE),VLOOKUP($A15,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],18,FALSE),VLOOKUP($A15,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3104240789</v>
-      </c>
-      <c r="S15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],19,FALSE),VLOOKUP($A15,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],19,FALSE),VLOOKUP($A15,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],20,FALSE),VLOOKUP($A15,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],20,FALSE),VLOOKUP($A15,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],21,FALSE),VLOOKUP($A15,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],21,FALSE),VLOOKUP($A15,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],22,FALSE),VLOOKUP($A15,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],22,FALSE),VLOOKUP($A15,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>cmvelez@inverjota.com</v>
-      </c>
-      <c r="W15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],23,FALSE),VLOOKUP($A15,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],23,FALSE),VLOOKUP($A15,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],24,FALSE),VLOOKUP($A15,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],24,FALSE),VLOOKUP($A15,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],25,FALSE),VLOOKUP($A15,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],25,FALSE),VLOOKUP($A15,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],26,FALSE),VLOOKUP($A15,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],26,FALSE),VLOOKUP($A15,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],27,FALSE),VLOOKUP($A15,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],27,FALSE),VLOOKUP($A15,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],28,FALSE),VLOOKUP($A15,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],28,FALSE),VLOOKUP($A15,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],29,FALSE),VLOOKUP($A15,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],29,FALSE),VLOOKUP($A15,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],30,FALSE),VLOOKUP($A15,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],30,FALSE),VLOOKUP($A15,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],31,FALSE),VLOOKUP($A15,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],31,FALSE),VLOOKUP($A15,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>3146</v>
-      </c>
-      <c r="B16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],2,FALSE),VLOOKUP($A16,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],2,FALSE),VLOOKUP($A16,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>INDUSTRIA GANADERA HATO CEBÚ S.A.</v>
-      </c>
-      <c r="C16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],3,FALSE),VLOOKUP($A16,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],3,FALSE),VLOOKUP($A16,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Villa Erika</v>
-      </c>
-      <c r="D16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],4,FALSE),VLOOKUP($A16,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],4,FALSE),VLOOKUP($A16,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Puerto Boyacá</v>
-      </c>
-      <c r="E16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],5,FALSE),VLOOKUP($A16,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],5,FALSE),VLOOKUP($A16,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Boyacá</v>
-      </c>
-      <c r="F16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],6,FALSE),VLOOKUP($A16,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],6,FALSE),VLOOKUP($A16,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],7,FALSE),VLOOKUP($A16,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],7,FALSE),VLOOKUP($A16,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],8,FALSE),VLOOKUP($A16,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],8,FALSE),VLOOKUP($A16,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],9,FALSE),VLOOKUP($A16,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],9,FALSE),VLOOKUP($A16,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],10,FALSE),VLOOKUP($A16,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],10,FALSE),VLOOKUP($A16,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],11,FALSE),VLOOKUP($A16,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],11,FALSE),VLOOKUP($A16,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],12,FALSE),VLOOKUP($A16,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],12,FALSE),VLOOKUP($A16,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],13,FALSE),VLOOKUP($A16,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],13,FALSE),VLOOKUP($A16,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 113 7 45 TO B OF 1016 ED TELEPORT</v>
-      </c>
-      <c r="N16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],14,FALSE),VLOOKUP($A16,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],14,FALSE),VLOOKUP($A16,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Bogotá D.C</v>
-      </c>
-      <c r="O16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],15,FALSE),VLOOKUP($A16,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],15,FALSE),VLOOKUP($A16,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Cundinamarca</v>
-      </c>
-      <c r="P16">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],16,FALSE),VLOOKUP($A16,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],16,FALSE),VLOOKUP($A16,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>2755530</v>
-      </c>
-      <c r="Q16">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],17,FALSE),VLOOKUP($A16,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],17,FALSE),VLOOKUP($A16,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>2755531</v>
-      </c>
-      <c r="R16">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],18,FALSE),VLOOKUP($A16,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],18,FALSE),VLOOKUP($A16,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>2755185</v>
-      </c>
-      <c r="S16">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],19,FALSE),VLOOKUP($A16,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],19,FALSE),VLOOKUP($A16,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>3212426603</v>
-      </c>
-      <c r="T16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],20,FALSE),VLOOKUP($A16,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],20,FALSE),VLOOKUP($A16,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],21,FALSE),VLOOKUP($A16,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],21,FALSE),VLOOKUP($A16,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],22,FALSE),VLOOKUP($A16,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],22,FALSE),VLOOKUP($A16,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>informacion@hatocebu.com</v>
-      </c>
-      <c r="W16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],23,FALSE),VLOOKUP($A16,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],23,FALSE),VLOOKUP($A16,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],24,FALSE),VLOOKUP($A16,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],24,FALSE),VLOOKUP($A16,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],25,FALSE),VLOOKUP($A16,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],25,FALSE),VLOOKUP($A16,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],26,FALSE),VLOOKUP($A16,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],26,FALSE),VLOOKUP($A16,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],27,FALSE),VLOOKUP($A16,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],27,FALSE),VLOOKUP($A16,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],28,FALSE),VLOOKUP($A16,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],28,FALSE),VLOOKUP($A16,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],29,FALSE),VLOOKUP($A16,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],29,FALSE),VLOOKUP($A16,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>http://www.hatocebu.com/</v>
-      </c>
-      <c r="AD16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],30,FALSE),VLOOKUP($A16,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],30,FALSE),VLOOKUP($A16,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],31,FALSE),VLOOKUP($A16,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],31,FALSE),VLOOKUP($A16,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>870</v>
-      </c>
-      <c r="B17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],2,FALSE),VLOOKUP($A17,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],2,FALSE),VLOOKUP($A17,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>GANADERÍA SACAPALOS</v>
-      </c>
-      <c r="C17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],3,FALSE),VLOOKUP($A17,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],3,FALSE),VLOOKUP($A17,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hdas. Yucatán</v>
-      </c>
-      <c r="D17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],4,FALSE),VLOOKUP($A17,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],4,FALSE),VLOOKUP($A17,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>La Dorada</v>
-      </c>
-      <c r="E17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],5,FALSE),VLOOKUP($A17,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],5,FALSE),VLOOKUP($A17,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Caldas</v>
-      </c>
-      <c r="F17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],6,FALSE),VLOOKUP($A17,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],6,FALSE),VLOOKUP($A17,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>Candilejas</v>
-      </c>
-      <c r="G17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],7,FALSE),VLOOKUP($A17,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],7,FALSE),VLOOKUP($A17,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>Puerto Salgar</v>
-      </c>
-      <c r="H17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],8,FALSE),VLOOKUP($A17,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],8,FALSE),VLOOKUP($A17,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>Cundinamarca</v>
-      </c>
-      <c r="I17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],9,FALSE),VLOOKUP($A17,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],9,FALSE),VLOOKUP($A17,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],10,FALSE),VLOOKUP($A17,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],10,FALSE),VLOOKUP($A17,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],11,FALSE),VLOOKUP($A17,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],11,FALSE),VLOOKUP($A17,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],12,FALSE),VLOOKUP($A17,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],12,FALSE),VLOOKUP($A17,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],13,FALSE),VLOOKUP($A17,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],13,FALSE),VLOOKUP($A17,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 30 5F 185 APTO 216</v>
-      </c>
-      <c r="N17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],14,FALSE),VLOOKUP($A17,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],14,FALSE),VLOOKUP($A17,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Medellín</v>
-      </c>
-      <c r="O17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],15,FALSE),VLOOKUP($A17,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],15,FALSE),VLOOKUP($A17,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P17">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],16,FALSE),VLOOKUP($A17,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],16,FALSE),VLOOKUP($A17,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>5702350</v>
-      </c>
-      <c r="Q17">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],17,FALSE),VLOOKUP($A17,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],17,FALSE),VLOOKUP($A17,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3147990150</v>
-      </c>
-      <c r="R17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],18,FALSE),VLOOKUP($A17,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],18,FALSE),VLOOKUP($A17,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],19,FALSE),VLOOKUP($A17,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],19,FALSE),VLOOKUP($A17,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],20,FALSE),VLOOKUP($A17,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],20,FALSE),VLOOKUP($A17,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],21,FALSE),VLOOKUP($A17,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],21,FALSE),VLOOKUP($A17,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],22,FALSE),VLOOKUP($A17,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],22,FALSE),VLOOKUP($A17,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>jorgelopezsacapalos@hotmail.com</v>
-      </c>
-      <c r="W17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],23,FALSE),VLOOKUP($A17,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],23,FALSE),VLOOKUP($A17,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],24,FALSE),VLOOKUP($A17,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],24,FALSE),VLOOKUP($A17,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],25,FALSE),VLOOKUP($A17,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],25,FALSE),VLOOKUP($A17,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],26,FALSE),VLOOKUP($A17,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],26,FALSE),VLOOKUP($A17,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],27,FALSE),VLOOKUP($A17,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],27,FALSE),VLOOKUP($A17,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],28,FALSE),VLOOKUP($A17,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],28,FALSE),VLOOKUP($A17,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],29,FALSE),VLOOKUP($A17,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],29,FALSE),VLOOKUP($A17,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],30,FALSE),VLOOKUP($A17,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],30,FALSE),VLOOKUP($A17,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],31,FALSE),VLOOKUP($A17,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],31,FALSE),VLOOKUP($A17,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>3580</v>
-      </c>
-      <c r="B18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],2,FALSE),VLOOKUP($A18,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],2,FALSE),VLOOKUP($A18,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],3,FALSE),VLOOKUP($A18,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],3,FALSE),VLOOKUP($A18,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],4,FALSE),VLOOKUP($A18,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],4,FALSE),VLOOKUP($A18,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],5,FALSE),VLOOKUP($A18,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],5,FALSE),VLOOKUP($A18,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],6,FALSE),VLOOKUP($A18,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],6,FALSE),VLOOKUP($A18,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],7,FALSE),VLOOKUP($A18,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],7,FALSE),VLOOKUP($A18,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],8,FALSE),VLOOKUP($A18,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],8,FALSE),VLOOKUP($A18,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],9,FALSE),VLOOKUP($A18,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],9,FALSE),VLOOKUP($A18,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],10,FALSE),VLOOKUP($A18,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],10,FALSE),VLOOKUP($A18,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],11,FALSE),VLOOKUP($A18,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],11,FALSE),VLOOKUP($A18,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],12,FALSE),VLOOKUP($A18,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],12,FALSE),VLOOKUP($A18,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],13,FALSE),VLOOKUP($A18,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],13,FALSE),VLOOKUP($A18,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],14,FALSE),VLOOKUP($A18,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],14,FALSE),VLOOKUP($A18,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],15,FALSE),VLOOKUP($A18,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],15,FALSE),VLOOKUP($A18,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],16,FALSE),VLOOKUP($A18,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],16,FALSE),VLOOKUP($A18,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],17,FALSE),VLOOKUP($A18,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],17,FALSE),VLOOKUP($A18,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],18,FALSE),VLOOKUP($A18,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],18,FALSE),VLOOKUP($A18,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],19,FALSE),VLOOKUP($A18,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],19,FALSE),VLOOKUP($A18,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],20,FALSE),VLOOKUP($A18,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],20,FALSE),VLOOKUP($A18,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],21,FALSE),VLOOKUP($A18,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],21,FALSE),VLOOKUP($A18,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],22,FALSE),VLOOKUP($A18,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],22,FALSE),VLOOKUP($A18,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],23,FALSE),VLOOKUP($A18,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],23,FALSE),VLOOKUP($A18,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],24,FALSE),VLOOKUP($A18,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],24,FALSE),VLOOKUP($A18,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],25,FALSE),VLOOKUP($A18,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],25,FALSE),VLOOKUP($A18,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],26,FALSE),VLOOKUP($A18,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],26,FALSE),VLOOKUP($A18,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],27,FALSE),VLOOKUP($A18,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],27,FALSE),VLOOKUP($A18,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],28,FALSE),VLOOKUP($A18,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],28,FALSE),VLOOKUP($A18,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],29,FALSE),VLOOKUP($A18,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],29,FALSE),VLOOKUP($A18,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],30,FALSE),VLOOKUP($A18,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],30,FALSE),VLOOKUP($A18,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE18" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],31,FALSE),VLOOKUP($A18,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],31,FALSE),VLOOKUP($A18,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>3581</v>
-      </c>
-      <c r="B19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],2,FALSE),VLOOKUP($A19,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],2,FALSE),VLOOKUP($A19,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],3,FALSE),VLOOKUP($A19,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],3,FALSE),VLOOKUP($A19,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],4,FALSE),VLOOKUP($A19,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],4,FALSE),VLOOKUP($A19,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],5,FALSE),VLOOKUP($A19,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],5,FALSE),VLOOKUP($A19,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],6,FALSE),VLOOKUP($A19,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],6,FALSE),VLOOKUP($A19,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],7,FALSE),VLOOKUP($A19,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],7,FALSE),VLOOKUP($A19,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],8,FALSE),VLOOKUP($A19,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],8,FALSE),VLOOKUP($A19,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],9,FALSE),VLOOKUP($A19,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],9,FALSE),VLOOKUP($A19,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],10,FALSE),VLOOKUP($A19,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],10,FALSE),VLOOKUP($A19,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],11,FALSE),VLOOKUP($A19,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],11,FALSE),VLOOKUP($A19,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],12,FALSE),VLOOKUP($A19,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],12,FALSE),VLOOKUP($A19,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],13,FALSE),VLOOKUP($A19,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],13,FALSE),VLOOKUP($A19,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],14,FALSE),VLOOKUP($A19,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],14,FALSE),VLOOKUP($A19,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],15,FALSE),VLOOKUP($A19,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],15,FALSE),VLOOKUP($A19,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],16,FALSE),VLOOKUP($A19,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],16,FALSE),VLOOKUP($A19,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],17,FALSE),VLOOKUP($A19,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],17,FALSE),VLOOKUP($A19,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],18,FALSE),VLOOKUP($A19,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],18,FALSE),VLOOKUP($A19,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],19,FALSE),VLOOKUP($A19,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],19,FALSE),VLOOKUP($A19,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],20,FALSE),VLOOKUP($A19,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],20,FALSE),VLOOKUP($A19,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],21,FALSE),VLOOKUP($A19,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],21,FALSE),VLOOKUP($A19,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],22,FALSE),VLOOKUP($A19,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],22,FALSE),VLOOKUP($A19,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],23,FALSE),VLOOKUP($A19,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],23,FALSE),VLOOKUP($A19,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],24,FALSE),VLOOKUP($A19,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],24,FALSE),VLOOKUP($A19,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],25,FALSE),VLOOKUP($A19,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],25,FALSE),VLOOKUP($A19,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],26,FALSE),VLOOKUP($A19,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],26,FALSE),VLOOKUP($A19,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],27,FALSE),VLOOKUP($A19,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],27,FALSE),VLOOKUP($A19,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],28,FALSE),VLOOKUP($A19,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],28,FALSE),VLOOKUP($A19,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],29,FALSE),VLOOKUP($A19,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],29,FALSE),VLOOKUP($A19,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],30,FALSE),VLOOKUP($A19,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],30,FALSE),VLOOKUP($A19,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],31,FALSE),VLOOKUP($A19,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],31,FALSE),VLOOKUP($A19,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>3582</v>
-      </c>
-      <c r="B20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],2,FALSE),VLOOKUP($A20,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],2,FALSE),VLOOKUP($A20,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],3,FALSE),VLOOKUP($A20,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],3,FALSE),VLOOKUP($A20,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],4,FALSE),VLOOKUP($A20,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],4,FALSE),VLOOKUP($A20,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],5,FALSE),VLOOKUP($A20,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],5,FALSE),VLOOKUP($A20,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],6,FALSE),VLOOKUP($A20,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],6,FALSE),VLOOKUP($A20,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],7,FALSE),VLOOKUP($A20,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],7,FALSE),VLOOKUP($A20,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],8,FALSE),VLOOKUP($A20,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],8,FALSE),VLOOKUP($A20,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],9,FALSE),VLOOKUP($A20,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],9,FALSE),VLOOKUP($A20,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],10,FALSE),VLOOKUP($A20,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],10,FALSE),VLOOKUP($A20,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],11,FALSE),VLOOKUP($A20,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],11,FALSE),VLOOKUP($A20,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],12,FALSE),VLOOKUP($A20,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],12,FALSE),VLOOKUP($A20,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],13,FALSE),VLOOKUP($A20,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],13,FALSE),VLOOKUP($A20,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],14,FALSE),VLOOKUP($A20,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],14,FALSE),VLOOKUP($A20,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],15,FALSE),VLOOKUP($A20,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],15,FALSE),VLOOKUP($A20,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],16,FALSE),VLOOKUP($A20,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],16,FALSE),VLOOKUP($A20,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],17,FALSE),VLOOKUP($A20,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],17,FALSE),VLOOKUP($A20,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],18,FALSE),VLOOKUP($A20,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],18,FALSE),VLOOKUP($A20,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],19,FALSE),VLOOKUP($A20,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],19,FALSE),VLOOKUP($A20,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],20,FALSE),VLOOKUP($A20,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],20,FALSE),VLOOKUP($A20,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],21,FALSE),VLOOKUP($A20,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],21,FALSE),VLOOKUP($A20,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],22,FALSE),VLOOKUP($A20,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],22,FALSE),VLOOKUP($A20,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],23,FALSE),VLOOKUP($A20,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],23,FALSE),VLOOKUP($A20,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],24,FALSE),VLOOKUP($A20,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],24,FALSE),VLOOKUP($A20,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],25,FALSE),VLOOKUP($A20,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],25,FALSE),VLOOKUP($A20,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],26,FALSE),VLOOKUP($A20,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],26,FALSE),VLOOKUP($A20,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],27,FALSE),VLOOKUP($A20,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],27,FALSE),VLOOKUP($A20,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],28,FALSE),VLOOKUP($A20,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],28,FALSE),VLOOKUP($A20,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],29,FALSE),VLOOKUP($A20,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],29,FALSE),VLOOKUP($A20,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],30,FALSE),VLOOKUP($A20,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],30,FALSE),VLOOKUP($A20,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],31,FALSE),VLOOKUP($A20,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],31,FALSE),VLOOKUP($A20,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>3583</v>
-      </c>
-      <c r="B21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],2,FALSE),VLOOKUP($A21,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],2,FALSE),VLOOKUP($A21,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],3,FALSE),VLOOKUP($A21,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],3,FALSE),VLOOKUP($A21,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],4,FALSE),VLOOKUP($A21,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],4,FALSE),VLOOKUP($A21,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],5,FALSE),VLOOKUP($A21,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],5,FALSE),VLOOKUP($A21,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],6,FALSE),VLOOKUP($A21,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],6,FALSE),VLOOKUP($A21,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],7,FALSE),VLOOKUP($A21,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],7,FALSE),VLOOKUP($A21,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],8,FALSE),VLOOKUP($A21,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],8,FALSE),VLOOKUP($A21,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],9,FALSE),VLOOKUP($A21,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],9,FALSE),VLOOKUP($A21,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],10,FALSE),VLOOKUP($A21,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],10,FALSE),VLOOKUP($A21,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],11,FALSE),VLOOKUP($A21,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],11,FALSE),VLOOKUP($A21,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],12,FALSE),VLOOKUP($A21,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],12,FALSE),VLOOKUP($A21,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],13,FALSE),VLOOKUP($A21,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],13,FALSE),VLOOKUP($A21,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],14,FALSE),VLOOKUP($A21,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],14,FALSE),VLOOKUP($A21,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],15,FALSE),VLOOKUP($A21,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],15,FALSE),VLOOKUP($A21,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],16,FALSE),VLOOKUP($A21,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],16,FALSE),VLOOKUP($A21,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],17,FALSE),VLOOKUP($A21,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],17,FALSE),VLOOKUP($A21,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],18,FALSE),VLOOKUP($A21,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],18,FALSE),VLOOKUP($A21,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],19,FALSE),VLOOKUP($A21,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],19,FALSE),VLOOKUP($A21,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],20,FALSE),VLOOKUP($A21,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],20,FALSE),VLOOKUP($A21,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],21,FALSE),VLOOKUP($A21,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],21,FALSE),VLOOKUP($A21,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],22,FALSE),VLOOKUP($A21,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],22,FALSE),VLOOKUP($A21,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],23,FALSE),VLOOKUP($A21,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],23,FALSE),VLOOKUP($A21,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],24,FALSE),VLOOKUP($A21,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],24,FALSE),VLOOKUP($A21,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],25,FALSE),VLOOKUP($A21,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],25,FALSE),VLOOKUP($A21,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],26,FALSE),VLOOKUP($A21,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],26,FALSE),VLOOKUP($A21,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],27,FALSE),VLOOKUP($A21,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],27,FALSE),VLOOKUP($A21,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],28,FALSE),VLOOKUP($A21,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],28,FALSE),VLOOKUP($A21,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],29,FALSE),VLOOKUP($A21,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],29,FALSE),VLOOKUP($A21,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],30,FALSE),VLOOKUP($A21,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],30,FALSE),VLOOKUP($A21,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],31,FALSE),VLOOKUP($A21,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],31,FALSE),VLOOKUP($A21,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>3584</v>
-      </c>
-      <c r="B22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],2,FALSE),VLOOKUP($A22,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],2,FALSE),VLOOKUP($A22,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],3,FALSE),VLOOKUP($A22,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],3,FALSE),VLOOKUP($A22,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],4,FALSE),VLOOKUP($A22,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],4,FALSE),VLOOKUP($A22,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],5,FALSE),VLOOKUP($A22,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],5,FALSE),VLOOKUP($A22,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],6,FALSE),VLOOKUP($A22,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],6,FALSE),VLOOKUP($A22,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],7,FALSE),VLOOKUP($A22,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],7,FALSE),VLOOKUP($A22,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],8,FALSE),VLOOKUP($A22,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],8,FALSE),VLOOKUP($A22,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],9,FALSE),VLOOKUP($A22,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],9,FALSE),VLOOKUP($A22,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],10,FALSE),VLOOKUP($A22,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],10,FALSE),VLOOKUP($A22,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],11,FALSE),VLOOKUP($A22,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],11,FALSE),VLOOKUP($A22,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],12,FALSE),VLOOKUP($A22,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],12,FALSE),VLOOKUP($A22,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],13,FALSE),VLOOKUP($A22,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],13,FALSE),VLOOKUP($A22,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],14,FALSE),VLOOKUP($A22,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],14,FALSE),VLOOKUP($A22,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],15,FALSE),VLOOKUP($A22,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],15,FALSE),VLOOKUP($A22,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],16,FALSE),VLOOKUP($A22,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],16,FALSE),VLOOKUP($A22,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],17,FALSE),VLOOKUP($A22,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],17,FALSE),VLOOKUP($A22,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],18,FALSE),VLOOKUP($A22,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],18,FALSE),VLOOKUP($A22,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],19,FALSE),VLOOKUP($A22,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],19,FALSE),VLOOKUP($A22,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],20,FALSE),VLOOKUP($A22,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],20,FALSE),VLOOKUP($A22,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],21,FALSE),VLOOKUP($A22,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],21,FALSE),VLOOKUP($A22,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],22,FALSE),VLOOKUP($A22,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],22,FALSE),VLOOKUP($A22,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],23,FALSE),VLOOKUP($A22,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],23,FALSE),VLOOKUP($A22,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],24,FALSE),VLOOKUP($A22,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],24,FALSE),VLOOKUP($A22,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],25,FALSE),VLOOKUP($A22,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],25,FALSE),VLOOKUP($A22,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],26,FALSE),VLOOKUP($A22,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],26,FALSE),VLOOKUP($A22,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],27,FALSE),VLOOKUP($A22,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],27,FALSE),VLOOKUP($A22,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],28,FALSE),VLOOKUP($A22,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],28,FALSE),VLOOKUP($A22,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],29,FALSE),VLOOKUP($A22,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],29,FALSE),VLOOKUP($A22,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],30,FALSE),VLOOKUP($A22,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],30,FALSE),VLOOKUP($A22,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],31,FALSE),VLOOKUP($A22,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],31,FALSE),VLOOKUP($A22,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>3585</v>
-      </c>
-      <c r="B23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],2,FALSE),VLOOKUP($A23,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],2,FALSE),VLOOKUP($A23,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],3,FALSE),VLOOKUP($A23,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],3,FALSE),VLOOKUP($A23,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],4,FALSE),VLOOKUP($A23,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],4,FALSE),VLOOKUP($A23,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],5,FALSE),VLOOKUP($A23,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],5,FALSE),VLOOKUP($A23,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],6,FALSE),VLOOKUP($A23,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],6,FALSE),VLOOKUP($A23,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],7,FALSE),VLOOKUP($A23,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],7,FALSE),VLOOKUP($A23,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],8,FALSE),VLOOKUP($A23,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],8,FALSE),VLOOKUP($A23,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],9,FALSE),VLOOKUP($A23,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],9,FALSE),VLOOKUP($A23,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],10,FALSE),VLOOKUP($A23,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],10,FALSE),VLOOKUP($A23,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],11,FALSE),VLOOKUP($A23,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],11,FALSE),VLOOKUP($A23,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],12,FALSE),VLOOKUP($A23,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],12,FALSE),VLOOKUP($A23,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],13,FALSE),VLOOKUP($A23,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],13,FALSE),VLOOKUP($A23,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],14,FALSE),VLOOKUP($A23,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],14,FALSE),VLOOKUP($A23,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],15,FALSE),VLOOKUP($A23,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],15,FALSE),VLOOKUP($A23,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],16,FALSE),VLOOKUP($A23,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],16,FALSE),VLOOKUP($A23,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],17,FALSE),VLOOKUP($A23,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],17,FALSE),VLOOKUP($A23,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],18,FALSE),VLOOKUP($A23,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],18,FALSE),VLOOKUP($A23,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],19,FALSE),VLOOKUP($A23,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],19,FALSE),VLOOKUP($A23,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],20,FALSE),VLOOKUP($A23,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],20,FALSE),VLOOKUP($A23,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],21,FALSE),VLOOKUP($A23,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],21,FALSE),VLOOKUP($A23,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],22,FALSE),VLOOKUP($A23,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],22,FALSE),VLOOKUP($A23,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],23,FALSE),VLOOKUP($A23,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],23,FALSE),VLOOKUP($A23,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],24,FALSE),VLOOKUP($A23,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],24,FALSE),VLOOKUP($A23,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],25,FALSE),VLOOKUP($A23,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],25,FALSE),VLOOKUP($A23,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],26,FALSE),VLOOKUP($A23,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],26,FALSE),VLOOKUP($A23,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],27,FALSE),VLOOKUP($A23,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],27,FALSE),VLOOKUP($A23,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],28,FALSE),VLOOKUP($A23,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],28,FALSE),VLOOKUP($A23,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],29,FALSE),VLOOKUP($A23,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],29,FALSE),VLOOKUP($A23,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],30,FALSE),VLOOKUP($A23,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],30,FALSE),VLOOKUP($A23,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE23" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],31,FALSE),VLOOKUP($A23,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],31,FALSE),VLOOKUP($A23,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],2,FALSE),VLOOKUP($A24,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],2,FALSE),VLOOKUP($A24,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>FUNDACIÓN GRUPO ARGOS</v>
-      </c>
-      <c r="C24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],3,FALSE),VLOOKUP($A24,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],3,FALSE),VLOOKUP($A24,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Casanare, La Magdalena</v>
-      </c>
-      <c r="D24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],4,FALSE),VLOOKUP($A24,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],4,FALSE),VLOOKUP($A24,CriadoresDirectorio[],4,FALSE)))</f>
-        <v xml:space="preserve">Puerto Nare </v>
-      </c>
-      <c r="E24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],5,FALSE),VLOOKUP($A24,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],5,FALSE),VLOOKUP($A24,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="F24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],6,FALSE),VLOOKUP($A24,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],6,FALSE),VLOOKUP($A24,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>Hda Centenario</v>
-      </c>
-      <c r="G24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],7,FALSE),VLOOKUP($A24,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],7,FALSE),VLOOKUP($A24,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>Montelíbano</v>
-      </c>
-      <c r="H24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],8,FALSE),VLOOKUP($A24,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],8,FALSE),VLOOKUP($A24,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>Córdoba</v>
-      </c>
-      <c r="I24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],9,FALSE),VLOOKUP($A24,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],9,FALSE),VLOOKUP($A24,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],10,FALSE),VLOOKUP($A24,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],10,FALSE),VLOOKUP($A24,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],11,FALSE),VLOOKUP($A24,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],11,FALSE),VLOOKUP($A24,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],12,FALSE),VLOOKUP($A24,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],12,FALSE),VLOOKUP($A24,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman, Gyr y Guzerá</v>
-      </c>
-      <c r="M24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],13,FALSE),VLOOKUP($A24,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],13,FALSE),VLOOKUP($A24,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 43 A 1 A SUR 143 ED SANTILLANA</v>
-      </c>
-      <c r="N24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],14,FALSE),VLOOKUP($A24,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],14,FALSE),VLOOKUP($A24,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Medellín</v>
-      </c>
-      <c r="O24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],15,FALSE),VLOOKUP($A24,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],15,FALSE),VLOOKUP($A24,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P24">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],16,FALSE),VLOOKUP($A24,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],16,FALSE),VLOOKUP($A24,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3158400</v>
-      </c>
-      <c r="Q24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],17,FALSE),VLOOKUP($A24,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],17,FALSE),VLOOKUP($A24,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3106200Ext.2100</v>
-      </c>
-      <c r="R24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],18,FALSE),VLOOKUP($A24,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],18,FALSE),VLOOKUP($A24,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3106202Ext.4512</v>
-      </c>
-      <c r="S24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],19,FALSE),VLOOKUP($A24,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],19,FALSE),VLOOKUP($A24,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>3136860539/40</v>
-      </c>
-      <c r="T24">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],20,FALSE),VLOOKUP($A24,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],20,FALSE),VLOOKUP($A24,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>3122481505</v>
-      </c>
-      <c r="U24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],21,FALSE),VLOOKUP($A24,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],21,FALSE),VLOOKUP($A24,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],22,FALSE),VLOOKUP($A24,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],22,FALSE),VLOOKUP($A24,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>andres.valderrama@alianzaganadera.co</v>
-      </c>
-      <c r="W24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],23,FALSE),VLOOKUP($A24,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],23,FALSE),VLOOKUP($A24,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>avalderrama@rgrande.co</v>
-      </c>
-      <c r="X24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],24,FALSE),VLOOKUP($A24,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],24,FALSE),VLOOKUP($A24,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],25,FALSE),VLOOKUP($A24,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],25,FALSE),VLOOKUP($A24,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],26,FALSE),VLOOKUP($A24,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],26,FALSE),VLOOKUP($A24,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],27,FALSE),VLOOKUP($A24,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],27,FALSE),VLOOKUP($A24,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],28,FALSE),VLOOKUP($A24,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],28,FALSE),VLOOKUP($A24,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],29,FALSE),VLOOKUP($A24,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],29,FALSE),VLOOKUP($A24,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>http://www.ganaderiariogrande.com</v>
-      </c>
-      <c r="AD24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],30,FALSE),VLOOKUP($A24,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],30,FALSE),VLOOKUP($A24,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],31,FALSE),VLOOKUP($A24,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],31,FALSE),VLOOKUP($A24,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>3586</v>
-      </c>
-      <c r="B25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],2,FALSE),VLOOKUP($A25,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],2,FALSE),VLOOKUP($A25,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],3,FALSE),VLOOKUP($A25,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],3,FALSE),VLOOKUP($A25,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],4,FALSE),VLOOKUP($A25,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],4,FALSE),VLOOKUP($A25,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],5,FALSE),VLOOKUP($A25,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],5,FALSE),VLOOKUP($A25,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],6,FALSE),VLOOKUP($A25,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],6,FALSE),VLOOKUP($A25,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],7,FALSE),VLOOKUP($A25,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],7,FALSE),VLOOKUP($A25,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],8,FALSE),VLOOKUP($A25,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],8,FALSE),VLOOKUP($A25,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],9,FALSE),VLOOKUP($A25,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],9,FALSE),VLOOKUP($A25,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],10,FALSE),VLOOKUP($A25,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],10,FALSE),VLOOKUP($A25,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],11,FALSE),VLOOKUP($A25,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],11,FALSE),VLOOKUP($A25,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],12,FALSE),VLOOKUP($A25,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],12,FALSE),VLOOKUP($A25,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],13,FALSE),VLOOKUP($A25,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],13,FALSE),VLOOKUP($A25,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],14,FALSE),VLOOKUP($A25,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],14,FALSE),VLOOKUP($A25,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],15,FALSE),VLOOKUP($A25,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],15,FALSE),VLOOKUP($A25,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],16,FALSE),VLOOKUP($A25,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],16,FALSE),VLOOKUP($A25,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],17,FALSE),VLOOKUP($A25,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],17,FALSE),VLOOKUP($A25,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],18,FALSE),VLOOKUP($A25,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],18,FALSE),VLOOKUP($A25,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],19,FALSE),VLOOKUP($A25,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],19,FALSE),VLOOKUP($A25,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],20,FALSE),VLOOKUP($A25,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],20,FALSE),VLOOKUP($A25,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],21,FALSE),VLOOKUP($A25,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],21,FALSE),VLOOKUP($A25,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],22,FALSE),VLOOKUP($A25,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],22,FALSE),VLOOKUP($A25,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],23,FALSE),VLOOKUP($A25,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],23,FALSE),VLOOKUP($A25,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],24,FALSE),VLOOKUP($A25,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],24,FALSE),VLOOKUP($A25,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],25,FALSE),VLOOKUP($A25,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],25,FALSE),VLOOKUP($A25,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],26,FALSE),VLOOKUP($A25,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],26,FALSE),VLOOKUP($A25,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],27,FALSE),VLOOKUP($A25,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],27,FALSE),VLOOKUP($A25,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],28,FALSE),VLOOKUP($A25,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],28,FALSE),VLOOKUP($A25,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],29,FALSE),VLOOKUP($A25,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],29,FALSE),VLOOKUP($A25,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],30,FALSE),VLOOKUP($A25,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],30,FALSE),VLOOKUP($A25,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE25" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],31,FALSE),VLOOKUP($A25,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],31,FALSE),VLOOKUP($A25,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>3587</v>
-      </c>
-      <c r="B26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],2,FALSE),VLOOKUP($A26,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],2,FALSE),VLOOKUP($A26,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],3,FALSE),VLOOKUP($A26,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],3,FALSE),VLOOKUP($A26,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],4,FALSE),VLOOKUP($A26,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],4,FALSE),VLOOKUP($A26,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],5,FALSE),VLOOKUP($A26,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],5,FALSE),VLOOKUP($A26,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],6,FALSE),VLOOKUP($A26,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],6,FALSE),VLOOKUP($A26,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],7,FALSE),VLOOKUP($A26,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],7,FALSE),VLOOKUP($A26,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],8,FALSE),VLOOKUP($A26,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],8,FALSE),VLOOKUP($A26,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],9,FALSE),VLOOKUP($A26,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],9,FALSE),VLOOKUP($A26,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],10,FALSE),VLOOKUP($A26,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],10,FALSE),VLOOKUP($A26,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],11,FALSE),VLOOKUP($A26,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],11,FALSE),VLOOKUP($A26,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],12,FALSE),VLOOKUP($A26,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],12,FALSE),VLOOKUP($A26,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],13,FALSE),VLOOKUP($A26,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],13,FALSE),VLOOKUP($A26,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],14,FALSE),VLOOKUP($A26,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],14,FALSE),VLOOKUP($A26,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],15,FALSE),VLOOKUP($A26,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],15,FALSE),VLOOKUP($A26,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],16,FALSE),VLOOKUP($A26,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],16,FALSE),VLOOKUP($A26,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],17,FALSE),VLOOKUP($A26,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],17,FALSE),VLOOKUP($A26,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],18,FALSE),VLOOKUP($A26,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],18,FALSE),VLOOKUP($A26,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],19,FALSE),VLOOKUP($A26,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],19,FALSE),VLOOKUP($A26,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],20,FALSE),VLOOKUP($A26,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],20,FALSE),VLOOKUP($A26,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],21,FALSE),VLOOKUP($A26,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],21,FALSE),VLOOKUP($A26,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],22,FALSE),VLOOKUP($A26,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],22,FALSE),VLOOKUP($A26,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],23,FALSE),VLOOKUP($A26,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],23,FALSE),VLOOKUP($A26,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],24,FALSE),VLOOKUP($A26,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],24,FALSE),VLOOKUP($A26,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],25,FALSE),VLOOKUP($A26,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],25,FALSE),VLOOKUP($A26,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],26,FALSE),VLOOKUP($A26,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],26,FALSE),VLOOKUP($A26,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],27,FALSE),VLOOKUP($A26,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],27,FALSE),VLOOKUP($A26,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],28,FALSE),VLOOKUP($A26,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],28,FALSE),VLOOKUP($A26,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],29,FALSE),VLOOKUP($A26,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],29,FALSE),VLOOKUP($A26,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],30,FALSE),VLOOKUP($A26,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],30,FALSE),VLOOKUP($A26,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE26" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],31,FALSE),VLOOKUP($A26,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],31,FALSE),VLOOKUP($A26,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],2,FALSE),VLOOKUP($A27,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],2,FALSE),VLOOKUP($A27,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>GANADERIA MULTIGANGAS</v>
-      </c>
-      <c r="C27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],3,FALSE),VLOOKUP($A27,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],3,FALSE),VLOOKUP($A27,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda San Miguel</v>
-      </c>
-      <c r="D27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],4,FALSE),VLOOKUP($A27,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],4,FALSE),VLOOKUP($A27,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Planeta Rica</v>
-      </c>
-      <c r="E27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],5,FALSE),VLOOKUP($A27,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],5,FALSE),VLOOKUP($A27,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Córdoba</v>
-      </c>
-      <c r="F27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],6,FALSE),VLOOKUP($A27,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],6,FALSE),VLOOKUP($A27,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],7,FALSE),VLOOKUP($A27,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],7,FALSE),VLOOKUP($A27,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],8,FALSE),VLOOKUP($A27,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],8,FALSE),VLOOKUP($A27,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],9,FALSE),VLOOKUP($A27,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],9,FALSE),VLOOKUP($A27,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],10,FALSE),VLOOKUP($A27,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],10,FALSE),VLOOKUP($A27,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],11,FALSE),VLOOKUP($A27,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],11,FALSE),VLOOKUP($A27,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],12,FALSE),VLOOKUP($A27,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],12,FALSE),VLOOKUP($A27,CriadoresDirectorio[],12,FALSE)))</f>
-        <v xml:space="preserve">Asociado Puro, Brahman </v>
-      </c>
-      <c r="M27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],13,FALSE),VLOOKUP($A27,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],13,FALSE),VLOOKUP($A27,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 50 53 91</v>
-      </c>
-      <c r="N27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],14,FALSE),VLOOKUP($A27,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],14,FALSE),VLOOKUP($A27,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Medellín</v>
-      </c>
-      <c r="O27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],15,FALSE),VLOOKUP($A27,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],15,FALSE),VLOOKUP($A27,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P27">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],16,FALSE),VLOOKUP($A27,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],16,FALSE),VLOOKUP($A27,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>5123333</v>
-      </c>
-      <c r="Q27">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],17,FALSE),VLOOKUP($A27,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],17,FALSE),VLOOKUP($A27,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3146611656</v>
-      </c>
-      <c r="R27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],18,FALSE),VLOOKUP($A27,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],18,FALSE),VLOOKUP($A27,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],19,FALSE),VLOOKUP($A27,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],19,FALSE),VLOOKUP($A27,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],20,FALSE),VLOOKUP($A27,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],20,FALSE),VLOOKUP($A27,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],21,FALSE),VLOOKUP($A27,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],21,FALSE),VLOOKUP($A27,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],22,FALSE),VLOOKUP($A27,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],22,FALSE),VLOOKUP($A27,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>ganaderia@multigangasltda.com</v>
-      </c>
-      <c r="W27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],23,FALSE),VLOOKUP($A27,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],23,FALSE),VLOOKUP($A27,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],24,FALSE),VLOOKUP($A27,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],24,FALSE),VLOOKUP($A27,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],25,FALSE),VLOOKUP($A27,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],25,FALSE),VLOOKUP($A27,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],26,FALSE),VLOOKUP($A27,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],26,FALSE),VLOOKUP($A27,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],27,FALSE),VLOOKUP($A27,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],27,FALSE),VLOOKUP($A27,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],28,FALSE),VLOOKUP($A27,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],28,FALSE),VLOOKUP($A27,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],29,FALSE),VLOOKUP($A27,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],29,FALSE),VLOOKUP($A27,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],30,FALSE),VLOOKUP($A27,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],30,FALSE),VLOOKUP($A27,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE27" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],31,FALSE),VLOOKUP($A27,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],31,FALSE),VLOOKUP($A27,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>3588</v>
-      </c>
-      <c r="B28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],2,FALSE),VLOOKUP($A28,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],2,FALSE),VLOOKUP($A28,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],3,FALSE),VLOOKUP($A28,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],3,FALSE),VLOOKUP($A28,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],4,FALSE),VLOOKUP($A28,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],4,FALSE),VLOOKUP($A28,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],5,FALSE),VLOOKUP($A28,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],5,FALSE),VLOOKUP($A28,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],6,FALSE),VLOOKUP($A28,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],6,FALSE),VLOOKUP($A28,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],7,FALSE),VLOOKUP($A28,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],7,FALSE),VLOOKUP($A28,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],8,FALSE),VLOOKUP($A28,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],8,FALSE),VLOOKUP($A28,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],9,FALSE),VLOOKUP($A28,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],9,FALSE),VLOOKUP($A28,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],10,FALSE),VLOOKUP($A28,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],10,FALSE),VLOOKUP($A28,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],11,FALSE),VLOOKUP($A28,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],11,FALSE),VLOOKUP($A28,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],12,FALSE),VLOOKUP($A28,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],12,FALSE),VLOOKUP($A28,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],13,FALSE),VLOOKUP($A28,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],13,FALSE),VLOOKUP($A28,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],14,FALSE),VLOOKUP($A28,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],14,FALSE),VLOOKUP($A28,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],15,FALSE),VLOOKUP($A28,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],15,FALSE),VLOOKUP($A28,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],16,FALSE),VLOOKUP($A28,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],16,FALSE),VLOOKUP($A28,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],17,FALSE),VLOOKUP($A28,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],17,FALSE),VLOOKUP($A28,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],18,FALSE),VLOOKUP($A28,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],18,FALSE),VLOOKUP($A28,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],19,FALSE),VLOOKUP($A28,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],19,FALSE),VLOOKUP($A28,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],20,FALSE),VLOOKUP($A28,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],20,FALSE),VLOOKUP($A28,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],21,FALSE),VLOOKUP($A28,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],21,FALSE),VLOOKUP($A28,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],22,FALSE),VLOOKUP($A28,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],22,FALSE),VLOOKUP($A28,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],23,FALSE),VLOOKUP($A28,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],23,FALSE),VLOOKUP($A28,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],24,FALSE),VLOOKUP($A28,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],24,FALSE),VLOOKUP($A28,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],25,FALSE),VLOOKUP($A28,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],25,FALSE),VLOOKUP($A28,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],26,FALSE),VLOOKUP($A28,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],26,FALSE),VLOOKUP($A28,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],27,FALSE),VLOOKUP($A28,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],27,FALSE),VLOOKUP($A28,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],28,FALSE),VLOOKUP($A28,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],28,FALSE),VLOOKUP($A28,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],29,FALSE),VLOOKUP($A28,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],29,FALSE),VLOOKUP($A28,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],30,FALSE),VLOOKUP($A28,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],30,FALSE),VLOOKUP($A28,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE28" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],31,FALSE),VLOOKUP($A28,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],31,FALSE),VLOOKUP($A28,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>3589</v>
-      </c>
-      <c r="B29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],2,FALSE),VLOOKUP($A29,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],2,FALSE),VLOOKUP($A29,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],3,FALSE),VLOOKUP($A29,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],3,FALSE),VLOOKUP($A29,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],4,FALSE),VLOOKUP($A29,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],4,FALSE),VLOOKUP($A29,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],5,FALSE),VLOOKUP($A29,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],5,FALSE),VLOOKUP($A29,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],6,FALSE),VLOOKUP($A29,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],6,FALSE),VLOOKUP($A29,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],7,FALSE),VLOOKUP($A29,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],7,FALSE),VLOOKUP($A29,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],8,FALSE),VLOOKUP($A29,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],8,FALSE),VLOOKUP($A29,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],9,FALSE),VLOOKUP($A29,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],9,FALSE),VLOOKUP($A29,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],10,FALSE),VLOOKUP($A29,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],10,FALSE),VLOOKUP($A29,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],11,FALSE),VLOOKUP($A29,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],11,FALSE),VLOOKUP($A29,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],12,FALSE),VLOOKUP($A29,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],12,FALSE),VLOOKUP($A29,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],13,FALSE),VLOOKUP($A29,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],13,FALSE),VLOOKUP($A29,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],14,FALSE),VLOOKUP($A29,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],14,FALSE),VLOOKUP($A29,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],15,FALSE),VLOOKUP($A29,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],15,FALSE),VLOOKUP($A29,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],16,FALSE),VLOOKUP($A29,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],16,FALSE),VLOOKUP($A29,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],17,FALSE),VLOOKUP($A29,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],17,FALSE),VLOOKUP($A29,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],18,FALSE),VLOOKUP($A29,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],18,FALSE),VLOOKUP($A29,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],19,FALSE),VLOOKUP($A29,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],19,FALSE),VLOOKUP($A29,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],20,FALSE),VLOOKUP($A29,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],20,FALSE),VLOOKUP($A29,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],21,FALSE),VLOOKUP($A29,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],21,FALSE),VLOOKUP($A29,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],22,FALSE),VLOOKUP($A29,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],22,FALSE),VLOOKUP($A29,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],23,FALSE),VLOOKUP($A29,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],23,FALSE),VLOOKUP($A29,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],24,FALSE),VLOOKUP($A29,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],24,FALSE),VLOOKUP($A29,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],25,FALSE),VLOOKUP($A29,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],25,FALSE),VLOOKUP($A29,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],26,FALSE),VLOOKUP($A29,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],26,FALSE),VLOOKUP($A29,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],27,FALSE),VLOOKUP($A29,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],27,FALSE),VLOOKUP($A29,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],28,FALSE),VLOOKUP($A29,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],28,FALSE),VLOOKUP($A29,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],29,FALSE),VLOOKUP($A29,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],29,FALSE),VLOOKUP($A29,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],30,FALSE),VLOOKUP($A29,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],30,FALSE),VLOOKUP($A29,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE29" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],31,FALSE),VLOOKUP($A29,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],31,FALSE),VLOOKUP($A29,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>3590</v>
-      </c>
-      <c r="B30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],2,FALSE),VLOOKUP($A30,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],2,FALSE),VLOOKUP($A30,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],3,FALSE),VLOOKUP($A30,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],3,FALSE),VLOOKUP($A30,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],4,FALSE),VLOOKUP($A30,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],4,FALSE),VLOOKUP($A30,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],5,FALSE),VLOOKUP($A30,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],5,FALSE),VLOOKUP($A30,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],6,FALSE),VLOOKUP($A30,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],6,FALSE),VLOOKUP($A30,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],7,FALSE),VLOOKUP($A30,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],7,FALSE),VLOOKUP($A30,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],8,FALSE),VLOOKUP($A30,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],8,FALSE),VLOOKUP($A30,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],9,FALSE),VLOOKUP($A30,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],9,FALSE),VLOOKUP($A30,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],10,FALSE),VLOOKUP($A30,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],10,FALSE),VLOOKUP($A30,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],11,FALSE),VLOOKUP($A30,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],11,FALSE),VLOOKUP($A30,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],12,FALSE),VLOOKUP($A30,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],12,FALSE),VLOOKUP($A30,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],13,FALSE),VLOOKUP($A30,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],13,FALSE),VLOOKUP($A30,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],14,FALSE),VLOOKUP($A30,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],14,FALSE),VLOOKUP($A30,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],15,FALSE),VLOOKUP($A30,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],15,FALSE),VLOOKUP($A30,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],16,FALSE),VLOOKUP($A30,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],16,FALSE),VLOOKUP($A30,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],17,FALSE),VLOOKUP($A30,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],17,FALSE),VLOOKUP($A30,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],18,FALSE),VLOOKUP($A30,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],18,FALSE),VLOOKUP($A30,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],19,FALSE),VLOOKUP($A30,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],19,FALSE),VLOOKUP($A30,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],20,FALSE),VLOOKUP($A30,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],20,FALSE),VLOOKUP($A30,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],21,FALSE),VLOOKUP($A30,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],21,FALSE),VLOOKUP($A30,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],22,FALSE),VLOOKUP($A30,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],22,FALSE),VLOOKUP($A30,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],23,FALSE),VLOOKUP($A30,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],23,FALSE),VLOOKUP($A30,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],24,FALSE),VLOOKUP($A30,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],24,FALSE),VLOOKUP($A30,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],25,FALSE),VLOOKUP($A30,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],25,FALSE),VLOOKUP($A30,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],26,FALSE),VLOOKUP($A30,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],26,FALSE),VLOOKUP($A30,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],27,FALSE),VLOOKUP($A30,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],27,FALSE),VLOOKUP($A30,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],28,FALSE),VLOOKUP($A30,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],28,FALSE),VLOOKUP($A30,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],29,FALSE),VLOOKUP($A30,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],29,FALSE),VLOOKUP($A30,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],30,FALSE),VLOOKUP($A30,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],30,FALSE),VLOOKUP($A30,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE30" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],31,FALSE),VLOOKUP($A30,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],31,FALSE),VLOOKUP($A30,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>755</v>
-      </c>
-      <c r="B31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],2,FALSE),VLOOKUP($A31,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],2,FALSE),VLOOKUP($A31,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>LUIS ALFONSO LONDOÑO BOTERO</v>
-      </c>
-      <c r="C31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],3,FALSE),VLOOKUP($A31,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],3,FALSE),VLOOKUP($A31,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Bajo Prieto</v>
-      </c>
-      <c r="D31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],4,FALSE),VLOOKUP($A31,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],4,FALSE),VLOOKUP($A31,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Cartagena</v>
-      </c>
-      <c r="E31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],5,FALSE),VLOOKUP($A31,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],5,FALSE),VLOOKUP($A31,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Bolívar</v>
-      </c>
-      <c r="F31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],6,FALSE),VLOOKUP($A31,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],6,FALSE),VLOOKUP($A31,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],7,FALSE),VLOOKUP($A31,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],7,FALSE),VLOOKUP($A31,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],8,FALSE),VLOOKUP($A31,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],8,FALSE),VLOOKUP($A31,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],9,FALSE),VLOOKUP($A31,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],9,FALSE),VLOOKUP($A31,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],10,FALSE),VLOOKUP($A31,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],10,FALSE),VLOOKUP($A31,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],11,FALSE),VLOOKUP($A31,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],11,FALSE),VLOOKUP($A31,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],12,FALSE),VLOOKUP($A31,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],12,FALSE),VLOOKUP($A31,CriadoresDirectorio[],12,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="M31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],13,FALSE),VLOOKUP($A31,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],13,FALSE),VLOOKUP($A31,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 8 # 5A - 56 ED POSITANO APTO 1602 CASTILLOGRANDE</v>
-      </c>
-      <c r="N31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],14,FALSE),VLOOKUP($A31,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],14,FALSE),VLOOKUP($A31,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Cartagena</v>
-      </c>
-      <c r="O31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],15,FALSE),VLOOKUP($A31,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],15,FALSE),VLOOKUP($A31,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Bolívar</v>
-      </c>
-      <c r="P31">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],16,FALSE),VLOOKUP($A31,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],16,FALSE),VLOOKUP($A31,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3103689458</v>
-      </c>
-      <c r="Q31">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],17,FALSE),VLOOKUP($A31,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],17,FALSE),VLOOKUP($A31,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3106233486</v>
-      </c>
-      <c r="R31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],18,FALSE),VLOOKUP($A31,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],18,FALSE),VLOOKUP($A31,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],19,FALSE),VLOOKUP($A31,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],19,FALSE),VLOOKUP($A31,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],20,FALSE),VLOOKUP($A31,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],20,FALSE),VLOOKUP($A31,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],21,FALSE),VLOOKUP($A31,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],21,FALSE),VLOOKUP($A31,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],22,FALSE),VLOOKUP($A31,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],22,FALSE),VLOOKUP($A31,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>luisalfonsolondono57@hotmail.com</v>
-      </c>
-      <c r="W31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],23,FALSE),VLOOKUP($A31,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],23,FALSE),VLOOKUP($A31,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],24,FALSE),VLOOKUP($A31,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],24,FALSE),VLOOKUP($A31,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],25,FALSE),VLOOKUP($A31,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],25,FALSE),VLOOKUP($A31,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],26,FALSE),VLOOKUP($A31,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],26,FALSE),VLOOKUP($A31,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],27,FALSE),VLOOKUP($A31,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],27,FALSE),VLOOKUP($A31,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],28,FALSE),VLOOKUP($A31,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],28,FALSE),VLOOKUP($A31,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],29,FALSE),VLOOKUP($A31,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],29,FALSE),VLOOKUP($A31,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],30,FALSE),VLOOKUP($A31,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],30,FALSE),VLOOKUP($A31,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE31" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],31,FALSE),VLOOKUP($A31,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],31,FALSE),VLOOKUP($A31,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>3591</v>
-      </c>
-      <c r="B32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],2,FALSE),VLOOKUP($A32,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],2,FALSE),VLOOKUP($A32,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],3,FALSE),VLOOKUP($A32,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],3,FALSE),VLOOKUP($A32,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],4,FALSE),VLOOKUP($A32,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],4,FALSE),VLOOKUP($A32,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],5,FALSE),VLOOKUP($A32,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],5,FALSE),VLOOKUP($A32,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],6,FALSE),VLOOKUP($A32,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],6,FALSE),VLOOKUP($A32,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],7,FALSE),VLOOKUP($A32,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],7,FALSE),VLOOKUP($A32,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],8,FALSE),VLOOKUP($A32,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],8,FALSE),VLOOKUP($A32,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],9,FALSE),VLOOKUP($A32,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],9,FALSE),VLOOKUP($A32,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],10,FALSE),VLOOKUP($A32,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],10,FALSE),VLOOKUP($A32,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],11,FALSE),VLOOKUP($A32,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],11,FALSE),VLOOKUP($A32,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],12,FALSE),VLOOKUP($A32,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],12,FALSE),VLOOKUP($A32,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],13,FALSE),VLOOKUP($A32,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],13,FALSE),VLOOKUP($A32,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],14,FALSE),VLOOKUP($A32,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],14,FALSE),VLOOKUP($A32,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],15,FALSE),VLOOKUP($A32,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],15,FALSE),VLOOKUP($A32,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],16,FALSE),VLOOKUP($A32,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],16,FALSE),VLOOKUP($A32,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],17,FALSE),VLOOKUP($A32,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],17,FALSE),VLOOKUP($A32,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],18,FALSE),VLOOKUP($A32,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],18,FALSE),VLOOKUP($A32,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],19,FALSE),VLOOKUP($A32,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],19,FALSE),VLOOKUP($A32,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],20,FALSE),VLOOKUP($A32,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],20,FALSE),VLOOKUP($A32,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],21,FALSE),VLOOKUP($A32,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],21,FALSE),VLOOKUP($A32,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],22,FALSE),VLOOKUP($A32,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],22,FALSE),VLOOKUP($A32,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],23,FALSE),VLOOKUP($A32,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],23,FALSE),VLOOKUP($A32,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],24,FALSE),VLOOKUP($A32,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],24,FALSE),VLOOKUP($A32,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],25,FALSE),VLOOKUP($A32,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],25,FALSE),VLOOKUP($A32,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],26,FALSE),VLOOKUP($A32,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],26,FALSE),VLOOKUP($A32,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],27,FALSE),VLOOKUP($A32,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],27,FALSE),VLOOKUP($A32,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],28,FALSE),VLOOKUP($A32,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],28,FALSE),VLOOKUP($A32,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],29,FALSE),VLOOKUP($A32,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],29,FALSE),VLOOKUP($A32,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],30,FALSE),VLOOKUP($A32,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],30,FALSE),VLOOKUP($A32,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE32" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],31,FALSE),VLOOKUP($A32,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],31,FALSE),VLOOKUP($A32,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>3592</v>
-      </c>
-      <c r="B33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],2,FALSE),VLOOKUP($A33,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],2,FALSE),VLOOKUP($A33,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],3,FALSE),VLOOKUP($A33,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],3,FALSE),VLOOKUP($A33,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],4,FALSE),VLOOKUP($A33,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],4,FALSE),VLOOKUP($A33,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],5,FALSE),VLOOKUP($A33,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],5,FALSE),VLOOKUP($A33,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],6,FALSE),VLOOKUP($A33,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],6,FALSE),VLOOKUP($A33,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],7,FALSE),VLOOKUP($A33,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],7,FALSE),VLOOKUP($A33,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],8,FALSE),VLOOKUP($A33,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],8,FALSE),VLOOKUP($A33,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],9,FALSE),VLOOKUP($A33,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],9,FALSE),VLOOKUP($A33,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],10,FALSE),VLOOKUP($A33,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],10,FALSE),VLOOKUP($A33,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],11,FALSE),VLOOKUP($A33,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],11,FALSE),VLOOKUP($A33,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],12,FALSE),VLOOKUP($A33,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],12,FALSE),VLOOKUP($A33,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],13,FALSE),VLOOKUP($A33,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],13,FALSE),VLOOKUP($A33,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],14,FALSE),VLOOKUP($A33,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],14,FALSE),VLOOKUP($A33,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],15,FALSE),VLOOKUP($A33,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],15,FALSE),VLOOKUP($A33,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],16,FALSE),VLOOKUP($A33,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],16,FALSE),VLOOKUP($A33,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],17,FALSE),VLOOKUP($A33,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],17,FALSE),VLOOKUP($A33,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],18,FALSE),VLOOKUP($A33,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],18,FALSE),VLOOKUP($A33,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],19,FALSE),VLOOKUP($A33,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],19,FALSE),VLOOKUP($A33,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],20,FALSE),VLOOKUP($A33,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],20,FALSE),VLOOKUP($A33,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],21,FALSE),VLOOKUP($A33,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],21,FALSE),VLOOKUP($A33,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],22,FALSE),VLOOKUP($A33,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],22,FALSE),VLOOKUP($A33,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],23,FALSE),VLOOKUP($A33,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],23,FALSE),VLOOKUP($A33,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],24,FALSE),VLOOKUP($A33,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],24,FALSE),VLOOKUP($A33,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],25,FALSE),VLOOKUP($A33,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],25,FALSE),VLOOKUP($A33,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],26,FALSE),VLOOKUP($A33,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],26,FALSE),VLOOKUP($A33,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],27,FALSE),VLOOKUP($A33,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],27,FALSE),VLOOKUP($A33,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],28,FALSE),VLOOKUP($A33,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],28,FALSE),VLOOKUP($A33,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],29,FALSE),VLOOKUP($A33,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],29,FALSE),VLOOKUP($A33,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],30,FALSE),VLOOKUP($A33,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],30,FALSE),VLOOKUP($A33,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE33" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],31,FALSE),VLOOKUP($A33,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],31,FALSE),VLOOKUP($A33,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1 I1">
-    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A34:A1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="6" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="4" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="3" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="2" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C462D474-A381-4DC7-9B2B-5BF495173D4B}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AE668"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17227,9 +12789,6 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="L2" t="s">
         <v>358</v>
       </c>
@@ -18131,7 +13690,7 @@
       <c r="AB22" t="s">
         <v>3059</v>
       </c>
-      <c r="AC22" s="20" t="s">
+      <c r="AC22" s="4" t="s">
         <v>3578</v>
       </c>
       <c r="AD22" t="s">
@@ -43904,10 +39463,10 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576 I1:I1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="AC22" r:id="rId1" xr:uid="{672659EE-996E-46A9-8B6D-102762B62881}"/>
@@ -43920,6 +39479,4137 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C2F353-C0BD-4DEE-8215-C3B43D148F9B}">
+  <dimension ref="A1:AE33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:AE4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="21" customWidth="1"/>
+    <col min="2" max="31" width="11.42578125" customWidth="1"/>
+    <col min="32" max="16384" width="11.42578125" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],2,FALSE),VLOOKUP($A2,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],2,FALSE),VLOOKUP($A2,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>LUIS SAMUEL MARTÍNEZ E HIJOS</v>
+      </c>
+      <c r="C2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],3,FALSE),VLOOKUP($A2,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],3,FALSE),VLOOKUP($A2,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hdas. El Caney</v>
+      </c>
+      <c r="D2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],4,FALSE),VLOOKUP($A2,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],4,FALSE),VLOOKUP($A2,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Santa Fé de Antioquia</v>
+      </c>
+      <c r="E2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],5,FALSE),VLOOKUP($A2,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],5,FALSE),VLOOKUP($A2,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="F2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],6,FALSE),VLOOKUP($A2,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],6,FALSE),VLOOKUP($A2,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],7,FALSE),VLOOKUP($A2,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],7,FALSE),VLOOKUP($A2,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],8,FALSE),VLOOKUP($A2,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],8,FALSE),VLOOKUP($A2,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],9,FALSE),VLOOKUP($A2,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],9,FALSE),VLOOKUP($A2,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],10,FALSE),VLOOKUP($A2,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],10,FALSE),VLOOKUP($A2,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],11,FALSE),VLOOKUP($A2,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],11,FALSE),VLOOKUP($A2,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],12,FALSE),VLOOKUP($A2,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],12,FALSE),VLOOKUP($A2,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],13,FALSE),VLOOKUP($A2,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],13,FALSE),VLOOKUP($A2,CriadoresDirectorio[],13,FALSE)))</f>
+        <v xml:space="preserve">CR 43A 9 SUR 91 TO SUR OF 907 </v>
+      </c>
+      <c r="N2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],14,FALSE),VLOOKUP($A2,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],14,FALSE),VLOOKUP($A2,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Medellín</v>
+      </c>
+      <c r="O2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],15,FALSE),VLOOKUP($A2,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],15,FALSE),VLOOKUP($A2,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P2">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],16,FALSE),VLOOKUP($A2,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],16,FALSE),VLOOKUP($A2,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3136379</v>
+      </c>
+      <c r="Q2">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],17,FALSE),VLOOKUP($A2,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],17,FALSE),VLOOKUP($A2,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3135825</v>
+      </c>
+      <c r="R2">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],18,FALSE),VLOOKUP($A2,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],18,FALSE),VLOOKUP($A2,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>3108364605</v>
+      </c>
+      <c r="S2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],19,FALSE),VLOOKUP($A2,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],19,FALSE),VLOOKUP($A2,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],20,FALSE),VLOOKUP($A2,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],20,FALSE),VLOOKUP($A2,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],21,FALSE),VLOOKUP($A2,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],21,FALSE),VLOOKUP($A2,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],22,FALSE),VLOOKUP($A2,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],22,FALSE),VLOOKUP($A2,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>ls@luisamuelmartinez.com</v>
+      </c>
+      <c r="W2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],23,FALSE),VLOOKUP($A2,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],23,FALSE),VLOOKUP($A2,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>ganaderiaelcaney@gmail.com</v>
+      </c>
+      <c r="X2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],24,FALSE),VLOOKUP($A2,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],24,FALSE),VLOOKUP($A2,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],25,FALSE),VLOOKUP($A2,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],25,FALSE),VLOOKUP($A2,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],26,FALSE),VLOOKUP($A2,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],26,FALSE),VLOOKUP($A2,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],27,FALSE),VLOOKUP($A2,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],27,FALSE),VLOOKUP($A2,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],28,FALSE),VLOOKUP($A2,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],28,FALSE),VLOOKUP($A2,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],29,FALSE),VLOOKUP($A2,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],29,FALSE),VLOOKUP($A2,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>http://www.luisamuelmartinez.com</v>
+      </c>
+      <c r="AD2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],30,FALSE),VLOOKUP($A2,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],30,FALSE),VLOOKUP($A2,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE2" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],31,FALSE),VLOOKUP($A2,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],31,FALSE),VLOOKUP($A2,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],2,FALSE),VLOOKUP($A3,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],2,FALSE),VLOOKUP($A3,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>AGROPECUARIA LAS TINAJAS S.A.</v>
+      </c>
+      <c r="C3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],3,FALSE),VLOOKUP($A3,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],3,FALSE),VLOOKUP($A3,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda La Constancia</v>
+      </c>
+      <c r="D3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],4,FALSE),VLOOKUP($A3,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],4,FALSE),VLOOKUP($A3,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Puerto Berrío</v>
+      </c>
+      <c r="E3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],5,FALSE),VLOOKUP($A3,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],5,FALSE),VLOOKUP($A3,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="F3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],6,FALSE),VLOOKUP($A3,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],6,FALSE),VLOOKUP($A3,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],7,FALSE),VLOOKUP($A3,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],7,FALSE),VLOOKUP($A3,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],8,FALSE),VLOOKUP($A3,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],8,FALSE),VLOOKUP($A3,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],9,FALSE),VLOOKUP($A3,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],9,FALSE),VLOOKUP($A3,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],10,FALSE),VLOOKUP($A3,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],10,FALSE),VLOOKUP($A3,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],11,FALSE),VLOOKUP($A3,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],11,FALSE),VLOOKUP($A3,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],12,FALSE),VLOOKUP($A3,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],12,FALSE),VLOOKUP($A3,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman Puro Blanco y Rojo</v>
+      </c>
+      <c r="M3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],13,FALSE),VLOOKUP($A3,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],13,FALSE),VLOOKUP($A3,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 10 35 18</v>
+      </c>
+      <c r="N3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],14,FALSE),VLOOKUP($A3,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],14,FALSE),VLOOKUP($A3,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Medellín</v>
+      </c>
+      <c r="O3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],15,FALSE),VLOOKUP($A3,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],15,FALSE),VLOOKUP($A3,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Antoquia</v>
+      </c>
+      <c r="P3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],16,FALSE),VLOOKUP($A3,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],16,FALSE),VLOOKUP($A3,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>2669172Ext.111</v>
+      </c>
+      <c r="Q3">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],17,FALSE),VLOOKUP($A3,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],17,FALSE),VLOOKUP($A3,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>2326915</v>
+      </c>
+      <c r="R3">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],18,FALSE),VLOOKUP($A3,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],18,FALSE),VLOOKUP($A3,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>3104632303</v>
+      </c>
+      <c r="S3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],19,FALSE),VLOOKUP($A3,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],19,FALSE),VLOOKUP($A3,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],20,FALSE),VLOOKUP($A3,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],20,FALSE),VLOOKUP($A3,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],21,FALSE),VLOOKUP($A3,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],21,FALSE),VLOOKUP($A3,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],22,FALSE),VLOOKUP($A3,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],22,FALSE),VLOOKUP($A3,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>agrotin@une.net.co</v>
+      </c>
+      <c r="W3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],23,FALSE),VLOOKUP($A3,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],23,FALSE),VLOOKUP($A3,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>gape@une.net.co</v>
+      </c>
+      <c r="X3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],24,FALSE),VLOOKUP($A3,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],24,FALSE),VLOOKUP($A3,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],25,FALSE),VLOOKUP($A3,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],25,FALSE),VLOOKUP($A3,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],26,FALSE),VLOOKUP($A3,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],26,FALSE),VLOOKUP($A3,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],27,FALSE),VLOOKUP($A3,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],27,FALSE),VLOOKUP($A3,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],28,FALSE),VLOOKUP($A3,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],28,FALSE),VLOOKUP($A3,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],29,FALSE),VLOOKUP($A3,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],29,FALSE),VLOOKUP($A3,CriadoresDirectorio[],29,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],30,FALSE),VLOOKUP($A3,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],30,FALSE),VLOOKUP($A3,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE3" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],31,FALSE),VLOOKUP($A3,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],31,FALSE),VLOOKUP($A3,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],2,FALSE),VLOOKUP($A4,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],2,FALSE),VLOOKUP($A4,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>GANADERÍA SAN RAFAEL</v>
+      </c>
+      <c r="C4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],3,FALSE),VLOOKUP($A4,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],3,FALSE),VLOOKUP($A4,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda San Rafael</v>
+      </c>
+      <c r="D4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],4,FALSE),VLOOKUP($A4,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],4,FALSE),VLOOKUP($A4,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Caucasia</v>
+      </c>
+      <c r="E4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],5,FALSE),VLOOKUP($A4,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],5,FALSE),VLOOKUP($A4,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="F4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],6,FALSE),VLOOKUP($A4,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],6,FALSE),VLOOKUP($A4,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],7,FALSE),VLOOKUP($A4,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],7,FALSE),VLOOKUP($A4,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],8,FALSE),VLOOKUP($A4,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],8,FALSE),VLOOKUP($A4,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],9,FALSE),VLOOKUP($A4,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],9,FALSE),VLOOKUP($A4,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],10,FALSE),VLOOKUP($A4,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],10,FALSE),VLOOKUP($A4,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],11,FALSE),VLOOKUP($A4,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],11,FALSE),VLOOKUP($A4,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],12,FALSE),VLOOKUP($A4,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],12,FALSE),VLOOKUP($A4,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],13,FALSE),VLOOKUP($A4,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],13,FALSE),VLOOKUP($A4,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 7 SUR 42 70 OF 705 ED FORUM</v>
+      </c>
+      <c r="N4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],14,FALSE),VLOOKUP($A4,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],14,FALSE),VLOOKUP($A4,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Medellín</v>
+      </c>
+      <c r="O4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],15,FALSE),VLOOKUP($A4,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],15,FALSE),VLOOKUP($A4,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P4">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],16,FALSE),VLOOKUP($A4,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],16,FALSE),VLOOKUP($A4,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3267810</v>
+      </c>
+      <c r="Q4">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],17,FALSE),VLOOKUP($A4,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],17,FALSE),VLOOKUP($A4,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3267800</v>
+      </c>
+      <c r="R4">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],18,FALSE),VLOOKUP($A4,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],18,FALSE),VLOOKUP($A4,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>3142388</v>
+      </c>
+      <c r="S4">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],19,FALSE),VLOOKUP($A4,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],19,FALSE),VLOOKUP($A4,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>3155057570</v>
+      </c>
+      <c r="T4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],20,FALSE),VLOOKUP($A4,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],20,FALSE),VLOOKUP($A4,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],21,FALSE),VLOOKUP($A4,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],21,FALSE),VLOOKUP($A4,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],22,FALSE),VLOOKUP($A4,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],22,FALSE),VLOOKUP($A4,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>hespinosa@ganaderiasanrafael.com</v>
+      </c>
+      <c r="W4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],23,FALSE),VLOOKUP($A4,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],23,FALSE),VLOOKUP($A4,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],24,FALSE),VLOOKUP($A4,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],24,FALSE),VLOOKUP($A4,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],25,FALSE),VLOOKUP($A4,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],25,FALSE),VLOOKUP($A4,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],26,FALSE),VLOOKUP($A4,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],26,FALSE),VLOOKUP($A4,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],27,FALSE),VLOOKUP($A4,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],27,FALSE),VLOOKUP($A4,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],28,FALSE),VLOOKUP($A4,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],28,FALSE),VLOOKUP($A4,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],29,FALSE),VLOOKUP($A4,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],29,FALSE),VLOOKUP($A4,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>http://www.ganaderiasanrafael.com</v>
+      </c>
+      <c r="AD4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],30,FALSE),VLOOKUP($A4,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],30,FALSE),VLOOKUP($A4,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE4" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],31,FALSE),VLOOKUP($A4,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],31,FALSE),VLOOKUP($A4,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],2,FALSE),VLOOKUP($A5,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],2,FALSE),VLOOKUP($A5,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>LUIS ALFONSO LONDOÑO BOTERO</v>
+      </c>
+      <c r="C5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],3,FALSE),VLOOKUP($A5,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],3,FALSE),VLOOKUP($A5,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Bajo Prieto</v>
+      </c>
+      <c r="D5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],4,FALSE),VLOOKUP($A5,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],4,FALSE),VLOOKUP($A5,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Cartagena</v>
+      </c>
+      <c r="E5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],5,FALSE),VLOOKUP($A5,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],5,FALSE),VLOOKUP($A5,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Bolívar</v>
+      </c>
+      <c r="F5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],6,FALSE),VLOOKUP($A5,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],6,FALSE),VLOOKUP($A5,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],7,FALSE),VLOOKUP($A5,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],7,FALSE),VLOOKUP($A5,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],8,FALSE),VLOOKUP($A5,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],8,FALSE),VLOOKUP($A5,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],9,FALSE),VLOOKUP($A5,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],9,FALSE),VLOOKUP($A5,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],10,FALSE),VLOOKUP($A5,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],10,FALSE),VLOOKUP($A5,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],11,FALSE),VLOOKUP($A5,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],11,FALSE),VLOOKUP($A5,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],12,FALSE),VLOOKUP($A5,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],12,FALSE),VLOOKUP($A5,CriadoresDirectorio[],12,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],13,FALSE),VLOOKUP($A5,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],13,FALSE),VLOOKUP($A5,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 8 # 5A - 56 ED POSITANO APTO 1602 CASTILLOGRANDE</v>
+      </c>
+      <c r="N5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],14,FALSE),VLOOKUP($A5,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],14,FALSE),VLOOKUP($A5,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Cartagena</v>
+      </c>
+      <c r="O5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],15,FALSE),VLOOKUP($A5,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],15,FALSE),VLOOKUP($A5,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Bolívar</v>
+      </c>
+      <c r="P5">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],16,FALSE),VLOOKUP($A5,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],16,FALSE),VLOOKUP($A5,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3103689458</v>
+      </c>
+      <c r="Q5">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],17,FALSE),VLOOKUP($A5,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],17,FALSE),VLOOKUP($A5,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3106233486</v>
+      </c>
+      <c r="R5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],18,FALSE),VLOOKUP($A5,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],18,FALSE),VLOOKUP($A5,CriadoresDirectorio[],18,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],19,FALSE),VLOOKUP($A5,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],19,FALSE),VLOOKUP($A5,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],20,FALSE),VLOOKUP($A5,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],20,FALSE),VLOOKUP($A5,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],21,FALSE),VLOOKUP($A5,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],21,FALSE),VLOOKUP($A5,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],22,FALSE),VLOOKUP($A5,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],22,FALSE),VLOOKUP($A5,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>luisalfonsolondono57@hotmail.com</v>
+      </c>
+      <c r="W5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],23,FALSE),VLOOKUP($A5,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],23,FALSE),VLOOKUP($A5,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],24,FALSE),VLOOKUP($A5,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],24,FALSE),VLOOKUP($A5,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],25,FALSE),VLOOKUP($A5,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],25,FALSE),VLOOKUP($A5,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],26,FALSE),VLOOKUP($A5,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],26,FALSE),VLOOKUP($A5,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],27,FALSE),VLOOKUP($A5,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],27,FALSE),VLOOKUP($A5,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],28,FALSE),VLOOKUP($A5,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],28,FALSE),VLOOKUP($A5,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],29,FALSE),VLOOKUP($A5,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],29,FALSE),VLOOKUP($A5,CriadoresDirectorio[],29,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],30,FALSE),VLOOKUP($A5,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],30,FALSE),VLOOKUP($A5,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE5" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],31,FALSE),VLOOKUP($A5,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],31,FALSE),VLOOKUP($A5,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],2,FALSE),VLOOKUP($A6,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],2,FALSE),VLOOKUP($A6,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>INDUSTRIA GANADERA HATO CEBÚ S.A.</v>
+      </c>
+      <c r="C6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],3,FALSE),VLOOKUP($A6,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],3,FALSE),VLOOKUP($A6,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Villa Erika</v>
+      </c>
+      <c r="D6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],4,FALSE),VLOOKUP($A6,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],4,FALSE),VLOOKUP($A6,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Puerto Boyacá</v>
+      </c>
+      <c r="E6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],5,FALSE),VLOOKUP($A6,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],5,FALSE),VLOOKUP($A6,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Boyacá</v>
+      </c>
+      <c r="F6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],6,FALSE),VLOOKUP($A6,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],6,FALSE),VLOOKUP($A6,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],7,FALSE),VLOOKUP($A6,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],7,FALSE),VLOOKUP($A6,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],8,FALSE),VLOOKUP($A6,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],8,FALSE),VLOOKUP($A6,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],9,FALSE),VLOOKUP($A6,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],9,FALSE),VLOOKUP($A6,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],10,FALSE),VLOOKUP($A6,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],10,FALSE),VLOOKUP($A6,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],11,FALSE),VLOOKUP($A6,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],11,FALSE),VLOOKUP($A6,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],12,FALSE),VLOOKUP($A6,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],12,FALSE),VLOOKUP($A6,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],13,FALSE),VLOOKUP($A6,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],13,FALSE),VLOOKUP($A6,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 113 7 45 TO B OF 1016 ED TELEPORT</v>
+      </c>
+      <c r="N6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],14,FALSE),VLOOKUP($A6,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],14,FALSE),VLOOKUP($A6,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Bogotá D.C</v>
+      </c>
+      <c r="O6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],15,FALSE),VLOOKUP($A6,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],15,FALSE),VLOOKUP($A6,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Cundinamarca</v>
+      </c>
+      <c r="P6">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],16,FALSE),VLOOKUP($A6,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],16,FALSE),VLOOKUP($A6,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>2755530</v>
+      </c>
+      <c r="Q6">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],17,FALSE),VLOOKUP($A6,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],17,FALSE),VLOOKUP($A6,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>2755531</v>
+      </c>
+      <c r="R6">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],18,FALSE),VLOOKUP($A6,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],18,FALSE),VLOOKUP($A6,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>2755185</v>
+      </c>
+      <c r="S6">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],19,FALSE),VLOOKUP($A6,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],19,FALSE),VLOOKUP($A6,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>3212426603</v>
+      </c>
+      <c r="T6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],20,FALSE),VLOOKUP($A6,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],20,FALSE),VLOOKUP($A6,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],21,FALSE),VLOOKUP($A6,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],21,FALSE),VLOOKUP($A6,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],22,FALSE),VLOOKUP($A6,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],22,FALSE),VLOOKUP($A6,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>informacion@hatocebu.com</v>
+      </c>
+      <c r="W6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],23,FALSE),VLOOKUP($A6,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],23,FALSE),VLOOKUP($A6,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],24,FALSE),VLOOKUP($A6,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],24,FALSE),VLOOKUP($A6,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],25,FALSE),VLOOKUP($A6,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],25,FALSE),VLOOKUP($A6,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],26,FALSE),VLOOKUP($A6,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],26,FALSE),VLOOKUP($A6,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],27,FALSE),VLOOKUP($A6,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],27,FALSE),VLOOKUP($A6,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],28,FALSE),VLOOKUP($A6,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],28,FALSE),VLOOKUP($A6,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],29,FALSE),VLOOKUP($A6,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],29,FALSE),VLOOKUP($A6,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>http://www.hatocebu.com/</v>
+      </c>
+      <c r="AD6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],30,FALSE),VLOOKUP($A6,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],30,FALSE),VLOOKUP($A6,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE6" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],31,FALSE),VLOOKUP($A6,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],31,FALSE),VLOOKUP($A6,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1472</v>
+      </c>
+      <c r="B7" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],2,FALSE),VLOOKUP($A7,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],2,FALSE),VLOOKUP($A7,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>INVERSIONES AGROPECUARIAS PLAYA LINDA</v>
+      </c>
+      <c r="C7" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],3,FALSE),VLOOKUP($A7,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],3,FALSE),VLOOKUP($A7,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Cambalache</v>
+      </c>
+      <c r="D7" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],4,FALSE),VLOOKUP($A7,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],4,FALSE),VLOOKUP($A7,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Puerto Boyacá</v>
+      </c>
+      <c r="E7" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],5,FALSE),VLOOKUP($A7,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],5,FALSE),VLOOKUP($A7,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Boyacá</v>
+      </c>
+      <c r="F7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],6,FALSE),VLOOKUP($A7,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],6,FALSE),VLOOKUP($A7,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],7,FALSE),VLOOKUP($A7,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],7,FALSE),VLOOKUP($A7,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],8,FALSE),VLOOKUP($A7,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],8,FALSE),VLOOKUP($A7,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],9,FALSE),VLOOKUP($A7,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],9,FALSE),VLOOKUP($A7,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],10,FALSE),VLOOKUP($A7,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],10,FALSE),VLOOKUP($A7,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],11,FALSE),VLOOKUP($A7,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],11,FALSE),VLOOKUP($A7,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L7" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],12,FALSE),VLOOKUP($A7,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],12,FALSE),VLOOKUP($A7,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M7" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],13,FALSE),VLOOKUP($A7,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],13,FALSE),VLOOKUP($A7,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 30 10C 228 OF 845</v>
+      </c>
+      <c r="N7" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],14,FALSE),VLOOKUP($A7,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],14,FALSE),VLOOKUP($A7,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Medellín</v>
+      </c>
+      <c r="O7" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],15,FALSE),VLOOKUP($A7,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],15,FALSE),VLOOKUP($A7,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P7" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],16,FALSE),VLOOKUP($A7,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],16,FALSE),VLOOKUP($A7,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>2666636</v>
+      </c>
+      <c r="Q7">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],17,FALSE),VLOOKUP($A7,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],17,FALSE),VLOOKUP($A7,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3104536965</v>
+      </c>
+      <c r="R7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],18,FALSE),VLOOKUP($A7,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],18,FALSE),VLOOKUP($A7,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],19,FALSE),VLOOKUP($A7,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],19,FALSE),VLOOKUP($A7,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],20,FALSE),VLOOKUP($A7,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],20,FALSE),VLOOKUP($A7,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],21,FALSE),VLOOKUP($A7,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],21,FALSE),VLOOKUP($A7,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V7" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],22,FALSE),VLOOKUP($A7,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],22,FALSE),VLOOKUP($A7,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>agrocomercialplayalinda@gmail.com</v>
+      </c>
+      <c r="W7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],23,FALSE),VLOOKUP($A7,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],23,FALSE),VLOOKUP($A7,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],24,FALSE),VLOOKUP($A7,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],24,FALSE),VLOOKUP($A7,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],25,FALSE),VLOOKUP($A7,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],25,FALSE),VLOOKUP($A7,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],26,FALSE),VLOOKUP($A7,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],26,FALSE),VLOOKUP($A7,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],27,FALSE),VLOOKUP($A7,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],27,FALSE),VLOOKUP($A7,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],28,FALSE),VLOOKUP($A7,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],28,FALSE),VLOOKUP($A7,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],29,FALSE),VLOOKUP($A7,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],29,FALSE),VLOOKUP($A7,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],30,FALSE),VLOOKUP($A7,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],30,FALSE),VLOOKUP($A7,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE7" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],31,FALSE),VLOOKUP($A7,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],31,FALSE),VLOOKUP($A7,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>870</v>
+      </c>
+      <c r="B8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],2,FALSE),VLOOKUP($A8,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],2,FALSE),VLOOKUP($A8,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>GANADERÍA SACAPALOS</v>
+      </c>
+      <c r="C8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],3,FALSE),VLOOKUP($A8,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],3,FALSE),VLOOKUP($A8,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hdas. Yucatán</v>
+      </c>
+      <c r="D8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],4,FALSE),VLOOKUP($A8,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],4,FALSE),VLOOKUP($A8,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>La Dorada</v>
+      </c>
+      <c r="E8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],5,FALSE),VLOOKUP($A8,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],5,FALSE),VLOOKUP($A8,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Caldas</v>
+      </c>
+      <c r="F8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],6,FALSE),VLOOKUP($A8,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],6,FALSE),VLOOKUP($A8,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>Candilejas</v>
+      </c>
+      <c r="G8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],7,FALSE),VLOOKUP($A8,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],7,FALSE),VLOOKUP($A8,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>Puerto Salgar</v>
+      </c>
+      <c r="H8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],8,FALSE),VLOOKUP($A8,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],8,FALSE),VLOOKUP($A8,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>Cundinamarca</v>
+      </c>
+      <c r="I8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],9,FALSE),VLOOKUP($A8,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],9,FALSE),VLOOKUP($A8,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],10,FALSE),VLOOKUP($A8,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],10,FALSE),VLOOKUP($A8,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],11,FALSE),VLOOKUP($A8,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],11,FALSE),VLOOKUP($A8,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],12,FALSE),VLOOKUP($A8,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],12,FALSE),VLOOKUP($A8,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],13,FALSE),VLOOKUP($A8,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],13,FALSE),VLOOKUP($A8,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 30 5F 185 APTO 216</v>
+      </c>
+      <c r="N8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],14,FALSE),VLOOKUP($A8,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],14,FALSE),VLOOKUP($A8,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Medellín</v>
+      </c>
+      <c r="O8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],15,FALSE),VLOOKUP($A8,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],15,FALSE),VLOOKUP($A8,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P8">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],16,FALSE),VLOOKUP($A8,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],16,FALSE),VLOOKUP($A8,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>5702350</v>
+      </c>
+      <c r="Q8">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],17,FALSE),VLOOKUP($A8,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],17,FALSE),VLOOKUP($A8,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3147990150</v>
+      </c>
+      <c r="R8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],18,FALSE),VLOOKUP($A8,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],18,FALSE),VLOOKUP($A8,CriadoresDirectorio[],18,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],19,FALSE),VLOOKUP($A8,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],19,FALSE),VLOOKUP($A8,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],20,FALSE),VLOOKUP($A8,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],20,FALSE),VLOOKUP($A8,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],21,FALSE),VLOOKUP($A8,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],21,FALSE),VLOOKUP($A8,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],22,FALSE),VLOOKUP($A8,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],22,FALSE),VLOOKUP($A8,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>jorgelopezsacapalos@hotmail.com</v>
+      </c>
+      <c r="W8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],23,FALSE),VLOOKUP($A8,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],23,FALSE),VLOOKUP($A8,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],24,FALSE),VLOOKUP($A8,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],24,FALSE),VLOOKUP($A8,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],25,FALSE),VLOOKUP($A8,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],25,FALSE),VLOOKUP($A8,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],26,FALSE),VLOOKUP($A8,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],26,FALSE),VLOOKUP($A8,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],27,FALSE),VLOOKUP($A8,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],27,FALSE),VLOOKUP($A8,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],28,FALSE),VLOOKUP($A8,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],28,FALSE),VLOOKUP($A8,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],29,FALSE),VLOOKUP($A8,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],29,FALSE),VLOOKUP($A8,CriadoresDirectorio[],29,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],30,FALSE),VLOOKUP($A8,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],30,FALSE),VLOOKUP($A8,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE8" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],31,FALSE),VLOOKUP($A8,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],31,FALSE),VLOOKUP($A8,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>987</v>
+      </c>
+      <c r="B9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],2,FALSE),VLOOKUP($A9,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],2,FALSE),VLOOKUP($A9,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>HACIENDA BUENOS AIRES LTDA.</v>
+      </c>
+      <c r="C9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],3,FALSE),VLOOKUP($A9,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],3,FALSE),VLOOKUP($A9,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Buenos Aires, Finca Corinto</v>
+      </c>
+      <c r="D9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],4,FALSE),VLOOKUP($A9,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],4,FALSE),VLOOKUP($A9,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Florencia</v>
+      </c>
+      <c r="E9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],5,FALSE),VLOOKUP($A9,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],5,FALSE),VLOOKUP($A9,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Caquetá</v>
+      </c>
+      <c r="F9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],6,FALSE),VLOOKUP($A9,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],6,FALSE),VLOOKUP($A9,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],7,FALSE),VLOOKUP($A9,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],7,FALSE),VLOOKUP($A9,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],8,FALSE),VLOOKUP($A9,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],8,FALSE),VLOOKUP($A9,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],9,FALSE),VLOOKUP($A9,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],9,FALSE),VLOOKUP($A9,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],10,FALSE),VLOOKUP($A9,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],10,FALSE),VLOOKUP($A9,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],11,FALSE),VLOOKUP($A9,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],11,FALSE),VLOOKUP($A9,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],12,FALSE),VLOOKUP($A9,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],12,FALSE),VLOOKUP($A9,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Brahman</v>
+      </c>
+      <c r="M9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],13,FALSE),VLOOKUP($A9,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],13,FALSE),VLOOKUP($A9,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 10 # 9 - 39 BRR EL PRADO</v>
+      </c>
+      <c r="N9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],14,FALSE),VLOOKUP($A9,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],14,FALSE),VLOOKUP($A9,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Florencia</v>
+      </c>
+      <c r="O9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],15,FALSE),VLOOKUP($A9,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],15,FALSE),VLOOKUP($A9,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Caquetá</v>
+      </c>
+      <c r="P9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],16,FALSE),VLOOKUP($A9,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],16,FALSE),VLOOKUP($A9,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>(091)4362035</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],17,FALSE),VLOOKUP($A9,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],17,FALSE),VLOOKUP($A9,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3143043045</v>
+      </c>
+      <c r="R9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],18,FALSE),VLOOKUP($A9,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],18,FALSE),VLOOKUP($A9,CriadoresDirectorio[],18,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],19,FALSE),VLOOKUP($A9,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],19,FALSE),VLOOKUP($A9,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],20,FALSE),VLOOKUP($A9,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],20,FALSE),VLOOKUP($A9,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],21,FALSE),VLOOKUP($A9,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],21,FALSE),VLOOKUP($A9,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],22,FALSE),VLOOKUP($A9,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],22,FALSE),VLOOKUP($A9,CriadoresDirectorio[],22,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="W9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],23,FALSE),VLOOKUP($A9,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],23,FALSE),VLOOKUP($A9,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],24,FALSE),VLOOKUP($A9,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],24,FALSE),VLOOKUP($A9,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],25,FALSE),VLOOKUP($A9,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],25,FALSE),VLOOKUP($A9,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],26,FALSE),VLOOKUP($A9,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],26,FALSE),VLOOKUP($A9,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],27,FALSE),VLOOKUP($A9,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],27,FALSE),VLOOKUP($A9,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],28,FALSE),VLOOKUP($A9,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],28,FALSE),VLOOKUP($A9,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],29,FALSE),VLOOKUP($A9,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],29,FALSE),VLOOKUP($A9,CriadoresDirectorio[],29,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],30,FALSE),VLOOKUP($A9,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],30,FALSE),VLOOKUP($A9,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE9" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],31,FALSE),VLOOKUP($A9,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],31,FALSE),VLOOKUP($A9,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1493</v>
+      </c>
+      <c r="B10" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],2,FALSE),VLOOKUP($A10,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],2,FALSE),VLOOKUP($A10,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>HACIENDA GUADUALITO</v>
+      </c>
+      <c r="C10" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],3,FALSE),VLOOKUP($A10,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],3,FALSE),VLOOKUP($A10,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Guadualito</v>
+      </c>
+      <c r="D10" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],4,FALSE),VLOOKUP($A10,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],4,FALSE),VLOOKUP($A10,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Nunchia</v>
+      </c>
+      <c r="E10" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],5,FALSE),VLOOKUP($A10,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],5,FALSE),VLOOKUP($A10,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Casanare</v>
+      </c>
+      <c r="F10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],6,FALSE),VLOOKUP($A10,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],6,FALSE),VLOOKUP($A10,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],7,FALSE),VLOOKUP($A10,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],7,FALSE),VLOOKUP($A10,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],8,FALSE),VLOOKUP($A10,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],8,FALSE),VLOOKUP($A10,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],9,FALSE),VLOOKUP($A10,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],9,FALSE),VLOOKUP($A10,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],10,FALSE),VLOOKUP($A10,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],10,FALSE),VLOOKUP($A10,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],11,FALSE),VLOOKUP($A10,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],11,FALSE),VLOOKUP($A10,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L10" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],12,FALSE),VLOOKUP($A10,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],12,FALSE),VLOOKUP($A10,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M10" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],13,FALSE),VLOOKUP($A10,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],13,FALSE),VLOOKUP($A10,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 28 15 43</v>
+      </c>
+      <c r="N10" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],14,FALSE),VLOOKUP($A10,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],14,FALSE),VLOOKUP($A10,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Yopal</v>
+      </c>
+      <c r="O10" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],15,FALSE),VLOOKUP($A10,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],15,FALSE),VLOOKUP($A10,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Casanare</v>
+      </c>
+      <c r="P10">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],16,FALSE),VLOOKUP($A10,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],16,FALSE),VLOOKUP($A10,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>6357915</v>
+      </c>
+      <c r="Q10">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],17,FALSE),VLOOKUP($A10,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],17,FALSE),VLOOKUP($A10,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3212034836</v>
+      </c>
+      <c r="R10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],18,FALSE),VLOOKUP($A10,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],18,FALSE),VLOOKUP($A10,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],19,FALSE),VLOOKUP($A10,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],19,FALSE),VLOOKUP($A10,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],20,FALSE),VLOOKUP($A10,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],20,FALSE),VLOOKUP($A10,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],21,FALSE),VLOOKUP($A10,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],21,FALSE),VLOOKUP($A10,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V10" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],22,FALSE),VLOOKUP($A10,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],22,FALSE),VLOOKUP($A10,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>c.cd.agricultura@hotmail.com</v>
+      </c>
+      <c r="W10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],23,FALSE),VLOOKUP($A10,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],23,FALSE),VLOOKUP($A10,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],24,FALSE),VLOOKUP($A10,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],24,FALSE),VLOOKUP($A10,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],25,FALSE),VLOOKUP($A10,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],25,FALSE),VLOOKUP($A10,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],26,FALSE),VLOOKUP($A10,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],26,FALSE),VLOOKUP($A10,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],27,FALSE),VLOOKUP($A10,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],27,FALSE),VLOOKUP($A10,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],28,FALSE),VLOOKUP($A10,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],28,FALSE),VLOOKUP($A10,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],29,FALSE),VLOOKUP($A10,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],29,FALSE),VLOOKUP($A10,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],30,FALSE),VLOOKUP($A10,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],30,FALSE),VLOOKUP($A10,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE10" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],31,FALSE),VLOOKUP($A10,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],31,FALSE),VLOOKUP($A10,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],2,FALSE),VLOOKUP($A11,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],2,FALSE),VLOOKUP($A11,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>GARCES EDER S.A.S</v>
+      </c>
+      <c r="C11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],3,FALSE),VLOOKUP($A11,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],3,FALSE),VLOOKUP($A11,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda García Abajo</v>
+      </c>
+      <c r="D11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],4,FALSE),VLOOKUP($A11,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],4,FALSE),VLOOKUP($A11,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Corinto</v>
+      </c>
+      <c r="E11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],5,FALSE),VLOOKUP($A11,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],5,FALSE),VLOOKUP($A11,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Cauca</v>
+      </c>
+      <c r="F11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],6,FALSE),VLOOKUP($A11,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],6,FALSE),VLOOKUP($A11,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>La Campiña</v>
+      </c>
+      <c r="G11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],7,FALSE),VLOOKUP($A11,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],7,FALSE),VLOOKUP($A11,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>Santander de Quilichao</v>
+      </c>
+      <c r="H11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],8,FALSE),VLOOKUP($A11,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],8,FALSE),VLOOKUP($A11,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>Cauca</v>
+      </c>
+      <c r="I11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],9,FALSE),VLOOKUP($A11,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],9,FALSE),VLOOKUP($A11,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>Guaguya</v>
+      </c>
+      <c r="J11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],10,FALSE),VLOOKUP($A11,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],10,FALSE),VLOOKUP($A11,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>Palmira</v>
+      </c>
+      <c r="K11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],11,FALSE),VLOOKUP($A11,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],11,FALSE),VLOOKUP($A11,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>Valle</v>
+      </c>
+      <c r="L11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],12,FALSE),VLOOKUP($A11,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],12,FALSE),VLOOKUP($A11,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Brahman</v>
+      </c>
+      <c r="M11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],13,FALSE),VLOOKUP($A11,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],13,FALSE),VLOOKUP($A11,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 100 # 11 - 90 OF 504</v>
+      </c>
+      <c r="N11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],14,FALSE),VLOOKUP($A11,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],14,FALSE),VLOOKUP($A11,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Cali</v>
+      </c>
+      <c r="O11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],15,FALSE),VLOOKUP($A11,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],15,FALSE),VLOOKUP($A11,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Valle del Cauca</v>
+      </c>
+      <c r="P11">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],16,FALSE),VLOOKUP($A11,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],16,FALSE),VLOOKUP($A11,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3320848</v>
+      </c>
+      <c r="Q11">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],17,FALSE),VLOOKUP($A11,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],17,FALSE),VLOOKUP($A11,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>5504316</v>
+      </c>
+      <c r="R11">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],18,FALSE),VLOOKUP($A11,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],18,FALSE),VLOOKUP($A11,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>3321816</v>
+      </c>
+      <c r="S11">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],19,FALSE),VLOOKUP($A11,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],19,FALSE),VLOOKUP($A11,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>3155761864</v>
+      </c>
+      <c r="T11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],20,FALSE),VLOOKUP($A11,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],20,FALSE),VLOOKUP($A11,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],21,FALSE),VLOOKUP($A11,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],21,FALSE),VLOOKUP($A11,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],22,FALSE),VLOOKUP($A11,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],22,FALSE),VLOOKUP($A11,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>hda.garcia@garceseder.com</v>
+      </c>
+      <c r="W11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],23,FALSE),VLOOKUP($A11,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],23,FALSE),VLOOKUP($A11,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],24,FALSE),VLOOKUP($A11,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],24,FALSE),VLOOKUP($A11,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],25,FALSE),VLOOKUP($A11,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],25,FALSE),VLOOKUP($A11,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],26,FALSE),VLOOKUP($A11,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],26,FALSE),VLOOKUP($A11,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],27,FALSE),VLOOKUP($A11,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],27,FALSE),VLOOKUP($A11,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],28,FALSE),VLOOKUP($A11,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],28,FALSE),VLOOKUP($A11,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],29,FALSE),VLOOKUP($A11,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],29,FALSE),VLOOKUP($A11,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>http://www.garciaabajo.com/</v>
+      </c>
+      <c r="AD11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],30,FALSE),VLOOKUP($A11,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],30,FALSE),VLOOKUP($A11,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE11" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],31,FALSE),VLOOKUP($A11,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],31,FALSE),VLOOKUP($A11,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],2,FALSE),VLOOKUP($A12,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],2,FALSE),VLOOKUP($A12,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>INVERSIONES AGROPECUARIA TRIPLE SIETE</v>
+      </c>
+      <c r="C12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],3,FALSE),VLOOKUP($A12,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],3,FALSE),VLOOKUP($A12,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda El Chorro</v>
+      </c>
+      <c r="D12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],4,FALSE),VLOOKUP($A12,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],4,FALSE),VLOOKUP($A12,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Gamarra</v>
+      </c>
+      <c r="E12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],5,FALSE),VLOOKUP($A12,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],5,FALSE),VLOOKUP($A12,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Cesar</v>
+      </c>
+      <c r="F12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],6,FALSE),VLOOKUP($A12,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],6,FALSE),VLOOKUP($A12,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>Hda Arizona</v>
+      </c>
+      <c r="G12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],7,FALSE),VLOOKUP($A12,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],7,FALSE),VLOOKUP($A12,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>Puerto Boyacá</v>
+      </c>
+      <c r="H12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],8,FALSE),VLOOKUP($A12,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],8,FALSE),VLOOKUP($A12,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>Boyacá</v>
+      </c>
+      <c r="I12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],9,FALSE),VLOOKUP($A12,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],9,FALSE),VLOOKUP($A12,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],10,FALSE),VLOOKUP($A12,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],10,FALSE),VLOOKUP($A12,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],11,FALSE),VLOOKUP($A12,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],11,FALSE),VLOOKUP($A12,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],12,FALSE),VLOOKUP($A12,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],12,FALSE),VLOOKUP($A12,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],13,FALSE),VLOOKUP($A12,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],13,FALSE),VLOOKUP($A12,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 48 62 77</v>
+      </c>
+      <c r="N12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],14,FALSE),VLOOKUP($A12,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],14,FALSE),VLOOKUP($A12,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Río Negro</v>
+      </c>
+      <c r="O12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],15,FALSE),VLOOKUP($A12,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],15,FALSE),VLOOKUP($A12,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P12">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],16,FALSE),VLOOKUP($A12,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],16,FALSE),VLOOKUP($A12,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3666479</v>
+      </c>
+      <c r="Q12">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],17,FALSE),VLOOKUP($A12,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],17,FALSE),VLOOKUP($A12,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3148430520</v>
+      </c>
+      <c r="R12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],18,FALSE),VLOOKUP($A12,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],18,FALSE),VLOOKUP($A12,CriadoresDirectorio[],18,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],19,FALSE),VLOOKUP($A12,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],19,FALSE),VLOOKUP($A12,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],20,FALSE),VLOOKUP($A12,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],20,FALSE),VLOOKUP($A12,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],21,FALSE),VLOOKUP($A12,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],21,FALSE),VLOOKUP($A12,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],22,FALSE),VLOOKUP($A12,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],22,FALSE),VLOOKUP($A12,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>hdaelchorro@gmail.com</v>
+      </c>
+      <c r="W12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],23,FALSE),VLOOKUP($A12,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],23,FALSE),VLOOKUP($A12,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],24,FALSE),VLOOKUP($A12,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],24,FALSE),VLOOKUP($A12,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],25,FALSE),VLOOKUP($A12,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],25,FALSE),VLOOKUP($A12,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],26,FALSE),VLOOKUP($A12,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],26,FALSE),VLOOKUP($A12,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],27,FALSE),VLOOKUP($A12,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],27,FALSE),VLOOKUP($A12,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],28,FALSE),VLOOKUP($A12,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],28,FALSE),VLOOKUP($A12,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],29,FALSE),VLOOKUP($A12,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],29,FALSE),VLOOKUP($A12,CriadoresDirectorio[],29,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],30,FALSE),VLOOKUP($A12,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],30,FALSE),VLOOKUP($A12,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE12" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],31,FALSE),VLOOKUP($A12,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],31,FALSE),VLOOKUP($A12,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1060</v>
+      </c>
+      <c r="B13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],2,FALSE),VLOOKUP($A13,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],2,FALSE),VLOOKUP($A13,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>AGROGANADERA SILVA PINZÓN Y CÍA S EN C</v>
+      </c>
+      <c r="C13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],3,FALSE),VLOOKUP($A13,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],3,FALSE),VLOOKUP($A13,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Cabezas</v>
+      </c>
+      <c r="D13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],4,FALSE),VLOOKUP($A13,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],4,FALSE),VLOOKUP($A13,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Aguachica</v>
+      </c>
+      <c r="E13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],5,FALSE),VLOOKUP($A13,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],5,FALSE),VLOOKUP($A13,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Cesar</v>
+      </c>
+      <c r="F13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],6,FALSE),VLOOKUP($A13,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],6,FALSE),VLOOKUP($A13,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],7,FALSE),VLOOKUP($A13,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],7,FALSE),VLOOKUP($A13,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],8,FALSE),VLOOKUP($A13,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],8,FALSE),VLOOKUP($A13,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],9,FALSE),VLOOKUP($A13,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],9,FALSE),VLOOKUP($A13,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],10,FALSE),VLOOKUP($A13,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],10,FALSE),VLOOKUP($A13,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],11,FALSE),VLOOKUP($A13,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],11,FALSE),VLOOKUP($A13,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],12,FALSE),VLOOKUP($A13,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],12,FALSE),VLOOKUP($A13,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Asociado Puro, Brahman</v>
+      </c>
+      <c r="M13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],13,FALSE),VLOOKUP($A13,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],13,FALSE),VLOOKUP($A13,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 44 37 14 OF 101 ED SIKASUE</v>
+      </c>
+      <c r="N13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],14,FALSE),VLOOKUP($A13,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],14,FALSE),VLOOKUP($A13,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Bucaramanga</v>
+      </c>
+      <c r="O13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],15,FALSE),VLOOKUP($A13,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],15,FALSE),VLOOKUP($A13,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Santander</v>
+      </c>
+      <c r="P13">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],16,FALSE),VLOOKUP($A13,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],16,FALSE),VLOOKUP($A13,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>6576177</v>
+      </c>
+      <c r="Q13">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],17,FALSE),VLOOKUP($A13,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],17,FALSE),VLOOKUP($A13,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3205245841</v>
+      </c>
+      <c r="R13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],18,FALSE),VLOOKUP($A13,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],18,FALSE),VLOOKUP($A13,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],19,FALSE),VLOOKUP($A13,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],19,FALSE),VLOOKUP($A13,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],20,FALSE),VLOOKUP($A13,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],20,FALSE),VLOOKUP($A13,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],21,FALSE),VLOOKUP($A13,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],21,FALSE),VLOOKUP($A13,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V13" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],22,FALSE),VLOOKUP($A13,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],22,FALSE),VLOOKUP($A13,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>gueyler@hotmail.com</v>
+      </c>
+      <c r="W13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],23,FALSE),VLOOKUP($A13,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],23,FALSE),VLOOKUP($A13,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],24,FALSE),VLOOKUP($A13,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],24,FALSE),VLOOKUP($A13,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],25,FALSE),VLOOKUP($A13,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],25,FALSE),VLOOKUP($A13,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],26,FALSE),VLOOKUP($A13,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],26,FALSE),VLOOKUP($A13,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],27,FALSE),VLOOKUP($A13,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],27,FALSE),VLOOKUP($A13,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],28,FALSE),VLOOKUP($A13,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],28,FALSE),VLOOKUP($A13,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],29,FALSE),VLOOKUP($A13,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],29,FALSE),VLOOKUP($A13,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],30,FALSE),VLOOKUP($A13,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],30,FALSE),VLOOKUP($A13,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE13" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],31,FALSE),VLOOKUP($A13,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],31,FALSE),VLOOKUP($A13,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1226</v>
+      </c>
+      <c r="B14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],2,FALSE),VLOOKUP($A14,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],2,FALSE),VLOOKUP($A14,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>FINCA CAMPO ALEGRE</v>
+      </c>
+      <c r="C14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],3,FALSE),VLOOKUP($A14,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],3,FALSE),VLOOKUP($A14,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Campo Alegre, Vereda Torcoroma</v>
+      </c>
+      <c r="D14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],4,FALSE),VLOOKUP($A14,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],4,FALSE),VLOOKUP($A14,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>San Martín</v>
+      </c>
+      <c r="E14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],5,FALSE),VLOOKUP($A14,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],5,FALSE),VLOOKUP($A14,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Cesar</v>
+      </c>
+      <c r="F14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],6,FALSE),VLOOKUP($A14,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],6,FALSE),VLOOKUP($A14,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],7,FALSE),VLOOKUP($A14,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],7,FALSE),VLOOKUP($A14,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],8,FALSE),VLOOKUP($A14,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],8,FALSE),VLOOKUP($A14,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],9,FALSE),VLOOKUP($A14,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],9,FALSE),VLOOKUP($A14,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],10,FALSE),VLOOKUP($A14,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],10,FALSE),VLOOKUP($A14,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],11,FALSE),VLOOKUP($A14,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],11,FALSE),VLOOKUP($A14,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],12,FALSE),VLOOKUP($A14,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],12,FALSE),VLOOKUP($A14,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Brahman y Gyr</v>
+      </c>
+      <c r="M14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],13,FALSE),VLOOKUP($A14,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],13,FALSE),VLOOKUP($A14,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 17 # 34 - 31</v>
+      </c>
+      <c r="N14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],14,FALSE),VLOOKUP($A14,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],14,FALSE),VLOOKUP($A14,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Bucaramanga</v>
+      </c>
+      <c r="O14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],15,FALSE),VLOOKUP($A14,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],15,FALSE),VLOOKUP($A14,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Santander</v>
+      </c>
+      <c r="P14">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],16,FALSE),VLOOKUP($A14,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],16,FALSE),VLOOKUP($A14,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3157865506</v>
+      </c>
+      <c r="Q14">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],17,FALSE),VLOOKUP($A14,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],17,FALSE),VLOOKUP($A14,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>6303960</v>
+      </c>
+      <c r="R14">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],18,FALSE),VLOOKUP($A14,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],18,FALSE),VLOOKUP($A14,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>3158141914</v>
+      </c>
+      <c r="S14">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],19,FALSE),VLOOKUP($A14,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],19,FALSE),VLOOKUP($A14,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>6803000</v>
+      </c>
+      <c r="T14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],20,FALSE),VLOOKUP($A14,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],20,FALSE),VLOOKUP($A14,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],21,FALSE),VLOOKUP($A14,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],21,FALSE),VLOOKUP($A14,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V14" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],22,FALSE),VLOOKUP($A14,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],22,FALSE),VLOOKUP($A14,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>calzadolarebaja@gmail.com</v>
+      </c>
+      <c r="W14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],23,FALSE),VLOOKUP($A14,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],23,FALSE),VLOOKUP($A14,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],24,FALSE),VLOOKUP($A14,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],24,FALSE),VLOOKUP($A14,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],25,FALSE),VLOOKUP($A14,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],25,FALSE),VLOOKUP($A14,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],26,FALSE),VLOOKUP($A14,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],26,FALSE),VLOOKUP($A14,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],27,FALSE),VLOOKUP($A14,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],27,FALSE),VLOOKUP($A14,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],28,FALSE),VLOOKUP($A14,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],28,FALSE),VLOOKUP($A14,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],29,FALSE),VLOOKUP($A14,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],29,FALSE),VLOOKUP($A14,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],30,FALSE),VLOOKUP($A14,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],30,FALSE),VLOOKUP($A14,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE14" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],31,FALSE),VLOOKUP($A14,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],31,FALSE),VLOOKUP($A14,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],2,FALSE),VLOOKUP($A15,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],2,FALSE),VLOOKUP($A15,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>BRAHMAN ABASTECEDORA</v>
+      </c>
+      <c r="C15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],3,FALSE),VLOOKUP($A15,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],3,FALSE),VLOOKUP($A15,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Abastecedora</v>
+      </c>
+      <c r="D15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],4,FALSE),VLOOKUP($A15,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],4,FALSE),VLOOKUP($A15,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Planeta Rica</v>
+      </c>
+      <c r="E15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],5,FALSE),VLOOKUP($A15,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],5,FALSE),VLOOKUP($A15,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Córdoba</v>
+      </c>
+      <c r="F15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],6,FALSE),VLOOKUP($A15,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],6,FALSE),VLOOKUP($A15,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],7,FALSE),VLOOKUP($A15,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],7,FALSE),VLOOKUP($A15,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],8,FALSE),VLOOKUP($A15,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],8,FALSE),VLOOKUP($A15,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],9,FALSE),VLOOKUP($A15,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],9,FALSE),VLOOKUP($A15,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],10,FALSE),VLOOKUP($A15,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],10,FALSE),VLOOKUP($A15,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],11,FALSE),VLOOKUP($A15,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],11,FALSE),VLOOKUP($A15,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],12,FALSE),VLOOKUP($A15,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],12,FALSE),VLOOKUP($A15,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman Gris y Rojo</v>
+      </c>
+      <c r="M15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],13,FALSE),VLOOKUP($A15,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],13,FALSE),VLOOKUP($A15,CriadoresDirectorio[],13,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],14,FALSE),VLOOKUP($A15,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],14,FALSE),VLOOKUP($A15,CriadoresDirectorio[],14,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],15,FALSE),VLOOKUP($A15,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],15,FALSE),VLOOKUP($A15,CriadoresDirectorio[],15,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="P15">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],16,FALSE),VLOOKUP($A15,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],16,FALSE),VLOOKUP($A15,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3131990</v>
+      </c>
+      <c r="Q15">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],17,FALSE),VLOOKUP($A15,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],17,FALSE),VLOOKUP($A15,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3014581782</v>
+      </c>
+      <c r="R15">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],18,FALSE),VLOOKUP($A15,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],18,FALSE),VLOOKUP($A15,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>3017579333</v>
+      </c>
+      <c r="S15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],19,FALSE),VLOOKUP($A15,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],19,FALSE),VLOOKUP($A15,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],20,FALSE),VLOOKUP($A15,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],20,FALSE),VLOOKUP($A15,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],21,FALSE),VLOOKUP($A15,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],21,FALSE),VLOOKUP($A15,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],22,FALSE),VLOOKUP($A15,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],22,FALSE),VLOOKUP($A15,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>abastecedora10@gmail.com</v>
+      </c>
+      <c r="W15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],23,FALSE),VLOOKUP($A15,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],23,FALSE),VLOOKUP($A15,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],24,FALSE),VLOOKUP($A15,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],24,FALSE),VLOOKUP($A15,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],25,FALSE),VLOOKUP($A15,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],25,FALSE),VLOOKUP($A15,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],26,FALSE),VLOOKUP($A15,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],26,FALSE),VLOOKUP($A15,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],27,FALSE),VLOOKUP($A15,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],27,FALSE),VLOOKUP($A15,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],28,FALSE),VLOOKUP($A15,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],28,FALSE),VLOOKUP($A15,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],29,FALSE),VLOOKUP($A15,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],29,FALSE),VLOOKUP($A15,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>http://www.brahmanabastecedora.com</v>
+      </c>
+      <c r="AD15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],30,FALSE),VLOOKUP($A15,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],30,FALSE),VLOOKUP($A15,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE15" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],31,FALSE),VLOOKUP($A15,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],31,FALSE),VLOOKUP($A15,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],2,FALSE),VLOOKUP($A16,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],2,FALSE),VLOOKUP($A16,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>PROYEGAN S.A.S. - HACIENDA CADIZ</v>
+      </c>
+      <c r="C16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],3,FALSE),VLOOKUP($A16,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],3,FALSE),VLOOKUP($A16,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Cádiz</v>
+      </c>
+      <c r="D16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],4,FALSE),VLOOKUP($A16,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],4,FALSE),VLOOKUP($A16,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Lorica</v>
+      </c>
+      <c r="E16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],5,FALSE),VLOOKUP($A16,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],5,FALSE),VLOOKUP($A16,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Córdoba</v>
+      </c>
+      <c r="F16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],6,FALSE),VLOOKUP($A16,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],6,FALSE),VLOOKUP($A16,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],7,FALSE),VLOOKUP($A16,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],7,FALSE),VLOOKUP($A16,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],8,FALSE),VLOOKUP($A16,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],8,FALSE),VLOOKUP($A16,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],9,FALSE),VLOOKUP($A16,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],9,FALSE),VLOOKUP($A16,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],10,FALSE),VLOOKUP($A16,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],10,FALSE),VLOOKUP($A16,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],11,FALSE),VLOOKUP($A16,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],11,FALSE),VLOOKUP($A16,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],12,FALSE),VLOOKUP($A16,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],12,FALSE),VLOOKUP($A16,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],13,FALSE),VLOOKUP($A16,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],13,FALSE),VLOOKUP($A16,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 42 54A 155 AUTOP SUR</v>
+      </c>
+      <c r="N16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],14,FALSE),VLOOKUP($A16,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],14,FALSE),VLOOKUP($A16,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Itagüí</v>
+      </c>
+      <c r="O16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],15,FALSE),VLOOKUP($A16,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],15,FALSE),VLOOKUP($A16,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],16,FALSE),VLOOKUP($A16,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],16,FALSE),VLOOKUP($A16,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3734001Ext.101</v>
+      </c>
+      <c r="Q16">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],17,FALSE),VLOOKUP($A16,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],17,FALSE),VLOOKUP($A16,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3778936</v>
+      </c>
+      <c r="R16">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],18,FALSE),VLOOKUP($A16,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],18,FALSE),VLOOKUP($A16,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>3104240789</v>
+      </c>
+      <c r="S16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],19,FALSE),VLOOKUP($A16,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],19,FALSE),VLOOKUP($A16,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],20,FALSE),VLOOKUP($A16,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],20,FALSE),VLOOKUP($A16,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],21,FALSE),VLOOKUP($A16,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],21,FALSE),VLOOKUP($A16,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],22,FALSE),VLOOKUP($A16,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],22,FALSE),VLOOKUP($A16,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>cmvelez@inverjota.com</v>
+      </c>
+      <c r="W16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],23,FALSE),VLOOKUP($A16,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],23,FALSE),VLOOKUP($A16,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],24,FALSE),VLOOKUP($A16,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],24,FALSE),VLOOKUP($A16,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],25,FALSE),VLOOKUP($A16,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],25,FALSE),VLOOKUP($A16,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],26,FALSE),VLOOKUP($A16,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],26,FALSE),VLOOKUP($A16,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],27,FALSE),VLOOKUP($A16,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],27,FALSE),VLOOKUP($A16,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],28,FALSE),VLOOKUP($A16,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],28,FALSE),VLOOKUP($A16,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],29,FALSE),VLOOKUP($A16,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],29,FALSE),VLOOKUP($A16,CriadoresDirectorio[],29,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],30,FALSE),VLOOKUP($A16,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],30,FALSE),VLOOKUP($A16,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE16" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],31,FALSE),VLOOKUP($A16,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],31,FALSE),VLOOKUP($A16,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1307</v>
+      </c>
+      <c r="B17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],2,FALSE),VLOOKUP($A17,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],2,FALSE),VLOOKUP($A17,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>FUNDACIÓN GRUPO ARGOS</v>
+      </c>
+      <c r="C17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],3,FALSE),VLOOKUP($A17,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],3,FALSE),VLOOKUP($A17,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hdas. Centenario</v>
+      </c>
+      <c r="D17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],4,FALSE),VLOOKUP($A17,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],4,FALSE),VLOOKUP($A17,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Montelíbano</v>
+      </c>
+      <c r="E17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],5,FALSE),VLOOKUP($A17,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],5,FALSE),VLOOKUP($A17,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Córdoba</v>
+      </c>
+      <c r="F17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],6,FALSE),VLOOKUP($A17,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],6,FALSE),VLOOKUP($A17,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>Casanare</v>
+      </c>
+      <c r="G17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],7,FALSE),VLOOKUP($A17,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],7,FALSE),VLOOKUP($A17,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>La Magdalena</v>
+      </c>
+      <c r="H17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],8,FALSE),VLOOKUP($A17,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],8,FALSE),VLOOKUP($A17,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="I17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],9,FALSE),VLOOKUP($A17,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],9,FALSE),VLOOKUP($A17,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],10,FALSE),VLOOKUP($A17,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],10,FALSE),VLOOKUP($A17,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],11,FALSE),VLOOKUP($A17,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],11,FALSE),VLOOKUP($A17,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],12,FALSE),VLOOKUP($A17,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],12,FALSE),VLOOKUP($A17,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],13,FALSE),VLOOKUP($A17,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],13,FALSE),VLOOKUP($A17,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 43 A 1 A SUR 143 ED SANTILLANA</v>
+      </c>
+      <c r="N17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],14,FALSE),VLOOKUP($A17,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],14,FALSE),VLOOKUP($A17,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Medellín</v>
+      </c>
+      <c r="O17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],15,FALSE),VLOOKUP($A17,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],15,FALSE),VLOOKUP($A17,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P17">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],16,FALSE),VLOOKUP($A17,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],16,FALSE),VLOOKUP($A17,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3158400</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],17,FALSE),VLOOKUP($A17,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],17,FALSE),VLOOKUP($A17,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3106200Ext.2100</v>
+      </c>
+      <c r="R17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],18,FALSE),VLOOKUP($A17,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],18,FALSE),VLOOKUP($A17,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>3106202Ext.4512</v>
+      </c>
+      <c r="S17">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],19,FALSE),VLOOKUP($A17,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],19,FALSE),VLOOKUP($A17,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>3136860539</v>
+      </c>
+      <c r="T17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],20,FALSE),VLOOKUP($A17,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],20,FALSE),VLOOKUP($A17,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>(40)3122481505</v>
+      </c>
+      <c r="U17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],21,FALSE),VLOOKUP($A17,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],21,FALSE),VLOOKUP($A17,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],22,FALSE),VLOOKUP($A17,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],22,FALSE),VLOOKUP($A17,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>andres.valderrama@alianzaganadera.co</v>
+      </c>
+      <c r="W17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],23,FALSE),VLOOKUP($A17,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],23,FALSE),VLOOKUP($A17,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>avalderrama@rgrande.co</v>
+      </c>
+      <c r="X17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],24,FALSE),VLOOKUP($A17,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],24,FALSE),VLOOKUP($A17,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],25,FALSE),VLOOKUP($A17,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],25,FALSE),VLOOKUP($A17,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],26,FALSE),VLOOKUP($A17,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],26,FALSE),VLOOKUP($A17,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],27,FALSE),VLOOKUP($A17,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],27,FALSE),VLOOKUP($A17,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],28,FALSE),VLOOKUP($A17,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],28,FALSE),VLOOKUP($A17,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],29,FALSE),VLOOKUP($A17,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],29,FALSE),VLOOKUP($A17,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>http://www.ganaderiariogrande.com</v>
+      </c>
+      <c r="AD17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],30,FALSE),VLOOKUP($A17,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],30,FALSE),VLOOKUP($A17,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE17" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],31,FALSE),VLOOKUP($A17,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],31,FALSE),VLOOKUP($A17,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],2,FALSE),VLOOKUP($A18,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],2,FALSE),VLOOKUP($A18,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>GANADERIA MULTIGANGAS</v>
+      </c>
+      <c r="C18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],3,FALSE),VLOOKUP($A18,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],3,FALSE),VLOOKUP($A18,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda San Miguel</v>
+      </c>
+      <c r="D18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],4,FALSE),VLOOKUP($A18,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],4,FALSE),VLOOKUP($A18,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Planeta Rica</v>
+      </c>
+      <c r="E18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],5,FALSE),VLOOKUP($A18,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],5,FALSE),VLOOKUP($A18,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Córdoba</v>
+      </c>
+      <c r="F18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],6,FALSE),VLOOKUP($A18,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],6,FALSE),VLOOKUP($A18,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],7,FALSE),VLOOKUP($A18,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],7,FALSE),VLOOKUP($A18,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],8,FALSE),VLOOKUP($A18,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],8,FALSE),VLOOKUP($A18,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],9,FALSE),VLOOKUP($A18,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],9,FALSE),VLOOKUP($A18,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],10,FALSE),VLOOKUP($A18,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],10,FALSE),VLOOKUP($A18,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],11,FALSE),VLOOKUP($A18,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],11,FALSE),VLOOKUP($A18,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],12,FALSE),VLOOKUP($A18,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],12,FALSE),VLOOKUP($A18,CriadoresDirectorio[],12,FALSE)))</f>
+        <v xml:space="preserve">Asociado Puro, Brahman </v>
+      </c>
+      <c r="M18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],13,FALSE),VLOOKUP($A18,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],13,FALSE),VLOOKUP($A18,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 50 53 91</v>
+      </c>
+      <c r="N18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],14,FALSE),VLOOKUP($A18,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],14,FALSE),VLOOKUP($A18,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Medellín</v>
+      </c>
+      <c r="O18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],15,FALSE),VLOOKUP($A18,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],15,FALSE),VLOOKUP($A18,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P18">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],16,FALSE),VLOOKUP($A18,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],16,FALSE),VLOOKUP($A18,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>5123333</v>
+      </c>
+      <c r="Q18">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],17,FALSE),VLOOKUP($A18,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],17,FALSE),VLOOKUP($A18,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3146611656</v>
+      </c>
+      <c r="R18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],18,FALSE),VLOOKUP($A18,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],18,FALSE),VLOOKUP($A18,CriadoresDirectorio[],18,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],19,FALSE),VLOOKUP($A18,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],19,FALSE),VLOOKUP($A18,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],20,FALSE),VLOOKUP($A18,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],20,FALSE),VLOOKUP($A18,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],21,FALSE),VLOOKUP($A18,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],21,FALSE),VLOOKUP($A18,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],22,FALSE),VLOOKUP($A18,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],22,FALSE),VLOOKUP($A18,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>ganaderia@multigangasltda.com</v>
+      </c>
+      <c r="W18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],23,FALSE),VLOOKUP($A18,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],23,FALSE),VLOOKUP($A18,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],24,FALSE),VLOOKUP($A18,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],24,FALSE),VLOOKUP($A18,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],25,FALSE),VLOOKUP($A18,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],25,FALSE),VLOOKUP($A18,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],26,FALSE),VLOOKUP($A18,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],26,FALSE),VLOOKUP($A18,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],27,FALSE),VLOOKUP($A18,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],27,FALSE),VLOOKUP($A18,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],28,FALSE),VLOOKUP($A18,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],28,FALSE),VLOOKUP($A18,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],29,FALSE),VLOOKUP($A18,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],29,FALSE),VLOOKUP($A18,CriadoresDirectorio[],29,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],30,FALSE),VLOOKUP($A18,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],30,FALSE),VLOOKUP($A18,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE18" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],31,FALSE),VLOOKUP($A18,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],31,FALSE),VLOOKUP($A18,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1415</v>
+      </c>
+      <c r="B19" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],2,FALSE),VLOOKUP($A19,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],2,FALSE),VLOOKUP($A19,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>AGROGANADERÍA LA CAMPANA S.A</v>
+      </c>
+      <c r="C19" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],3,FALSE),VLOOKUP($A19,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],3,FALSE),VLOOKUP($A19,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda La Campana</v>
+      </c>
+      <c r="D19" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],4,FALSE),VLOOKUP($A19,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],4,FALSE),VLOOKUP($A19,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>La Apartada</v>
+      </c>
+      <c r="E19" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],5,FALSE),VLOOKUP($A19,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],5,FALSE),VLOOKUP($A19,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Córdoba</v>
+      </c>
+      <c r="F19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],6,FALSE),VLOOKUP($A19,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],6,FALSE),VLOOKUP($A19,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],7,FALSE),VLOOKUP($A19,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],7,FALSE),VLOOKUP($A19,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],8,FALSE),VLOOKUP($A19,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],8,FALSE),VLOOKUP($A19,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],9,FALSE),VLOOKUP($A19,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],9,FALSE),VLOOKUP($A19,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],10,FALSE),VLOOKUP($A19,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],10,FALSE),VLOOKUP($A19,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],11,FALSE),VLOOKUP($A19,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],11,FALSE),VLOOKUP($A19,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L19" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],12,FALSE),VLOOKUP($A19,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],12,FALSE),VLOOKUP($A19,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Brahman Rojo y Gyr</v>
+      </c>
+      <c r="M19" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],13,FALSE),VLOOKUP($A19,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],13,FALSE),VLOOKUP($A19,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 50 # 50 - 28 OF 323 CC EL PARQUE DE ITAGUÍ</v>
+      </c>
+      <c r="N19" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],14,FALSE),VLOOKUP($A19,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],14,FALSE),VLOOKUP($A19,CriadoresDirectorio[],14,FALSE)))</f>
+        <v xml:space="preserve">Itagüi </v>
+      </c>
+      <c r="O19" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],15,FALSE),VLOOKUP($A19,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],15,FALSE),VLOOKUP($A19,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P19">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],16,FALSE),VLOOKUP($A19,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],16,FALSE),VLOOKUP($A19,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3185712210</v>
+      </c>
+      <c r="Q19">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],17,FALSE),VLOOKUP($A19,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],17,FALSE),VLOOKUP($A19,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3165234923</v>
+      </c>
+      <c r="R19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],18,FALSE),VLOOKUP($A19,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],18,FALSE),VLOOKUP($A19,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],19,FALSE),VLOOKUP($A19,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],19,FALSE),VLOOKUP($A19,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],20,FALSE),VLOOKUP($A19,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],20,FALSE),VLOOKUP($A19,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],21,FALSE),VLOOKUP($A19,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],21,FALSE),VLOOKUP($A19,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V19" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],22,FALSE),VLOOKUP($A19,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],22,FALSE),VLOOKUP($A19,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>agrolacampana@hotmail.com</v>
+      </c>
+      <c r="W19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],23,FALSE),VLOOKUP($A19,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],23,FALSE),VLOOKUP($A19,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],24,FALSE),VLOOKUP($A19,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],24,FALSE),VLOOKUP($A19,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],25,FALSE),VLOOKUP($A19,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],25,FALSE),VLOOKUP($A19,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],26,FALSE),VLOOKUP($A19,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],26,FALSE),VLOOKUP($A19,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],27,FALSE),VLOOKUP($A19,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],27,FALSE),VLOOKUP($A19,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],28,FALSE),VLOOKUP($A19,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],28,FALSE),VLOOKUP($A19,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],29,FALSE),VLOOKUP($A19,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],29,FALSE),VLOOKUP($A19,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],30,FALSE),VLOOKUP($A19,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],30,FALSE),VLOOKUP($A19,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE19" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],31,FALSE),VLOOKUP($A19,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],31,FALSE),VLOOKUP($A19,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1144</v>
+      </c>
+      <c r="B20" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],2,FALSE),VLOOKUP($A20,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],2,FALSE),VLOOKUP($A20,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>FRANCISCO MOLINA CASTAÑEDA</v>
+      </c>
+      <c r="C20" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],3,FALSE),VLOOKUP($A20,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],3,FALSE),VLOOKUP($A20,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Corinto, Vereda Leona</v>
+      </c>
+      <c r="D20" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],4,FALSE),VLOOKUP($A20,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],4,FALSE),VLOOKUP($A20,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>San José del Guaviare</v>
+      </c>
+      <c r="E20" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],5,FALSE),VLOOKUP($A20,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],5,FALSE),VLOOKUP($A20,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Guaviare</v>
+      </c>
+      <c r="F20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],6,FALSE),VLOOKUP($A20,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],6,FALSE),VLOOKUP($A20,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],7,FALSE),VLOOKUP($A20,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],7,FALSE),VLOOKUP($A20,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],8,FALSE),VLOOKUP($A20,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],8,FALSE),VLOOKUP($A20,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],9,FALSE),VLOOKUP($A20,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],9,FALSE),VLOOKUP($A20,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],10,FALSE),VLOOKUP($A20,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],10,FALSE),VLOOKUP($A20,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],11,FALSE),VLOOKUP($A20,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],11,FALSE),VLOOKUP($A20,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L20" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],12,FALSE),VLOOKUP($A20,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],12,FALSE),VLOOKUP($A20,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M20" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],13,FALSE),VLOOKUP($A20,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],13,FALSE),VLOOKUP($A20,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 15 44C 132 MZ 2 CA 11 CONJ PORTALES DEL TRAPICHE</v>
+      </c>
+      <c r="N20" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],14,FALSE),VLOOKUP($A20,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],14,FALSE),VLOOKUP($A20,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Villavicencio</v>
+      </c>
+      <c r="O20" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],15,FALSE),VLOOKUP($A20,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],15,FALSE),VLOOKUP($A20,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Meta</v>
+      </c>
+      <c r="P20">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],16,FALSE),VLOOKUP($A20,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],16,FALSE),VLOOKUP($A20,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>6823412</v>
+      </c>
+      <c r="Q20">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],17,FALSE),VLOOKUP($A20,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],17,FALSE),VLOOKUP($A20,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3205993559</v>
+      </c>
+      <c r="R20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],18,FALSE),VLOOKUP($A20,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],18,FALSE),VLOOKUP($A20,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],19,FALSE),VLOOKUP($A20,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],19,FALSE),VLOOKUP($A20,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],20,FALSE),VLOOKUP($A20,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],20,FALSE),VLOOKUP($A20,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],21,FALSE),VLOOKUP($A20,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],21,FALSE),VLOOKUP($A20,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V20" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],22,FALSE),VLOOKUP($A20,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],22,FALSE),VLOOKUP($A20,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>hacienda_corinto@hotmail.com</v>
+      </c>
+      <c r="W20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],23,FALSE),VLOOKUP($A20,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],23,FALSE),VLOOKUP($A20,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],24,FALSE),VLOOKUP($A20,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],24,FALSE),VLOOKUP($A20,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],25,FALSE),VLOOKUP($A20,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],25,FALSE),VLOOKUP($A20,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],26,FALSE),VLOOKUP($A20,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],26,FALSE),VLOOKUP($A20,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],27,FALSE),VLOOKUP($A20,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],27,FALSE),VLOOKUP($A20,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],28,FALSE),VLOOKUP($A20,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],28,FALSE),VLOOKUP($A20,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],29,FALSE),VLOOKUP($A20,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],29,FALSE),VLOOKUP($A20,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],30,FALSE),VLOOKUP($A20,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],30,FALSE),VLOOKUP($A20,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE20" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],31,FALSE),VLOOKUP($A20,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],31,FALSE),VLOOKUP($A20,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1411</v>
+      </c>
+      <c r="B21" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],2,FALSE),VLOOKUP($A21,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],2,FALSE),VLOOKUP($A21,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>MARIA IVONNE BARRERA DE CABRERA</v>
+      </c>
+      <c r="C21" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],3,FALSE),VLOOKUP($A21,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],3,FALSE),VLOOKUP($A21,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Santa Helena</v>
+      </c>
+      <c r="D21" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],4,FALSE),VLOOKUP($A21,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],4,FALSE),VLOOKUP($A21,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Palermo</v>
+      </c>
+      <c r="E21" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],5,FALSE),VLOOKUP($A21,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],5,FALSE),VLOOKUP($A21,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Huila</v>
+      </c>
+      <c r="F21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],6,FALSE),VLOOKUP($A21,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],6,FALSE),VLOOKUP($A21,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],7,FALSE),VLOOKUP($A21,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],7,FALSE),VLOOKUP($A21,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],8,FALSE),VLOOKUP($A21,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],8,FALSE),VLOOKUP($A21,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],9,FALSE),VLOOKUP($A21,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],9,FALSE),VLOOKUP($A21,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],10,FALSE),VLOOKUP($A21,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],10,FALSE),VLOOKUP($A21,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],11,FALSE),VLOOKUP($A21,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],11,FALSE),VLOOKUP($A21,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L21" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],12,FALSE),VLOOKUP($A21,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],12,FALSE),VLOOKUP($A21,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Gyr y Holsten</v>
+      </c>
+      <c r="M21" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],13,FALSE),VLOOKUP($A21,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],13,FALSE),VLOOKUP($A21,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 9 10 07 APTO 601</v>
+      </c>
+      <c r="N21" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],14,FALSE),VLOOKUP($A21,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],14,FALSE),VLOOKUP($A21,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Neiva</v>
+      </c>
+      <c r="O21" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],15,FALSE),VLOOKUP($A21,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],15,FALSE),VLOOKUP($A21,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Huila</v>
+      </c>
+      <c r="P21">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],16,FALSE),VLOOKUP($A21,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],16,FALSE),VLOOKUP($A21,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3167429900</v>
+      </c>
+      <c r="Q21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],17,FALSE),VLOOKUP($A21,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],17,FALSE),VLOOKUP($A21,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],18,FALSE),VLOOKUP($A21,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],18,FALSE),VLOOKUP($A21,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],19,FALSE),VLOOKUP($A21,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],19,FALSE),VLOOKUP($A21,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],20,FALSE),VLOOKUP($A21,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],20,FALSE),VLOOKUP($A21,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],21,FALSE),VLOOKUP($A21,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],21,FALSE),VLOOKUP($A21,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V21" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],22,FALSE),VLOOKUP($A21,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],22,FALSE),VLOOKUP($A21,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>ivonnebarrera106@hotmail.com</v>
+      </c>
+      <c r="W21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],23,FALSE),VLOOKUP($A21,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],23,FALSE),VLOOKUP($A21,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],24,FALSE),VLOOKUP($A21,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],24,FALSE),VLOOKUP($A21,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],25,FALSE),VLOOKUP($A21,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],25,FALSE),VLOOKUP($A21,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],26,FALSE),VLOOKUP($A21,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],26,FALSE),VLOOKUP($A21,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],27,FALSE),VLOOKUP($A21,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],27,FALSE),VLOOKUP($A21,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],28,FALSE),VLOOKUP($A21,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],28,FALSE),VLOOKUP($A21,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],29,FALSE),VLOOKUP($A21,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],29,FALSE),VLOOKUP($A21,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],30,FALSE),VLOOKUP($A21,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],30,FALSE),VLOOKUP($A21,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE21" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],31,FALSE),VLOOKUP($A21,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],31,FALSE),VLOOKUP($A21,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1451</v>
+      </c>
+      <c r="B22" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],2,FALSE),VLOOKUP($A22,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],2,FALSE),VLOOKUP($A22,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>GANADERÍA EL BALÓN</v>
+      </c>
+      <c r="C22" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],3,FALSE),VLOOKUP($A22,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],3,FALSE),VLOOKUP($A22,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Berlín</v>
+      </c>
+      <c r="D22" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],4,FALSE),VLOOKUP($A22,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],4,FALSE),VLOOKUP($A22,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Guamal</v>
+      </c>
+      <c r="E22" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],5,FALSE),VLOOKUP($A22,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],5,FALSE),VLOOKUP($A22,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Magdalena</v>
+      </c>
+      <c r="F22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],6,FALSE),VLOOKUP($A22,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],6,FALSE),VLOOKUP($A22,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],7,FALSE),VLOOKUP($A22,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],7,FALSE),VLOOKUP($A22,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],8,FALSE),VLOOKUP($A22,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],8,FALSE),VLOOKUP($A22,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],9,FALSE),VLOOKUP($A22,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],9,FALSE),VLOOKUP($A22,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],10,FALSE),VLOOKUP($A22,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],10,FALSE),VLOOKUP($A22,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],11,FALSE),VLOOKUP($A22,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],11,FALSE),VLOOKUP($A22,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L22" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],12,FALSE),VLOOKUP($A22,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],12,FALSE),VLOOKUP($A22,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M22" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],13,FALSE),VLOOKUP($A22,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],13,FALSE),VLOOKUP($A22,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 152 A 14 A 36 TO 3 APTO 711</v>
+      </c>
+      <c r="N22" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],14,FALSE),VLOOKUP($A22,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],14,FALSE),VLOOKUP($A22,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Bogotá D.C</v>
+      </c>
+      <c r="O22" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],15,FALSE),VLOOKUP($A22,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],15,FALSE),VLOOKUP($A22,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Cundinamarca</v>
+      </c>
+      <c r="P22">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],16,FALSE),VLOOKUP($A22,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],16,FALSE),VLOOKUP($A22,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>8149461</v>
+      </c>
+      <c r="Q22">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],17,FALSE),VLOOKUP($A22,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],17,FALSE),VLOOKUP($A22,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3202112059</v>
+      </c>
+      <c r="R22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],18,FALSE),VLOOKUP($A22,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],18,FALSE),VLOOKUP($A22,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],19,FALSE),VLOOKUP($A22,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],19,FALSE),VLOOKUP($A22,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],20,FALSE),VLOOKUP($A22,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],20,FALSE),VLOOKUP($A22,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],21,FALSE),VLOOKUP($A22,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],21,FALSE),VLOOKUP($A22,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V22" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],22,FALSE),VLOOKUP($A22,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],22,FALSE),VLOOKUP($A22,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>lu_ehrhardt@yahoo.com</v>
+      </c>
+      <c r="W22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],23,FALSE),VLOOKUP($A22,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],23,FALSE),VLOOKUP($A22,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],24,FALSE),VLOOKUP($A22,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],24,FALSE),VLOOKUP($A22,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],25,FALSE),VLOOKUP($A22,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],25,FALSE),VLOOKUP($A22,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],26,FALSE),VLOOKUP($A22,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],26,FALSE),VLOOKUP($A22,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],27,FALSE),VLOOKUP($A22,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],27,FALSE),VLOOKUP($A22,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],28,FALSE),VLOOKUP($A22,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],28,FALSE),VLOOKUP($A22,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],29,FALSE),VLOOKUP($A22,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],29,FALSE),VLOOKUP($A22,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],30,FALSE),VLOOKUP($A22,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],30,FALSE),VLOOKUP($A22,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE22" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],31,FALSE),VLOOKUP($A22,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],31,FALSE),VLOOKUP($A22,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],2,FALSE),VLOOKUP($A23,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],2,FALSE),VLOOKUP($A23,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>INVERSIONES EL PENSAMIENTO SAS</v>
+      </c>
+      <c r="C23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],3,FALSE),VLOOKUP($A23,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],3,FALSE),VLOOKUP($A23,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Iratama</v>
+      </c>
+      <c r="D23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],4,FALSE),VLOOKUP($A23,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],4,FALSE),VLOOKUP($A23,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Villavicencio</v>
+      </c>
+      <c r="E23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],5,FALSE),VLOOKUP($A23,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],5,FALSE),VLOOKUP($A23,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Meta</v>
+      </c>
+      <c r="F23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],6,FALSE),VLOOKUP($A23,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],6,FALSE),VLOOKUP($A23,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],7,FALSE),VLOOKUP($A23,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],7,FALSE),VLOOKUP($A23,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],8,FALSE),VLOOKUP($A23,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],8,FALSE),VLOOKUP($A23,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],9,FALSE),VLOOKUP($A23,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],9,FALSE),VLOOKUP($A23,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],10,FALSE),VLOOKUP($A23,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],10,FALSE),VLOOKUP($A23,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],11,FALSE),VLOOKUP($A23,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],11,FALSE),VLOOKUP($A23,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],12,FALSE),VLOOKUP($A23,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],12,FALSE),VLOOKUP($A23,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],13,FALSE),VLOOKUP($A23,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],13,FALSE),VLOOKUP($A23,CriadoresDirectorio[],13,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],14,FALSE),VLOOKUP($A23,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],14,FALSE),VLOOKUP($A23,CriadoresDirectorio[],14,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],15,FALSE),VLOOKUP($A23,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],15,FALSE),VLOOKUP($A23,CriadoresDirectorio[],15,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="P23">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],16,FALSE),VLOOKUP($A23,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],16,FALSE),VLOOKUP($A23,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3132089677</v>
+      </c>
+      <c r="Q23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],17,FALSE),VLOOKUP($A23,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],17,FALSE),VLOOKUP($A23,CriadoresDirectorio[],17,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="R23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],18,FALSE),VLOOKUP($A23,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],18,FALSE),VLOOKUP($A23,CriadoresDirectorio[],18,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],19,FALSE),VLOOKUP($A23,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],19,FALSE),VLOOKUP($A23,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],20,FALSE),VLOOKUP($A23,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],20,FALSE),VLOOKUP($A23,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],21,FALSE),VLOOKUP($A23,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],21,FALSE),VLOOKUP($A23,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],22,FALSE),VLOOKUP($A23,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],22,FALSE),VLOOKUP($A23,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>andresarangosalazar@gmail.com</v>
+      </c>
+      <c r="W23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],23,FALSE),VLOOKUP($A23,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],23,FALSE),VLOOKUP($A23,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],24,FALSE),VLOOKUP($A23,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],24,FALSE),VLOOKUP($A23,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],25,FALSE),VLOOKUP($A23,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],25,FALSE),VLOOKUP($A23,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],26,FALSE),VLOOKUP($A23,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],26,FALSE),VLOOKUP($A23,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],27,FALSE),VLOOKUP($A23,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],27,FALSE),VLOOKUP($A23,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],28,FALSE),VLOOKUP($A23,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],28,FALSE),VLOOKUP($A23,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],29,FALSE),VLOOKUP($A23,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],29,FALSE),VLOOKUP($A23,CriadoresDirectorio[],29,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],30,FALSE),VLOOKUP($A23,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],30,FALSE),VLOOKUP($A23,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE23" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],31,FALSE),VLOOKUP($A23,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],31,FALSE),VLOOKUP($A23,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1124</v>
+      </c>
+      <c r="B24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],2,FALSE),VLOOKUP($A24,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],2,FALSE),VLOOKUP($A24,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>SONIA DEL PILAR BUITRAGO BERNAL</v>
+      </c>
+      <c r="C24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],3,FALSE),VLOOKUP($A24,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],3,FALSE),VLOOKUP($A24,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda San Miguel</v>
+      </c>
+      <c r="D24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],4,FALSE),VLOOKUP($A24,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],4,FALSE),VLOOKUP($A24,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Villavicencio</v>
+      </c>
+      <c r="E24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],5,FALSE),VLOOKUP($A24,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],5,FALSE),VLOOKUP($A24,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Meta</v>
+      </c>
+      <c r="F24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],6,FALSE),VLOOKUP($A24,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],6,FALSE),VLOOKUP($A24,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],7,FALSE),VLOOKUP($A24,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],7,FALSE),VLOOKUP($A24,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],8,FALSE),VLOOKUP($A24,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],8,FALSE),VLOOKUP($A24,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],9,FALSE),VLOOKUP($A24,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],9,FALSE),VLOOKUP($A24,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],10,FALSE),VLOOKUP($A24,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],10,FALSE),VLOOKUP($A24,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],11,FALSE),VLOOKUP($A24,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],11,FALSE),VLOOKUP($A24,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],12,FALSE),VLOOKUP($A24,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],12,FALSE),VLOOKUP($A24,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],13,FALSE),VLOOKUP($A24,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],13,FALSE),VLOOKUP($A24,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 19A - 79 - 18 OF 401</v>
+      </c>
+      <c r="N24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],14,FALSE),VLOOKUP($A24,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],14,FALSE),VLOOKUP($A24,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Bogotá D.C</v>
+      </c>
+      <c r="O24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],15,FALSE),VLOOKUP($A24,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],15,FALSE),VLOOKUP($A24,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Cundinamarca</v>
+      </c>
+      <c r="P24">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],16,FALSE),VLOOKUP($A24,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],16,FALSE),VLOOKUP($A24,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3103047893</v>
+      </c>
+      <c r="Q24">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],17,FALSE),VLOOKUP($A24,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],17,FALSE),VLOOKUP($A24,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3108568665</v>
+      </c>
+      <c r="R24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],18,FALSE),VLOOKUP($A24,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],18,FALSE),VLOOKUP($A24,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],19,FALSE),VLOOKUP($A24,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],19,FALSE),VLOOKUP($A24,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],20,FALSE),VLOOKUP($A24,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],20,FALSE),VLOOKUP($A24,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],21,FALSE),VLOOKUP($A24,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],21,FALSE),VLOOKUP($A24,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V24" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],22,FALSE),VLOOKUP($A24,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],22,FALSE),VLOOKUP($A24,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>soniadelp@hotmail.com</v>
+      </c>
+      <c r="W24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],23,FALSE),VLOOKUP($A24,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],23,FALSE),VLOOKUP($A24,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],24,FALSE),VLOOKUP($A24,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],24,FALSE),VLOOKUP($A24,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],25,FALSE),VLOOKUP($A24,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],25,FALSE),VLOOKUP($A24,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],26,FALSE),VLOOKUP($A24,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],26,FALSE),VLOOKUP($A24,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],27,FALSE),VLOOKUP($A24,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],27,FALSE),VLOOKUP($A24,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],28,FALSE),VLOOKUP($A24,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],28,FALSE),VLOOKUP($A24,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],29,FALSE),VLOOKUP($A24,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],29,FALSE),VLOOKUP($A24,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],30,FALSE),VLOOKUP($A24,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],30,FALSE),VLOOKUP($A24,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE24" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],31,FALSE),VLOOKUP($A24,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],31,FALSE),VLOOKUP($A24,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1257</v>
+      </c>
+      <c r="B25" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],2,FALSE),VLOOKUP($A25,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],2,FALSE),VLOOKUP($A25,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>GUSTAVO VANEGAS RODRIGUEZ</v>
+      </c>
+      <c r="C25" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],3,FALSE),VLOOKUP($A25,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],3,FALSE),VLOOKUP($A25,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Villa Adriana</v>
+      </c>
+      <c r="D25" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],4,FALSE),VLOOKUP($A25,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],4,FALSE),VLOOKUP($A25,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Guamal</v>
+      </c>
+      <c r="E25" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],5,FALSE),VLOOKUP($A25,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],5,FALSE),VLOOKUP($A25,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Meta</v>
+      </c>
+      <c r="F25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],6,FALSE),VLOOKUP($A25,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],6,FALSE),VLOOKUP($A25,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],7,FALSE),VLOOKUP($A25,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],7,FALSE),VLOOKUP($A25,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],8,FALSE),VLOOKUP($A25,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],8,FALSE),VLOOKUP($A25,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],9,FALSE),VLOOKUP($A25,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],9,FALSE),VLOOKUP($A25,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],10,FALSE),VLOOKUP($A25,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],10,FALSE),VLOOKUP($A25,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],11,FALSE),VLOOKUP($A25,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],11,FALSE),VLOOKUP($A25,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L25" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],12,FALSE),VLOOKUP($A25,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],12,FALSE),VLOOKUP($A25,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M25" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],13,FALSE),VLOOKUP($A25,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],13,FALSE),VLOOKUP($A25,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 23 36 86 BRR JUAN BENITO</v>
+      </c>
+      <c r="N25" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],14,FALSE),VLOOKUP($A25,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],14,FALSE),VLOOKUP($A25,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Bogotá D.C</v>
+      </c>
+      <c r="O25" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],15,FALSE),VLOOKUP($A25,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],15,FALSE),VLOOKUP($A25,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Cundinamarca</v>
+      </c>
+      <c r="P25" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],16,FALSE),VLOOKUP($A25,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],16,FALSE),VLOOKUP($A25,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>(038)607-6211</v>
+      </c>
+      <c r="Q25" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],17,FALSE),VLOOKUP($A25,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],17,FALSE),VLOOKUP($A25,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>311251-3513</v>
+      </c>
+      <c r="R25" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],18,FALSE),VLOOKUP($A25,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],18,FALSE),VLOOKUP($A25,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>320250-3056</v>
+      </c>
+      <c r="S25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],19,FALSE),VLOOKUP($A25,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],19,FALSE),VLOOKUP($A25,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],20,FALSE),VLOOKUP($A25,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],20,FALSE),VLOOKUP($A25,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],21,FALSE),VLOOKUP($A25,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],21,FALSE),VLOOKUP($A25,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V25" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],22,FALSE),VLOOKUP($A25,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],22,FALSE),VLOOKUP($A25,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>hsantabarvara@yahoo.es</v>
+      </c>
+      <c r="W25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],23,FALSE),VLOOKUP($A25,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],23,FALSE),VLOOKUP($A25,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],24,FALSE),VLOOKUP($A25,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],24,FALSE),VLOOKUP($A25,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],25,FALSE),VLOOKUP($A25,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],25,FALSE),VLOOKUP($A25,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],26,FALSE),VLOOKUP($A25,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],26,FALSE),VLOOKUP($A25,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],27,FALSE),VLOOKUP($A25,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],27,FALSE),VLOOKUP($A25,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],28,FALSE),VLOOKUP($A25,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],28,FALSE),VLOOKUP($A25,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],29,FALSE),VLOOKUP($A25,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],29,FALSE),VLOOKUP($A25,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],30,FALSE),VLOOKUP($A25,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],30,FALSE),VLOOKUP($A25,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE25" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],31,FALSE),VLOOKUP($A25,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A25,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],31,FALSE),VLOOKUP($A25,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1310</v>
+      </c>
+      <c r="B26" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],2,FALSE),VLOOKUP($A26,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],2,FALSE),VLOOKUP($A26,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>CORPORACIÓN CORCEBULLANOS</v>
+      </c>
+      <c r="C26" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],3,FALSE),VLOOKUP($A26,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],3,FALSE),VLOOKUP($A26,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Tairona</v>
+      </c>
+      <c r="D26" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],4,FALSE),VLOOKUP($A26,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],4,FALSE),VLOOKUP($A26,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Puerto López</v>
+      </c>
+      <c r="E26" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],5,FALSE),VLOOKUP($A26,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],5,FALSE),VLOOKUP($A26,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Meta</v>
+      </c>
+      <c r="F26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],6,FALSE),VLOOKUP($A26,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],6,FALSE),VLOOKUP($A26,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],7,FALSE),VLOOKUP($A26,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],7,FALSE),VLOOKUP($A26,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],8,FALSE),VLOOKUP($A26,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],8,FALSE),VLOOKUP($A26,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],9,FALSE),VLOOKUP($A26,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],9,FALSE),VLOOKUP($A26,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],10,FALSE),VLOOKUP($A26,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],10,FALSE),VLOOKUP($A26,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],11,FALSE),VLOOKUP($A26,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],11,FALSE),VLOOKUP($A26,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L26" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],12,FALSE),VLOOKUP($A26,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],12,FALSE),VLOOKUP($A26,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M26" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],13,FALSE),VLOOKUP($A26,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],13,FALSE),VLOOKUP($A26,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 33 15 28 ED CA TORO OF 402</v>
+      </c>
+      <c r="N26" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],14,FALSE),VLOOKUP($A26,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],14,FALSE),VLOOKUP($A26,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Villavicencio</v>
+      </c>
+      <c r="O26" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],15,FALSE),VLOOKUP($A26,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],15,FALSE),VLOOKUP($A26,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Meta</v>
+      </c>
+      <c r="P26">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],16,FALSE),VLOOKUP($A26,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],16,FALSE),VLOOKUP($A26,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>6704341</v>
+      </c>
+      <c r="Q26">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],17,FALSE),VLOOKUP($A26,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],17,FALSE),VLOOKUP($A26,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3203435662</v>
+      </c>
+      <c r="R26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],18,FALSE),VLOOKUP($A26,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],18,FALSE),VLOOKUP($A26,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],19,FALSE),VLOOKUP($A26,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],19,FALSE),VLOOKUP($A26,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],20,FALSE),VLOOKUP($A26,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],20,FALSE),VLOOKUP($A26,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],21,FALSE),VLOOKUP($A26,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],21,FALSE),VLOOKUP($A26,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V26" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],22,FALSE),VLOOKUP($A26,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],22,FALSE),VLOOKUP($A26,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>corporacion.corcebullanos@gmail.com</v>
+      </c>
+      <c r="W26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],23,FALSE),VLOOKUP($A26,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],23,FALSE),VLOOKUP($A26,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],24,FALSE),VLOOKUP($A26,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],24,FALSE),VLOOKUP($A26,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],25,FALSE),VLOOKUP($A26,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],25,FALSE),VLOOKUP($A26,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],26,FALSE),VLOOKUP($A26,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],26,FALSE),VLOOKUP($A26,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],27,FALSE),VLOOKUP($A26,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],27,FALSE),VLOOKUP($A26,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],28,FALSE),VLOOKUP($A26,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],28,FALSE),VLOOKUP($A26,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],29,FALSE),VLOOKUP($A26,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],29,FALSE),VLOOKUP($A26,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],30,FALSE),VLOOKUP($A26,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],30,FALSE),VLOOKUP($A26,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE26" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],31,FALSE),VLOOKUP($A26,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A26,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],31,FALSE),VLOOKUP($A26,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1326</v>
+      </c>
+      <c r="B27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],2,FALSE),VLOOKUP($A27,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],2,FALSE),VLOOKUP($A27,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>ROCHA DÍAZ Y CIA S. EN C.</v>
+      </c>
+      <c r="C27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],3,FALSE),VLOOKUP($A27,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],3,FALSE),VLOOKUP($A27,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda La Marina, Vereda La Reforma</v>
+      </c>
+      <c r="D27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],4,FALSE),VLOOKUP($A27,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],4,FALSE),VLOOKUP($A27,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>San Martín</v>
+      </c>
+      <c r="E27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],5,FALSE),VLOOKUP($A27,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],5,FALSE),VLOOKUP($A27,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Meta</v>
+      </c>
+      <c r="F27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],6,FALSE),VLOOKUP($A27,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],6,FALSE),VLOOKUP($A27,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],7,FALSE),VLOOKUP($A27,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],7,FALSE),VLOOKUP($A27,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],8,FALSE),VLOOKUP($A27,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],8,FALSE),VLOOKUP($A27,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],9,FALSE),VLOOKUP($A27,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],9,FALSE),VLOOKUP($A27,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],10,FALSE),VLOOKUP($A27,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],10,FALSE),VLOOKUP($A27,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],11,FALSE),VLOOKUP($A27,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],11,FALSE),VLOOKUP($A27,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],12,FALSE),VLOOKUP($A27,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],12,FALSE),VLOOKUP($A27,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],13,FALSE),VLOOKUP($A27,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],13,FALSE),VLOOKUP($A27,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 44B 57A 76</v>
+      </c>
+      <c r="N27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],14,FALSE),VLOOKUP($A27,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],14,FALSE),VLOOKUP($A27,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Bogotá D.C.</v>
+      </c>
+      <c r="O27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],15,FALSE),VLOOKUP($A27,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],15,FALSE),VLOOKUP($A27,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Cundinamarca</v>
+      </c>
+      <c r="P27">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],16,FALSE),VLOOKUP($A27,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],16,FALSE),VLOOKUP($A27,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3150146</v>
+      </c>
+      <c r="Q27">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],17,FALSE),VLOOKUP($A27,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],17,FALSE),VLOOKUP($A27,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>6222794</v>
+      </c>
+      <c r="R27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],18,FALSE),VLOOKUP($A27,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],18,FALSE),VLOOKUP($A27,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],19,FALSE),VLOOKUP($A27,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],19,FALSE),VLOOKUP($A27,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],20,FALSE),VLOOKUP($A27,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],20,FALSE),VLOOKUP($A27,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],21,FALSE),VLOOKUP($A27,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],21,FALSE),VLOOKUP($A27,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V27" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],22,FALSE),VLOOKUP($A27,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],22,FALSE),VLOOKUP($A27,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>alrodiaz@gmail.com</v>
+      </c>
+      <c r="W27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],23,FALSE),VLOOKUP($A27,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],23,FALSE),VLOOKUP($A27,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],24,FALSE),VLOOKUP($A27,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],24,FALSE),VLOOKUP($A27,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],25,FALSE),VLOOKUP($A27,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],25,FALSE),VLOOKUP($A27,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],26,FALSE),VLOOKUP($A27,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],26,FALSE),VLOOKUP($A27,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],27,FALSE),VLOOKUP($A27,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],27,FALSE),VLOOKUP($A27,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],28,FALSE),VLOOKUP($A27,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],28,FALSE),VLOOKUP($A27,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],29,FALSE),VLOOKUP($A27,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],29,FALSE),VLOOKUP($A27,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],30,FALSE),VLOOKUP($A27,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],30,FALSE),VLOOKUP($A27,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE27" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],31,FALSE),VLOOKUP($A27,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A27,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],31,FALSE),VLOOKUP($A27,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1274</v>
+      </c>
+      <c r="B28" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],2,FALSE),VLOOKUP($A28,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],2,FALSE),VLOOKUP($A28,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>JUAN FELIPE BAYONA MONTOYA</v>
+      </c>
+      <c r="C28" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],3,FALSE),VLOOKUP($A28,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],3,FALSE),VLOOKUP($A28,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Zamarkanda</v>
+      </c>
+      <c r="D28" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],4,FALSE),VLOOKUP($A28,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],4,FALSE),VLOOKUP($A28,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>San Rafael de Rionegro</v>
+      </c>
+      <c r="E28" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],5,FALSE),VLOOKUP($A28,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],5,FALSE),VLOOKUP($A28,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Santander</v>
+      </c>
+      <c r="F28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],6,FALSE),VLOOKUP($A28,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],6,FALSE),VLOOKUP($A28,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],7,FALSE),VLOOKUP($A28,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],7,FALSE),VLOOKUP($A28,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],8,FALSE),VLOOKUP($A28,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],8,FALSE),VLOOKUP($A28,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],9,FALSE),VLOOKUP($A28,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],9,FALSE),VLOOKUP($A28,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],10,FALSE),VLOOKUP($A28,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],10,FALSE),VLOOKUP($A28,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],11,FALSE),VLOOKUP($A28,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],11,FALSE),VLOOKUP($A28,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L28" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],12,FALSE),VLOOKUP($A28,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],12,FALSE),VLOOKUP($A28,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M28" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],13,FALSE),VLOOKUP($A28,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],13,FALSE),VLOOKUP($A28,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>ALDEA CA 7 RUITOQUE</v>
+      </c>
+      <c r="N28" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],14,FALSE),VLOOKUP($A28,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],14,FALSE),VLOOKUP($A28,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Bucaramanga</v>
+      </c>
+      <c r="O28" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],15,FALSE),VLOOKUP($A28,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],15,FALSE),VLOOKUP($A28,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Santander</v>
+      </c>
+      <c r="P28">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],16,FALSE),VLOOKUP($A28,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],16,FALSE),VLOOKUP($A28,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3003003416</v>
+      </c>
+      <c r="Q28">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],17,FALSE),VLOOKUP($A28,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],17,FALSE),VLOOKUP($A28,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3144637774</v>
+      </c>
+      <c r="R28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],18,FALSE),VLOOKUP($A28,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],18,FALSE),VLOOKUP($A28,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],19,FALSE),VLOOKUP($A28,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],19,FALSE),VLOOKUP($A28,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],20,FALSE),VLOOKUP($A28,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],20,FALSE),VLOOKUP($A28,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],21,FALSE),VLOOKUP($A28,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],21,FALSE),VLOOKUP($A28,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V28" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],22,FALSE),VLOOKUP($A28,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],22,FALSE),VLOOKUP($A28,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>luzmontoya24@hotmail.com</v>
+      </c>
+      <c r="W28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],23,FALSE),VLOOKUP($A28,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],23,FALSE),VLOOKUP($A28,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],24,FALSE),VLOOKUP($A28,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],24,FALSE),VLOOKUP($A28,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],25,FALSE),VLOOKUP($A28,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],25,FALSE),VLOOKUP($A28,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],26,FALSE),VLOOKUP($A28,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],26,FALSE),VLOOKUP($A28,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],27,FALSE),VLOOKUP($A28,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],27,FALSE),VLOOKUP($A28,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],28,FALSE),VLOOKUP($A28,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],28,FALSE),VLOOKUP($A28,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],29,FALSE),VLOOKUP($A28,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],29,FALSE),VLOOKUP($A28,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],30,FALSE),VLOOKUP($A28,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],30,FALSE),VLOOKUP($A28,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE28" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],31,FALSE),VLOOKUP($A28,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A28,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],31,FALSE),VLOOKUP($A28,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],2,FALSE),VLOOKUP($A29,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],2,FALSE),VLOOKUP($A29,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>JARAMILLO WILLIAMSON Y CÍA S. EN C.</v>
+      </c>
+      <c r="C29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],3,FALSE),VLOOKUP($A29,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],3,FALSE),VLOOKUP($A29,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Santa Ángela, KM 9 VÍA TOLUVIEJO</v>
+      </c>
+      <c r="D29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],4,FALSE),VLOOKUP($A29,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],4,FALSE),VLOOKUP($A29,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Toluviejo</v>
+      </c>
+      <c r="E29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],5,FALSE),VLOOKUP($A29,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],5,FALSE),VLOOKUP($A29,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Sucre</v>
+      </c>
+      <c r="F29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],6,FALSE),VLOOKUP($A29,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],6,FALSE),VLOOKUP($A29,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],7,FALSE),VLOOKUP($A29,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],7,FALSE),VLOOKUP($A29,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],8,FALSE),VLOOKUP($A29,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],8,FALSE),VLOOKUP($A29,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],9,FALSE),VLOOKUP($A29,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],9,FALSE),VLOOKUP($A29,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],10,FALSE),VLOOKUP($A29,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],10,FALSE),VLOOKUP($A29,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],11,FALSE),VLOOKUP($A29,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],11,FALSE),VLOOKUP($A29,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],12,FALSE),VLOOKUP($A29,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],12,FALSE),VLOOKUP($A29,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman - Guzerá</v>
+      </c>
+      <c r="M29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],13,FALSE),VLOOKUP($A29,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],13,FALSE),VLOOKUP($A29,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 97 22 80 APTO 505</v>
+      </c>
+      <c r="N29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],14,FALSE),VLOOKUP($A29,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],14,FALSE),VLOOKUP($A29,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Bogotá D.C</v>
+      </c>
+      <c r="O29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],15,FALSE),VLOOKUP($A29,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],15,FALSE),VLOOKUP($A29,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Cundinamarca</v>
+      </c>
+      <c r="P29">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],16,FALSE),VLOOKUP($A29,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],16,FALSE),VLOOKUP($A29,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>6555610</v>
+      </c>
+      <c r="Q29">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],17,FALSE),VLOOKUP($A29,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],17,FALSE),VLOOKUP($A29,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>6555611</v>
+      </c>
+      <c r="R29">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],18,FALSE),VLOOKUP($A29,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],18,FALSE),VLOOKUP($A29,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>3107718289</v>
+      </c>
+      <c r="S29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],19,FALSE),VLOOKUP($A29,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],19,FALSE),VLOOKUP($A29,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],20,FALSE),VLOOKUP($A29,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],20,FALSE),VLOOKUP($A29,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],21,FALSE),VLOOKUP($A29,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],21,FALSE),VLOOKUP($A29,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],22,FALSE),VLOOKUP($A29,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],22,FALSE),VLOOKUP($A29,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>fabiojaramilloj@gmail.com</v>
+      </c>
+      <c r="W29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],23,FALSE),VLOOKUP($A29,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],23,FALSE),VLOOKUP($A29,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],24,FALSE),VLOOKUP($A29,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],24,FALSE),VLOOKUP($A29,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],25,FALSE),VLOOKUP($A29,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],25,FALSE),VLOOKUP($A29,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],26,FALSE),VLOOKUP($A29,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],26,FALSE),VLOOKUP($A29,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],27,FALSE),VLOOKUP($A29,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],27,FALSE),VLOOKUP($A29,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],28,FALSE),VLOOKUP($A29,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],28,FALSE),VLOOKUP($A29,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],29,FALSE),VLOOKUP($A29,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],29,FALSE),VLOOKUP($A29,CriadoresDirectorio[],29,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],30,FALSE),VLOOKUP($A29,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],30,FALSE),VLOOKUP($A29,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE29" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],31,FALSE),VLOOKUP($A29,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A29,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],31,FALSE),VLOOKUP($A29,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],2,FALSE),VLOOKUP($A30,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],2,FALSE),VLOOKUP($A30,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>INVERSIONES CAFE GRANADA SAS</v>
+      </c>
+      <c r="C30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],3,FALSE),VLOOKUP($A30,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],3,FALSE),VLOOKUP($A30,CriadoresDirectorio[],3,FALSE)))</f>
+        <v xml:space="preserve">Hda La Ringlera </v>
+      </c>
+      <c r="D30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],4,FALSE),VLOOKUP($A30,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],4,FALSE),VLOOKUP($A30,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Ibagué</v>
+      </c>
+      <c r="E30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],5,FALSE),VLOOKUP($A30,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],5,FALSE),VLOOKUP($A30,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Tolima</v>
+      </c>
+      <c r="F30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],6,FALSE),VLOOKUP($A30,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],6,FALSE),VLOOKUP($A30,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],7,FALSE),VLOOKUP($A30,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],7,FALSE),VLOOKUP($A30,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],8,FALSE),VLOOKUP($A30,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],8,FALSE),VLOOKUP($A30,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],9,FALSE),VLOOKUP($A30,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],9,FALSE),VLOOKUP($A30,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],10,FALSE),VLOOKUP($A30,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],10,FALSE),VLOOKUP($A30,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],11,FALSE),VLOOKUP($A30,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],11,FALSE),VLOOKUP($A30,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],12,FALSE),VLOOKUP($A30,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],12,FALSE),VLOOKUP($A30,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],13,FALSE),VLOOKUP($A30,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],13,FALSE),VLOOKUP($A30,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 12 1 17 PI 2</v>
+      </c>
+      <c r="N30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],14,FALSE),VLOOKUP($A30,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],14,FALSE),VLOOKUP($A30,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Ibagué</v>
+      </c>
+      <c r="O30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],15,FALSE),VLOOKUP($A30,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],15,FALSE),VLOOKUP($A30,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Tolima</v>
+      </c>
+      <c r="P30">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],16,FALSE),VLOOKUP($A30,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],16,FALSE),VLOOKUP($A30,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>2615037</v>
+      </c>
+      <c r="Q30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],17,FALSE),VLOOKUP($A30,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],17,FALSE),VLOOKUP($A30,CriadoresDirectorio[],17,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="R30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],18,FALSE),VLOOKUP($A30,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],18,FALSE),VLOOKUP($A30,CriadoresDirectorio[],18,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="S30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],19,FALSE),VLOOKUP($A30,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],19,FALSE),VLOOKUP($A30,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],20,FALSE),VLOOKUP($A30,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],20,FALSE),VLOOKUP($A30,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],21,FALSE),VLOOKUP($A30,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],21,FALSE),VLOOKUP($A30,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],22,FALSE),VLOOKUP($A30,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],22,FALSE),VLOOKUP($A30,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>elzorro@telecom.com.co</v>
+      </c>
+      <c r="W30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],23,FALSE),VLOOKUP($A30,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],23,FALSE),VLOOKUP($A30,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],24,FALSE),VLOOKUP($A30,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],24,FALSE),VLOOKUP($A30,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],25,FALSE),VLOOKUP($A30,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],25,FALSE),VLOOKUP($A30,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],26,FALSE),VLOOKUP($A30,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],26,FALSE),VLOOKUP($A30,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],27,FALSE),VLOOKUP($A30,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],27,FALSE),VLOOKUP($A30,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],28,FALSE),VLOOKUP($A30,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],28,FALSE),VLOOKUP($A30,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],29,FALSE),VLOOKUP($A30,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],29,FALSE),VLOOKUP($A30,CriadoresDirectorio[],29,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],30,FALSE),VLOOKUP($A30,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],30,FALSE),VLOOKUP($A30,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE30" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],31,FALSE),VLOOKUP($A30,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A30,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],31,FALSE),VLOOKUP($A30,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],2,FALSE),VLOOKUP($A31,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],2,FALSE),VLOOKUP($A31,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>EDUARDO OYUELA ZEA</v>
+      </c>
+      <c r="C31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],3,FALSE),VLOOKUP($A31,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],3,FALSE),VLOOKUP($A31,CriadoresDirectorio[],3,FALSE)))</f>
+        <v xml:space="preserve">Hda Buenos Aires </v>
+      </c>
+      <c r="D31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],4,FALSE),VLOOKUP($A31,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],4,FALSE),VLOOKUP($A31,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Purificación</v>
+      </c>
+      <c r="E31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],5,FALSE),VLOOKUP($A31,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],5,FALSE),VLOOKUP($A31,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Tolima</v>
+      </c>
+      <c r="F31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],6,FALSE),VLOOKUP($A31,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],6,FALSE),VLOOKUP($A31,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],7,FALSE),VLOOKUP($A31,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],7,FALSE),VLOOKUP($A31,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],8,FALSE),VLOOKUP($A31,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],8,FALSE),VLOOKUP($A31,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],9,FALSE),VLOOKUP($A31,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],9,FALSE),VLOOKUP($A31,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],10,FALSE),VLOOKUP($A31,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],10,FALSE),VLOOKUP($A31,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],11,FALSE),VLOOKUP($A31,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],11,FALSE),VLOOKUP($A31,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],12,FALSE),VLOOKUP($A31,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],12,FALSE),VLOOKUP($A31,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],13,FALSE),VLOOKUP($A31,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],13,FALSE),VLOOKUP($A31,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CL 16 68D 79</v>
+      </c>
+      <c r="N31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],14,FALSE),VLOOKUP($A31,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],14,FALSE),VLOOKUP($A31,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Bogotá D.C</v>
+      </c>
+      <c r="O31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],15,FALSE),VLOOKUP($A31,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],15,FALSE),VLOOKUP($A31,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Cundinamarca</v>
+      </c>
+      <c r="P31">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],16,FALSE),VLOOKUP($A31,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],16,FALSE),VLOOKUP($A31,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>2924317</v>
+      </c>
+      <c r="Q31">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],17,FALSE),VLOOKUP($A31,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],17,FALSE),VLOOKUP($A31,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>2922272</v>
+      </c>
+      <c r="R31">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],18,FALSE),VLOOKUP($A31,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],18,FALSE),VLOOKUP($A31,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>2926660</v>
+      </c>
+      <c r="S31">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],19,FALSE),VLOOKUP($A31,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],19,FALSE),VLOOKUP($A31,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>3108163543</v>
+      </c>
+      <c r="T31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],20,FALSE),VLOOKUP($A31,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],20,FALSE),VLOOKUP($A31,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],21,FALSE),VLOOKUP($A31,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],21,FALSE),VLOOKUP($A31,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],22,FALSE),VLOOKUP($A31,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],22,FALSE),VLOOKUP($A31,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>info@eozbuenosaires.com</v>
+      </c>
+      <c r="W31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],23,FALSE),VLOOKUP($A31,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],23,FALSE),VLOOKUP($A31,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],24,FALSE),VLOOKUP($A31,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],24,FALSE),VLOOKUP($A31,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],25,FALSE),VLOOKUP($A31,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],25,FALSE),VLOOKUP($A31,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],26,FALSE),VLOOKUP($A31,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],26,FALSE),VLOOKUP($A31,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],27,FALSE),VLOOKUP($A31,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],27,FALSE),VLOOKUP($A31,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],28,FALSE),VLOOKUP($A31,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],28,FALSE),VLOOKUP($A31,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],29,FALSE),VLOOKUP($A31,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],29,FALSE),VLOOKUP($A31,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>http://www.eozbuenosaires.com</v>
+      </c>
+      <c r="AD31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],30,FALSE),VLOOKUP($A31,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],30,FALSE),VLOOKUP($A31,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE31" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],31,FALSE),VLOOKUP($A31,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A31,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],31,FALSE),VLOOKUP($A31,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],2,FALSE),VLOOKUP($A32,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],2,FALSE),VLOOKUP($A32,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>JAIME ESCOBAR VALLEJO</v>
+      </c>
+      <c r="C32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],3,FALSE),VLOOKUP($A32,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],3,FALSE),VLOOKUP($A32,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>Hda Ucrania</v>
+      </c>
+      <c r="D32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],4,FALSE),VLOOKUP($A32,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],4,FALSE),VLOOKUP($A32,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>Obando</v>
+      </c>
+      <c r="E32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],5,FALSE),VLOOKUP($A32,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],5,FALSE),VLOOKUP($A32,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>Valle del Cauca</v>
+      </c>
+      <c r="F32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],6,FALSE),VLOOKUP($A32,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],6,FALSE),VLOOKUP($A32,CriadoresDirectorio[],6,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],7,FALSE),VLOOKUP($A32,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],7,FALSE),VLOOKUP($A32,CriadoresDirectorio[],7,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],8,FALSE),VLOOKUP($A32,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],8,FALSE),VLOOKUP($A32,CriadoresDirectorio[],8,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],9,FALSE),VLOOKUP($A32,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],9,FALSE),VLOOKUP($A32,CriadoresDirectorio[],9,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],10,FALSE),VLOOKUP($A32,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],10,FALSE),VLOOKUP($A32,CriadoresDirectorio[],10,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],11,FALSE),VLOOKUP($A32,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],11,FALSE),VLOOKUP($A32,CriadoresDirectorio[],11,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="L32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],12,FALSE),VLOOKUP($A32,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],12,FALSE),VLOOKUP($A32,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],13,FALSE),VLOOKUP($A32,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],13,FALSE),VLOOKUP($A32,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>CR 7 43 224 OF 303 ED CODEGAR</v>
+      </c>
+      <c r="N32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],14,FALSE),VLOOKUP($A32,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],14,FALSE),VLOOKUP($A32,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>Pereira</v>
+      </c>
+      <c r="O32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],15,FALSE),VLOOKUP($A32,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],15,FALSE),VLOOKUP($A32,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>Risaralda</v>
+      </c>
+      <c r="P32">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],16,FALSE),VLOOKUP($A32,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],16,FALSE),VLOOKUP($A32,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>3260591</v>
+      </c>
+      <c r="Q32">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],17,FALSE),VLOOKUP($A32,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],17,FALSE),VLOOKUP($A32,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>3260592</v>
+      </c>
+      <c r="R32">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],18,FALSE),VLOOKUP($A32,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],18,FALSE),VLOOKUP($A32,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>3104558407</v>
+      </c>
+      <c r="S32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],19,FALSE),VLOOKUP($A32,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],19,FALSE),VLOOKUP($A32,CriadoresDirectorio[],19,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="T32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],20,FALSE),VLOOKUP($A32,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],20,FALSE),VLOOKUP($A32,CriadoresDirectorio[],20,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="U32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],21,FALSE),VLOOKUP($A32,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],21,FALSE),VLOOKUP($A32,CriadoresDirectorio[],21,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="V32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],22,FALSE),VLOOKUP($A32,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],22,FALSE),VLOOKUP($A32,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>ucranialaslomas@gmail.com</v>
+      </c>
+      <c r="W32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],23,FALSE),VLOOKUP($A32,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],23,FALSE),VLOOKUP($A32,CriadoresDirectorio[],23,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="X32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],24,FALSE),VLOOKUP($A32,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],24,FALSE),VLOOKUP($A32,CriadoresDirectorio[],24,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Y32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],25,FALSE),VLOOKUP($A32,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],25,FALSE),VLOOKUP($A32,CriadoresDirectorio[],25,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="Z32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],26,FALSE),VLOOKUP($A32,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],26,FALSE),VLOOKUP($A32,CriadoresDirectorio[],26,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AA32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],27,FALSE),VLOOKUP($A32,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],27,FALSE),VLOOKUP($A32,CriadoresDirectorio[],27,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AB32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],28,FALSE),VLOOKUP($A32,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],28,FALSE),VLOOKUP($A32,CriadoresDirectorio[],28,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AC32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],29,FALSE),VLOOKUP($A32,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],29,FALSE),VLOOKUP($A32,CriadoresDirectorio[],29,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AD32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],30,FALSE),VLOOKUP($A32,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],30,FALSE),VLOOKUP($A32,CriadoresDirectorio[],30,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="AE32" t="str">
+        <f>+IF(IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],31,FALSE),VLOOKUP($A32,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A32,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],31,FALSE),VLOOKUP($A32,CriadoresDirectorio[],31,FALSE)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],2,FALSE),VLOOKUP($A33,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],2,FALSE),VLOOKUP($A33,CriadoresDirectorio[],2,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],3,FALSE),VLOOKUP($A33,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],3,FALSE),VLOOKUP($A33,CriadoresDirectorio[],3,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],4,FALSE),VLOOKUP($A33,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],4,FALSE),VLOOKUP($A33,CriadoresDirectorio[],4,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],5,FALSE),VLOOKUP($A33,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],5,FALSE),VLOOKUP($A33,CriadoresDirectorio[],5,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],6,FALSE),VLOOKUP($A33,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],6,FALSE),VLOOKUP($A33,CriadoresDirectorio[],6,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],7,FALSE),VLOOKUP($A33,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],7,FALSE),VLOOKUP($A33,CriadoresDirectorio[],7,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],8,FALSE),VLOOKUP($A33,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],8,FALSE),VLOOKUP($A33,CriadoresDirectorio[],8,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],9,FALSE),VLOOKUP($A33,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],9,FALSE),VLOOKUP($A33,CriadoresDirectorio[],9,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],10,FALSE),VLOOKUP($A33,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],10,FALSE),VLOOKUP($A33,CriadoresDirectorio[],10,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],11,FALSE),VLOOKUP($A33,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],11,FALSE),VLOOKUP($A33,CriadoresDirectorio[],11,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],12,FALSE),VLOOKUP($A33,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],12,FALSE),VLOOKUP($A33,CriadoresDirectorio[],12,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],13,FALSE),VLOOKUP($A33,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],13,FALSE),VLOOKUP($A33,CriadoresDirectorio[],13,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],14,FALSE),VLOOKUP($A33,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],14,FALSE),VLOOKUP($A33,CriadoresDirectorio[],14,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],15,FALSE),VLOOKUP($A33,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],15,FALSE),VLOOKUP($A33,CriadoresDirectorio[],15,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],16,FALSE),VLOOKUP($A33,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],16,FALSE),VLOOKUP($A33,CriadoresDirectorio[],16,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],17,FALSE),VLOOKUP($A33,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],17,FALSE),VLOOKUP($A33,CriadoresDirectorio[],17,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],18,FALSE),VLOOKUP($A33,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],18,FALSE),VLOOKUP($A33,CriadoresDirectorio[],18,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],19,FALSE),VLOOKUP($A33,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],19,FALSE),VLOOKUP($A33,CriadoresDirectorio[],19,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],20,FALSE),VLOOKUP($A33,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],20,FALSE),VLOOKUP($A33,CriadoresDirectorio[],20,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],21,FALSE),VLOOKUP($A33,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],21,FALSE),VLOOKUP($A33,CriadoresDirectorio[],21,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],22,FALSE),VLOOKUP($A33,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],22,FALSE),VLOOKUP($A33,CriadoresDirectorio[],22,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],23,FALSE),VLOOKUP($A33,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],23,FALSE),VLOOKUP($A33,CriadoresDirectorio[],23,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],24,FALSE),VLOOKUP($A33,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],24,FALSE),VLOOKUP($A33,CriadoresDirectorio[],24,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],25,FALSE),VLOOKUP($A33,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],25,FALSE),VLOOKUP($A33,CriadoresDirectorio[],25,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],26,FALSE),VLOOKUP($A33,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],26,FALSE),VLOOKUP($A33,CriadoresDirectorio[],26,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],27,FALSE),VLOOKUP($A33,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],27,FALSE),VLOOKUP($A33,CriadoresDirectorio[],27,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],28,FALSE),VLOOKUP($A33,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],28,FALSE),VLOOKUP($A33,CriadoresDirectorio[],28,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],29,FALSE),VLOOKUP($A33,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],29,FALSE),VLOOKUP($A33,CriadoresDirectorio[],29,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],30,FALSE),VLOOKUP($A33,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],30,FALSE),VLOOKUP($A33,CriadoresDirectorio[],30,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE33" t="e">
+        <f>+IF(IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],31,FALSE),VLOOKUP($A33,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A33,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],31,FALSE),VLOOKUP($A33,CriadoresDirectorio[],31,FALSE)))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE33">
+    <sortCondition ref="E3:E33"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:B1">
+    <cfRule type="duplicateValues" dxfId="8" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1 I1">
+    <cfRule type="duplicateValues" dxfId="7" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:A1048576 A1">
+    <cfRule type="duplicateValues" dxfId="6" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A33">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829BF541-7F92-411C-A9D2-B17FDFD0A9F3}">
   <dimension ref="B2:L65"/>
@@ -43929,93 +43619,90 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="12" width="11.42578125" style="2"/>
-  </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="18" t="s">
         <v>3566</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="19" t="s">
         <v>3560</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="17" t="s">
         <v>3561</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="16" t="s">
         <v>3562</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="3"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="16" t="s">
         <v>3563</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="3"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
@@ -44030,7 +43717,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
@@ -44043,7 +43730,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="4"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
@@ -44056,7 +43743,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="4"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
@@ -44231,18 +43918,18 @@
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="16" t="s">
         <v>3568</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -44349,188 +44036,188 @@
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="7" t="s">
         <v>3575</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="16"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
     </row>
     <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="16"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="12"/>
     </row>
     <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="16"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="12"/>
     </row>
     <row r="38" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="16"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="12"/>
     </row>
     <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="19"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="15"/>
     </row>
     <row r="40" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="6" t="s">
         <v>3573</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
@@ -44667,18 +44354,18 @@
       <c r="K59" s="5"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="16" t="s">
         <v>3576</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
@@ -44744,11 +44431,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B61:K65"/>
-    <mergeCell ref="B40:K48"/>
-    <mergeCell ref="B49:K59"/>
-    <mergeCell ref="B34:K39"/>
-    <mergeCell ref="B60:K60"/>
+    <mergeCell ref="B8:K11"/>
+    <mergeCell ref="B4:K5"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
     <mergeCell ref="B13:K24"/>
     <mergeCell ref="B30:K31"/>
     <mergeCell ref="B32:K33"/>
@@ -44756,12 +44444,11 @@
     <mergeCell ref="B26:K27"/>
     <mergeCell ref="B28:K29"/>
     <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B4:K5"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K11"/>
+    <mergeCell ref="B61:K65"/>
+    <mergeCell ref="B40:K48"/>
+    <mergeCell ref="B49:K59"/>
+    <mergeCell ref="B34:K39"/>
+    <mergeCell ref="B60:K60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/assets/directorioCriadores.xlsx
+++ b/src/assets/directorioCriadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desarrollador.sena\Desktop\criadoresDirectorio\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0B27EF-3A3C-4B77-BEB3-BDE0EA6FB9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE3E7A5-260D-43BF-9C44-76CF3C0A6205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3B29B677-D6F4-4426-A511-B8471B1BDDDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{3B29B677-D6F4-4426-A511-B8471B1BDDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="directorioCriadores" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7055" uniqueCount="3580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7074" uniqueCount="3607">
   <si>
     <t>nombre</t>
   </si>
@@ -11367,14 +11367,95 @@
     <t>https://asocebu.com/</t>
   </si>
   <si>
-    <t>0710</t>
+    <t>1693</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1718</t>
+  </si>
+  <si>
+    <t>1719</t>
+  </si>
+  <si>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>1723</t>
+  </si>
+  <si>
+    <t>1725</t>
+  </si>
+  <si>
+    <t>1726</t>
+  </si>
+  <si>
+    <t>1729</t>
+  </si>
+  <si>
+    <t>1730</t>
+  </si>
+  <si>
+    <t>1735</t>
+  </si>
+  <si>
+    <t>1737</t>
+  </si>
+  <si>
+    <t>1742</t>
+  </si>
+  <si>
+    <t>1743</t>
+  </si>
+  <si>
+    <t>1750</t>
+  </si>
+  <si>
+    <t>1760</t>
+  </si>
+  <si>
+    <t>1764</t>
+  </si>
+  <si>
+    <t>1765</t>
+  </si>
+  <si>
+    <t>1766</t>
+  </si>
+  <si>
+    <t>1770</t>
+  </si>
+  <si>
+    <t>1772</t>
+  </si>
+  <si>
+    <t>1782</t>
+  </si>
+  <si>
+    <t>1789</t>
+  </si>
+  <si>
+    <t>1791</t>
+  </si>
+  <si>
+    <t>1792</t>
+  </si>
+  <si>
+    <t>1793</t>
+  </si>
+  <si>
+    <t>hcienda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11411,6 +11492,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -11541,7 +11628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11596,6 +11683,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -11603,7 +11693,244 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -12333,42 +12660,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5252D83D-BD3C-4626-8BC2-F4B0611462FA}" name="CriadoresDirectorio" displayName="CriadoresDirectorio" ref="A1:AE1048576" totalsRowShown="0" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5252D83D-BD3C-4626-8BC2-F4B0611462FA}" name="CriadoresDirectorio" displayName="CriadoresDirectorio" ref="A1:AE1048576" totalsRowShown="0" dataDxfId="66">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE117">
     <sortCondition ref="E11:E117"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="15" xr3:uid="{F96F9974-CDB4-44A4-B80E-AE2A858BD1AE}" name="codigoAsociado" dataDxfId="41"/>
-    <tableColumn id="21" xr3:uid="{F3EACF8C-83F6-4A9C-8D04-2E442F207A14}" name="nombre" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{ADF3C9A6-146F-4FC1-92AB-44D1F4641E2E}" name="hacienda1" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{0D454202-FF97-4322-BB04-A1A71074369B}" name="municipio1" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{D389E674-1653-4567-8A80-17EAB436B574}" name="departamento1" dataDxfId="37"/>
-    <tableColumn id="25" xr3:uid="{43B833F8-3AB5-450A-811E-2D2C745E2F13}" name="hacienda2" dataDxfId="36"/>
-    <tableColumn id="26" xr3:uid="{9E544313-2352-40F0-876C-393E8EEB48B5}" name="municipio2" dataDxfId="35"/>
-    <tableColumn id="27" xr3:uid="{8F5D3A26-8292-4927-8F8B-75D2CFFA01A0}" name="departamento2" dataDxfId="34"/>
-    <tableColumn id="33" xr3:uid="{8077A439-7E95-4907-9F18-A02F3DB96858}" name="hacienda3" dataDxfId="33"/>
-    <tableColumn id="32" xr3:uid="{95EECC2F-F8D1-40A1-822B-F15B12ABB504}" name="municipio3" dataDxfId="32"/>
-    <tableColumn id="31" xr3:uid="{073E17F4-7984-4E05-AE77-C71D14221253}" name="departamento3" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{8ADC5423-029F-453F-8E16-28D2445ADB96}" name="tipoGanado" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{90180301-62FC-4CDA-9B86-AA7BF9587C4B}" name="direccion" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{EAE403A3-6435-48BA-8F7A-4B358BBD3DA5}" name="ciudadDireccion" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{873D505D-5F4D-4167-BD5D-EC47682E3D3F}" name="departamentoDireccion" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{0C613AA6-2376-48D1-9D4F-1235D644BCD1}" name="telefono1" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{7826D8C1-5EE2-40B6-82DD-1218DD19C1EE}" name="telefono2" dataDxfId="25"/>
-    <tableColumn id="23" xr3:uid="{EFA7E4D3-DB48-485A-98F8-BD0DAB578242}" name="telefono3" dataDxfId="24"/>
-    <tableColumn id="22" xr3:uid="{A021A841-C778-4C90-8455-DAA5D3FDF5C9}" name="telefono4" dataDxfId="23"/>
-    <tableColumn id="24" xr3:uid="{3C1526FC-2F4C-4DB4-9C92-ABB7C122AFE8}" name="telefono5" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{9BE9F84D-7155-4F1E-8FB5-6FE20E08E66E}" name="telefono6" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{3D3BB81B-DF24-495A-95D2-D406C98BF51A}" name="email1" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{C2687D8C-BC6F-4F22-8E19-E46EAA9B1323}" name="email2" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{A45BFB4B-EB7C-4173-8F9A-75BD4540D529}" name="instagram" dataDxfId="18"/>
-    <tableColumn id="18" xr3:uid="{7A237364-E5B9-4376-B585-5B94988E4225}" name="facebook" dataDxfId="17"/>
-    <tableColumn id="35" xr3:uid="{6ED1F4C3-EC61-4BDF-9158-820777160356}" name="whatsapp1" dataDxfId="16"/>
-    <tableColumn id="36" xr3:uid="{245A3F17-A407-4444-AE84-20D31BC05FEB}" name="whatsapp2" dataDxfId="15"/>
-    <tableColumn id="19" xr3:uid="{4BE0A106-284D-4F49-BE6B-0319CF96BA3D}" name="tiktok" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{5E7B1910-DC0C-44B7-BC23-8755FE6F614A}" name="sitioWeb" dataDxfId="13"/>
-    <tableColumn id="17" xr3:uid="{3B2A4737-B88F-4CBE-9B54-3893A37C5BAE}" name="representanteLegal" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{AB03E730-96A6-4E6E-AFB7-ADECC9589146}" name="campoAdicional1" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{F96F9974-CDB4-44A4-B80E-AE2A858BD1AE}" name="codigoAsociado" dataDxfId="65"/>
+    <tableColumn id="21" xr3:uid="{F3EACF8C-83F6-4A9C-8D04-2E442F207A14}" name="nombre" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{ADF3C9A6-146F-4FC1-92AB-44D1F4641E2E}" name="hacienda1" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{0D454202-FF97-4322-BB04-A1A71074369B}" name="municipio1" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{D389E674-1653-4567-8A80-17EAB436B574}" name="departamento1" dataDxfId="61"/>
+    <tableColumn id="25" xr3:uid="{43B833F8-3AB5-450A-811E-2D2C745E2F13}" name="hacienda2" dataDxfId="60"/>
+    <tableColumn id="26" xr3:uid="{9E544313-2352-40F0-876C-393E8EEB48B5}" name="municipio2" dataDxfId="59"/>
+    <tableColumn id="27" xr3:uid="{8F5D3A26-8292-4927-8F8B-75D2CFFA01A0}" name="departamento2" dataDxfId="58"/>
+    <tableColumn id="33" xr3:uid="{8077A439-7E95-4907-9F18-A02F3DB96858}" name="hacienda3" dataDxfId="57"/>
+    <tableColumn id="32" xr3:uid="{95EECC2F-F8D1-40A1-822B-F15B12ABB504}" name="municipio3" dataDxfId="56"/>
+    <tableColumn id="31" xr3:uid="{073E17F4-7984-4E05-AE77-C71D14221253}" name="departamento3" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{8ADC5423-029F-453F-8E16-28D2445ADB96}" name="tipoGanado" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{90180301-62FC-4CDA-9B86-AA7BF9587C4B}" name="direccion" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{EAE403A3-6435-48BA-8F7A-4B358BBD3DA5}" name="ciudadDireccion" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{873D505D-5F4D-4167-BD5D-EC47682E3D3F}" name="departamentoDireccion" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{0C613AA6-2376-48D1-9D4F-1235D644BCD1}" name="telefono1" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{7826D8C1-5EE2-40B6-82DD-1218DD19C1EE}" name="telefono2" dataDxfId="49"/>
+    <tableColumn id="23" xr3:uid="{EFA7E4D3-DB48-485A-98F8-BD0DAB578242}" name="telefono3" dataDxfId="48"/>
+    <tableColumn id="22" xr3:uid="{A021A841-C778-4C90-8455-DAA5D3FDF5C9}" name="telefono4" dataDxfId="47"/>
+    <tableColumn id="24" xr3:uid="{3C1526FC-2F4C-4DB4-9C92-ABB7C122AFE8}" name="telefono5" dataDxfId="46"/>
+    <tableColumn id="16" xr3:uid="{9BE9F84D-7155-4F1E-8FB5-6FE20E08E66E}" name="telefono6" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{3D3BB81B-DF24-495A-95D2-D406C98BF51A}" name="email1" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{C2687D8C-BC6F-4F22-8E19-E46EAA9B1323}" name="email2" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{A45BFB4B-EB7C-4173-8F9A-75BD4540D529}" name="instagram" dataDxfId="42"/>
+    <tableColumn id="18" xr3:uid="{7A237364-E5B9-4376-B585-5B94988E4225}" name="facebook" dataDxfId="41"/>
+    <tableColumn id="35" xr3:uid="{6ED1F4C3-EC61-4BDF-9158-820777160356}" name="whatsapp1" dataDxfId="40"/>
+    <tableColumn id="36" xr3:uid="{245A3F17-A407-4444-AE84-20D31BC05FEB}" name="whatsapp2" dataDxfId="39"/>
+    <tableColumn id="19" xr3:uid="{4BE0A106-284D-4F49-BE6B-0319CF96BA3D}" name="tiktok" dataDxfId="38"/>
+    <tableColumn id="14" xr3:uid="{5E7B1910-DC0C-44B7-BC23-8755FE6F614A}" name="sitioWeb" dataDxfId="37"/>
+    <tableColumn id="17" xr3:uid="{3B2A4737-B88F-4CBE-9B54-3893A37C5BAE}" name="representanteLegal" dataDxfId="36"/>
+    <tableColumn id="20" xr3:uid="{AB03E730-96A6-4E6E-AFB7-ADECC9589146}" name="campoAdicional1" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12672,11 +12999,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C462D474-A381-4DC7-9B2B-5BF495173D4B}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AE668"/>
+  <dimension ref="A1:AE669"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A436" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P469" sqref="P469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39019,7 +39346,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="657" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>1989</v>
       </c>
@@ -39051,7 +39378,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="658" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>1850</v>
       </c>
@@ -39086,7 +39413,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="659" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>2980</v>
       </c>
@@ -39124,7 +39451,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="660" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>2703</v>
       </c>
@@ -39159,7 +39486,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="661" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>1621</v>
       </c>
@@ -39203,7 +39530,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="662" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>2719</v>
       </c>
@@ -39244,7 +39571,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="663" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>2404</v>
       </c>
@@ -39282,7 +39609,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="664" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>2937</v>
       </c>
@@ -39317,7 +39644,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="665" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>2843</v>
       </c>
@@ -39349,7 +39676,7 @@
         <v>3173653165</v>
       </c>
     </row>
-    <row r="666" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>1951</v>
       </c>
@@ -39390,7 +39717,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="667" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>2517</v>
       </c>
@@ -39425,7 +39752,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="668" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>1934</v>
       </c>
@@ -39455,6 +39782,101 @@
       </c>
       <c r="P668">
         <v>3123215251</v>
+      </c>
+    </row>
+    <row r="669" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>3019</v>
+      </c>
+      <c r="B669" t="s">
+        <v>0</v>
+      </c>
+      <c r="C669" t="s">
+        <v>3606</v>
+      </c>
+      <c r="D669">
+        <v>1</v>
+      </c>
+      <c r="E669">
+        <v>2</v>
+      </c>
+      <c r="F669">
+        <v>3</v>
+      </c>
+      <c r="G669">
+        <v>4</v>
+      </c>
+      <c r="H669">
+        <v>5</v>
+      </c>
+      <c r="I669">
+        <v>6</v>
+      </c>
+      <c r="J669">
+        <v>7</v>
+      </c>
+      <c r="K669">
+        <v>8</v>
+      </c>
+      <c r="L669">
+        <v>9</v>
+      </c>
+      <c r="M669">
+        <v>0</v>
+      </c>
+      <c r="N669">
+        <v>1</v>
+      </c>
+      <c r="O669">
+        <v>2</v>
+      </c>
+      <c r="P669">
+        <v>3</v>
+      </c>
+      <c r="Q669">
+        <v>4</v>
+      </c>
+      <c r="R669">
+        <v>5</v>
+      </c>
+      <c r="S669">
+        <v>6</v>
+      </c>
+      <c r="T669">
+        <v>8</v>
+      </c>
+      <c r="U669">
+        <v>7</v>
+      </c>
+      <c r="V669">
+        <v>9</v>
+      </c>
+      <c r="W669">
+        <v>1</v>
+      </c>
+      <c r="X669">
+        <v>1</v>
+      </c>
+      <c r="Y669">
+        <v>1</v>
+      </c>
+      <c r="Z669">
+        <v>1</v>
+      </c>
+      <c r="AA669">
+        <v>1</v>
+      </c>
+      <c r="AB669">
+        <v>1</v>
+      </c>
+      <c r="AC669">
+        <v>1</v>
+      </c>
+      <c r="AD669">
+        <v>1</v>
+      </c>
+      <c r="AE669">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -39463,10 +39885,10 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576 I1:I1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="AC22" r:id="rId1" xr:uid="{672659EE-996E-46A9-8B6D-102762B62881}"/>
@@ -39481,22 +39903,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C2F353-C0BD-4DEE-8215-C3B43D148F9B}">
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:AE4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:AE36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="22" customWidth="1"/>
     <col min="2" max="31" width="11.42578125" customWidth="1"/>
     <col min="32" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -39591,4002 +40013,4377 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>278</v>
+      <c r="A2" s="20" t="s">
+        <v>3579</v>
       </c>
       <c r="B2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],2,FALSE),VLOOKUP($A2,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],2,FALSE),VLOOKUP($A2,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>LUIS SAMUEL MARTÍNEZ E HIJOS</v>
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>LLANOVILLA SAS</v>
       </c>
       <c r="C2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],3,FALSE),VLOOKUP($A2,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],3,FALSE),VLOOKUP($A2,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hdas. El Caney</v>
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda La Primavera, Vereda Caños Negros</v>
       </c>
       <c r="D2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],4,FALSE),VLOOKUP($A2,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],4,FALSE),VLOOKUP($A2,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Santa Fé de Antioquia</v>
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Villavicencio</v>
       </c>
       <c r="E2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],5,FALSE),VLOOKUP($A2,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],5,FALSE),VLOOKUP($A2,CriadoresDirectorio[],5,FALSE)))</f>
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Meta</v>
+      </c>
+      <c r="F2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L2" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P2">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>3204903216</v>
+      </c>
+      <c r="Q2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V2" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>lavilla@lavilla.net.co</v>
+      </c>
+      <c r="W2" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>contacto@lavilla.net.co</v>
+      </c>
+      <c r="X2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE2" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A2)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>LUIS CARLOS CL RESTREPO</v>
+      </c>
+      <c r="C3" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda El Manzanillo</v>
+      </c>
+      <c r="D3" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Caucasia</v>
+      </c>
+      <c r="E3" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
         <v>Antioquia</v>
       </c>
-      <c r="F2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],6,FALSE),VLOOKUP($A2,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],6,FALSE),VLOOKUP($A2,CriadoresDirectorio[],6,FALSE)))</f>
+      <c r="F3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M3" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>DG 1 26 60</v>
+      </c>
+      <c r="N3" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Caucasia</v>
+      </c>
+      <c r="O3" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>8398300</v>
+      </c>
+      <c r="Q3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>8394233</v>
+      </c>
+      <c r="R3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>3137675530</v>
+      </c>
+      <c r="S3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="V3" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>molinoelleon@hotmail.com</v>
+      </c>
+      <c r="W3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A3)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B4" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>CRIADERO ESCORPIÓN LTDA.</v>
+      </c>
+      <c r="C4" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda Criadero Escorpión</v>
+      </c>
+      <c r="D4" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Villavicencio</v>
+      </c>
+      <c r="E4" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Meta</v>
+      </c>
+      <c r="F4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L4" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M4" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CR 32 38 70 OF 901 ED ROMARCO</v>
+      </c>
+      <c r="N4" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Villavicencio</v>
+      </c>
+      <c r="O4" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Meta</v>
+      </c>
+      <c r="P4">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>6715277</v>
+      </c>
+      <c r="Q4">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>6703747</v>
+      </c>
+      <c r="R4">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>3104802381</v>
+      </c>
+      <c r="S4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V4" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>criaderoescorpion@hotmail.com</v>
+      </c>
+      <c r="W4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE4" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A4)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B5" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>HUGO PUENTES PATIÑO</v>
+      </c>
+      <c r="C5" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda El Diamante</v>
+      </c>
+      <c r="D5" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Arjona</v>
+      </c>
+      <c r="E5" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Bolívar</v>
+      </c>
+      <c r="F5" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>Las Vegas</v>
+      </c>
+      <c r="G5" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>Yondó</v>
+      </c>
+      <c r="H5" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="I5" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K5" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L5" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M5" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CL 6 8 48 APTO 1201 ED SAN SEBASTÍAN CG</v>
+      </c>
+      <c r="N5" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Cartagena</v>
+      </c>
+      <c r="O5" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Bolívar</v>
+      </c>
+      <c r="P5">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>6685483</v>
+      </c>
+      <c r="Q5">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>6685865</v>
+      </c>
+      <c r="R5">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>3103621065</v>
+      </c>
+      <c r="S5" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T5" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U5" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V5" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>gerencia@codis.com.co</v>
+      </c>
+      <c r="W5" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X5" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y5" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z5" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA5" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB5" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC5" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD5" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE5" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A5)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B6" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>FERNANDO ACEVEDO LEÓN</v>
+      </c>
+      <c r="C6" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda El Litoral</v>
+      </c>
+      <c r="D6" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>La Paz</v>
+      </c>
+      <c r="E6" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Cesar</v>
+      </c>
+      <c r="F6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L6" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M6" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CL 15A 8 10 ED SANTO DOMINGO</v>
+      </c>
+      <c r="N6" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Valledupar</v>
+      </c>
+      <c r="O6" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Cesar</v>
+      </c>
+      <c r="P6">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>5712070</v>
+      </c>
+      <c r="Q6">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>5710891</v>
+      </c>
+      <c r="R6">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>3157534817</v>
+      </c>
+      <c r="S6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V6" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>administrativo@grupolitoral.com.co</v>
+      </c>
+      <c r="W6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE6" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A6)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B7" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>LUIS ALBERTO GONZALEZ CHAUX</v>
+      </c>
+      <c r="C7" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hdas. San Joaquín La Guandinosa, Gigante y La Pradera</v>
+      </c>
+      <c r="D7" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Timaná</v>
+      </c>
+      <c r="E7" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Huila</v>
+      </c>
+      <c r="F7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L7" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M7" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CR 7 # 11 0F 60 KM 15 VÍA NEIVA - FORTALECILLAS</v>
+      </c>
+      <c r="N7" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Neiva</v>
+      </c>
+      <c r="O7" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Huila</v>
+      </c>
+      <c r="P7">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>3102189274</v>
+      </c>
+      <c r="Q7">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>310288116</v>
+      </c>
+      <c r="R7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V7" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>mspcolago@yahoo.com</v>
+      </c>
+      <c r="W7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE7" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A7)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B8" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>JOSÉ ÁLVARO MURCIA BERMEO</v>
+      </c>
+      <c r="C8" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda La Florida</v>
+      </c>
+      <c r="D8" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Puerto López</v>
+      </c>
+      <c r="E8" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Meta</v>
+      </c>
+      <c r="F8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L8" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M8" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>AV 40 26C 79</v>
+      </c>
+      <c r="N8" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Villavicencio</v>
+      </c>
+      <c r="O8" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Meta</v>
+      </c>
+      <c r="P8">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>6684281</v>
+      </c>
+      <c r="Q8">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>3152534892</v>
+      </c>
+      <c r="R8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V8" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>alvarom10@hotmail.es</v>
+      </c>
+      <c r="W8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE8" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A8)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>865</v>
+      </c>
+      <c r="B9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>FRANCISCO LUIS ZULUAGA DUQUE</v>
+      </c>
+      <c r="C9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda La Ponderosa</v>
+      </c>
+      <c r="D9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Filadelfia</v>
+      </c>
+      <c r="E9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Caldas</v>
+      </c>
+      <c r="F9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
         <v/>
       </c>
-      <c r="G2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],7,FALSE),VLOOKUP($A2,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],7,FALSE),VLOOKUP($A2,CriadoresDirectorio[],7,FALSE)))</f>
+      <c r="G9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
         <v/>
       </c>
-      <c r="H2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],8,FALSE),VLOOKUP($A2,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],8,FALSE),VLOOKUP($A2,CriadoresDirectorio[],8,FALSE)))</f>
+      <c r="H9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
         <v/>
       </c>
-      <c r="I2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],9,FALSE),VLOOKUP($A2,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],9,FALSE),VLOOKUP($A2,CriadoresDirectorio[],9,FALSE)))</f>
+      <c r="I9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
         <v/>
       </c>
-      <c r="J2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],10,FALSE),VLOOKUP($A2,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],10,FALSE),VLOOKUP($A2,CriadoresDirectorio[],10,FALSE)))</f>
+      <c r="J9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
         <v/>
       </c>
-      <c r="K2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],11,FALSE),VLOOKUP($A2,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],11,FALSE),VLOOKUP($A2,CriadoresDirectorio[],11,FALSE)))</f>
+      <c r="K9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
         <v/>
       </c>
-      <c r="L2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],12,FALSE),VLOOKUP($A2,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],12,FALSE),VLOOKUP($A2,CriadoresDirectorio[],12,FALSE)))</f>
+      <c r="L9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
         <v>Ganado Puro, Brahman</v>
       </c>
-      <c r="M2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],13,FALSE),VLOOKUP($A2,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],13,FALSE),VLOOKUP($A2,CriadoresDirectorio[],13,FALSE)))</f>
-        <v xml:space="preserve">CR 43A 9 SUR 91 TO SUR OF 907 </v>
-      </c>
-      <c r="N2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],14,FALSE),VLOOKUP($A2,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],14,FALSE),VLOOKUP($A2,CriadoresDirectorio[],14,FALSE)))</f>
+      <c r="M9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CL 24 21 30 APTO 301 ED BCH</v>
+      </c>
+      <c r="N9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Manizales</v>
+      </c>
+      <c r="O9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Caldas</v>
+      </c>
+      <c r="P9">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>8901113</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>313-7476754</v>
+      </c>
+      <c r="R9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="V9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>tgrancaldas@hotmail.com</v>
+      </c>
+      <c r="W9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AA9">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A9)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B10" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>ANDRÉS IGNACIO CHÁVEZ ROJAS</v>
+      </c>
+      <c r="C10" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda La Gamaisa</v>
+      </c>
+      <c r="D10" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Maní</v>
+      </c>
+      <c r="E10" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Casanare</v>
+      </c>
+      <c r="F10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L10" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M10" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CR 38 25 05 BR 7 DE AGOSTO</v>
+      </c>
+      <c r="N10" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Villavicencio</v>
+      </c>
+      <c r="O10" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Meta</v>
+      </c>
+      <c r="P10">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>6827979</v>
+      </c>
+      <c r="Q10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V10" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>nacholee29@hotmail.com</v>
+      </c>
+      <c r="W10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE10" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A10)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B11" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>CARLOS ALBERTO GONZÁLEZ DE FILIPPIS</v>
+      </c>
+      <c r="C11" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda El Cristal</v>
+      </c>
+      <c r="D11" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Sabana de Torres</v>
+      </c>
+      <c r="E11" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Santander</v>
+      </c>
+      <c r="F11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L11" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M11" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CR 29 55 68 ED ALCALÁ PI 2</v>
+      </c>
+      <c r="N11" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Bucaramanga</v>
+      </c>
+      <c r="O11" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Santander</v>
+      </c>
+      <c r="P11">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>6474752</v>
+      </c>
+      <c r="Q11">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>3183309213</v>
+      </c>
+      <c r="R11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V11" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>ganaderiaelcristal@gmail.com</v>
+      </c>
+      <c r="W11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE11" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A11)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B12" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>RANCHO LR S.A.S</v>
+      </c>
+      <c r="C12" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda El Arca</v>
+      </c>
+      <c r="D12" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>El Banco</v>
+      </c>
+      <c r="E12" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Magdalena</v>
+      </c>
+      <c r="F12" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>Hda Zaragoza</v>
+      </c>
+      <c r="G12" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>El Peñón</v>
+      </c>
+      <c r="H12" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>Bolívar</v>
+      </c>
+      <c r="I12" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>Villaluz LR</v>
+      </c>
+      <c r="J12" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>Sahagún</v>
+      </c>
+      <c r="K12" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>Córdoba</v>
+      </c>
+      <c r="L12" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman y Gyr</v>
+      </c>
+      <c r="M12" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>TV 23 96 65</v>
+      </c>
+      <c r="N12" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Bogotá D.C</v>
+      </c>
+      <c r="O12" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Cundinamarca</v>
+      </c>
+      <c r="P12">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>4573656</v>
+      </c>
+      <c r="Q12">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>3182821786</v>
+      </c>
+      <c r="R12" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S12" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T12" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U12" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V12" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>ganaderiarancholr@hotmail.com</v>
+      </c>
+      <c r="W12" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X12" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y12" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z12" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA12" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB12" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC12" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD12" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE12" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A12)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B13" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>NICOLÁS ARENAS ZARATE</v>
+      </c>
+      <c r="C13" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda San Carlos</v>
+      </c>
+      <c r="D13" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Yopal</v>
+      </c>
+      <c r="E13" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Casanare</v>
+      </c>
+      <c r="F13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L13" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M13" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CL 24 12 26</v>
+      </c>
+      <c r="N13" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Yopal</v>
+      </c>
+      <c r="O13" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Casanare</v>
+      </c>
+      <c r="P13">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>6358700</v>
+      </c>
+      <c r="Q13">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>3102879085</v>
+      </c>
+      <c r="R13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V13" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>cebu1967@gmail.com</v>
+      </c>
+      <c r="W13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE13" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A13)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B14" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>EZEQUIEL MONTEALEGRE</v>
+      </c>
+      <c r="C14" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v xml:space="preserve">Hda La Camila </v>
+      </c>
+      <c r="D14" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Victoria</v>
+      </c>
+      <c r="E14" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Caldas</v>
+      </c>
+      <c r="F14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L14" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M14" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CR 4D # 36 ‐27 BRR CÁDIZ</v>
+      </c>
+      <c r="N14" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Ibagué</v>
+      </c>
+      <c r="O14" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Tolima</v>
+      </c>
+      <c r="P14">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>3168771216</v>
+      </c>
+      <c r="Q14">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>3168771223</v>
+      </c>
+      <c r="R14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V14" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>eztetic@hotmail.com</v>
+      </c>
+      <c r="W14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE14" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A14)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B15" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>DIAMANTE S.A.S.</v>
+      </c>
+      <c r="C15" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda Ganadería La Esmeralda</v>
+      </c>
+      <c r="D15" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Yopal</v>
+      </c>
+      <c r="E15" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Casanare</v>
+      </c>
+      <c r="F15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L15" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Gyr</v>
+      </c>
+      <c r="M15" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CR 5 # 24 - 50</v>
+      </c>
+      <c r="N15" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Yopal</v>
+      </c>
+      <c r="O15" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Casanare</v>
+      </c>
+      <c r="P15">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>3106965106</v>
+      </c>
+      <c r="Q15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V15" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>gerencia.diaman7e@gmail.com</v>
+      </c>
+      <c r="W15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE15" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A15)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE16" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A16)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>MARTÍN JULIÁN PULIDO CASTRO</v>
+      </c>
+      <c r="C17" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda Ganadería Santa Clara,  Vereda El Silencio</v>
+      </c>
+      <c r="D17" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Cisneros</v>
+      </c>
+      <c r="E17" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="F17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L17" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Brahman, Gyr y Girolando</v>
+      </c>
+      <c r="M17" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CL 6 # 16 - 17  CS105</v>
+      </c>
+      <c r="N17" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
         <v>Medellín</v>
       </c>
-      <c r="O2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],15,FALSE),VLOOKUP($A2,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],15,FALSE),VLOOKUP($A2,CriadoresDirectorio[],15,FALSE)))</f>
+      <c r="O17" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
         <v>Antioquia</v>
       </c>
-      <c r="P2">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],16,FALSE),VLOOKUP($A2,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],16,FALSE),VLOOKUP($A2,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3136379</v>
-      </c>
-      <c r="Q2">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],17,FALSE),VLOOKUP($A2,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],17,FALSE),VLOOKUP($A2,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3135825</v>
-      </c>
-      <c r="R2">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],18,FALSE),VLOOKUP($A2,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],18,FALSE),VLOOKUP($A2,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3108364605</v>
-      </c>
-      <c r="S2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],19,FALSE),VLOOKUP($A2,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],19,FALSE),VLOOKUP($A2,CriadoresDirectorio[],19,FALSE)))</f>
+      <c r="P17" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>3104712358</v>
+      </c>
+      <c r="Q17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="V17" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>martin.pulido@expresoandino.com</v>
+      </c>
+      <c r="W17" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
         <v/>
       </c>
-      <c r="T2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],20,FALSE),VLOOKUP($A2,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],20,FALSE),VLOOKUP($A2,CriadoresDirectorio[],20,FALSE)))</f>
+      <c r="X17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A17)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B18" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>COMERCIALIZADORA GANADERA VC SAS</v>
+      </c>
+      <c r="C18" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda Virgen del Carmen</v>
+      </c>
+      <c r="D18" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Montelíbano</v>
+      </c>
+      <c r="E18" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Córdoba</v>
+      </c>
+      <c r="F18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L18" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M18" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CR 51 9 SUR 48</v>
+      </c>
+      <c r="N18" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Medellin</v>
+      </c>
+      <c r="O18" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P18">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>2855943</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>2856884Ext.103</v>
+      </c>
+      <c r="R18">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>3503824757</v>
+      </c>
+      <c r="S18">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>3116331400</v>
+      </c>
+      <c r="T18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V18" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>jorge.vanegas@jorvan.com</v>
+      </c>
+      <c r="W18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE18" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A18)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>3593</v>
+      </c>
+      <c r="B19" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>INVERSIONES EL OBISPO SAS</v>
+      </c>
+      <c r="C19" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda La Primavera</v>
+      </c>
+      <c r="D19" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Oiba</v>
+      </c>
+      <c r="E19" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Santander</v>
+      </c>
+      <c r="F19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L19" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M19" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>AV CR 80 2 51 BG 15 LC 08</v>
+      </c>
+      <c r="N19" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Bogotá D.C</v>
+      </c>
+      <c r="O19" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Cundinamarca</v>
+      </c>
+      <c r="P19">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>2737167</v>
+      </c>
+      <c r="Q19">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>3102697884</v>
+      </c>
+      <c r="R19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V19" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>magaz71@hotmail.com</v>
+      </c>
+      <c r="W19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE19" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A19)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B20" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>RAFAEL ENOC OSPINO</v>
+      </c>
+      <c r="C20" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda BayosP</v>
+      </c>
+      <c r="D20" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>San Martín</v>
+      </c>
+      <c r="E20" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Cesar</v>
+      </c>
+      <c r="F20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L20" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M20" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CR 7A 124 29 BR USAQUÉN APTO 501</v>
+      </c>
+      <c r="N20" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Bogotá D.C</v>
+      </c>
+      <c r="O20" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Cundinamarca</v>
+      </c>
+      <c r="P20">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>6294030</v>
+      </c>
+      <c r="Q20">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>3153044211</v>
+      </c>
+      <c r="R20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V20" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>rafael.enoc@hotmail.com</v>
+      </c>
+      <c r="W20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE20" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A20)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>ROLANDO REYES GONZÁLEZ</v>
+      </c>
+      <c r="C21" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda Las Delicias</v>
+      </c>
+      <c r="D21" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Arboletes</v>
+      </c>
+      <c r="E21" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="F21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L21" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Gyr</v>
+      </c>
+      <c r="M21" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CR 11A 62B 51 TO 4 APTO 504 URB TORRES DE CASTILLA</v>
+      </c>
+      <c r="N21" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Montería</v>
+      </c>
+      <c r="O21" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>7854590</v>
+      </c>
+      <c r="Q21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>8200598</v>
+      </c>
+      <c r="R21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>3116171667</v>
+      </c>
+      <c r="S21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="V21" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>rolreyes02@yahoo.com</v>
+      </c>
+      <c r="W21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A21)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B22" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>MARCELA GÓMEZ BOTERO</v>
+      </c>
+      <c r="C22" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda Vista Hermosa</v>
+      </c>
+      <c r="D22" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Pereira</v>
+      </c>
+      <c r="E22" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Risaralda</v>
+      </c>
+      <c r="F22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L22" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Gyr</v>
+      </c>
+      <c r="M22" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CR 1N 14 49</v>
+      </c>
+      <c r="N22" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Cartago</v>
+      </c>
+      <c r="O22" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Valle del Cauca</v>
+      </c>
+      <c r="P22">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>2138834</v>
+      </c>
+      <c r="Q22">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>2138872</v>
+      </c>
+      <c r="R22">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>3152852458</v>
+      </c>
+      <c r="S22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V22" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>oficina203@yahoo.es</v>
+      </c>
+      <c r="W22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE22" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A22)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>INVERSIONES JAIBU S.A.S.</v>
+      </c>
+      <c r="C23" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda Tasmania</v>
+      </c>
+      <c r="D23" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Carmen de Viboral</v>
+      </c>
+      <c r="E23" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="F23" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>Hda Santa Cruz</v>
+      </c>
+      <c r="G23" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>Palmito</v>
+      </c>
+      <c r="H23" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>Sucre</v>
+      </c>
+      <c r="I23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L23" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M23" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CL 6 SUR 43A 200 OF 704 ED LUGO</v>
+      </c>
+      <c r="N23" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Medellín</v>
+      </c>
+      <c r="O23" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>3111301</v>
+      </c>
+      <c r="Q23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>3116342698</v>
+      </c>
+      <c r="R23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="V23" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>jairobuileso@hotmail.com</v>
+      </c>
+      <c r="W23" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
         <v/>
       </c>
-      <c r="U2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],21,FALSE),VLOOKUP($A2,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],21,FALSE),VLOOKUP($A2,CriadoresDirectorio[],21,FALSE)))</f>
+      <c r="X23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A23)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B24" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>AYURA S.A.S.</v>
+      </c>
+      <c r="C24" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda Acajure</v>
+      </c>
+      <c r="D24" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Villavicencio</v>
+      </c>
+      <c r="E24" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Meta</v>
+      </c>
+      <c r="F24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L24" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Nelore</v>
+      </c>
+      <c r="M24" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CL 93B 12 28</v>
+      </c>
+      <c r="N24" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Bogotá D.C</v>
+      </c>
+      <c r="O24" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Cundinamarca</v>
+      </c>
+      <c r="P24">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>6217704</v>
+      </c>
+      <c r="Q24">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>6218138</v>
+      </c>
+      <c r="R24">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>3162694205</v>
+      </c>
+      <c r="S24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V24" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>ksilva@ayura.co</v>
+      </c>
+      <c r="W24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE24" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A24)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE25" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A25),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A25)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B26" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>FRANCISCO RAFAEL DÍAZ SÁNCHEZ</v>
+      </c>
+      <c r="C26" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda Santa María</v>
+      </c>
+      <c r="D26" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Montería</v>
+      </c>
+      <c r="E26" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Córdoba</v>
+      </c>
+      <c r="F26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L26" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M26" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>AV 1 33 20</v>
+      </c>
+      <c r="N26" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Montería</v>
+      </c>
+      <c r="O26" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Córdoba</v>
+      </c>
+      <c r="P26">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>7824582</v>
+      </c>
+      <c r="Q26">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>7822683</v>
+      </c>
+      <c r="R26">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>3106371165</v>
+      </c>
+      <c r="S26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V26" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>rafadiaz2@hotmail.com</v>
+      </c>
+      <c r="W26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE26" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A26),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A26)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B27" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>RANCHO GUADALUPE RG S.A.S.</v>
+      </c>
+      <c r="C27" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda Rancho Guadalupe</v>
+      </c>
+      <c r="D27" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Planeta Rica</v>
+      </c>
+      <c r="E27" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Córdoba</v>
+      </c>
+      <c r="F27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L27" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Asociado Puro, Brahman</v>
+      </c>
+      <c r="M27" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CL 6 SUR # 51 - 14</v>
+      </c>
+      <c r="N27" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Medellín</v>
+      </c>
+      <c r="O27" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P27" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>6042301ext158</v>
+      </c>
+      <c r="Q27">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>3217176009</v>
+      </c>
+      <c r="R27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V27" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>haceindas@ragged.com.co</v>
+      </c>
+      <c r="W27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE27" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A27),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A27)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>CORNELIO HUMBERTO SEGURA BARRAGÁN</v>
+      </c>
+      <c r="C28" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda Villa Rica</v>
+      </c>
+      <c r="D28" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Caucasia</v>
+      </c>
+      <c r="E28" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="F28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L28" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Asociado Puro, Brahman</v>
+      </c>
+      <c r="M28" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CR 72B 48 31 BRR NORMANDIA</v>
+      </c>
+      <c r="N28" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Bogotá D.C</v>
+      </c>
+      <c r="O28" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Cundinamarca</v>
+      </c>
+      <c r="P28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>3188343418</v>
+      </c>
+      <c r="Q28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="V28" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>fincalarosita@hotmail.com</v>
+      </c>
+      <c r="W28" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
         <v/>
       </c>
-      <c r="V2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],22,FALSE),VLOOKUP($A2,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],22,FALSE),VLOOKUP($A2,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>ls@luisamuelmartinez.com</v>
-      </c>
-      <c r="W2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],23,FALSE),VLOOKUP($A2,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],23,FALSE),VLOOKUP($A2,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>ganaderiaelcaney@gmail.com</v>
-      </c>
-      <c r="X2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],24,FALSE),VLOOKUP($A2,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],24,FALSE),VLOOKUP($A2,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],25,FALSE),VLOOKUP($A2,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],25,FALSE),VLOOKUP($A2,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],26,FALSE),VLOOKUP($A2,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],26,FALSE),VLOOKUP($A2,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],27,FALSE),VLOOKUP($A2,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],27,FALSE),VLOOKUP($A2,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],28,FALSE),VLOOKUP($A2,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],28,FALSE),VLOOKUP($A2,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],29,FALSE),VLOOKUP($A2,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],29,FALSE),VLOOKUP($A2,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>http://www.luisamuelmartinez.com</v>
-      </c>
-      <c r="AD2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],30,FALSE),VLOOKUP($A2,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],30,FALSE),VLOOKUP($A2,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE2" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],31,FALSE),VLOOKUP($A2,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A2,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A2),CriadoresDirectorio[],31,FALSE),VLOOKUP($A2,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],2,FALSE),VLOOKUP($A3,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],2,FALSE),VLOOKUP($A3,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>AGROPECUARIA LAS TINAJAS S.A.</v>
-      </c>
-      <c r="C3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],3,FALSE),VLOOKUP($A3,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],3,FALSE),VLOOKUP($A3,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda La Constancia</v>
-      </c>
-      <c r="D3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],4,FALSE),VLOOKUP($A3,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],4,FALSE),VLOOKUP($A3,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Puerto Berrío</v>
-      </c>
-      <c r="E3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],5,FALSE),VLOOKUP($A3,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],5,FALSE),VLOOKUP($A3,CriadoresDirectorio[],5,FALSE)))</f>
+      <c r="X28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A28),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A28)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B29" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>AGREGADOS LA PAZ SAS</v>
+      </c>
+      <c r="C29" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda La Paz</v>
+      </c>
+      <c r="D29" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Cartagena</v>
+      </c>
+      <c r="E29" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Bolívar</v>
+      </c>
+      <c r="F29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L29" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M29" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>MAMONAL KM 2 SEC LIBERTADOR CL 3B # 58 -100</v>
+      </c>
+      <c r="N29" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Cartagena</v>
+      </c>
+      <c r="O29" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Bolívar</v>
+      </c>
+      <c r="P29">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>6672475</v>
+      </c>
+      <c r="Q29">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>6672472</v>
+      </c>
+      <c r="R29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V29" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>contabilidad@agregadoslapaz.com</v>
+      </c>
+      <c r="W29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE29" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A29),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A29)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>JAIME ALBERTO ÁLVAREZ PÉREZ</v>
+      </c>
+      <c r="C30" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda La Roca</v>
+      </c>
+      <c r="D30" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Jericó</v>
+      </c>
+      <c r="E30" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
         <v>Antioquia</v>
       </c>
-      <c r="F3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],6,FALSE),VLOOKUP($A3,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],6,FALSE),VLOOKUP($A3,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],7,FALSE),VLOOKUP($A3,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],7,FALSE),VLOOKUP($A3,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],8,FALSE),VLOOKUP($A3,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],8,FALSE),VLOOKUP($A3,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],9,FALSE),VLOOKUP($A3,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],9,FALSE),VLOOKUP($A3,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],10,FALSE),VLOOKUP($A3,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],10,FALSE),VLOOKUP($A3,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],11,FALSE),VLOOKUP($A3,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],11,FALSE),VLOOKUP($A3,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],12,FALSE),VLOOKUP($A3,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],12,FALSE),VLOOKUP($A3,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman Puro Blanco y Rojo</v>
-      </c>
-      <c r="M3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],13,FALSE),VLOOKUP($A3,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],13,FALSE),VLOOKUP($A3,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 10 35 18</v>
-      </c>
-      <c r="N3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],14,FALSE),VLOOKUP($A3,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],14,FALSE),VLOOKUP($A3,CriadoresDirectorio[],14,FALSE)))</f>
+      <c r="F30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L30" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Brahman</v>
+      </c>
+      <c r="M30" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CL 16 55 129</v>
+      </c>
+      <c r="N30" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
         <v>Medellín</v>
       </c>
-      <c r="O3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],15,FALSE),VLOOKUP($A3,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],15,FALSE),VLOOKUP($A3,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antoquia</v>
-      </c>
-      <c r="P3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],16,FALSE),VLOOKUP($A3,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],16,FALSE),VLOOKUP($A3,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>2669172Ext.111</v>
-      </c>
-      <c r="Q3">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],17,FALSE),VLOOKUP($A3,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],17,FALSE),VLOOKUP($A3,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>2326915</v>
-      </c>
-      <c r="R3">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],18,FALSE),VLOOKUP($A3,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],18,FALSE),VLOOKUP($A3,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3104632303</v>
-      </c>
-      <c r="S3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],19,FALSE),VLOOKUP($A3,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],19,FALSE),VLOOKUP($A3,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],20,FALSE),VLOOKUP($A3,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],20,FALSE),VLOOKUP($A3,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],21,FALSE),VLOOKUP($A3,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],21,FALSE),VLOOKUP($A3,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],22,FALSE),VLOOKUP($A3,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],22,FALSE),VLOOKUP($A3,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>agrotin@une.net.co</v>
-      </c>
-      <c r="W3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],23,FALSE),VLOOKUP($A3,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],23,FALSE),VLOOKUP($A3,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>gape@une.net.co</v>
-      </c>
-      <c r="X3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],24,FALSE),VLOOKUP($A3,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],24,FALSE),VLOOKUP($A3,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],25,FALSE),VLOOKUP($A3,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],25,FALSE),VLOOKUP($A3,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],26,FALSE),VLOOKUP($A3,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],26,FALSE),VLOOKUP($A3,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],27,FALSE),VLOOKUP($A3,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],27,FALSE),VLOOKUP($A3,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],28,FALSE),VLOOKUP($A3,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],28,FALSE),VLOOKUP($A3,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],29,FALSE),VLOOKUP($A3,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],29,FALSE),VLOOKUP($A3,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],30,FALSE),VLOOKUP($A3,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],30,FALSE),VLOOKUP($A3,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE3" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],31,FALSE),VLOOKUP($A3,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A3,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A3),CriadoresDirectorio[],31,FALSE),VLOOKUP($A3,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],2,FALSE),VLOOKUP($A4,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],2,FALSE),VLOOKUP($A4,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>GANADERÍA SAN RAFAEL</v>
-      </c>
-      <c r="C4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],3,FALSE),VLOOKUP($A4,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],3,FALSE),VLOOKUP($A4,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda San Rafael</v>
-      </c>
-      <c r="D4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],4,FALSE),VLOOKUP($A4,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],4,FALSE),VLOOKUP($A4,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Caucasia</v>
-      </c>
-      <c r="E4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],5,FALSE),VLOOKUP($A4,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],5,FALSE),VLOOKUP($A4,CriadoresDirectorio[],5,FALSE)))</f>
+      <c r="O30" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
         <v>Antioquia</v>
       </c>
-      <c r="F4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],6,FALSE),VLOOKUP($A4,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],6,FALSE),VLOOKUP($A4,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],7,FALSE),VLOOKUP($A4,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],7,FALSE),VLOOKUP($A4,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],8,FALSE),VLOOKUP($A4,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],8,FALSE),VLOOKUP($A4,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],9,FALSE),VLOOKUP($A4,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],9,FALSE),VLOOKUP($A4,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],10,FALSE),VLOOKUP($A4,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],10,FALSE),VLOOKUP($A4,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],11,FALSE),VLOOKUP($A4,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],11,FALSE),VLOOKUP($A4,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],12,FALSE),VLOOKUP($A4,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],12,FALSE),VLOOKUP($A4,CriadoresDirectorio[],12,FALSE)))</f>
+      <c r="P30" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>2653111Ext.4292</v>
+      </c>
+      <c r="Q30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>3117690805</v>
+      </c>
+      <c r="R30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="V30" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>jaimea@estudiodemoda.com.co</v>
+      </c>
+      <c r="W30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A30),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A30)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B31" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>ALFONSO PINILLA GUEVARA</v>
+      </c>
+      <c r="C31" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda La Victoria</v>
+      </c>
+      <c r="D31" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Sampués</v>
+      </c>
+      <c r="E31" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Sucre</v>
+      </c>
+      <c r="F31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L31" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Brahman y Gyr</v>
+      </c>
+      <c r="M31" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CL 32 # 6B - 73 AV ARGELIA SINCELEJO - SUCRE</v>
+      </c>
+      <c r="N31" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Sincelejo</v>
+      </c>
+      <c r="O31" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Sucre</v>
+      </c>
+      <c r="P31">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>2805851</v>
+      </c>
+      <c r="Q31">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>3106549470</v>
+      </c>
+      <c r="R31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V31" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>hacienda.la.victoria@hotmail.com</v>
+      </c>
+      <c r="W31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE31" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A31),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A31)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>G3 BIOTECNOLOGÍA ANIMAL SAS</v>
+      </c>
+      <c r="C32" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda La Brasilia</v>
+      </c>
+      <c r="D32" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Fredonia</v>
+      </c>
+      <c r="E32" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="F32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L32" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Asociado Puro, Brahman Rojo, Brahman Gris y Gyr</v>
+      </c>
+      <c r="M32" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CR 80 # 34 - 55 APTO 403</v>
+      </c>
+      <c r="N32" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Medellín</v>
+      </c>
+      <c r="O32" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Antioquia</v>
+      </c>
+      <c r="P32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>4165369</v>
+      </c>
+      <c r="Q32" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>3218037489</v>
+      </c>
+      <c r="R32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="V32" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>agrofredonia@yahoo.com</v>
+      </c>
+      <c r="W32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>https://www.g3biotecnologia.com/</v>
+      </c>
+      <c r="AD32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A32),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A32)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B33" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>GANADERIA VILLAVELTO S.A.S.</v>
+      </c>
+      <c r="C33" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda La Tesonera</v>
+      </c>
+      <c r="D33" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Cienaga de Oro</v>
+      </c>
+      <c r="E33" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Córdoba</v>
+      </c>
+      <c r="F33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L33" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Gyr</v>
+      </c>
+      <c r="M33" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CL 103A # 19A - 88 APTO 503</v>
+      </c>
+      <c r="N33" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Bogotá D.C</v>
+      </c>
+      <c r="O33" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Cundinamarca</v>
+      </c>
+      <c r="P33">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>3125862300</v>
+      </c>
+      <c r="Q33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V33" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>etobias01@hotmail.com</v>
+      </c>
+      <c r="W33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE33" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A33),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A33)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B34" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>DARIO TOMÁS CABELLO BAQUERO</v>
+      </c>
+      <c r="C34" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda Mottawa</v>
+      </c>
+      <c r="D34" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Baranoa</v>
+      </c>
+      <c r="E34" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Atlántico</v>
+      </c>
+      <c r="F34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L34" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
         <v>Ganado Puro, Brahman</v>
       </c>
-      <c r="M4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],13,FALSE),VLOOKUP($A4,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],13,FALSE),VLOOKUP($A4,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 7 SUR 42 70 OF 705 ED FORUM</v>
-      </c>
-      <c r="N4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],14,FALSE),VLOOKUP($A4,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],14,FALSE),VLOOKUP($A4,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Medellín</v>
-      </c>
-      <c r="O4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],15,FALSE),VLOOKUP($A4,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],15,FALSE),VLOOKUP($A4,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P4">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],16,FALSE),VLOOKUP($A4,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],16,FALSE),VLOOKUP($A4,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3267810</v>
-      </c>
-      <c r="Q4">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],17,FALSE),VLOOKUP($A4,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],17,FALSE),VLOOKUP($A4,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3267800</v>
-      </c>
-      <c r="R4">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],18,FALSE),VLOOKUP($A4,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],18,FALSE),VLOOKUP($A4,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3142388</v>
-      </c>
-      <c r="S4">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],19,FALSE),VLOOKUP($A4,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],19,FALSE),VLOOKUP($A4,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>3155057570</v>
-      </c>
-      <c r="T4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],20,FALSE),VLOOKUP($A4,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],20,FALSE),VLOOKUP($A4,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],21,FALSE),VLOOKUP($A4,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],21,FALSE),VLOOKUP($A4,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],22,FALSE),VLOOKUP($A4,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],22,FALSE),VLOOKUP($A4,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>hespinosa@ganaderiasanrafael.com</v>
-      </c>
-      <c r="W4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],23,FALSE),VLOOKUP($A4,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],23,FALSE),VLOOKUP($A4,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],24,FALSE),VLOOKUP($A4,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],24,FALSE),VLOOKUP($A4,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],25,FALSE),VLOOKUP($A4,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],25,FALSE),VLOOKUP($A4,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],26,FALSE),VLOOKUP($A4,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],26,FALSE),VLOOKUP($A4,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],27,FALSE),VLOOKUP($A4,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],27,FALSE),VLOOKUP($A4,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],28,FALSE),VLOOKUP($A4,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],28,FALSE),VLOOKUP($A4,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],29,FALSE),VLOOKUP($A4,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],29,FALSE),VLOOKUP($A4,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>http://www.ganaderiasanrafael.com</v>
-      </c>
-      <c r="AD4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],30,FALSE),VLOOKUP($A4,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],30,FALSE),VLOOKUP($A4,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE4" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],31,FALSE),VLOOKUP($A4,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A4,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A4),CriadoresDirectorio[],31,FALSE),VLOOKUP($A4,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>755</v>
-      </c>
-      <c r="B5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],2,FALSE),VLOOKUP($A5,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],2,FALSE),VLOOKUP($A5,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>LUIS ALFONSO LONDOÑO BOTERO</v>
-      </c>
-      <c r="C5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],3,FALSE),VLOOKUP($A5,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],3,FALSE),VLOOKUP($A5,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Bajo Prieto</v>
-      </c>
-      <c r="D5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],4,FALSE),VLOOKUP($A5,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],4,FALSE),VLOOKUP($A5,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Cartagena</v>
-      </c>
-      <c r="E5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],5,FALSE),VLOOKUP($A5,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],5,FALSE),VLOOKUP($A5,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Bolívar</v>
-      </c>
-      <c r="F5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],6,FALSE),VLOOKUP($A5,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],6,FALSE),VLOOKUP($A5,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],7,FALSE),VLOOKUP($A5,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],7,FALSE),VLOOKUP($A5,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],8,FALSE),VLOOKUP($A5,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],8,FALSE),VLOOKUP($A5,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],9,FALSE),VLOOKUP($A5,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],9,FALSE),VLOOKUP($A5,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],10,FALSE),VLOOKUP($A5,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],10,FALSE),VLOOKUP($A5,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],11,FALSE),VLOOKUP($A5,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],11,FALSE),VLOOKUP($A5,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],12,FALSE),VLOOKUP($A5,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],12,FALSE),VLOOKUP($A5,CriadoresDirectorio[],12,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="M5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],13,FALSE),VLOOKUP($A5,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],13,FALSE),VLOOKUP($A5,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 8 # 5A - 56 ED POSITANO APTO 1602 CASTILLOGRANDE</v>
-      </c>
-      <c r="N5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],14,FALSE),VLOOKUP($A5,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],14,FALSE),VLOOKUP($A5,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Cartagena</v>
-      </c>
-      <c r="O5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],15,FALSE),VLOOKUP($A5,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],15,FALSE),VLOOKUP($A5,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Bolívar</v>
-      </c>
-      <c r="P5">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],16,FALSE),VLOOKUP($A5,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],16,FALSE),VLOOKUP($A5,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3103689458</v>
-      </c>
-      <c r="Q5">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],17,FALSE),VLOOKUP($A5,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],17,FALSE),VLOOKUP($A5,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3106233486</v>
-      </c>
-      <c r="R5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],18,FALSE),VLOOKUP($A5,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],18,FALSE),VLOOKUP($A5,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],19,FALSE),VLOOKUP($A5,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],19,FALSE),VLOOKUP($A5,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],20,FALSE),VLOOKUP($A5,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],20,FALSE),VLOOKUP($A5,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],21,FALSE),VLOOKUP($A5,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],21,FALSE),VLOOKUP($A5,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],22,FALSE),VLOOKUP($A5,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],22,FALSE),VLOOKUP($A5,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>luisalfonsolondono57@hotmail.com</v>
-      </c>
-      <c r="W5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],23,FALSE),VLOOKUP($A5,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],23,FALSE),VLOOKUP($A5,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],24,FALSE),VLOOKUP($A5,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],24,FALSE),VLOOKUP($A5,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],25,FALSE),VLOOKUP($A5,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],25,FALSE),VLOOKUP($A5,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],26,FALSE),VLOOKUP($A5,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],26,FALSE),VLOOKUP($A5,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],27,FALSE),VLOOKUP($A5,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],27,FALSE),VLOOKUP($A5,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],28,FALSE),VLOOKUP($A5,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],28,FALSE),VLOOKUP($A5,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],29,FALSE),VLOOKUP($A5,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],29,FALSE),VLOOKUP($A5,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],30,FALSE),VLOOKUP($A5,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],30,FALSE),VLOOKUP($A5,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE5" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],31,FALSE),VLOOKUP($A5,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A5,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A5),CriadoresDirectorio[],31,FALSE),VLOOKUP($A5,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3146</v>
-      </c>
-      <c r="B6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],2,FALSE),VLOOKUP($A6,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],2,FALSE),VLOOKUP($A6,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>INDUSTRIA GANADERA HATO CEBÚ S.A.</v>
-      </c>
-      <c r="C6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],3,FALSE),VLOOKUP($A6,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],3,FALSE),VLOOKUP($A6,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Villa Erika</v>
-      </c>
-      <c r="D6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],4,FALSE),VLOOKUP($A6,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],4,FALSE),VLOOKUP($A6,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Puerto Boyacá</v>
-      </c>
-      <c r="E6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],5,FALSE),VLOOKUP($A6,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],5,FALSE),VLOOKUP($A6,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Boyacá</v>
-      </c>
-      <c r="F6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],6,FALSE),VLOOKUP($A6,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],6,FALSE),VLOOKUP($A6,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],7,FALSE),VLOOKUP($A6,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],7,FALSE),VLOOKUP($A6,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],8,FALSE),VLOOKUP($A6,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],8,FALSE),VLOOKUP($A6,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],9,FALSE),VLOOKUP($A6,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],9,FALSE),VLOOKUP($A6,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],10,FALSE),VLOOKUP($A6,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],10,FALSE),VLOOKUP($A6,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],11,FALSE),VLOOKUP($A6,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],11,FALSE),VLOOKUP($A6,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],12,FALSE),VLOOKUP($A6,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],12,FALSE),VLOOKUP($A6,CriadoresDirectorio[],12,FALSE)))</f>
+      <c r="M34" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v xml:space="preserve">CR 52 84 131 </v>
+      </c>
+      <c r="N34" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Barranquilla</v>
+      </c>
+      <c r="O34" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Atlántico</v>
+      </c>
+      <c r="P34">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>3571115</v>
+      </c>
+      <c r="Q34">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>3573044</v>
+      </c>
+      <c r="R34">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>3737340</v>
+      </c>
+      <c r="S34">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>3145382441</v>
+      </c>
+      <c r="T34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V34" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>director@dariocabello.com</v>
+      </c>
+      <c r="W34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE34" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A34),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A34)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B35" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>AGROINDUSTRIAS DEL CARIBE SAS</v>
+      </c>
+      <c r="C35" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda San Tropel</v>
+      </c>
+      <c r="D35" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Valledupar</v>
+      </c>
+      <c r="E35" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Cesar</v>
+      </c>
+      <c r="F35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L35" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
         <v>Ganado Puro, Brahman</v>
       </c>
-      <c r="M6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],13,FALSE),VLOOKUP($A6,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],13,FALSE),VLOOKUP($A6,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 113 7 45 TO B OF 1016 ED TELEPORT</v>
-      </c>
-      <c r="N6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],14,FALSE),VLOOKUP($A6,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],14,FALSE),VLOOKUP($A6,CriadoresDirectorio[],14,FALSE)))</f>
+      <c r="M35" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>DG 16A 16 10 LC 30 CECO VALLE CENTRO</v>
+      </c>
+      <c r="N35" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
+        <v>Valledupar</v>
+      </c>
+      <c r="O35" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
+        <v>Cesar</v>
+      </c>
+      <c r="P35">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],16,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],16,FALSE))</f>
+        <v>5738122</v>
+      </c>
+      <c r="Q35">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],17,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],17,FALSE))</f>
+        <v>3175136559</v>
+      </c>
+      <c r="R35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],18,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],18,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],19,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],19,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],20,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],20,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],21,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],21,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V35" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],22,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],22,FALSE))</f>
+        <v>agroindustrias@aercaribe.com</v>
+      </c>
+      <c r="W35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],23,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],23,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],24,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],24,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],25,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],25,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],26,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],26,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],27,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],27,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],28,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],28,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],29,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],29,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],30,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],30,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE35" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A35),CriadoresDirectorio[],31,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A35)," ",CHAR(9)),CriadoresDirectorio[],31,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B36" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A36),CriadoresDirectorio[],2,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],2,FALSE))</f>
+        <v>ALEXANDER VALENCIA MONTOYA</v>
+      </c>
+      <c r="C36" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A36),CriadoresDirectorio[],3,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],3,FALSE))</f>
+        <v>Hda El Diamante</v>
+      </c>
+      <c r="D36" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A36),CriadoresDirectorio[],4,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],4,FALSE))</f>
+        <v>Florencia</v>
+      </c>
+      <c r="E36" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A36),CriadoresDirectorio[],5,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],5,FALSE))</f>
+        <v>Caquetá</v>
+      </c>
+      <c r="F36" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A36),CriadoresDirectorio[],6,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],6,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G36" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A36),CriadoresDirectorio[],7,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],7,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H36" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A36),CriadoresDirectorio[],8,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],8,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I36" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A36),CriadoresDirectorio[],9,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],9,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J36" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A36),CriadoresDirectorio[],10,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],10,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K36" t="e">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A36),CriadoresDirectorio[],11,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],11,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L36" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A36),CriadoresDirectorio[],12,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],12,FALSE))</f>
+        <v>Ganado Puro, Gyr</v>
+      </c>
+      <c r="M36" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A36),CriadoresDirectorio[],13,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],13,FALSE))</f>
+        <v>CL 181 # 72 - 70  CS 2 QUINTAS DE SAN JOSÉ I</v>
+      </c>
+      <c r="N36" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A36),CriadoresDirectorio[],14,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],14,FALSE))</f>
         <v>Bogotá D.C</v>
       </c>
-      <c r="O6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],15,FALSE),VLOOKUP($A6,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],15,FALSE),VLOOKUP($A6,CriadoresDirectorio[],15,FALSE)))</f>
+      <c r="O36" t="str">
+        <f>+IF(IFERROR(VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A36),CriadoresDirectorio[],15,FALSE),VLOOKUP(--SUBSTITUTE(CLEAN($A36)," ",CHAR(9)),CriadoresDirectorio[],15,FALSE))</f>
         <v>Cundinamarca</v>
       </c>
-      <c r="P6">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],16,FALSE),VLOOKUP($A6,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],16,FALSE),VLOOKUP($A6,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>2755530</v>
-      </c>
-      <c r="Q6">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],17,FALSE),VLOOKUP($A6,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],17,FALSE),VLOOKUP($A6,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>2755531</v>
-      </c>
-      <c r="R6">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],18,FALSE),VLOOKUP($A6,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],18,FALSE),VLOOKUP($A6,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>2755185</v>
-      </c>
-      <c r="S6">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],19,FALSE),VLOOKUP($A6,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],19,FALSE),VLOOKUP($A6,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>3212426603</v>
-      </c>
-      <c r="T6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],20,FALSE),VLOOKUP($A6,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],20,FALSE),VLOOKUP($A6,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],21,FALSE),VLOOKUP($A6,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],21,FALSE),VLOOKUP($A6,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],22,FALSE),VLOOKUP($A6,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],22,FALSE),VLOOKUP($A6,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>informacion@hatocebu.com</v>
-      </c>
-      <c r="W6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],23,FALSE),VLOOKUP($A6,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],23,FALSE),VLOOKUP($A6,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],24,FALSE),VLOOKUP($A6,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],24,FALSE),VLOOKUP($A6,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],25,FALSE),VLOOKUP($A6,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],25,FALSE),VLOOKUP($A6,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],26,FALSE),VLOOKUP($A6,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],26,FALSE),VLOOKUP($A6,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],27,FALSE),VLOOKUP($A6,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],27,FALSE),VLOOKUP($A6,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],28,FALSE),VLOOKUP($A6,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],28,FALSE),VLOOKUP($A6,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],29,FALSE),VLOOKUP($A6,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],29,FALSE),VLOOKUP($A6,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>http://www.hatocebu.com/</v>
-      </c>
-      <c r="AD6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],30,FALSE),VLOOKUP($A6,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],30,FALSE),VLOOKUP($A6,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE6" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],31,FALSE),VLOOKUP($A6,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A6,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A6),CriadoresDirectorio[],31,FALSE),VLOOKUP($A6,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1472</v>
-      </c>
-      <c r="B7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],2,FALSE),VLOOKUP($A7,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],2,FALSE),VLOOKUP($A7,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>INVERSIONES AGROPECUARIAS PLAYA LINDA</v>
-      </c>
-      <c r="C7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],3,FALSE),VLOOKUP($A7,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],3,FALSE),VLOOKUP($A7,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Cambalache</v>
-      </c>
-      <c r="D7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],4,FALSE),VLOOKUP($A7,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],4,FALSE),VLOOKUP($A7,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Puerto Boyacá</v>
-      </c>
-      <c r="E7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],5,FALSE),VLOOKUP($A7,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],5,FALSE),VLOOKUP($A7,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Boyacá</v>
-      </c>
-      <c r="F7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],6,FALSE),VLOOKUP($A7,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],6,FALSE),VLOOKUP($A7,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],7,FALSE),VLOOKUP($A7,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],7,FALSE),VLOOKUP($A7,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],8,FALSE),VLOOKUP($A7,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],8,FALSE),VLOOKUP($A7,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],9,FALSE),VLOOKUP($A7,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],9,FALSE),VLOOKUP($A7,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],10,FALSE),VLOOKUP($A7,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],10,FALSE),VLOOKUP($A7,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],11,FALSE),VLOOKUP($A7,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],11,FALSE),VLOOKUP($A7,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],12,FALSE),VLOOKUP($A7,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],12,FALSE),VLOOKUP($A7,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],13,FALSE),VLOOKUP($A7,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],13,FALSE),VLOOKUP($A7,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 30 10C 228 OF 845</v>
-      </c>
-      <c r="N7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],14,FALSE),VLOOKUP($A7,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],14,FALSE),VLOOKUP($A7,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Medellín</v>
-      </c>
-      <c r="O7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],15,FALSE),VLOOKUP($A7,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],15,FALSE),VLOOKUP($A7,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],16,FALSE),VLOOKUP($A7,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],16,FALSE),VLOOKUP($A7,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>2666636</v>
-      </c>
-      <c r="Q7">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],17,FALSE),VLOOKUP($A7,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],17,FALSE),VLOOKUP($A7,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3104536965</v>
-      </c>
-      <c r="R7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],18,FALSE),VLOOKUP($A7,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],18,FALSE),VLOOKUP($A7,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],19,FALSE),VLOOKUP($A7,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],19,FALSE),VLOOKUP($A7,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],20,FALSE),VLOOKUP($A7,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],20,FALSE),VLOOKUP($A7,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],21,FALSE),VLOOKUP($A7,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],21,FALSE),VLOOKUP($A7,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V7" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],22,FALSE),VLOOKUP($A7,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],22,FALSE),VLOOKUP($A7,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>agrocomercialplayalinda@gmail.com</v>
-      </c>
-      <c r="W7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],23,FALSE),VLOOKUP($A7,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],23,FALSE),VLOOKUP($A7,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],24,FALSE),VLOOKUP($A7,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],24,FALSE),VLOOKUP($A7,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],25,FALSE),VLOOKUP($A7,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],25,FALSE),VLOOKUP($A7,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],26,FALSE),VLOOKUP($A7,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],26,FALSE),VLOOKUP($A7,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],27,FALSE),VLOOKUP($A7,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],27,FALSE),VLOOKUP($A7,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],28,FALSE),VLOOKUP($A7,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],28,FALSE),VLOOKUP($A7,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],29,FALSE),VLOOKUP($A7,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],29,FALSE),VLOOKUP($A7,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],30,FALSE),VLOOKUP($A7,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],30,FALSE),VLOOKUP($A7,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE7" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],31,FALSE),VLOOKUP($A7,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A7,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A7),CriadoresDirectorio[],31,FALSE),VLOOKUP($A7,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>870</v>
-      </c>
-      <c r="B8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],2,FALSE),VLOOKUP($A8,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],2,FALSE),VLOOKUP($A8,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>GANADERÍA SACAPALOS</v>
-      </c>
-      <c r="C8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],3,FALSE),VLOOKUP($A8,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],3,FALSE),VLOOKUP($A8,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hdas. Yucatán</v>
-      </c>
-      <c r="D8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],4,FALSE),VLOOKUP($A8,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],4,FALSE),VLOOKUP($A8,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>La Dorada</v>
-      </c>
-      <c r="E8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],5,FALSE),VLOOKUP($A8,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],5,FALSE),VLOOKUP($A8,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Caldas</v>
-      </c>
-      <c r="F8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],6,FALSE),VLOOKUP($A8,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],6,FALSE),VLOOKUP($A8,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>Candilejas</v>
-      </c>
-      <c r="G8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],7,FALSE),VLOOKUP($A8,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],7,FALSE),VLOOKUP($A8,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>Puerto Salgar</v>
-      </c>
-      <c r="H8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],8,FALSE),VLOOKUP($A8,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],8,FALSE),VLOOKUP($A8,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>Cundinamarca</v>
-      </c>
-      <c r="I8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],9,FALSE),VLOOKUP($A8,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],9,FALSE),VLOOKUP($A8,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],10,FALSE),VLOOKUP($A8,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],10,FALSE),VLOOKUP($A8,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],11,FALSE),VLOOKUP($A8,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],11,FALSE),VLOOKUP($A8,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],12,FALSE),VLOOKUP($A8,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],12,FALSE),VLOOKUP($A8,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],13,FALSE),VLOOKUP($A8,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],13,FALSE),VLOOKUP($A8,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 30 5F 185 APTO 216</v>
-      </c>
-      <c r="N8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],14,FALSE),VLOOKUP($A8,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],14,FALSE),VLOOKUP($A8,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Medellín</v>
-      </c>
-      <c r="O8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],15,FALSE),VLOOKUP($A8,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],15,FALSE),VLOOKUP($A8,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P8">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],16,FALSE),VLOOKUP($A8,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],16,FALSE),VLOOKUP($A8,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>5702350</v>
-      </c>
-      <c r="Q8">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],17,FALSE),VLOOKUP($A8,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],17,FALSE),VLOOKUP($A8,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3147990150</v>
-      </c>
-      <c r="R8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],18,FALSE),VLOOKUP($A8,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],18,FALSE),VLOOKUP($A8,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],19,FALSE),VLOOKUP($A8,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],19,FALSE),VLOOKUP($A8,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],20,FALSE),VLOOKUP($A8,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],20,FALSE),VLOOKUP($A8,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],21,FALSE),VLOOKUP($A8,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],21,FALSE),VLOOKUP($A8,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],22,FALSE),VLOOKUP($A8,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],22,FALSE),VLOOKUP($A8,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>jorgelopezsacapalos@hotmail.com</v>
-      </c>
-      <c r="W8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],23,FALSE),VLOOKUP($A8,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],23,FALSE),VLOOKUP($A8,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],24,FALSE),VLOOKUP($A8,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],24,FALSE),VLOOKUP($A8,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],25,FALSE),VLOOKUP($A8,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],25,FALSE),VLOOKUP($A8,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],26,FALSE),VLOOKUP($A8,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],26,FALSE),VLOOKUP($A8,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],27,FALSE),VLOOKUP($A8,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],27,FALSE),VLOOKUP($A8,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],28,FALSE),VLOOKUP($A8,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],28,FALSE),VLOOKUP($A8,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],29,FALSE),VLOOKUP($A8,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],29,FALSE),VLOOKUP($A8,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],30,FALSE),VLOOKUP($A8,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],30,FALSE),VLOOKUP($A8,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE8" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],31,FALSE),VLOOKUP($A8,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A8,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A8),CriadoresDirectorio[],31,FALSE),VLOOKUP($A8,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>987</v>
-      </c>
-      <c r="B9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],2,FALSE),VLOOKUP($A9,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],2,FALSE),VLOOKUP($A9,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>HACIENDA BUENOS AIRES LTDA.</v>
-      </c>
-      <c r="C9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],3,FALSE),VLOOKUP($A9,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],3,FALSE),VLOOKUP($A9,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Buenos Aires, Finca Corinto</v>
-      </c>
-      <c r="D9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],4,FALSE),VLOOKUP($A9,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],4,FALSE),VLOOKUP($A9,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Florencia</v>
-      </c>
-      <c r="E9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],5,FALSE),VLOOKUP($A9,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],5,FALSE),VLOOKUP($A9,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Caquetá</v>
-      </c>
-      <c r="F9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],6,FALSE),VLOOKUP($A9,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],6,FALSE),VLOOKUP($A9,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],7,FALSE),VLOOKUP($A9,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],7,FALSE),VLOOKUP($A9,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],8,FALSE),VLOOKUP($A9,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],8,FALSE),VLOOKUP($A9,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],9,FALSE),VLOOKUP($A9,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],9,FALSE),VLOOKUP($A9,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],10,FALSE),VLOOKUP($A9,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],10,FALSE),VLOOKUP($A9,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],11,FALSE),VLOOKUP($A9,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],11,FALSE),VLOOKUP($A9,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],12,FALSE),VLOOKUP($A9,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],12,FALSE),VLOOKUP($A9,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Brahman</v>
-      </c>
-      <c r="M9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],13,FALSE),VLOOKUP($A9,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],13,FALSE),VLOOKUP($A9,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 10 # 9 - 39 BRR EL PRADO</v>
-      </c>
-      <c r="N9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],14,FALSE),VLOOKUP($A9,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],14,FALSE),VLOOKUP($A9,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Florencia</v>
-      </c>
-      <c r="O9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],15,FALSE),VLOOKUP($A9,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],15,FALSE),VLOOKUP($A9,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Caquetá</v>
-      </c>
-      <c r="P9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],16,FALSE),VLOOKUP($A9,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],16,FALSE),VLOOKUP($A9,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>(091)4362035</v>
-      </c>
-      <c r="Q9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],17,FALSE),VLOOKUP($A9,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],17,FALSE),VLOOKUP($A9,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3143043045</v>
-      </c>
-      <c r="R9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],18,FALSE),VLOOKUP($A9,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],18,FALSE),VLOOKUP($A9,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],19,FALSE),VLOOKUP($A9,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],19,FALSE),VLOOKUP($A9,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],20,FALSE),VLOOKUP($A9,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],20,FALSE),VLOOKUP($A9,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],21,FALSE),VLOOKUP($A9,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],21,FALSE),VLOOKUP($A9,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],22,FALSE),VLOOKUP($A9,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],22,FALSE),VLOOKUP($A9,CriadoresDirectorio[],22,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="W9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],23,FALSE),VLOOKUP($A9,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],23,FALSE),VLOOKUP($A9,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],24,FALSE),VLOOKUP($A9,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],24,FALSE),VLOOKUP($A9,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],25,FALSE),VLOOKUP($A9,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],25,FALSE),VLOOKUP($A9,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],26,FALSE),VLOOKUP($A9,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],26,FALSE),VLOOKUP($A9,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],27,FALSE),VLOOKUP($A9,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],27,FALSE),VLOOKUP($A9,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],28,FALSE),VLOOKUP($A9,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],28,FALSE),VLOOKUP($A9,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],29,FALSE),VLOOKUP($A9,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],29,FALSE),VLOOKUP($A9,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],30,FALSE),VLOOKUP($A9,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],30,FALSE),VLOOKUP($A9,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE9" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],31,FALSE),VLOOKUP($A9,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A9,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A9),CriadoresDirectorio[],31,FALSE),VLOOKUP($A9,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1493</v>
-      </c>
-      <c r="B10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],2,FALSE),VLOOKUP($A10,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],2,FALSE),VLOOKUP($A10,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>HACIENDA GUADUALITO</v>
-      </c>
-      <c r="C10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],3,FALSE),VLOOKUP($A10,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],3,FALSE),VLOOKUP($A10,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Guadualito</v>
-      </c>
-      <c r="D10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],4,FALSE),VLOOKUP($A10,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],4,FALSE),VLOOKUP($A10,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Nunchia</v>
-      </c>
-      <c r="E10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],5,FALSE),VLOOKUP($A10,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],5,FALSE),VLOOKUP($A10,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Casanare</v>
-      </c>
-      <c r="F10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],6,FALSE),VLOOKUP($A10,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],6,FALSE),VLOOKUP($A10,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],7,FALSE),VLOOKUP($A10,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],7,FALSE),VLOOKUP($A10,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],8,FALSE),VLOOKUP($A10,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],8,FALSE),VLOOKUP($A10,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],9,FALSE),VLOOKUP($A10,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],9,FALSE),VLOOKUP($A10,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],10,FALSE),VLOOKUP($A10,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],10,FALSE),VLOOKUP($A10,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],11,FALSE),VLOOKUP($A10,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],11,FALSE),VLOOKUP($A10,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],12,FALSE),VLOOKUP($A10,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],12,FALSE),VLOOKUP($A10,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],13,FALSE),VLOOKUP($A10,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],13,FALSE),VLOOKUP($A10,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 28 15 43</v>
-      </c>
-      <c r="N10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],14,FALSE),VLOOKUP($A10,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],14,FALSE),VLOOKUP($A10,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Yopal</v>
-      </c>
-      <c r="O10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],15,FALSE),VLOOKUP($A10,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],15,FALSE),VLOOKUP($A10,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Casanare</v>
-      </c>
-      <c r="P10">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],16,FALSE),VLOOKUP($A10,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],16,FALSE),VLOOKUP($A10,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>6357915</v>
-      </c>
-      <c r="Q10">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],17,FALSE),VLOOKUP($A10,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],17,FALSE),VLOOKUP($A10,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3212034836</v>
-      </c>
-      <c r="R10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],18,FALSE),VLOOKUP($A10,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],18,FALSE),VLOOKUP($A10,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],19,FALSE),VLOOKUP($A10,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],19,FALSE),VLOOKUP($A10,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],20,FALSE),VLOOKUP($A10,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],20,FALSE),VLOOKUP($A10,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],21,FALSE),VLOOKUP($A10,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],21,FALSE),VLOOKUP($A10,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V10" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],22,FALSE),VLOOKUP($A10,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],22,FALSE),VLOOKUP($A10,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>c.cd.agricultura@hotmail.com</v>
-      </c>
-      <c r="W10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],23,FALSE),VLOOKUP($A10,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],23,FALSE),VLOOKUP($A10,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],24,FALSE),VLOOKUP($A10,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],24,FALSE),VLOOKUP($A10,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],25,FALSE),VLOOKUP($A10,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],25,FALSE),VLOOKUP($A10,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],26,FALSE),VLOOKUP($A10,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],26,FALSE),VLOOKUP($A10,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],27,FALSE),VLOOKUP($A10,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],27,FALSE),VLOOKUP($A10,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],28,FALSE),VLOOKUP($A10,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],28,FALSE),VLOOKUP($A10,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],29,FALSE),VLOOKUP($A10,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],29,FALSE),VLOOKUP($A10,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],30,FALSE),VLOOKUP($A10,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],30,FALSE),VLOOKUP($A10,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE10" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],31,FALSE),VLOOKUP($A10,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A10,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A10),CriadoresDirectorio[],31,FALSE),VLOOKUP($A10,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],2,FALSE),VLOOKUP($A11,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],2,FALSE),VLOOKUP($A11,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>GARCES EDER S.A.S</v>
-      </c>
-      <c r="C11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],3,FALSE),VLOOKUP($A11,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],3,FALSE),VLOOKUP($A11,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda García Abajo</v>
-      </c>
-      <c r="D11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],4,FALSE),VLOOKUP($A11,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],4,FALSE),VLOOKUP($A11,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Corinto</v>
-      </c>
-      <c r="E11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],5,FALSE),VLOOKUP($A11,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],5,FALSE),VLOOKUP($A11,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Cauca</v>
-      </c>
-      <c r="F11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],6,FALSE),VLOOKUP($A11,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],6,FALSE),VLOOKUP($A11,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>La Campiña</v>
-      </c>
-      <c r="G11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],7,FALSE),VLOOKUP($A11,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],7,FALSE),VLOOKUP($A11,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>Santander de Quilichao</v>
-      </c>
-      <c r="H11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],8,FALSE),VLOOKUP($A11,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],8,FALSE),VLOOKUP($A11,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>Cauca</v>
-      </c>
-      <c r="I11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],9,FALSE),VLOOKUP($A11,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],9,FALSE),VLOOKUP($A11,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>Guaguya</v>
-      </c>
-      <c r="J11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],10,FALSE),VLOOKUP($A11,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],10,FALSE),VLOOKUP($A11,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>Palmira</v>
-      </c>
-      <c r="K11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],11,FALSE),VLOOKUP($A11,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],11,FALSE),VLOOKUP($A11,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>Valle</v>
-      </c>
-      <c r="L11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],12,FALSE),VLOOKUP($A11,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],12,FALSE),VLOOKUP($A11,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Brahman</v>
-      </c>
-      <c r="M11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],13,FALSE),VLOOKUP($A11,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],13,FALSE),VLOOKUP($A11,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 100 # 11 - 90 OF 504</v>
-      </c>
-      <c r="N11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],14,FALSE),VLOOKUP($A11,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],14,FALSE),VLOOKUP($A11,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Cali</v>
-      </c>
-      <c r="O11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],15,FALSE),VLOOKUP($A11,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],15,FALSE),VLOOKUP($A11,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Valle del Cauca</v>
-      </c>
-      <c r="P11">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],16,FALSE),VLOOKUP($A11,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],16,FALSE),VLOOKUP($A11,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3320848</v>
-      </c>
-      <c r="Q11">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],17,FALSE),VLOOKUP($A11,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],17,FALSE),VLOOKUP($A11,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>5504316</v>
-      </c>
-      <c r="R11">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],18,FALSE),VLOOKUP($A11,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],18,FALSE),VLOOKUP($A11,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3321816</v>
-      </c>
-      <c r="S11">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],19,FALSE),VLOOKUP($A11,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],19,FALSE),VLOOKUP($A11,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>3155761864</v>
-      </c>
-      <c r="T11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],20,FALSE),VLOOKUP($A11,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],20,FALSE),VLOOKUP($A11,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],21,FALSE),VLOOKUP($A11,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],21,FALSE),VLOOKUP($A11,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],22,FALSE),VLOOKUP($A11,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],22,FALSE),VLOOKUP($A11,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>hda.garcia@garceseder.com</v>
-      </c>
-      <c r="W11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],23,FALSE),VLOOKUP($A11,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],23,FALSE),VLOOKUP($A11,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],24,FALSE),VLOOKUP($A11,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],24,FALSE),VLOOKUP($A11,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],25,FALSE),VLOOKUP($A11,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],25,FALSE),VLOOKUP($A11,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],26,FALSE),VLOOKUP($A11,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],26,FALSE),VLOOKUP($A11,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],27,FALSE),VLOOKUP($A11,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],27,FALSE),VLOOKUP($A11,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],28,FALSE),VLOOKUP($A11,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],28,FALSE),VLOOKUP($A11,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],29,FALSE),VLOOKUP($A11,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],29,FALSE),VLOOKUP($A11,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>http://www.garciaabajo.com/</v>
-      </c>
-      <c r="AD11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],30,FALSE),VLOOKUP($A11,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],30,FALSE),VLOOKUP($A11,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE11" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],31,FALSE),VLOOKUP($A11,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A11,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A11),CriadoresDirectorio[],31,FALSE),VLOOKUP($A11,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],2,FALSE),VLOOKUP($A12,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],2,FALSE),VLOOKUP($A12,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>INVERSIONES AGROPECUARIA TRIPLE SIETE</v>
-      </c>
-      <c r="C12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],3,FALSE),VLOOKUP($A12,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],3,FALSE),VLOOKUP($A12,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda El Chorro</v>
-      </c>
-      <c r="D12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],4,FALSE),VLOOKUP($A12,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],4,FALSE),VLOOKUP($A12,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Gamarra</v>
-      </c>
-      <c r="E12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],5,FALSE),VLOOKUP($A12,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],5,FALSE),VLOOKUP($A12,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Cesar</v>
-      </c>
-      <c r="F12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],6,FALSE),VLOOKUP($A12,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],6,FALSE),VLOOKUP($A12,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>Hda Arizona</v>
-      </c>
-      <c r="G12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],7,FALSE),VLOOKUP($A12,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],7,FALSE),VLOOKUP($A12,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>Puerto Boyacá</v>
-      </c>
-      <c r="H12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],8,FALSE),VLOOKUP($A12,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],8,FALSE),VLOOKUP($A12,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>Boyacá</v>
-      </c>
-      <c r="I12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],9,FALSE),VLOOKUP($A12,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],9,FALSE),VLOOKUP($A12,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],10,FALSE),VLOOKUP($A12,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],10,FALSE),VLOOKUP($A12,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],11,FALSE),VLOOKUP($A12,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],11,FALSE),VLOOKUP($A12,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],12,FALSE),VLOOKUP($A12,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],12,FALSE),VLOOKUP($A12,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],13,FALSE),VLOOKUP($A12,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],13,FALSE),VLOOKUP($A12,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 48 62 77</v>
-      </c>
-      <c r="N12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],14,FALSE),VLOOKUP($A12,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],14,FALSE),VLOOKUP($A12,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Río Negro</v>
-      </c>
-      <c r="O12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],15,FALSE),VLOOKUP($A12,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],15,FALSE),VLOOKUP($A12,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P12">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],16,FALSE),VLOOKUP($A12,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],16,FALSE),VLOOKUP($A12,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3666479</v>
-      </c>
-      <c r="Q12">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],17,FALSE),VLOOKUP($A12,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],17,FALSE),VLOOKUP($A12,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3148430520</v>
-      </c>
-      <c r="R12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],18,FALSE),VLOOKUP($A12,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],18,FALSE),VLOOKUP($A12,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],19,FALSE),VLOOKUP($A12,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],19,FALSE),VLOOKUP($A12,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],20,FALSE),VLOOKUP($A12,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],20,FALSE),VLOOKUP($A12,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],21,FALSE),VLOOKUP($A12,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],21,FALSE),VLOOKUP($A12,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],22,FALSE),VLOOKUP($A12,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],22,FALSE),VLOOKUP($A12,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>hdaelchorro@gmail.com</v>
-      </c>
-      <c r="W12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],23,FALSE),VLOOKUP($A12,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],23,FALSE),VLOOKUP($A12,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],24,FALSE),VLOOKUP($A12,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],24,FALSE),VLOOKUP($A12,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],25,FALSE),VLOOKUP($A12,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],25,FALSE),VLOOKUP($A12,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],26,FALSE),VLOOKUP($A12,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],26,FALSE),VLOOKUP($A12,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],27,FALSE),VLOOKUP($A12,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],27,FALSE),VLOOKUP($A12,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],28,FALSE),VLOOKUP($A12,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],28,FALSE),VLOOKUP($A12,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],29,FALSE),VLOOKUP($A12,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],29,FALSE),VLOOKUP($A12,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],30,FALSE),VLOOKUP($A12,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],30,FALSE),VLOOKUP($A12,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE12" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],31,FALSE),VLOOKUP($A12,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A12,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A12),CriadoresDirectorio[],31,FALSE),VLOOKUP($A12,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1060</v>
-      </c>
-      <c r="B13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],2,FALSE),VLOOKUP($A13,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],2,FALSE),VLOOKUP($A13,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>AGROGANADERA SILVA PINZÓN Y CÍA S EN C</v>
-      </c>
-      <c r="C13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],3,FALSE),VLOOKUP($A13,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],3,FALSE),VLOOKUP($A13,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Cabezas</v>
-      </c>
-      <c r="D13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],4,FALSE),VLOOKUP($A13,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],4,FALSE),VLOOKUP($A13,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Aguachica</v>
-      </c>
-      <c r="E13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],5,FALSE),VLOOKUP($A13,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],5,FALSE),VLOOKUP($A13,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Cesar</v>
-      </c>
-      <c r="F13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],6,FALSE),VLOOKUP($A13,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],6,FALSE),VLOOKUP($A13,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],7,FALSE),VLOOKUP($A13,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],7,FALSE),VLOOKUP($A13,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],8,FALSE),VLOOKUP($A13,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],8,FALSE),VLOOKUP($A13,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],9,FALSE),VLOOKUP($A13,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],9,FALSE),VLOOKUP($A13,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],10,FALSE),VLOOKUP($A13,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],10,FALSE),VLOOKUP($A13,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],11,FALSE),VLOOKUP($A13,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],11,FALSE),VLOOKUP($A13,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],12,FALSE),VLOOKUP($A13,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],12,FALSE),VLOOKUP($A13,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Asociado Puro, Brahman</v>
-      </c>
-      <c r="M13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],13,FALSE),VLOOKUP($A13,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],13,FALSE),VLOOKUP($A13,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 44 37 14 OF 101 ED SIKASUE</v>
-      </c>
-      <c r="N13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],14,FALSE),VLOOKUP($A13,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],14,FALSE),VLOOKUP($A13,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Bucaramanga</v>
-      </c>
-      <c r="O13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],15,FALSE),VLOOKUP($A13,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],15,FALSE),VLOOKUP($A13,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Santander</v>
-      </c>
-      <c r="P13">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],16,FALSE),VLOOKUP($A13,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],16,FALSE),VLOOKUP($A13,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>6576177</v>
-      </c>
-      <c r="Q13">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],17,FALSE),VLOOKUP($A13,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],17,FALSE),VLOOKUP($A13,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3205245841</v>
-      </c>
-      <c r="R13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],18,FALSE),VLOOKUP($A13,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],18,FALSE),VLOOKUP($A13,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],19,FALSE),VLOOKUP($A13,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],19,FALSE),VLOOKUP($A13,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],20,FALSE),VLOOKUP($A13,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],20,FALSE),VLOOKUP($A13,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],21,FALSE),VLOOKUP($A13,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],21,FALSE),VLOOKUP($A13,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V13" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],22,FALSE),VLOOKUP($A13,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],22,FALSE),VLOOKUP($A13,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>gueyler@hotmail.com</v>
-      </c>
-      <c r="W13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],23,FALSE),VLOOKUP($A13,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],23,FALSE),VLOOKUP($A13,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],24,FALSE),VLOOKUP($A13,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],24,FALSE),VLOOKUP($A13,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],25,FALSE),VLOOKUP($A13,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],25,FALSE),VLOOKUP($A13,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],26,FALSE),VLOOKUP($A13,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],26,FALSE),VLOOKUP($A13,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],27,FALSE),VLOOKUP($A13,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],27,FALSE),VLOOKUP($A13,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],28,FALSE),VLOOKUP($A13,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],28,FALSE),VLOOKUP($A13,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],29,FALSE),VLOOKUP($A13,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],29,FALSE),VLOOKUP($A13,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],30,FALSE),VLOOKUP($A13,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],30,FALSE),VLOOKUP($A13,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE13" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],31,FALSE),VLOOKUP($A13,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A13,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A13),CriadoresDirectorio[],31,FALSE),VLOOKUP($A13,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1226</v>
-      </c>
-      <c r="B14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],2,FALSE),VLOOKUP($A14,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],2,FALSE),VLOOKUP($A14,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>FINCA CAMPO ALEGRE</v>
-      </c>
-      <c r="C14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],3,FALSE),VLOOKUP($A14,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],3,FALSE),VLOOKUP($A14,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Campo Alegre, Vereda Torcoroma</v>
-      </c>
-      <c r="D14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],4,FALSE),VLOOKUP($A14,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],4,FALSE),VLOOKUP($A14,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>San Martín</v>
-      </c>
-      <c r="E14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],5,FALSE),VLOOKUP($A14,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],5,FALSE),VLOOKUP($A14,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Cesar</v>
-      </c>
-      <c r="F14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],6,FALSE),VLOOKUP($A14,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],6,FALSE),VLOOKUP($A14,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],7,FALSE),VLOOKUP($A14,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],7,FALSE),VLOOKUP($A14,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],8,FALSE),VLOOKUP($A14,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],8,FALSE),VLOOKUP($A14,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],9,FALSE),VLOOKUP($A14,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],9,FALSE),VLOOKUP($A14,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],10,FALSE),VLOOKUP($A14,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],10,FALSE),VLOOKUP($A14,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],11,FALSE),VLOOKUP($A14,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],11,FALSE),VLOOKUP($A14,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],12,FALSE),VLOOKUP($A14,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],12,FALSE),VLOOKUP($A14,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Brahman y Gyr</v>
-      </c>
-      <c r="M14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],13,FALSE),VLOOKUP($A14,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],13,FALSE),VLOOKUP($A14,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 17 # 34 - 31</v>
-      </c>
-      <c r="N14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],14,FALSE),VLOOKUP($A14,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],14,FALSE),VLOOKUP($A14,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Bucaramanga</v>
-      </c>
-      <c r="O14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],15,FALSE),VLOOKUP($A14,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],15,FALSE),VLOOKUP($A14,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Santander</v>
-      </c>
-      <c r="P14">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],16,FALSE),VLOOKUP($A14,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],16,FALSE),VLOOKUP($A14,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3157865506</v>
-      </c>
-      <c r="Q14">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],17,FALSE),VLOOKUP($A14,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],17,FALSE),VLOOKUP($A14,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>6303960</v>
-      </c>
-      <c r="R14">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],18,FALSE),VLOOKUP($A14,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],18,FALSE),VLOOKUP($A14,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3158141914</v>
-      </c>
-      <c r="S14">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],19,FALSE),VLOOKUP($A14,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],19,FALSE),VLOOKUP($A14,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>6803000</v>
-      </c>
-      <c r="T14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],20,FALSE),VLOOKUP($A14,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],20,FALSE),VLOOKUP($A14,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],21,FALSE),VLOOKUP($A14,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],21,FALSE),VLOOKUP($A14,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V14" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],22,FALSE),VLOOKUP($A14,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],22,FALSE),VLOOKUP($A14,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>calzadolarebaja@gmail.com</v>
-      </c>
-      <c r="W14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],23,FALSE),VLOOKUP($A14,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],23,FALSE),VLOOKUP($A14,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],24,FALSE),VLOOKUP($A14,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],24,FALSE),VLOOKUP($A14,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],25,FALSE),VLOOKUP($A14,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],25,FALSE),VLOOKUP($A14,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],26,FALSE),VLOOKUP($A14,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],26,FALSE),VLOOKUP($A14,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],27,FALSE),VLOOKUP($A14,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],27,FALSE),VLOOKUP($A14,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],28,FALSE),VLOOKUP($A14,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],28,FALSE),VLOOKUP($A14,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],29,FALSE),VLOOKUP($A14,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],29,FALSE),VLOOKUP($A14,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],30,FALSE),VLOOKUP($A14,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],30,FALSE),VLOOKUP($A14,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE14" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],31,FALSE),VLOOKUP($A14,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A14,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A14),CriadoresDirectorio[],31,FALSE),VLOOKUP($A14,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3062</v>
-      </c>
-      <c r="B15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],2,FALSE),VLOOKUP($A15,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],2,FALSE),VLOOKUP($A15,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>BRAHMAN ABASTECEDORA</v>
-      </c>
-      <c r="C15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],3,FALSE),VLOOKUP($A15,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],3,FALSE),VLOOKUP($A15,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Abastecedora</v>
-      </c>
-      <c r="D15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],4,FALSE),VLOOKUP($A15,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],4,FALSE),VLOOKUP($A15,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Planeta Rica</v>
-      </c>
-      <c r="E15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],5,FALSE),VLOOKUP($A15,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],5,FALSE),VLOOKUP($A15,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Córdoba</v>
-      </c>
-      <c r="F15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],6,FALSE),VLOOKUP($A15,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],6,FALSE),VLOOKUP($A15,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],7,FALSE),VLOOKUP($A15,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],7,FALSE),VLOOKUP($A15,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],8,FALSE),VLOOKUP($A15,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],8,FALSE),VLOOKUP($A15,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],9,FALSE),VLOOKUP($A15,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],9,FALSE),VLOOKUP($A15,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],10,FALSE),VLOOKUP($A15,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],10,FALSE),VLOOKUP($A15,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],11,FALSE),VLOOKUP($A15,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],11,FALSE),VLOOKUP($A15,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],12,FALSE),VLOOKUP($A15,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],12,FALSE),VLOOKUP($A15,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman Gris y Rojo</v>
-      </c>
-      <c r="M15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],13,FALSE),VLOOKUP($A15,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],13,FALSE),VLOOKUP($A15,CriadoresDirectorio[],13,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],14,FALSE),VLOOKUP($A15,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],14,FALSE),VLOOKUP($A15,CriadoresDirectorio[],14,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="O15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],15,FALSE),VLOOKUP($A15,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],15,FALSE),VLOOKUP($A15,CriadoresDirectorio[],15,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="P15">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],16,FALSE),VLOOKUP($A15,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],16,FALSE),VLOOKUP($A15,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3131990</v>
-      </c>
-      <c r="Q15">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],17,FALSE),VLOOKUP($A15,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],17,FALSE),VLOOKUP($A15,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3014581782</v>
-      </c>
-      <c r="R15">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],18,FALSE),VLOOKUP($A15,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],18,FALSE),VLOOKUP($A15,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3017579333</v>
-      </c>
-      <c r="S15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],19,FALSE),VLOOKUP($A15,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],19,FALSE),VLOOKUP($A15,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],20,FALSE),VLOOKUP($A15,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],20,FALSE),VLOOKUP($A15,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],21,FALSE),VLOOKUP($A15,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],21,FALSE),VLOOKUP($A15,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],22,FALSE),VLOOKUP($A15,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],22,FALSE),VLOOKUP($A15,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>abastecedora10@gmail.com</v>
-      </c>
-      <c r="W15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],23,FALSE),VLOOKUP($A15,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],23,FALSE),VLOOKUP($A15,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],24,FALSE),VLOOKUP($A15,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],24,FALSE),VLOOKUP($A15,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],25,FALSE),VLOOKUP($A15,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],25,FALSE),VLOOKUP($A15,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],26,FALSE),VLOOKUP($A15,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],26,FALSE),VLOOKUP($A15,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],27,FALSE),VLOOKUP($A15,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],27,FALSE),VLOOKUP($A15,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],28,FALSE),VLOOKUP($A15,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],28,FALSE),VLOOKUP($A15,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],29,FALSE),VLOOKUP($A15,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],29,FALSE),VLOOKUP($A15,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>http://www.brahmanabastecedora.com</v>
-      </c>
-      <c r="AD15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],30,FALSE),VLOOKUP($A15,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],30,FALSE),VLOOKUP($A15,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE15" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],31,FALSE),VLOOKUP($A15,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A15,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A15),CriadoresDirectorio[],31,FALSE),VLOOKUP($A15,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],2,FALSE),VLOOKUP($A16,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],2,FALSE),VLOOKUP($A16,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>PROYEGAN S.A.S. - HACIENDA CADIZ</v>
-      </c>
-      <c r="C16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],3,FALSE),VLOOKUP($A16,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],3,FALSE),VLOOKUP($A16,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Cádiz</v>
-      </c>
-      <c r="D16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],4,FALSE),VLOOKUP($A16,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],4,FALSE),VLOOKUP($A16,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Lorica</v>
-      </c>
-      <c r="E16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],5,FALSE),VLOOKUP($A16,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],5,FALSE),VLOOKUP($A16,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Córdoba</v>
-      </c>
-      <c r="F16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],6,FALSE),VLOOKUP($A16,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],6,FALSE),VLOOKUP($A16,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],7,FALSE),VLOOKUP($A16,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],7,FALSE),VLOOKUP($A16,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],8,FALSE),VLOOKUP($A16,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],8,FALSE),VLOOKUP($A16,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],9,FALSE),VLOOKUP($A16,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],9,FALSE),VLOOKUP($A16,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],10,FALSE),VLOOKUP($A16,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],10,FALSE),VLOOKUP($A16,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],11,FALSE),VLOOKUP($A16,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],11,FALSE),VLOOKUP($A16,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],12,FALSE),VLOOKUP($A16,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],12,FALSE),VLOOKUP($A16,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],13,FALSE),VLOOKUP($A16,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],13,FALSE),VLOOKUP($A16,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 42 54A 155 AUTOP SUR</v>
-      </c>
-      <c r="N16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],14,FALSE),VLOOKUP($A16,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],14,FALSE),VLOOKUP($A16,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Itagüí</v>
-      </c>
-      <c r="O16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],15,FALSE),VLOOKUP($A16,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],15,FALSE),VLOOKUP($A16,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],16,FALSE),VLOOKUP($A16,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],16,FALSE),VLOOKUP($A16,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3734001Ext.101</v>
-      </c>
-      <c r="Q16">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],17,FALSE),VLOOKUP($A16,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],17,FALSE),VLOOKUP($A16,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3778936</v>
-      </c>
-      <c r="R16">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],18,FALSE),VLOOKUP($A16,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],18,FALSE),VLOOKUP($A16,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3104240789</v>
-      </c>
-      <c r="S16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],19,FALSE),VLOOKUP($A16,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],19,FALSE),VLOOKUP($A16,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],20,FALSE),VLOOKUP($A16,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],20,FALSE),VLOOKUP($A16,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],21,FALSE),VLOOKUP($A16,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],21,FALSE),VLOOKUP($A16,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],22,FALSE),VLOOKUP($A16,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],22,FALSE),VLOOKUP($A16,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>cmvelez@inverjota.com</v>
-      </c>
-      <c r="W16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],23,FALSE),VLOOKUP($A16,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],23,FALSE),VLOOKUP($A16,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],24,FALSE),VLOOKUP($A16,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],24,FALSE),VLOOKUP($A16,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],25,FALSE),VLOOKUP($A16,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],25,FALSE),VLOOKUP($A16,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],26,FALSE),VLOOKUP($A16,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],26,FALSE),VLOOKUP($A16,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],27,FALSE),VLOOKUP($A16,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],27,FALSE),VLOOKUP($A16,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],28,FALSE),VLOOKUP($A16,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],28,FALSE),VLOOKUP($A16,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],29,FALSE),VLOOKUP($A16,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],29,FALSE),VLOOKUP($A16,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],30,FALSE),VLOOKUP($A16,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],30,FALSE),VLOOKUP($A16,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE16" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],31,FALSE),VLOOKUP($A16,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A16,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A16),CriadoresDirectorio[],31,FALSE),VLOOKUP($A16,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1307</v>
-      </c>
-      <c r="B17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],2,FALSE),VLOOKUP($A17,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],2,FALSE),VLOOKUP($A17,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>FUNDACIÓN GRUPO ARGOS</v>
-      </c>
-      <c r="C17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],3,FALSE),VLOOKUP($A17,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],3,FALSE),VLOOKUP($A17,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hdas. Centenario</v>
-      </c>
-      <c r="D17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],4,FALSE),VLOOKUP($A17,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],4,FALSE),VLOOKUP($A17,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Montelíbano</v>
-      </c>
-      <c r="E17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],5,FALSE),VLOOKUP($A17,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],5,FALSE),VLOOKUP($A17,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Córdoba</v>
-      </c>
-      <c r="F17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],6,FALSE),VLOOKUP($A17,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],6,FALSE),VLOOKUP($A17,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>Casanare</v>
-      </c>
-      <c r="G17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],7,FALSE),VLOOKUP($A17,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],7,FALSE),VLOOKUP($A17,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>La Magdalena</v>
-      </c>
-      <c r="H17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],8,FALSE),VLOOKUP($A17,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],8,FALSE),VLOOKUP($A17,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="I17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],9,FALSE),VLOOKUP($A17,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],9,FALSE),VLOOKUP($A17,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],10,FALSE),VLOOKUP($A17,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],10,FALSE),VLOOKUP($A17,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],11,FALSE),VLOOKUP($A17,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],11,FALSE),VLOOKUP($A17,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],12,FALSE),VLOOKUP($A17,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],12,FALSE),VLOOKUP($A17,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],13,FALSE),VLOOKUP($A17,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],13,FALSE),VLOOKUP($A17,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 43 A 1 A SUR 143 ED SANTILLANA</v>
-      </c>
-      <c r="N17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],14,FALSE),VLOOKUP($A17,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],14,FALSE),VLOOKUP($A17,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Medellín</v>
-      </c>
-      <c r="O17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],15,FALSE),VLOOKUP($A17,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],15,FALSE),VLOOKUP($A17,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P17">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],16,FALSE),VLOOKUP($A17,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],16,FALSE),VLOOKUP($A17,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3158400</v>
-      </c>
-      <c r="Q17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],17,FALSE),VLOOKUP($A17,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],17,FALSE),VLOOKUP($A17,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3106200Ext.2100</v>
-      </c>
-      <c r="R17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],18,FALSE),VLOOKUP($A17,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],18,FALSE),VLOOKUP($A17,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>3106202Ext.4512</v>
-      </c>
-      <c r="S17">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],19,FALSE),VLOOKUP($A17,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],19,FALSE),VLOOKUP($A17,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>3136860539</v>
-      </c>
-      <c r="T17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],20,FALSE),VLOOKUP($A17,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],20,FALSE),VLOOKUP($A17,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>(40)3122481505</v>
-      </c>
-      <c r="U17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],21,FALSE),VLOOKUP($A17,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],21,FALSE),VLOOKUP($A17,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],22,FALSE),VLOOKUP($A17,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],22,FALSE),VLOOKUP($A17,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>andres.valderrama@alianzaganadera.co</v>
-      </c>
-      <c r="W17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],23,FALSE),VLOOKUP($A17,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],23,FALSE),VLOOKUP($A17,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>avalderrama@rgrande.co</v>
-      </c>
-      <c r="X17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],24,FALSE),VLOOKUP($A17,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],24,FALSE),VLOOKUP($A17,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],25,FALSE),VLOOKUP($A17,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],25,FALSE),VLOOKUP($A17,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],26,FALSE),VLOOKUP($A17,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],26,FALSE),VLOOKUP($A17,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],27,FALSE),VLOOKUP($A17,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],27,FALSE),VLOOKUP($A17,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],28,FALSE),VLOOKUP($A17,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],28,FALSE),VLOOKUP($A17,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],29,FALSE),VLOOKUP($A17,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],29,FALSE),VLOOKUP($A17,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>http://www.ganaderiariogrande.com</v>
-      </c>
-      <c r="AD17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],30,FALSE),VLOOKUP($A17,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],30,FALSE),VLOOKUP($A17,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE17" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],31,FALSE),VLOOKUP($A17,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A17,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A17),CriadoresDirectorio[],31,FALSE),VLOOKUP($A17,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],2,FALSE),VLOOKUP($A18,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],2,FALSE),VLOOKUP($A18,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>GANADERIA MULTIGANGAS</v>
-      </c>
-      <c r="C18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],3,FALSE),VLOOKUP($A18,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],3,FALSE),VLOOKUP($A18,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda San Miguel</v>
-      </c>
-      <c r="D18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],4,FALSE),VLOOKUP($A18,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],4,FALSE),VLOOKUP($A18,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Planeta Rica</v>
-      </c>
-      <c r="E18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],5,FALSE),VLOOKUP($A18,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],5,FALSE),VLOOKUP($A18,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Córdoba</v>
-      </c>
-      <c r="F18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],6,FALSE),VLOOKUP($A18,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],6,FALSE),VLOOKUP($A18,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],7,FALSE),VLOOKUP($A18,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],7,FALSE),VLOOKUP($A18,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],8,FALSE),VLOOKUP($A18,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],8,FALSE),VLOOKUP($A18,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],9,FALSE),VLOOKUP($A18,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],9,FALSE),VLOOKUP($A18,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],10,FALSE),VLOOKUP($A18,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],10,FALSE),VLOOKUP($A18,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],11,FALSE),VLOOKUP($A18,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],11,FALSE),VLOOKUP($A18,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],12,FALSE),VLOOKUP($A18,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],12,FALSE),VLOOKUP($A18,CriadoresDirectorio[],12,FALSE)))</f>
-        <v xml:space="preserve">Asociado Puro, Brahman </v>
-      </c>
-      <c r="M18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],13,FALSE),VLOOKUP($A18,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],13,FALSE),VLOOKUP($A18,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 50 53 91</v>
-      </c>
-      <c r="N18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],14,FALSE),VLOOKUP($A18,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],14,FALSE),VLOOKUP($A18,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Medellín</v>
-      </c>
-      <c r="O18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],15,FALSE),VLOOKUP($A18,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],15,FALSE),VLOOKUP($A18,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P18">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],16,FALSE),VLOOKUP($A18,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],16,FALSE),VLOOKUP($A18,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>5123333</v>
-      </c>
-      <c r="Q18">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],17,FALSE),VLOOKUP($A18,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],17,FALSE),VLOOKUP($A18,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3146611656</v>
-      </c>
-      <c r="R18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],18,FALSE),VLOOKUP($A18,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],18,FALSE),VLOOKUP($A18,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],19,FALSE),VLOOKUP($A18,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],19,FALSE),VLOOKUP($A18,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],20,FALSE),VLOOKUP($A18,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],20,FALSE),VLOOKUP($A18,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],21,FALSE),VLOOKUP($A18,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],21,FALSE),VLOOKUP($A18,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],22,FALSE),VLOOKUP($A18,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],22,FALSE),VLOOKUP($A18,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>ganaderia@multigangasltda.com</v>
-      </c>
-      <c r="W18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],23,FALSE),VLOOKUP($A18,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],23,FALSE),VLOOKUP($A18,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],24,FALSE),VLOOKUP($A18,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],24,FALSE),VLOOKUP($A18,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],25,FALSE),VLOOKUP($A18,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],25,FALSE),VLOOKUP($A18,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],26,FALSE),VLOOKUP($A18,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],26,FALSE),VLOOKUP($A18,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],27,FALSE),VLOOKUP($A18,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],27,FALSE),VLOOKUP($A18,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],28,FALSE),VLOOKUP($A18,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],28,FALSE),VLOOKUP($A18,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],29,FALSE),VLOOKUP($A18,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],29,FALSE),VLOOKUP($A18,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],30,FALSE),VLOOKUP($A18,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],30,FALSE),VLOOKUP($A18,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE18" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],31,FALSE),VLOOKUP($A18,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A18,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A18),CriadoresDirectorio[],31,FALSE),VLOOKUP($A18,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1415</v>
-      </c>
-      <c r="B19" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],2,FALSE),VLOOKUP($A19,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],2,FALSE),VLOOKUP($A19,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>AGROGANADERÍA LA CAMPANA S.A</v>
-      </c>
-      <c r="C19" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],3,FALSE),VLOOKUP($A19,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],3,FALSE),VLOOKUP($A19,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda La Campana</v>
-      </c>
-      <c r="D19" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],4,FALSE),VLOOKUP($A19,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],4,FALSE),VLOOKUP($A19,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>La Apartada</v>
-      </c>
-      <c r="E19" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],5,FALSE),VLOOKUP($A19,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],5,FALSE),VLOOKUP($A19,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Córdoba</v>
-      </c>
-      <c r="F19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],6,FALSE),VLOOKUP($A19,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],6,FALSE),VLOOKUP($A19,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],7,FALSE),VLOOKUP($A19,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],7,FALSE),VLOOKUP($A19,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],8,FALSE),VLOOKUP($A19,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],8,FALSE),VLOOKUP($A19,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],9,FALSE),VLOOKUP($A19,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],9,FALSE),VLOOKUP($A19,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],10,FALSE),VLOOKUP($A19,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],10,FALSE),VLOOKUP($A19,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],11,FALSE),VLOOKUP($A19,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],11,FALSE),VLOOKUP($A19,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],12,FALSE),VLOOKUP($A19,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],12,FALSE),VLOOKUP($A19,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Brahman Rojo y Gyr</v>
-      </c>
-      <c r="M19" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],13,FALSE),VLOOKUP($A19,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],13,FALSE),VLOOKUP($A19,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 50 # 50 - 28 OF 323 CC EL PARQUE DE ITAGUÍ</v>
-      </c>
-      <c r="N19" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],14,FALSE),VLOOKUP($A19,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],14,FALSE),VLOOKUP($A19,CriadoresDirectorio[],14,FALSE)))</f>
-        <v xml:space="preserve">Itagüi </v>
-      </c>
-      <c r="O19" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],15,FALSE),VLOOKUP($A19,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],15,FALSE),VLOOKUP($A19,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Antioquia</v>
-      </c>
-      <c r="P19">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],16,FALSE),VLOOKUP($A19,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],16,FALSE),VLOOKUP($A19,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3185712210</v>
-      </c>
-      <c r="Q19">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],17,FALSE),VLOOKUP($A19,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],17,FALSE),VLOOKUP($A19,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3165234923</v>
-      </c>
-      <c r="R19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],18,FALSE),VLOOKUP($A19,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],18,FALSE),VLOOKUP($A19,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],19,FALSE),VLOOKUP($A19,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],19,FALSE),VLOOKUP($A19,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],20,FALSE),VLOOKUP($A19,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],20,FALSE),VLOOKUP($A19,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],21,FALSE),VLOOKUP($A19,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],21,FALSE),VLOOKUP($A19,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V19" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],22,FALSE),VLOOKUP($A19,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],22,FALSE),VLOOKUP($A19,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>agrolacampana@hotmail.com</v>
-      </c>
-      <c r="W19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],23,FALSE),VLOOKUP($A19,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],23,FALSE),VLOOKUP($A19,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],24,FALSE),VLOOKUP($A19,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],24,FALSE),VLOOKUP($A19,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],25,FALSE),VLOOKUP($A19,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],25,FALSE),VLOOKUP($A19,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],26,FALSE),VLOOKUP($A19,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],26,FALSE),VLOOKUP($A19,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],27,FALSE),VLOOKUP($A19,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],27,FALSE),VLOOKUP($A19,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],28,FALSE),VLOOKUP($A19,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],28,FALSE),VLOOKUP($A19,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],29,FALSE),VLOOKUP($A19,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],29,FALSE),VLOOKUP($A19,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],30,FALSE),VLOOKUP($A19,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],30,FALSE),VLOOKUP($A19,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE19" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],31,FALSE),VLOOKUP($A19,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A19,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A19),CriadoresDirectorio[],31,FALSE),VLOOKUP($A19,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1144</v>
-      </c>
-      <c r="B20" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],2,FALSE),VLOOKUP($A20,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],2,FALSE),VLOOKUP($A20,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>FRANCISCO MOLINA CASTAÑEDA</v>
-      </c>
-      <c r="C20" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],3,FALSE),VLOOKUP($A20,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],3,FALSE),VLOOKUP($A20,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Corinto, Vereda Leona</v>
-      </c>
-      <c r="D20" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],4,FALSE),VLOOKUP($A20,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],4,FALSE),VLOOKUP($A20,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>San José del Guaviare</v>
-      </c>
-      <c r="E20" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],5,FALSE),VLOOKUP($A20,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],5,FALSE),VLOOKUP($A20,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Guaviare</v>
-      </c>
-      <c r="F20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],6,FALSE),VLOOKUP($A20,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],6,FALSE),VLOOKUP($A20,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],7,FALSE),VLOOKUP($A20,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],7,FALSE),VLOOKUP($A20,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],8,FALSE),VLOOKUP($A20,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],8,FALSE),VLOOKUP($A20,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],9,FALSE),VLOOKUP($A20,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],9,FALSE),VLOOKUP($A20,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],10,FALSE),VLOOKUP($A20,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],10,FALSE),VLOOKUP($A20,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],11,FALSE),VLOOKUP($A20,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],11,FALSE),VLOOKUP($A20,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L20" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],12,FALSE),VLOOKUP($A20,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],12,FALSE),VLOOKUP($A20,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M20" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],13,FALSE),VLOOKUP($A20,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],13,FALSE),VLOOKUP($A20,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 15 44C 132 MZ 2 CA 11 CONJ PORTALES DEL TRAPICHE</v>
-      </c>
-      <c r="N20" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],14,FALSE),VLOOKUP($A20,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],14,FALSE),VLOOKUP($A20,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Villavicencio</v>
-      </c>
-      <c r="O20" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],15,FALSE),VLOOKUP($A20,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],15,FALSE),VLOOKUP($A20,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Meta</v>
-      </c>
-      <c r="P20">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],16,FALSE),VLOOKUP($A20,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],16,FALSE),VLOOKUP($A20,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>6823412</v>
-      </c>
-      <c r="Q20">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],17,FALSE),VLOOKUP($A20,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],17,FALSE),VLOOKUP($A20,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3205993559</v>
-      </c>
-      <c r="R20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],18,FALSE),VLOOKUP($A20,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],18,FALSE),VLOOKUP($A20,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],19,FALSE),VLOOKUP($A20,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],19,FALSE),VLOOKUP($A20,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],20,FALSE),VLOOKUP($A20,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],20,FALSE),VLOOKUP($A20,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],21,FALSE),VLOOKUP($A20,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],21,FALSE),VLOOKUP($A20,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V20" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],22,FALSE),VLOOKUP($A20,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],22,FALSE),VLOOKUP($A20,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>hacienda_corinto@hotmail.com</v>
-      </c>
-      <c r="W20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],23,FALSE),VLOOKUP($A20,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],23,FALSE),VLOOKUP($A20,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],24,FALSE),VLOOKUP($A20,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],24,FALSE),VLOOKUP($A20,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],25,FALSE),VLOOKUP($A20,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],25,FALSE),VLOOKUP($A20,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],26,FALSE),VLOOKUP($A20,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],26,FALSE),VLOOKUP($A20,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],27,FALSE),VLOOKUP($A20,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],27,FALSE),VLOOKUP($A20,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],28,FALSE),VLOOKUP($A20,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],28,FALSE),VLOOKUP($A20,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],29,FALSE),VLOOKUP($A20,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],29,FALSE),VLOOKUP($A20,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],30,FALSE),VLOOKUP($A20,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],30,FALSE),VLOOKUP($A20,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE20" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],31,FALSE),VLOOKUP($A20,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A20,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A20),CriadoresDirectorio[],31,FALSE),VLOOKUP($A20,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1411</v>
-      </c>
-      <c r="B21" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],2,FALSE),VLOOKUP($A21,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],2,FALSE),VLOOKUP($A21,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>MARIA IVONNE BARRERA DE CABRERA</v>
-      </c>
-      <c r="C21" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],3,FALSE),VLOOKUP($A21,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],3,FALSE),VLOOKUP($A21,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Santa Helena</v>
-      </c>
-      <c r="D21" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],4,FALSE),VLOOKUP($A21,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],4,FALSE),VLOOKUP($A21,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Palermo</v>
-      </c>
-      <c r="E21" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],5,FALSE),VLOOKUP($A21,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],5,FALSE),VLOOKUP($A21,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Huila</v>
-      </c>
-      <c r="F21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],6,FALSE),VLOOKUP($A21,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],6,FALSE),VLOOKUP($A21,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],7,FALSE),VLOOKUP($A21,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],7,FALSE),VLOOKUP($A21,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],8,FALSE),VLOOKUP($A21,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],8,FALSE),VLOOKUP($A21,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],9,FALSE),VLOOKUP($A21,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],9,FALSE),VLOOKUP($A21,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],10,FALSE),VLOOKUP($A21,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],10,FALSE),VLOOKUP($A21,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],11,FALSE),VLOOKUP($A21,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],11,FALSE),VLOOKUP($A21,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L21" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],12,FALSE),VLOOKUP($A21,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],12,FALSE),VLOOKUP($A21,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Gyr y Holsten</v>
-      </c>
-      <c r="M21" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],13,FALSE),VLOOKUP($A21,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],13,FALSE),VLOOKUP($A21,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 9 10 07 APTO 601</v>
-      </c>
-      <c r="N21" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],14,FALSE),VLOOKUP($A21,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],14,FALSE),VLOOKUP($A21,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Neiva</v>
-      </c>
-      <c r="O21" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],15,FALSE),VLOOKUP($A21,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],15,FALSE),VLOOKUP($A21,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Huila</v>
-      </c>
-      <c r="P21">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],16,FALSE),VLOOKUP($A21,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],16,FALSE),VLOOKUP($A21,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3167429900</v>
-      </c>
-      <c r="Q21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],17,FALSE),VLOOKUP($A21,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],17,FALSE),VLOOKUP($A21,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],18,FALSE),VLOOKUP($A21,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],18,FALSE),VLOOKUP($A21,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],19,FALSE),VLOOKUP($A21,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],19,FALSE),VLOOKUP($A21,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],20,FALSE),VLOOKUP($A21,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],20,FALSE),VLOOKUP($A21,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],21,FALSE),VLOOKUP($A21,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],21,FALSE),VLOOKUP($A21,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V21" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],22,FALSE),VLOOKUP($A21,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],22,FALSE),VLOOKUP($A21,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>ivonnebarrera106@hotmail.com</v>
-      </c>
-      <c r="W21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],23,FALSE),VLOOKUP($A21,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],23,FALSE),VLOOKUP($A21,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],24,FALSE),VLOOKUP($A21,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],24,FALSE),VLOOKUP($A21,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],25,FALSE),VLOOKUP($A21,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],25,FALSE),VLOOKUP($A21,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],26,FALSE),VLOOKUP($A21,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],26,FALSE),VLOOKUP($A21,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],27,FALSE),VLOOKUP($A21,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],27,FALSE),VLOOKUP($A21,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],28,FALSE),VLOOKUP($A21,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],28,FALSE),VLOOKUP($A21,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],29,FALSE),VLOOKUP($A21,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],29,FALSE),VLOOKUP($A21,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],30,FALSE),VLOOKUP($A21,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],30,FALSE),VLOOKUP($A21,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE21" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],31,FALSE),VLOOKUP($A21,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A21,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A21),CriadoresDirectorio[],31,FALSE),VLOOKUP($A21,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1451</v>
-      </c>
-      <c r="B22" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],2,FALSE),VLOOKUP($A22,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],2,FALSE),VLOOKUP($A22,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>GANADERÍA EL BALÓN</v>
-      </c>
-      <c r="C22" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],3,FALSE),VLOOKUP($A22,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],3,FALSE),VLOOKUP($A22,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Berlín</v>
-      </c>
-      <c r="D22" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],4,FALSE),VLOOKUP($A22,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],4,FALSE),VLOOKUP($A22,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Guamal</v>
-      </c>
-      <c r="E22" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],5,FALSE),VLOOKUP($A22,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],5,FALSE),VLOOKUP($A22,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Magdalena</v>
-      </c>
-      <c r="F22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],6,FALSE),VLOOKUP($A22,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],6,FALSE),VLOOKUP($A22,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],7,FALSE),VLOOKUP($A22,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],7,FALSE),VLOOKUP($A22,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],8,FALSE),VLOOKUP($A22,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],8,FALSE),VLOOKUP($A22,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],9,FALSE),VLOOKUP($A22,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],9,FALSE),VLOOKUP($A22,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],10,FALSE),VLOOKUP($A22,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],10,FALSE),VLOOKUP($A22,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],11,FALSE),VLOOKUP($A22,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],11,FALSE),VLOOKUP($A22,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L22" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],12,FALSE),VLOOKUP($A22,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],12,FALSE),VLOOKUP($A22,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M22" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],13,FALSE),VLOOKUP($A22,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],13,FALSE),VLOOKUP($A22,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CL 152 A 14 A 36 TO 3 APTO 711</v>
-      </c>
-      <c r="N22" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],14,FALSE),VLOOKUP($A22,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],14,FALSE),VLOOKUP($A22,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Bogotá D.C</v>
-      </c>
-      <c r="O22" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],15,FALSE),VLOOKUP($A22,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],15,FALSE),VLOOKUP($A22,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Cundinamarca</v>
-      </c>
-      <c r="P22">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],16,FALSE),VLOOKUP($A22,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],16,FALSE),VLOOKUP($A22,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>8149461</v>
-      </c>
-      <c r="Q22">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],17,FALSE),VLOOKUP($A22,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],17,FALSE),VLOOKUP($A22,CriadoresDirectorio[],17,FALSE)))</f>
-        <v>3202112059</v>
-      </c>
-      <c r="R22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],18,FALSE),VLOOKUP($A22,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],18,FALSE),VLOOKUP($A22,CriadoresDirectorio[],18,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],19,FALSE),VLOOKUP($A22,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],19,FALSE),VLOOKUP($A22,CriadoresDirectorio[],19,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],20,FALSE),VLOOKUP($A22,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],20,FALSE),VLOOKUP($A22,CriadoresDirectorio[],20,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],21,FALSE),VLOOKUP($A22,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],21,FALSE),VLOOKUP($A22,CriadoresDirectorio[],21,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V22" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],22,FALSE),VLOOKUP($A22,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],22,FALSE),VLOOKUP($A22,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>lu_ehrhardt@yahoo.com</v>
-      </c>
-      <c r="W22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],23,FALSE),VLOOKUP($A22,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],23,FALSE),VLOOKUP($A22,CriadoresDirectorio[],23,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],24,FALSE),VLOOKUP($A22,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],24,FALSE),VLOOKUP($A22,CriadoresDirectorio[],24,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],25,FALSE),VLOOKUP($A22,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],25,FALSE),VLOOKUP($A22,CriadoresDirectorio[],25,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],26,FALSE),VLOOKUP($A22,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],26,FALSE),VLOOKUP($A22,CriadoresDirectorio[],26,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],27,FALSE),VLOOKUP($A22,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],27,FALSE),VLOOKUP($A22,CriadoresDirectorio[],27,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],28,FALSE),VLOOKUP($A22,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],28,FALSE),VLOOKUP($A22,CriadoresDirectorio[],28,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],29,FALSE),VLOOKUP($A22,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],29,FALSE),VLOOKUP($A22,CriadoresDirectorio[],29,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],30,FALSE),VLOOKUP($A22,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],30,FALSE),VLOOKUP($A22,CriadoresDirectorio[],30,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE22" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],31,FALSE),VLOOKUP($A22,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A22,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A22),CriadoresDirectorio[],31,FALSE),VLOOKUP($A22,CriadoresDirectorio[],31,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],2,FALSE),VLOOKUP($A23,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],2,FALSE),VLOOKUP($A23,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>INVERSIONES EL PENSAMIENTO SAS</v>
-      </c>
-      <c r="C23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],3,FALSE),VLOOKUP($A23,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],3,FALSE),VLOOKUP($A23,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda Iratama</v>
-      </c>
-      <c r="D23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],4,FALSE),VLOOKUP($A23,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],4,FALSE),VLOOKUP($A23,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Villavicencio</v>
-      </c>
-      <c r="E23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],5,FALSE),VLOOKUP($A23,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],5,FALSE),VLOOKUP($A23,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Meta</v>
-      </c>
-      <c r="F23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],6,FALSE),VLOOKUP($A23,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],6,FALSE),VLOOKUP($A23,CriadoresDirectorio[],6,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="G23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],7,FALSE),VLOOKUP($A23,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],7,FALSE),VLOOKUP($A23,CriadoresDirectorio[],7,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],8,FALSE),VLOOKUP($A23,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],8,FALSE),VLOOKUP($A23,CriadoresDirectorio[],8,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],9,FALSE),VLOOKUP($A23,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],9,FALSE),VLOOKUP($A23,CriadoresDirectorio[],9,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="J23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],10,FALSE),VLOOKUP($A23,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],10,FALSE),VLOOKUP($A23,CriadoresDirectorio[],10,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="K23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],11,FALSE),VLOOKUP($A23,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],11,FALSE),VLOOKUP($A23,CriadoresDirectorio[],11,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="L23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],12,FALSE),VLOOKUP($A23,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],12,FALSE),VLOOKUP($A23,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],13,FALSE),VLOOKUP($A23,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],13,FALSE),VLOOKUP($A23,CriadoresDirectorio[],13,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="N23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],14,FALSE),VLOOKUP($A23,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],14,FALSE),VLOOKUP($A23,CriadoresDirectorio[],14,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="O23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],15,FALSE),VLOOKUP($A23,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],15,FALSE),VLOOKUP($A23,CriadoresDirectorio[],15,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="P23">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],16,FALSE),VLOOKUP($A23,CriadoresDirectorio[],16,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],16,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],16,FALSE),VLOOKUP($A23,CriadoresDirectorio[],16,FALSE)))</f>
-        <v>3132089677</v>
-      </c>
-      <c r="Q23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],17,FALSE),VLOOKUP($A23,CriadoresDirectorio[],17,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],17,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],17,FALSE),VLOOKUP($A23,CriadoresDirectorio[],17,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="R23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],18,FALSE),VLOOKUP($A23,CriadoresDirectorio[],18,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],18,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],18,FALSE),VLOOKUP($A23,CriadoresDirectorio[],18,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="S23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],19,FALSE),VLOOKUP($A23,CriadoresDirectorio[],19,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],19,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],19,FALSE),VLOOKUP($A23,CriadoresDirectorio[],19,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="T23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],20,FALSE),VLOOKUP($A23,CriadoresDirectorio[],20,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],20,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],20,FALSE),VLOOKUP($A23,CriadoresDirectorio[],20,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="U23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],21,FALSE),VLOOKUP($A23,CriadoresDirectorio[],21,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],21,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],21,FALSE),VLOOKUP($A23,CriadoresDirectorio[],21,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="V23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],22,FALSE),VLOOKUP($A23,CriadoresDirectorio[],22,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],22,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],22,FALSE),VLOOKUP($A23,CriadoresDirectorio[],22,FALSE)))</f>
-        <v>andresarangosalazar@gmail.com</v>
-      </c>
-      <c r="W23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],23,FALSE),VLOOKUP($A23,CriadoresDirectorio[],23,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],23,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],23,FALSE),VLOOKUP($A23,CriadoresDirectorio[],23,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="X23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],24,FALSE),VLOOKUP($A23,CriadoresDirectorio[],24,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],24,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],24,FALSE),VLOOKUP($A23,CriadoresDirectorio[],24,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Y23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],25,FALSE),VLOOKUP($A23,CriadoresDirectorio[],25,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],25,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],25,FALSE),VLOOKUP($A23,CriadoresDirectorio[],25,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="Z23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],26,FALSE),VLOOKUP($A23,CriadoresDirectorio[],26,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],26,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],26,FALSE),VLOOKUP($A23,CriadoresDirectorio[],26,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AA23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],27,FALSE),VLOOKUP($A23,CriadoresDirectorio[],27,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],27,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],27,FALSE),VLOOKUP($A23,CriadoresDirectorio[],27,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AB23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],28,FALSE),VLOOKUP($A23,CriadoresDirectorio[],28,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],28,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],28,FALSE),VLOOKUP($A23,CriadoresDirectorio[],28,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AC23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],29,FALSE),VLOOKUP($A23,CriadoresDirectorio[],29,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],29,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],29,FALSE),VLOOKUP($A23,CriadoresDirectorio[],29,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AD23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],30,FALSE),VLOOKUP($A23,CriadoresDirectorio[],30,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],30,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],30,FALSE),VLOOKUP($A23,CriadoresDirectorio[],30,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="AE23" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],31,FALSE),VLOOKUP($A23,CriadoresDirectorio[],31,FALSE))=0,"",IF(IFERROR(VLOOKUP($A23,CriadoresDirectorio[],31,FALSE),"")="",VLOOKUP(TRIM($A23),CriadoresDirectorio[],31,FALSE),VLOOKUP($A23,CriadoresDirectorio[],31,FALSE)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1124</v>
-      </c>
-      <c r="B24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],2,FALSE),VLOOKUP($A24,CriadoresDirectorio[],2,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],2,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],2,FALSE),VLOOKUP($A24,CriadoresDirectorio[],2,FALSE)))</f>
-        <v>SONIA DEL PILAR BUITRAGO BERNAL</v>
-      </c>
-      <c r="C24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],3,FALSE),VLOOKUP($A24,CriadoresDirectorio[],3,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],3,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],3,FALSE),VLOOKUP($A24,CriadoresDirectorio[],3,FALSE)))</f>
-        <v>Hda San Miguel</v>
-      </c>
-      <c r="D24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],4,FALSE),VLOOKUP($A24,CriadoresDirectorio[],4,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],4,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],4,FALSE),VLOOKUP($A24,CriadoresDirectorio[],4,FALSE)))</f>
-        <v>Villavicencio</v>
-      </c>
-      <c r="E24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],5,FALSE),VLOOKUP($A24,CriadoresDirectorio[],5,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],5,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],5,FALSE),VLOOKUP($A24,CriadoresDirectorio[],5,FALSE)))</f>
-        <v>Meta</v>
-      </c>
-      <c r="F24" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],6,FALSE),VLOOKUP($A24,CriadoresDirectorio[],6,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],6,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],6,FALSE),VLOOKUP($A24,CriadoresDirectorio[],6,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G24" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],7,FALSE),VLOOKUP($A24,CriadoresDirectorio[],7,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],7,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],7,FALSE),VLOOKUP($A24,CriadoresDirectorio[],7,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H24" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],8,FALSE),VLOOKUP($A24,CriadoresDirectorio[],8,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],8,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],8,FALSE),VLOOKUP($A24,CriadoresDirectorio[],8,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I24" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],9,FALSE),VLOOKUP($A24,CriadoresDirectorio[],9,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],9,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],9,FALSE),VLOOKUP($A24,CriadoresDirectorio[],9,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J24" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],10,FALSE),VLOOKUP($A24,CriadoresDirectorio[],10,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],10,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],10,FALSE),VLOOKUP($A24,CriadoresDirectorio[],10,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K24" t="e">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],11,FALSE),VLOOKUP($A24,CriadoresDirectorio[],11,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],11,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],11,FALSE),VLOOKUP($A24,CriadoresDirectorio[],11,FALSE)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],12,FALSE),VLOOKUP($A24,CriadoresDirectorio[],12,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],12,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],12,FALSE),VLOOKUP($A24,CriadoresDirectorio[],12,FALSE)))</f>
-        <v>Ganado Puro, Brahman</v>
-      </c>
-      <c r="M24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],13,FALSE),VLOOKUP($A24,CriadoresDirectorio[],13,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],13,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],13,FALSE),VLOOKUP($A24,CriadoresDirectorio[],13,FALSE)))</f>
-        <v>CR 19A - 79 - 18 OF 401</v>
-      </c>
-      <c r="N24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],14,FALSE),VLOOKUP($A24,CriadoresDirectorio[],14,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],14,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],14,FALSE),VLOOKUP($A24,CriadoresDirectorio[],14,FALSE)))</f>
-        <v>Bogotá D.C</v>
-      </c>
-      <c r="O24" t="str">
-        <f>+IF(IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],15,FALSE),VLOOKUP($A24,CriadoresDirectorio[],15,FALSE))=0,"",IF(IFERROR(VLOOKUP($A24,CriadoresDirectorio[],15,FALSE),"")="",VLOOKUP(TRIM($A24),CriadoresDirectorio[],15,FALSE),VLOOKUP($A24,CriadoresDirectorio[],15,FALSE)))</f>
-        <v>Cundinamarca</v>
